--- a/extenedResult.xlsx
+++ b/extenedResult.xlsx
@@ -485,7 +485,7 @@
         <v>-5019.5682133</v>
       </c>
       <c r="C2">
-        <v>6471.7420428938</v>
+        <v>6598.81410477287</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -503,10 +503,10 @@
         <v>-1250</v>
       </c>
       <c r="I2">
-        <v>-225.473205581395</v>
+        <v>-360.297674418605</v>
       </c>
       <c r="J2">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -517,7 +517,7 @@
         <v>-4544.34694195</v>
       </c>
       <c r="C3">
-        <v>5996.06225991589</v>
+        <v>6124.08120551589</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>-1250</v>
       </c>
       <c r="I3">
-        <v>-224.933670697674</v>
+        <v>-360.762790697674</v>
       </c>
       <c r="J3">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -549,7 +549,7 @@
         <v>-4069.1256706</v>
       </c>
       <c r="C4">
-        <v>5520.38247693798</v>
+        <v>5649.34830625891</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -567,10 +567,10 @@
         <v>-1250</v>
       </c>
       <c r="I4">
-        <v>-224.394135813954</v>
+        <v>-361.227906976744</v>
       </c>
       <c r="J4">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -581,7 +581,7 @@
         <v>-4794.1663123</v>
       </c>
       <c r="C5">
-        <v>6244.96460701008</v>
+        <v>6374.87732005194</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>-1250</v>
       </c>
       <c r="I5">
-        <v>-223.854600930233</v>
+        <v>-361.693023255814</v>
       </c>
       <c r="J5">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -613,7 +613,7 @@
         <v>-5519.206954</v>
       </c>
       <c r="C6">
-        <v>6969.54673708217</v>
+        <v>7100.40633384496</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>-1250</v>
       </c>
       <c r="I6">
-        <v>-223.315066046512</v>
+        <v>-362.158139534884</v>
       </c>
       <c r="J6">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -645,7 +645,7 @@
         <v>-5294.22133745</v>
       </c>
       <c r="C7">
-        <v>6744.10260890426</v>
+        <v>6875.90908938798</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -663,10 +663,10 @@
         <v>-1250</v>
       </c>
       <c r="I7">
-        <v>-222.775531162791</v>
+        <v>-362.623255813954</v>
       </c>
       <c r="J7">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -677,7 +677,7 @@
         <v>-5069.2357209</v>
       </c>
       <c r="C8">
-        <v>6518.65848072636</v>
+        <v>6651.41184493101</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>-1250</v>
       </c>
       <c r="I8">
-        <v>-222.23599627907</v>
+        <v>-363.088372093023</v>
       </c>
       <c r="J8">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -709,7 +709,7 @@
         <v>-5036.7726831</v>
       </c>
       <c r="C9">
-        <v>6491.34809408915</v>
+        <v>6619.43717922403</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>-1250</v>
       </c>
       <c r="I9">
-        <v>-227.649949767442</v>
+        <v>-363.553488372093</v>
       </c>
       <c r="J9">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -741,7 +741,7 @@
         <v>-5004.3096453</v>
       </c>
       <c r="C10">
-        <v>6503.32219927909</v>
+        <v>6629.55258673956</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>-1250</v>
       </c>
       <c r="I10">
-        <v>-220.319717209302</v>
+        <v>-354.251162790698</v>
       </c>
       <c r="J10">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -773,7 +773,7 @@
         <v>-4977.0021497</v>
       </c>
       <c r="C11">
-        <v>6592.54394828605</v>
+        <v>6717.61703342093</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>-1250</v>
       </c>
       <c r="I11">
-        <v>-215.50111255814</v>
+        <v>-348.204651162791</v>
       </c>
       <c r="J11">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -805,7 +805,7 @@
         <v>-4949.6946541</v>
       </c>
       <c r="C12">
-        <v>6567.55235966279</v>
+        <v>6690.06535177442</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>-1250</v>
       </c>
       <c r="I12">
-        <v>-217.984833488372</v>
+        <v>-347.972093023256</v>
       </c>
       <c r="J12">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -837,7 +837,7 @@
         <v>-5159.63862545</v>
       </c>
       <c r="C13">
-        <v>6779.81223798954</v>
+        <v>6899.76513707791</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>-1250</v>
       </c>
       <c r="I13">
-        <v>-220.468554418605</v>
+        <v>-347.739534883721</v>
       </c>
       <c r="J13">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -869,7 +869,7 @@
         <v>-5569.5825968</v>
       </c>
       <c r="C14">
-        <v>7188.56513957209</v>
+        <v>7309.46492238139</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>-1250</v>
       </c>
       <c r="I14">
-        <v>-219.231345116279</v>
+        <v>-347.506976744186</v>
       </c>
       <c r="J14">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -901,7 +901,7 @@
         <v>-5124.67642385</v>
       </c>
       <c r="C15">
-        <v>6745.85270352384</v>
+        <v>6864.19239330988</v>
       </c>
       <c r="D15">
         <v>0.122170075</v>
@@ -919,10 +919,10 @@
         <v>-1250</v>
       </c>
       <c r="I15">
-        <v>-221.715066046512</v>
+        <v>-347.274418604651</v>
       </c>
       <c r="J15">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -933,7 +933,7 @@
         <v>-4879.7702509</v>
       </c>
       <c r="C16">
-        <v>6468.04491863837</v>
+        <v>6590.83846888953</v>
       </c>
       <c r="D16">
         <v>0.24434015</v>
@@ -951,10 +951,10 @@
         <v>-1250</v>
       </c>
       <c r="I16">
-        <v>-190.012740465116</v>
+        <v>-320.297674418605</v>
       </c>
       <c r="J16">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -965,7 +965,7 @@
         <v>-5374.94335435</v>
       </c>
       <c r="C17">
-        <v>6961.49417751047</v>
+        <v>7084.32779146395</v>
       </c>
       <c r="D17">
         <v>1.5096731</v>
@@ -983,10 +983,10 @@
         <v>-1250</v>
       </c>
       <c r="I17">
-        <v>-189.473205581395</v>
+        <v>-319.80064744186</v>
       </c>
       <c r="J17">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -997,7 +997,7 @@
         <v>-5120.1164578</v>
       </c>
       <c r="C18">
-        <v>6704.94343638256</v>
+        <v>6827.94784010349</v>
       </c>
       <c r="D18">
         <v>2.77500605</v>
@@ -1015,10 +1015,10 @@
         <v>-1250</v>
       </c>
       <c r="I18">
-        <v>-188.933670697674</v>
+        <v>-319.442321860465</v>
       </c>
       <c r="J18">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1029,7 +1029,7 @@
         <v>-5132.89342325</v>
       </c>
       <c r="C19">
-        <v>6714.07674175465</v>
+        <v>6836.55053989419</v>
       </c>
       <c r="D19">
         <v>5.9601545</v>
@@ -1047,10 +1047,10 @@
         <v>-1250</v>
       </c>
       <c r="I19">
-        <v>-188.394135813954</v>
+        <v>-318.339810232558</v>
       </c>
       <c r="J19">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1061,7 +1061,7 @@
         <v>-4495.6703887</v>
       </c>
       <c r="C20">
-        <v>6049.49283782442</v>
+        <v>6170.20858852209</v>
       </c>
       <c r="D20">
         <v>9.14530295</v>
@@ -1079,10 +1079,10 @@
         <v>-1250</v>
       </c>
       <c r="I20">
-        <v>-165.342973023256</v>
+        <v>-293.423345116279</v>
       </c>
       <c r="J20">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1093,7 +1093,7 @@
         <v>-4455.4487829</v>
       </c>
       <c r="C21">
-        <v>6006.81876301186</v>
+        <v>6124.72437324442</v>
       </c>
       <c r="D21">
         <v>13.94484173</v>
@@ -1111,10 +1111,10 @@
         <v>-1250</v>
       </c>
       <c r="I21">
-        <v>-167.780182325581</v>
+        <v>-292.878973023256</v>
       </c>
       <c r="J21">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1125,7 +1125,7 @@
         <v>-4415.2271771</v>
       </c>
       <c r="C22">
-        <v>5961.33910681395</v>
+        <v>6076.4345765814</v>
       </c>
       <c r="D22">
         <v>18.7443805</v>
@@ -1143,10 +1143,10 @@
         <v>-1250</v>
       </c>
       <c r="I22">
-        <v>-167.24064744186</v>
+        <v>-289.357856744186</v>
       </c>
       <c r="J22">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1157,7 +1157,7 @@
         <v>-4170.76220885</v>
       </c>
       <c r="C23">
-        <v>5711.75029813023</v>
+        <v>5824.56167394419</v>
       </c>
       <c r="D23">
         <v>26.91668605</v>
@@ -1175,10 +1175,10 @@
         <v>-1250</v>
       </c>
       <c r="I23">
-        <v>-170.422042790698</v>
+        <v>-290.115810232558</v>
       </c>
       <c r="J23">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1189,7 +1189,7 @@
         <v>-3926.2972406</v>
       </c>
       <c r="C24">
-        <v>5458.65451270233</v>
+        <v>5569.88318991163</v>
       </c>
       <c r="D24">
         <v>35.0889916</v>
@@ -1207,10 +1207,10 @@
         <v>-1250</v>
       </c>
       <c r="I24">
-        <v>-169.882507906977</v>
+        <v>-287.897019534884</v>
       </c>
       <c r="J24">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1221,7 +1221,7 @@
         <v>-4086.1920182</v>
       </c>
       <c r="C25">
-        <v>5608.6913593686</v>
+        <v>5720.26617518256</v>
       </c>
       <c r="D25">
         <v>47.99538765</v>
@@ -1239,10 +1239,10 @@
         <v>-1250</v>
       </c>
       <c r="I25">
-        <v>-173.063903255814</v>
+        <v>-291.445670697674</v>
       </c>
       <c r="J25">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1253,7 +1253,7 @@
         <v>-4246.0867958</v>
       </c>
       <c r="C26">
-        <v>5755.2212292907</v>
+        <v>5867.1421837093</v>
       </c>
       <c r="D26">
         <v>60.9017837</v>
@@ -1271,10 +1271,10 @@
         <v>-1250</v>
       </c>
       <c r="I26">
-        <v>-172.524368372093</v>
+        <v>-291.273391627907</v>
       </c>
       <c r="J26">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1285,7 +1285,7 @@
         <v>-4150.79081215</v>
       </c>
       <c r="C27">
-        <v>5649.47828037698</v>
+        <v>5759.24314549326</v>
       </c>
       <c r="D27">
         <v>74.39721408</v>
@@ -1303,10 +1303,10 @@
         <v>-1250</v>
       </c>
       <c r="I27">
-        <v>-175.70576372093</v>
+        <v>-292.167159069767</v>
       </c>
       <c r="J27">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1317,7 +1317,7 @@
         <v>-4055.4948285</v>
       </c>
       <c r="C28">
-        <v>5543.73533147326</v>
+        <v>5650.31761519419</v>
       </c>
       <c r="D28">
         <v>87.89264445000001</v>
@@ -1335,10 +1335,10 @@
         <v>-1250</v>
       </c>
       <c r="I28">
-        <v>-178.887159069767</v>
+        <v>-291.971810232558</v>
       </c>
       <c r="J28">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1349,7 +1349,7 @@
         <v>-4050.3125747</v>
       </c>
       <c r="C29">
-        <v>5515.44074309535</v>
+        <v>5622.34742216512</v>
       </c>
       <c r="D29">
         <v>110.5464674</v>
@@ -1367,10 +1367,10 @@
         <v>-1250</v>
       </c>
       <c r="I29">
-        <v>-178.347624186047</v>
+        <v>-291.776461395349</v>
       </c>
       <c r="J29">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1381,7 +1381,7 @@
         <v>-4045.1303209</v>
       </c>
       <c r="C30">
-        <v>5487.14615466744</v>
+        <v>5594.37722908605</v>
       </c>
       <c r="D30">
         <v>133.2002904</v>
@@ -1399,10 +1399,10 @@
         <v>-1250</v>
       </c>
       <c r="I30">
-        <v>-177.808089302326</v>
+        <v>-291.58111255814</v>
       </c>
       <c r="J30">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1413,7 +1413,7 @@
         <v>-4353.723751</v>
       </c>
       <c r="C31">
-        <v>5746.62374793256</v>
+        <v>5854.1792177</v>
       </c>
       <c r="D31">
         <v>160.9459877</v>
@@ -1431,10 +1431,10 @@
         <v>-1250</v>
       </c>
       <c r="I31">
-        <v>-157.733670697674</v>
+        <v>-271.85088</v>
       </c>
       <c r="J31">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1445,7 +1445,7 @@
         <v>-4662.3171811</v>
       </c>
       <c r="C32">
-        <v>6027.01296910465</v>
+        <v>6134.89283422093</v>
       </c>
       <c r="D32">
         <v>188.691685</v>
@@ -1463,10 +1463,10 @@
         <v>-1250</v>
       </c>
       <c r="I32">
-        <v>-157.194135813953</v>
+        <v>-271.655531162791</v>
       </c>
       <c r="J32">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1477,7 +1477,7 @@
         <v>-4760.78065825</v>
       </c>
       <c r="C33">
-        <v>6110.39243102674</v>
+        <v>6218.59669149186</v>
       </c>
       <c r="D33">
         <v>203.3171886</v>
@@ -1495,10 +1495,10 @@
         <v>-1250</v>
       </c>
       <c r="I33">
-        <v>-156.654600930233</v>
+        <v>-271.460182325581</v>
       </c>
       <c r="J33">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1509,7 +1509,7 @@
         <v>-4859.2441354</v>
       </c>
       <c r="C34">
-        <v>4897.27886979302</v>
+        <v>5005.80752560698</v>
       </c>
       <c r="D34">
         <v>217.9426921</v>
@@ -1527,10 +1527,10 @@
         <v>-625</v>
       </c>
       <c r="I34">
-        <v>-159.83599627907</v>
+        <v>-274.98576372093</v>
       </c>
       <c r="J34">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1541,7 +1541,7 @@
         <v>-4867.53360225</v>
       </c>
       <c r="C35">
-        <v>3813.3452952593</v>
+        <v>3922.19834642209</v>
       </c>
       <c r="D35">
         <v>238.2141986</v>
@@ -1556,13 +1556,13 @@
         <v>-0</v>
       </c>
       <c r="H35">
-        <v>-5.6843418860808e-14</v>
+        <v>-0</v>
       </c>
       <c r="I35">
-        <v>-163.017391627907</v>
+        <v>-278.511345116279</v>
       </c>
       <c r="J35">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1573,7 +1573,7 @@
         <v>-4875.8230691</v>
       </c>
       <c r="C36">
-        <v>3829.25813943023</v>
+        <v>3938.43558594186</v>
       </c>
       <c r="D36">
         <v>258.485705</v>
@@ -1591,10 +1591,10 @@
         <v>-0</v>
       </c>
       <c r="I36">
-        <v>-189.862042790698</v>
+        <v>-305.700182325581</v>
       </c>
       <c r="J36">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1605,7 +1605,7 @@
         <v>-5144.8789446</v>
       </c>
       <c r="C37">
-        <v>4108.9359199186</v>
+        <v>4216.54426086744</v>
       </c>
       <c r="D37">
         <v>265.5497535</v>
@@ -1623,10 +1623,10 @@
         <v>-0</v>
       </c>
       <c r="I37">
-        <v>-206.983903255814</v>
+        <v>-321.157209302326</v>
       </c>
       <c r="J37">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1637,7 +1637,7 @@
         <v>-5193.9348201</v>
       </c>
       <c r="C38">
-        <v>4161.5997470186</v>
+        <v>4271.42598422791</v>
       </c>
       <c r="D38">
         <v>272.6138019</v>
@@ -1655,10 +1655,10 @@
         <v>-0</v>
       </c>
       <c r="I38">
-        <v>-216.663903255814</v>
+        <v>-333.190414883721</v>
       </c>
       <c r="J38">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1669,7 +1669,7 @@
         <v>-5193.0984044</v>
       </c>
       <c r="C39">
-        <v>4135.47847859767</v>
+        <v>4245.62911115581</v>
       </c>
       <c r="D39">
         <v>286.3972045</v>
@@ -1687,10 +1687,10 @@
         <v>-0</v>
       </c>
       <c r="I39">
-        <v>-205.385972093023</v>
+        <v>-322.256669767442</v>
       </c>
       <c r="J39">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1701,7 +1701,7 @@
         <v>-5292.2619887</v>
       </c>
       <c r="C40">
-        <v>4237.99379601163</v>
+        <v>4349.17021926744</v>
       </c>
       <c r="D40">
         <v>300.1806072</v>
@@ -1719,10 +1719,10 @@
         <v>-0</v>
       </c>
       <c r="I40">
-        <v>-221.831739534884</v>
+        <v>-339.790809302326</v>
       </c>
       <c r="J40">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1733,7 +1733,7 @@
         <v>-5141.5971712</v>
       </c>
       <c r="C41">
-        <v>4062.97792013488</v>
+        <v>4175.00478525116</v>
       </c>
       <c r="D41">
         <v>310.2596386</v>
@@ -1751,10 +1751,10 @@
         <v>-0</v>
       </c>
       <c r="I41">
-        <v>-207.604018604651</v>
+        <v>-326.465413953488</v>
       </c>
       <c r="J41">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1765,7 +1765,7 @@
         <v>-5190.9323537</v>
       </c>
       <c r="C42">
-        <v>4136.79925356046</v>
+        <v>4251.78074658372</v>
       </c>
       <c r="D42">
         <v>320.33867</v>
@@ -1783,10 +1783,10 @@
         <v>-0</v>
       </c>
       <c r="I42">
-        <v>-239.887925581395</v>
+        <v>-361.884204651163</v>
       </c>
       <c r="J42">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1797,7 +1797,7 @@
         <v>-5340.61608455</v>
       </c>
       <c r="C43">
-        <v>4314.04246589651</v>
+        <v>4430.92649380349</v>
       </c>
       <c r="D43">
         <v>327.3678127</v>
@@ -1815,10 +1815,10 @@
         <v>-0</v>
       </c>
       <c r="I43">
-        <v>-272.194158139535</v>
+        <v>-396.209041860465</v>
       </c>
       <c r="J43">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1829,7 +1829,7 @@
         <v>-5690.2998154</v>
       </c>
       <c r="C44">
-        <v>4698.14944894884</v>
+        <v>4818.68950011163</v>
       </c>
       <c r="D44">
         <v>334.3969554</v>
@@ -1847,10 +1847,10 @@
         <v>-0</v>
       </c>
       <c r="I44">
-        <v>-311.782906046512</v>
+        <v>-439.676859534884</v>
       </c>
       <c r="J44">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1861,7 +1861,7 @@
         <v>-5414.99843145</v>
       </c>
       <c r="C45">
-        <v>4421.20907181512</v>
+        <v>4557.17687128488</v>
       </c>
       <c r="D45">
         <v>336.1116997</v>
@@ -1879,10 +1879,10 @@
         <v>-0</v>
       </c>
       <c r="I45">
-        <v>-311.251501395349</v>
+        <v>-455.514418604651</v>
       </c>
       <c r="J45">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1893,7 +1893,7 @@
         <v>-5339.6970475</v>
       </c>
       <c r="C46">
-        <v>4344.2686946814</v>
+        <v>4483.58909728605</v>
       </c>
       <c r="D46">
         <v>337.826444</v>
@@ -1911,10 +1911,10 @@
         <v>-0</v>
       </c>
       <c r="I46">
-        <v>-310.720096744186</v>
+        <v>-458.54015255814</v>
       </c>
       <c r="J46">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1925,7 +1925,7 @@
         <v>-5664.0792272</v>
       </c>
       <c r="C47">
-        <v>4663.83384682093</v>
+        <v>4804.62002542558</v>
       </c>
       <c r="D47">
         <v>343.8913157</v>
@@ -1943,10 +1943,10 @@
         <v>-0</v>
       </c>
       <c r="I47">
-        <v>-311.304971162791</v>
+        <v>-460.680226976744</v>
       </c>
       <c r="J47">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1957,7 +1957,7 @@
         <v>-5588.4614069</v>
       </c>
       <c r="C48">
-        <v>4583.39899896047</v>
+        <v>4725.65095356512</v>
       </c>
       <c r="D48">
         <v>349.9561874</v>
@@ -1975,10 +1975,10 @@
         <v>-0</v>
       </c>
       <c r="I48">
-        <v>-311.889845581395</v>
+        <v>-462.820301395349</v>
       </c>
       <c r="J48">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1989,7 +1989,7 @@
         <v>-5460.2655999</v>
       </c>
       <c r="C49">
-        <v>4458.55674422558</v>
+        <v>4603.63798738837</v>
       </c>
       <c r="D49">
         <v>354.1797816</v>
@@ -2007,10 +2007,10 @@
         <v>-0</v>
       </c>
       <c r="I49">
-        <v>-318.502626976744</v>
+        <v>-472.434980465116</v>
       </c>
       <c r="J49">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2021,7 +2021,7 @@
         <v>-5332.0697929</v>
       </c>
       <c r="C50">
-        <v>4322.11423115349</v>
+        <v>4463.13576577302</v>
       </c>
       <c r="D50">
         <v>358.4033757</v>
@@ -2039,10 +2039,10 @@
         <v>-0</v>
       </c>
       <c r="I50">
-        <v>-312.807441860465</v>
+        <v>-462.43241227907</v>
       </c>
       <c r="J50">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2053,7 +2053,7 @@
         <v>-5178.1248745</v>
       </c>
       <c r="C51">
-        <v>4182.82831384651</v>
+        <v>4322.29385338512</v>
       </c>
       <c r="D51">
         <v>355.4887467</v>
@@ -2071,10 +2071,10 @@
         <v>-0</v>
       </c>
       <c r="I51">
-        <v>-323.992558139535</v>
+        <v>-471.966605395349</v>
       </c>
       <c r="J51">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2085,7 +2085,7 @@
         <v>-5024.1799561</v>
       </c>
       <c r="C52">
-        <v>4043.54239653953</v>
+        <v>4174.43798750884</v>
       </c>
       <c r="D52">
         <v>352.5741177</v>
@@ -2103,10 +2103,10 @@
         <v>-0</v>
       </c>
       <c r="I52">
-        <v>-335.177674418605</v>
+        <v>-474.058938046512</v>
       </c>
       <c r="J52">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2117,7 +2117,7 @@
         <v>-5119.2233444</v>
       </c>
       <c r="C53">
-        <v>4152.90716560465</v>
+        <v>4281.72660670233</v>
       </c>
       <c r="D53">
         <v>347.5825974</v>
@@ -2135,10 +2135,10 @@
         <v>-0</v>
       </c>
       <c r="I53">
-        <v>-344.063255813954</v>
+        <v>-480.741707906977</v>
       </c>
       <c r="J53">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2149,7 +2149,7 @@
         <v>-5114.2667327</v>
       </c>
       <c r="C54">
-        <v>4162.27193476977</v>
+        <v>4287.75271436791</v>
       </c>
       <c r="D54">
         <v>342.591077</v>
@@ -2167,10 +2167,10 @@
         <v>-0</v>
       </c>
       <c r="I54">
-        <v>-352.948837209302</v>
+        <v>-486.084942883721</v>
       </c>
       <c r="J54">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2181,7 +2181,7 @@
         <v>-5160.5524517</v>
       </c>
       <c r="C55">
-        <v>4225.08532506977</v>
+        <v>4347.22744316837</v>
       </c>
       <c r="D55">
         <v>335.3874057</v>
@@ -2199,10 +2199,10 @@
         <v>-0</v>
       </c>
       <c r="I55">
-        <v>-361.828837209302</v>
+        <v>-491.422596465116</v>
       </c>
       <c r="J55">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2213,7 +2213,7 @@
         <v>-5206.8381707</v>
       </c>
       <c r="C56">
-        <v>4287.89871546977</v>
+        <v>4406.70217206884</v>
       </c>
       <c r="D56">
         <v>328.1837343</v>
@@ -2231,10 +2231,10 @@
         <v>-0</v>
       </c>
       <c r="I56">
-        <v>-370.708837209302</v>
+        <v>-496.760250046512</v>
       </c>
       <c r="J56">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2245,7 +2245,7 @@
         <v>-5208.24875455</v>
       </c>
       <c r="C57">
-        <v>3677.30837795</v>
+        <v>3792.77317304953</v>
       </c>
       <c r="D57">
         <v>317.7163766</v>
@@ -2263,10 +2263,10 @@
         <v>-0</v>
       </c>
       <c r="I57">
-        <v>-373.12</v>
+        <v>-495.629066418605</v>
       </c>
       <c r="J57">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2277,7 +2277,7 @@
         <v>-5809.6593384</v>
       </c>
       <c r="C58">
-        <v>3544.62501717442</v>
+        <v>3656.55504063488</v>
       </c>
       <c r="D58">
         <v>307.2490189</v>
@@ -2295,10 +2295,10 @@
         <v>-0</v>
       </c>
       <c r="I58">
-        <v>-259.252093023256</v>
+        <v>-378.010738604651</v>
       </c>
       <c r="J58">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2309,7 +2309,7 @@
         <v>-5860.15272495</v>
       </c>
       <c r="C59">
-        <v>3603.11262874767</v>
+        <v>3715.32908242953</v>
       </c>
       <c r="D59">
         <v>302.9468869</v>
@@ -2327,10 +2327,10 @@
         <v>-0</v>
       </c>
       <c r="I59">
-        <v>-262.768372093023</v>
+        <v>-381.830922418605</v>
       </c>
       <c r="J59">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2341,7 +2341,7 @@
         <v>-5910.6461115</v>
       </c>
       <c r="C60">
-        <v>3661.60024042093</v>
+        <v>3772.74033139767</v>
       </c>
       <c r="D60">
         <v>298.6447548</v>
@@ -2359,10 +2359,10 @@
         <v>-0</v>
       </c>
       <c r="I60">
-        <v>-266.284651162791</v>
+        <v>-384.205172093023</v>
       </c>
       <c r="J60">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2373,7 +2373,7 @@
         <v>-6059.09654315</v>
       </c>
       <c r="C61">
-        <v>3839.27326011512</v>
+        <v>3951.29275917744</v>
       </c>
       <c r="D61">
         <v>275.6811435</v>
@@ -2391,10 +2391,10 @@
         <v>-0</v>
       </c>
       <c r="I61">
-        <v>-272.245581395349</v>
+        <v>-391.099161302326</v>
       </c>
       <c r="J61">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2405,7 +2405,7 @@
         <v>-6107.5469748</v>
       </c>
       <c r="C62">
-        <v>3916.9462799093</v>
+        <v>4036.85914054558</v>
       </c>
       <c r="D62">
         <v>252.7175321</v>
@@ -2423,10 +2423,10 @@
         <v>-0</v>
       </c>
       <c r="I62">
-        <v>-278.206511627907</v>
+        <v>-405.435010976744</v>
       </c>
       <c r="J62">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2437,7 +2437,7 @@
         <v>-6156.86442885</v>
       </c>
       <c r="C63">
-        <v>3989.02088899186</v>
+        <v>4121.01780813233</v>
       </c>
       <c r="D63">
         <v>236.1373073</v>
@@ -2455,10 +2455,10 @@
         <v>-0</v>
       </c>
       <c r="I63">
-        <v>-284.089302325582</v>
+        <v>-424.139083906977</v>
       </c>
       <c r="J63">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2469,7 +2469,7 @@
         <v>-6206.1818829</v>
       </c>
       <c r="C64">
-        <v>4061.09549817442</v>
+        <v>4194.65554558651</v>
       </c>
       <c r="D64">
         <v>219.5570824</v>
@@ -2487,10 +2487,10 @@
         <v>-0</v>
       </c>
       <c r="I64">
-        <v>-289.972093023256</v>
+        <v>-431.680366139535</v>
       </c>
       <c r="J64">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2501,7 +2501,7 @@
         <v>-6155.28425385</v>
       </c>
       <c r="C65">
-        <v>4017.91641642209</v>
+        <v>4150.38074261744</v>
       </c>
       <c r="D65">
         <v>205.6733258</v>
@@ -2519,10 +2519,10 @@
         <v>-0</v>
       </c>
       <c r="I65">
-        <v>-284.100465116279</v>
+        <v>-424.646169302326</v>
       </c>
       <c r="J65">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2533,7 +2533,7 @@
         <v>-6104.3866248</v>
       </c>
       <c r="C66">
-        <v>3974.73733476977</v>
+        <v>4106.10593974837</v>
       </c>
       <c r="D66">
         <v>191.7895691</v>
@@ -2551,10 +2551,10 @@
         <v>-0</v>
       </c>
       <c r="I66">
-        <v>-278.228837209302</v>
+        <v>-417.611972465116</v>
       </c>
       <c r="J66">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2565,7 +2565,7 @@
         <v>-6053.88972595</v>
       </c>
       <c r="C67">
-        <v>3935.01682734535</v>
+        <v>4054.74605566535</v>
       </c>
       <c r="D67">
         <v>174.74248</v>
@@ -2583,10 +2583,10 @@
         <v>-0</v>
       </c>
       <c r="I67">
-        <v>-272.256744186047</v>
+        <v>-399.290408186047</v>
       </c>
       <c r="J67">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2597,7 +2597,7 @@
         <v>-6003.3928271</v>
       </c>
       <c r="C68">
-        <v>3895.29631982093</v>
+        <v>4013.90710171488</v>
       </c>
       <c r="D68">
         <v>157.695391</v>
@@ -2615,10 +2615,10 @@
         <v>-0</v>
       </c>
       <c r="I68">
-        <v>-266.284651162791</v>
+        <v>-392.131634604651</v>
       </c>
       <c r="J68">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2629,7 +2629,7 @@
         <v>-4948.7841914</v>
       </c>
       <c r="C69">
-        <v>2847.56559064651</v>
+        <v>2965.87982118419</v>
       </c>
       <c r="D69">
         <v>133.7107868</v>
@@ -2647,10 +2647,10 @@
         <v>-0</v>
       </c>
       <c r="I69">
-        <v>-249.992558139535</v>
+        <v>-375.524898232558</v>
       </c>
       <c r="J69">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2661,7 +2661,7 @@
         <v>-4594.1755557</v>
       </c>
       <c r="C70">
-        <v>3246.92788472791</v>
+        <v>3358.63300576977</v>
       </c>
       <c r="D70">
         <v>109.7261826</v>
@@ -2679,10 +2679,10 @@
         <v>-0</v>
       </c>
       <c r="I70">
-        <v>-349.979534883721</v>
+        <v>-468.499557209302</v>
       </c>
       <c r="J70">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2693,7 +2693,7 @@
         <v>-4824.19094265</v>
       </c>
       <c r="C71">
-        <v>4109.88730038861</v>
+        <v>4216.98416982116</v>
       </c>
       <c r="D71">
         <v>84.68131667999999</v>
@@ -2711,10 +2711,10 @@
         <v>-0</v>
       </c>
       <c r="I71">
-        <v>-333.693023255814</v>
+        <v>-447.323653953489</v>
       </c>
       <c r="J71">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2725,7 +2725,7 @@
         <v>-5054.2063296</v>
       </c>
       <c r="C72">
-        <v>4347.8467160593</v>
+        <v>4460.85626411512</v>
       </c>
       <c r="D72">
         <v>59.63645075</v>
@@ -2743,10 +2743,10 @@
         <v>-0</v>
       </c>
       <c r="I72">
-        <v>-317.406511627907</v>
+        <v>-437.310541395349</v>
       </c>
       <c r="J72">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2757,7 +2757,7 @@
         <v>-5154.99691885</v>
       </c>
       <c r="C73">
-        <v>4741.22924771438</v>
+        <v>4858.36459960275</v>
       </c>
       <c r="D73">
         <v>48.61932768</v>
@@ -2775,10 +2775,10 @@
         <v>-290.342075149028</v>
       </c>
       <c r="I73">
-        <v>-309.056744186047</v>
+        <v>-433.338284651163</v>
       </c>
       <c r="J73">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2789,7 +2789,7 @@
         <v>-5255.7875081</v>
       </c>
       <c r="C74">
-        <v>5483.79246666763</v>
+        <v>5607.77363355135</v>
       </c>
       <c r="D74">
         <v>37.6022046</v>
@@ -2807,10 +2807,10 @@
         <v>-915.342075149028</v>
       </c>
       <c r="I74">
-        <v>-316.115743255814</v>
+        <v>-447.660747906977</v>
       </c>
       <c r="J74">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2821,7 +2821,7 @@
         <v>-5256.7020294</v>
       </c>
       <c r="C75">
-        <v>5205.31049907558</v>
+        <v>5329.08124735465</v>
       </c>
       <c r="D75">
         <v>27.74133405</v>
@@ -2839,10 +2839,10 @@
         <v>-625</v>
       </c>
       <c r="I75">
-        <v>-318.003186976744</v>
+        <v>-449.324935813954</v>
       </c>
       <c r="J75">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2853,7 +2853,7 @@
         <v>-5257.6165507</v>
       </c>
       <c r="C76">
-        <v>4592.17060663256</v>
+        <v>4715.73093630698</v>
       </c>
       <c r="D76">
         <v>17.8804635</v>
@@ -2871,10 +2871,10 @@
         <v>-0</v>
       </c>
       <c r="I76">
-        <v>-319.890630697675</v>
+        <v>-450.98912372093</v>
       </c>
       <c r="J76">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2885,7 +2885,7 @@
         <v>-5784.23034295</v>
       </c>
       <c r="C77">
-        <v>4481.76351861047</v>
+        <v>4605.11342968023</v>
       </c>
       <c r="D77">
         <v>12.8889432</v>
@@ -2903,10 +2903,10 @@
         <v>-0</v>
       </c>
       <c r="I77">
-        <v>-304.542725581395</v>
+        <v>-435.417962790698</v>
       </c>
       <c r="J77">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2917,7 +2917,7 @@
         <v>-5810.8441352</v>
       </c>
       <c r="C78">
-        <v>3749.26340733256</v>
+        <v>3872.40289979767</v>
       </c>
       <c r="D78">
         <v>7.8974229</v>
@@ -2935,10 +2935,10 @@
         <v>-0</v>
       </c>
       <c r="I78">
-        <v>-172.915750697674</v>
+        <v>-303.567732093023</v>
       </c>
       <c r="J78">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2949,7 +2949,7 @@
         <v>-6009.2970332</v>
       </c>
       <c r="C79">
-        <v>3933.97631756046</v>
+        <v>4055.4760231</v>
       </c>
       <c r="D79">
         <v>4.6250101</v>
@@ -2967,10 +2967,10 @@
         <v>-0</v>
       </c>
       <c r="I79">
-        <v>-157.567845581395</v>
+        <v>-286.48</v>
       </c>
       <c r="J79">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2981,7 +2981,7 @@
         <v>-5853.7499312</v>
       </c>
       <c r="C80">
-        <v>3764.68922778837</v>
+        <v>3878.3236594814</v>
       </c>
       <c r="D80">
         <v>1.3525973</v>
@@ -2999,10 +2999,10 @@
         <v>-0</v>
       </c>
       <c r="I80">
-        <v>-142.219940465116</v>
+        <v>-262.786976744186</v>
       </c>
       <c r="J80">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3013,7 +3013,7 @@
         <v>-5934.58450715</v>
       </c>
       <c r="C81">
-        <v>3832.26470306802</v>
+        <v>3938.03386091454</v>
       </c>
       <c r="D81">
         <v>0.711204375</v>
@@ -3031,10 +3031,10 @@
         <v>-0</v>
       </c>
       <c r="I81">
-        <v>-129.83575627907</v>
+        <v>-242.057674418605</v>
       </c>
       <c r="J81">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3045,7 +3045,7 @@
         <v>-6015.4190831</v>
       </c>
       <c r="C82">
-        <v>3932.51083506525</v>
+        <v>4042.58150855362</v>
       </c>
       <c r="D82">
         <v>0.06981145</v>
@@ -3063,10 +3063,10 @@
         <v>-0</v>
       </c>
       <c r="I82">
-        <v>-147.244841347854</v>
+        <v>-264.03070181297</v>
       </c>
       <c r="J82">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3077,7 +3077,7 @@
         <v>-6116.5040318</v>
       </c>
       <c r="C83">
-        <v>4134.29540064244</v>
+        <v>4248.02838188895</v>
       </c>
       <c r="D83">
         <v>0.034905725</v>
@@ -3095,10 +3095,10 @@
         <v>-0</v>
       </c>
       <c r="I83">
-        <v>-242.718169302326</v>
+        <v>-363.38976744186</v>
       </c>
       <c r="J83">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3109,7 +3109,7 @@
         <v>-6267.5889805</v>
       </c>
       <c r="C84">
-        <v>4298.00317503023</v>
+        <v>4401.80107352326</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>-0</v>
       </c>
       <c r="I84">
-        <v>-255.785882790698</v>
+        <v>-365.916279069768</v>
       </c>
       <c r="J84">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3141,7 +3141,7 @@
         <v>-5868.5862904</v>
       </c>
       <c r="C85">
-        <v>3901.31166070698</v>
+        <v>4005.69540667907</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>-0</v>
       </c>
       <c r="I85">
-        <v>-257.923363720929</v>
+        <v>-368.675348837208</v>
       </c>
       <c r="J85">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3173,7 +3173,7 @@
         <v>-5969.5836003</v>
       </c>
       <c r="C86">
-        <v>3998.3237742907</v>
+        <v>4105.39755378837</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>-0</v>
       </c>
       <c r="I86">
-        <v>-253.835728372093</v>
+        <v>-367.441860465116</v>
       </c>
       <c r="J86">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3205,7 +3205,7 @@
         <v>-6169.48325045</v>
       </c>
       <c r="C87">
-        <v>4192.83543742674</v>
+        <v>4304.00204114768</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3223,10 +3223,10 @@
         <v>-0</v>
       </c>
       <c r="I87">
-        <v>-248.259720930233</v>
+        <v>-366.208372093024</v>
       </c>
       <c r="J87">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3237,7 +3237,7 @@
         <v>-5769.3829006</v>
       </c>
       <c r="C88">
-        <v>3793.79993777209</v>
+        <v>3902.60652850698</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>-0</v>
       </c>
       <c r="I88">
-        <v>-249.530225116281</v>
+        <v>-364.974883720932</v>
       </c>
       <c r="J88">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3269,7 +3269,7 @@
         <v>-5519.49077665</v>
       </c>
       <c r="C89">
-        <v>3541.46568727326</v>
+        <v>3651.41924176628</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>-0</v>
       </c>
       <c r="I89">
-        <v>-247.07979906977</v>
+        <v>-363.74139534884</v>
       </c>
       <c r="J89">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3301,7 +3301,7 @@
         <v>-5769.5986527</v>
       </c>
       <c r="C90">
-        <v>4414.13143677442</v>
+        <v>4525.23195502559</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>-0</v>
       </c>
       <c r="I90">
-        <v>-244.629373023259</v>
+        <v>-362.507906976748</v>
       </c>
       <c r="J90">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3333,7 +3333,7 @@
         <v>-6094.47187745</v>
       </c>
       <c r="C91">
-        <v>5361.56253497559</v>
+        <v>5473.81001698489</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>-0</v>
       </c>
       <c r="I91">
-        <v>-242.178946976748</v>
+        <v>-361.274418604656</v>
       </c>
       <c r="J91">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3365,7 +3365,7 @@
         <v>-6419.3451022</v>
       </c>
       <c r="C92">
-        <v>5693.46947161004</v>
+        <v>5811.07228947051</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>-13.6842105263158</v>
       </c>
       <c r="I92">
-        <v>-235.263404651167</v>
+        <v>-360.040930232564</v>
       </c>
       <c r="J92">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3397,7 +3397,7 @@
         <v>-6044.38959065</v>
       </c>
       <c r="C93">
-        <v>5316.07183351121</v>
+        <v>5434.73810699958</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>-13.6842105263158</v>
       </c>
       <c r="I93">
-        <v>-232.812978604656</v>
+        <v>-358.718839069772</v>
       </c>
       <c r="J93">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3429,7 +3429,7 @@
         <v>-5669.4340791</v>
       </c>
       <c r="C94">
-        <v>4942.18117215655</v>
+        <v>5058.57094078911</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3447,10 +3447,10 @@
         <v>-13.6842105263158</v>
       </c>
       <c r="I94">
-        <v>-234.083482790703</v>
+        <v>-357.57395348838</v>
       </c>
       <c r="J94">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3461,7 +3461,7 @@
         <v>-5769.46635825</v>
       </c>
       <c r="C95">
-        <v>5036.26434801353</v>
+        <v>5153.16591080423</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3479,10 +3479,10 @@
         <v>-13.6842105263158</v>
       </c>
       <c r="I95">
-        <v>-227.912126511634</v>
+        <v>-351.945614883727</v>
       </c>
       <c r="J95">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3493,7 +3493,7 @@
         <v>-5819.4986374</v>
       </c>
       <c r="C96">
-        <v>5080.34752387051</v>
+        <v>5196.36673131237</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>-13.6842105263158</v>
       </c>
       <c r="I96">
-        <v>-221.740770232565</v>
+        <v>-344.838072558146</v>
       </c>
       <c r="J96">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3525,7 +3525,7 @@
         <v>-5869.4986374</v>
       </c>
       <c r="C97">
-        <v>5127.90539732167</v>
+        <v>5243.0422494147</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3543,10 +3543,10 @@
         <v>-13.6842105263158</v>
       </c>
       <c r="I97">
-        <v>-219.290344186054</v>
+        <v>-341.451460465124</v>
       </c>
       <c r="J97">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
   </sheetData>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>969.5347839999985</v>
+        <v>1549.280000000002</v>
       </c>
       <c r="C2">
         <v>2.220446049250313e-15</v>
       </c>
       <c r="D2">
-        <v>579.745216</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>-1549.28</v>
@@ -3604,13 +3604,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>967.2147839999981</v>
+        <v>1551.279999999998</v>
       </c>
       <c r="C3">
         <v>5.773159728050814e-15</v>
       </c>
       <c r="D3">
-        <v>584.065216</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-1551.28</v>
@@ -3624,13 +3624,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>964.8947840000021</v>
+        <v>1553.279999999999</v>
       </c>
       <c r="C4">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D4">
-        <v>588.385216</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-1553.28</v>
@@ -3644,13 +3644,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>962.5747840000018</v>
+        <v>1555.28</v>
       </c>
       <c r="C5">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D5">
-        <v>592.7052160000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-1555.28</v>
@@ -3664,13 +3664,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>960.2547840000015</v>
+        <v>1557.280000000001</v>
       </c>
       <c r="C6">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D6">
-        <v>597.025216</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-1557.28</v>
@@ -3684,13 +3684,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>957.9347840000013</v>
+        <v>1559.280000000002</v>
       </c>
       <c r="C7">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D7">
-        <v>601.3452160000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-1559.28</v>
@@ -3704,13 +3704,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>955.614784000001</v>
+        <v>1561.279999999999</v>
       </c>
       <c r="C8">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D8">
-        <v>605.665216</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-1561.28</v>
@@ -3724,13 +3724,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>978.8947840000005</v>
+        <v>1563.28</v>
       </c>
       <c r="C9">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D9">
-        <v>584.385216</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-1563.28</v>
@@ -3744,13 +3744,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>947.3747839999986</v>
+        <v>1523.280000000001</v>
       </c>
       <c r="C10">
         <v>-1.13686837721616e-13</v>
       </c>
       <c r="D10">
-        <v>575.905216</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>-1523.28</v>
@@ -3764,13 +3764,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>926.6547840000019</v>
+        <v>1497.280000000001</v>
       </c>
       <c r="C11">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D11">
-        <v>570.625216</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-1497.28</v>
@@ -3784,13 +3784,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>937.3347839999996</v>
+        <v>1496.280000000001</v>
       </c>
       <c r="C12">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D12">
-        <v>558.945216</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>-1496.28</v>
@@ -3804,13 +3804,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>948.0147840000016</v>
+        <v>1495.28</v>
       </c>
       <c r="C13">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D13">
-        <v>547.265216</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>-1495.28</v>
@@ -3824,13 +3824,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>942.6947839999996</v>
+        <v>1494.28</v>
       </c>
       <c r="C14">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D14">
-        <v>551.5852160000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>-1494.28</v>
@@ -3844,13 +3844,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>953.3747840000016</v>
+        <v>1493.279999999999</v>
       </c>
       <c r="C15">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D15">
-        <v>539.905216</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>-1493.28</v>
@@ -3864,13 +3864,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>817.0547839999988</v>
+        <v>1377.280000000002</v>
       </c>
       <c r="C16">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D16">
-        <v>560.225216</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-1377.28</v>
@@ -3884,13 +3884,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>814.7347839999985</v>
+        <v>1375.142783999998</v>
       </c>
       <c r="C17">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D17">
-        <v>564.545216</v>
+        <v>4.137216000000264</v>
       </c>
       <c r="E17">
         <v>-1379.28</v>
@@ -3904,13 +3904,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>812.4147839999981</v>
+        <v>1373.601983999999</v>
       </c>
       <c r="C18">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D18">
-        <v>568.865216</v>
+        <v>7.678016000000209</v>
       </c>
       <c r="E18">
         <v>-1381.28</v>
@@ -3924,13 +3924,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>810.0947840000022</v>
+        <v>1368.861183999999</v>
       </c>
       <c r="C19">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D19">
-        <v>573.1852160000001</v>
+        <v>14.41881600000016</v>
       </c>
       <c r="E19">
         <v>-1383.28</v>
@@ -3944,13 +3944,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>710.9747840000008</v>
+        <v>1261.720384</v>
       </c>
       <c r="C20">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D20">
-        <v>574.3052160000001</v>
+        <v>23.55961599999976</v>
       </c>
       <c r="E20">
         <v>-1285.28</v>
@@ -3964,13 +3964,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>721.4547839999982</v>
+        <v>1259.379584000001</v>
       </c>
       <c r="C21">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D21">
-        <v>565.8252160000001</v>
+        <v>27.9004160000004</v>
       </c>
       <c r="E21">
         <v>-1287.28</v>
@@ -3984,13 +3984,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>719.134783999998</v>
+        <v>1244.238784</v>
       </c>
       <c r="C22">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D22">
-        <v>570.145216</v>
+        <v>45.04121600000033</v>
       </c>
       <c r="E22">
         <v>-1289.28</v>
@@ -4004,13 +4004,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>732.8147840000013</v>
+        <v>1247.497983999999</v>
       </c>
       <c r="C23">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D23">
-        <v>558.4652159999999</v>
+        <v>43.78201600000033</v>
       </c>
       <c r="E23">
         <v>-1291.28</v>
@@ -4024,13 +4024,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>730.494784000001</v>
+        <v>1237.957184000001</v>
       </c>
       <c r="C24">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D24">
-        <v>562.7852160000001</v>
+        <v>55.32281600000024</v>
       </c>
       <c r="E24">
         <v>-1293.28</v>
@@ -4044,13 +4044,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>744.1747840000003</v>
+        <v>1253.216383999998</v>
       </c>
       <c r="C25">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D25">
-        <v>551.105216</v>
+        <v>42.06361599999985</v>
       </c>
       <c r="E25">
         <v>-1295.28</v>
@@ -4064,13 +4064,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>741.8547839999999</v>
+        <v>1252.475584</v>
       </c>
       <c r="C26">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D26">
-        <v>555.425216</v>
+        <v>44.80441599999976</v>
       </c>
       <c r="E26">
         <v>-1297.28</v>
@@ -4084,13 +4084,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>755.534783999999</v>
+        <v>1256.318783999998</v>
       </c>
       <c r="C27">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D27">
-        <v>543.745216</v>
+        <v>42.96121600000009</v>
       </c>
       <c r="E27">
         <v>-1299.28</v>
@@ -4104,13 +4104,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>769.2147839999981</v>
+        <v>1255.478783999999</v>
       </c>
       <c r="C28">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D28">
-        <v>532.065216</v>
+        <v>45.80121600000024</v>
       </c>
       <c r="E28">
         <v>-1301.28</v>
@@ -4124,13 +4124,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>766.8947840000021</v>
+        <v>1254.638784</v>
       </c>
       <c r="C29">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D29">
-        <v>536.385216</v>
+        <v>48.64121600000033</v>
       </c>
       <c r="E29">
         <v>-1303.28</v>
@@ -4144,13 +4144,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>764.5747840000018</v>
+        <v>1253.798784000002</v>
       </c>
       <c r="C30">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D30">
-        <v>540.7052160000001</v>
+        <v>51.48121599999976</v>
       </c>
       <c r="E30">
         <v>-1305.28</v>
@@ -4164,13 +4164,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>678.2547839999982</v>
+        <v>1168.958784</v>
       </c>
       <c r="C31">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D31">
-        <v>529.025216</v>
+        <v>38.32121599999992</v>
       </c>
       <c r="E31">
         <v>-1207.28</v>
@@ -4184,13 +4184,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>675.9347839999979</v>
+        <v>1168.118784000001</v>
       </c>
       <c r="C32">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D32">
-        <v>533.3452160000001</v>
+        <v>41.16121600000008</v>
       </c>
       <c r="E32">
         <v>-1209.28</v>
@@ -4204,13 +4204,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>673.6147840000018</v>
+        <v>1167.278783999998</v>
       </c>
       <c r="C33">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D33">
-        <v>537.665216</v>
+        <v>44.00121600000024</v>
       </c>
       <c r="E33">
         <v>-1211.28</v>
@@ -4224,13 +4224,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>687.294784000001</v>
+        <v>1182.438783999999</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>525.985216</v>
+        <v>30.84121600000032</v>
       </c>
       <c r="E34">
         <v>-1213.28</v>
@@ -4244,13 +4244,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>700.974784</v>
+        <v>1197.598784</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>514.3052160000001</v>
+        <v>17.68121599999976</v>
       </c>
       <c r="E35">
         <v>-1215.28</v>
@@ -4264,13 +4264,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>816.4067840000014</v>
+        <v>1314.510783999998</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>502.625216</v>
+        <v>4.521215999999913</v>
       </c>
       <c r="E36">
         <v>-1319.032</v>
@@ -4284,13 +4284,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>890.0307840000002</v>
+        <v>1380.976000000002</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>490.945216</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>-1380.976</v>
@@ -4304,13 +4304,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>931.6547840000002</v>
+        <v>1432.718784</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>511.265216</v>
+        <v>10.20121600000024</v>
       </c>
       <c r="E38">
         <v>-1442.92</v>
@@ -4324,13 +4324,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>883.159679999999</v>
+        <v>1385.703680000001</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>524.8803200000001</v>
+        <v>22.33632000000032</v>
       </c>
       <c r="E39">
         <v>-1408.04</v>
@@ -4344,13 +4344,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>953.8764800000012</v>
+        <v>1461.100480000002</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>519.56352</v>
+        <v>12.33952000000024</v>
       </c>
       <c r="E40">
         <v>-1473.44</v>
@@ -4364,13 +4364,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>892.6972799999993</v>
+        <v>1403.801279999998</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>546.24672</v>
+        <v>35.14271999999984</v>
       </c>
       <c r="E41">
         <v>-1438.944</v>
@@ -4384,13 +4384,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1031.518079999998</v>
+        <v>1556.102080000001</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>572.92992</v>
+        <v>48.34592000000048</v>
       </c>
       <c r="E42">
         <v>-1604.448</v>
@@ -4404,13 +4404,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1170.43488</v>
+        <v>1703.698879999999</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>599.61312</v>
+        <v>66.34911999999967</v>
       </c>
       <c r="E43">
         <v>-1770.048</v>
@@ -4424,13 +4424,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1340.666496000001</v>
+        <v>1890.610496000001</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>594.9815040000001</v>
+        <v>45.03750399999993</v>
       </c>
       <c r="E44">
         <v>-1935.648</v>
@@ -4444,13 +4444,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1338.381456000001</v>
+        <v>1958.711999999999</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>620.330544</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>-1958.712</v>
@@ -4464,13 +4464,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1336.096416</v>
+        <v>1971.722656000002</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>645.679584</v>
+        <v>10.05334400000032</v>
       </c>
       <c r="E46">
         <v>-1981.776</v>
@@ -4484,13 +4484,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1338.611376000001</v>
+        <v>1980.924975999999</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>671.028624</v>
+        <v>28.71502400000024</v>
       </c>
       <c r="E47">
         <v>-2009.64</v>
@@ -4504,13 +4504,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1341.126335999998</v>
+        <v>1990.127296000001</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>696.3776640000001</v>
+        <v>47.37670400000064</v>
       </c>
       <c r="E48">
         <v>-2037.504</v>
@@ -4524,13 +4524,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1369.561295999999</v>
+        <v>2031.470415999999</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>721.726704</v>
+        <v>59.81758399999961</v>
       </c>
       <c r="E49">
         <v>-2091.288</v>
@@ -4544,13 +4544,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1345.071999999999</v>
+        <v>1988.459372800001</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>800</v>
+        <v>156.6126271999992</v>
       </c>
       <c r="E50">
         <v>-2145.072</v>
@@ -4564,13 +4564,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1393.168</v>
+        <v>2029.456403200001</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>800</v>
+        <v>163.7115968000008</v>
       </c>
       <c r="E51">
         <v>-2193.168</v>
@@ -4584,13 +4584,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1441.264000000001</v>
+        <v>2038.453433600002</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>800</v>
+        <v>202.8105664</v>
       </c>
       <c r="E52">
         <v>-2241.264</v>
@@ -4604,13 +4604,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1479.472000000002</v>
+        <v>2067.189344000001</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>800</v>
+        <v>212.282656</v>
       </c>
       <c r="E53">
         <v>-2279.472</v>
@@ -4624,13 +4624,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1517.679999999998</v>
+        <v>2090.1652544</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>800</v>
+        <v>227.5147456</v>
       </c>
       <c r="E54">
         <v>-2317.68</v>
@@ -4644,13 +4644,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1555.863999999998</v>
+        <v>2113.117164799999</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>800</v>
+        <v>242.7468352</v>
       </c>
       <c r="E55">
         <v>-2355.864</v>
@@ -4664,13 +4664,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1594.047999999998</v>
+        <v>2136.069075200001</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>800</v>
+        <v>257.9789248000008</v>
       </c>
       <c r="E56">
         <v>-2394.048</v>
@@ -4684,13 +4684,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1604.416</v>
+        <v>2131.204985600002</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>800</v>
+        <v>273.2110144</v>
       </c>
       <c r="E57">
         <v>-2404.416</v>
@@ -4704,13 +4704,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1114.784000000001</v>
+        <v>1625.446175999999</v>
       </c>
       <c r="C58">
         <v>500</v>
       </c>
       <c r="D58">
-        <v>800</v>
+        <v>289.337824</v>
       </c>
       <c r="E58">
         <v>-2414.784</v>
@@ -4724,13 +4724,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1129.903999999999</v>
+        <v>1641.872966400001</v>
       </c>
       <c r="C59">
         <v>500</v>
       </c>
       <c r="D59">
-        <v>800</v>
+        <v>288.0310336</v>
       </c>
       <c r="E59">
         <v>-2429.904</v>
@@ -4744,13 +4744,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1145.024000000001</v>
+        <v>1652.082239999999</v>
       </c>
       <c r="C60">
         <v>500</v>
       </c>
       <c r="D60">
-        <v>800</v>
+        <v>292.9417599999992</v>
       </c>
       <c r="E60">
         <v>-2445.024</v>
@@ -4764,13 +4764,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1170.656000000001</v>
+        <v>1681.726393600002</v>
       </c>
       <c r="C61">
         <v>500</v>
       </c>
       <c r="D61">
-        <v>800</v>
+        <v>288.9296064</v>
       </c>
       <c r="E61">
         <v>-2470.656</v>
@@ -4784,13 +4784,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1196.288</v>
+        <v>1743.370547199999</v>
       </c>
       <c r="C62">
         <v>500</v>
       </c>
       <c r="D62">
-        <v>800</v>
+        <v>252.9174527999992</v>
       </c>
       <c r="E62">
         <v>-2496.288</v>
@@ -4804,13 +4804,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1221.584000000003</v>
+        <v>1823.798060800001</v>
       </c>
       <c r="C63">
         <v>500</v>
       </c>
       <c r="D63">
-        <v>800</v>
+        <v>197.7859392000008</v>
       </c>
       <c r="E63">
         <v>-2521.584000000001</v>
@@ -4824,13 +4824,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1246.880000000001</v>
+        <v>1856.2255744</v>
       </c>
       <c r="C64">
         <v>500</v>
       </c>
       <c r="D64">
-        <v>800</v>
+        <v>190.6544256000008</v>
       </c>
       <c r="E64">
         <v>-2546.880000000001</v>
@@ -4844,13 +4844,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1221.632</v>
+        <v>1825.978528000002</v>
       </c>
       <c r="C65">
         <v>500</v>
       </c>
       <c r="D65">
-        <v>800</v>
+        <v>195.653472</v>
       </c>
       <c r="E65">
         <v>-2521.632</v>
@@ -4864,13 +4864,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1196.383999999999</v>
+        <v>1795.731481599999</v>
       </c>
       <c r="C66">
         <v>500</v>
       </c>
       <c r="D66">
-        <v>800</v>
+        <v>200.6525184</v>
       </c>
       <c r="E66">
         <v>-2496.384</v>
@@ -4884,13 +4884,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1170.704000000002</v>
+        <v>1716.948755200002</v>
       </c>
       <c r="C67">
         <v>500</v>
       </c>
       <c r="D67">
-        <v>800</v>
+        <v>253.7552448</v>
       </c>
       <c r="E67">
         <v>-2470.704</v>
@@ -4904,13 +4904,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1145.024000000001</v>
+        <v>1686.166028799999</v>
       </c>
       <c r="C68">
         <v>500</v>
       </c>
       <c r="D68">
-        <v>800</v>
+        <v>258.8579712</v>
       </c>
       <c r="E68">
         <v>-2445.024</v>
@@ -4924,13 +4924,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1074.968000000001</v>
+        <v>1614.757062399999</v>
       </c>
       <c r="C69">
         <v>500</v>
       </c>
       <c r="D69">
-        <v>800</v>
+        <v>260.2109376</v>
       </c>
       <c r="E69">
         <v>-2374.968</v>
@@ -4944,13 +4944,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1504.912</v>
+        <v>2014.548095999998</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>800</v>
+        <v>290.363904</v>
       </c>
       <c r="E70">
         <v>-2304.912</v>
@@ -4964,13 +4964,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1434.88</v>
+        <v>1923.491712000003</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>800</v>
+        <v>311.388288</v>
       </c>
       <c r="E71">
         <v>-2234.880000000001</v>
@@ -4984,13 +4984,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1364.848</v>
+        <v>1880.435328</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>800</v>
+        <v>284.4126720000008</v>
       </c>
       <c r="E72">
         <v>-2164.848</v>
@@ -5004,13 +5004,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1328.944000000002</v>
+        <v>1863.354624000001</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>800</v>
+        <v>265.589376</v>
       </c>
       <c r="E73">
         <v>-2128.944</v>
@@ -5024,13 +5024,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1359.297696</v>
+        <v>1924.941216000001</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>733.742304</v>
+        <v>168.098784</v>
       </c>
       <c r="E74">
         <v>-2093.04</v>
@@ -5044,13 +5044,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1367.413703999999</v>
+        <v>1932.097224000002</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>697.858296</v>
+        <v>133.174776</v>
       </c>
       <c r="E75">
         <v>-2065.272</v>
@@ -5064,13 +5064,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1375.529712000003</v>
+        <v>1939.253231999999</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>661.974288</v>
+        <v>98.2507679999992</v>
       </c>
       <c r="E76">
         <v>-2037.504</v>
@@ -5084,13 +5084,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1309.533719999999</v>
+        <v>1872.297240000001</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>626.09028</v>
+        <v>63.32676000000032</v>
       </c>
       <c r="E77">
         <v>-1935.624</v>
@@ -5104,13 +5104,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>743.5377279999982</v>
+        <v>1305.341247999999</v>
       </c>
       <c r="C78">
         <v>500</v>
       </c>
       <c r="D78">
-        <v>590.206272</v>
+        <v>28.402752</v>
       </c>
       <c r="E78">
         <v>-1833.744</v>
@@ -5124,13 +5124,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>677.5417359999985</v>
+        <v>1231.864</v>
       </c>
       <c r="C79">
         <v>500</v>
       </c>
       <c r="D79">
-        <v>554.322264</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>-1731.864</v>
@@ -5144,13 +5144,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>611.5457439999988</v>
+        <v>1129.984</v>
       </c>
       <c r="C80">
         <v>500</v>
       </c>
       <c r="D80">
-        <v>518.438256</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>-1629.984</v>
@@ -5164,13 +5164,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>558.2937520000011</v>
+        <v>1040.848000000001</v>
       </c>
       <c r="C81">
         <v>500</v>
       </c>
       <c r="D81">
-        <v>482.554248</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>-1540.848</v>
@@ -5184,13 +5184,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>633.1528177957722</v>
+        <v>1135.332017795771</v>
       </c>
       <c r="C82">
         <v>416.379982204229</v>
       </c>
       <c r="D82">
-        <v>502.1792</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>-1551.712</v>
@@ -5204,13 +5204,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1043.688128000002</v>
+        <v>1562.575999999998</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>518.887872</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>-1562.576</v>
@@ -5224,13 +5224,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1099.879296000001</v>
+        <v>1573.440000000002</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>473.560704</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>-1573.44</v>
@@ -5244,13 +5244,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1109.070463999995</v>
+        <v>1585.303999999994</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>476.233536</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>-1585.303999999996</v>
@@ -5264,13 +5264,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1091.493632</v>
+        <v>1579.999999999999</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>488.5063680000001</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>-1580</v>
@@ -5284,13 +5284,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1067.516800000002</v>
+        <v>1574.696000000003</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>507.1792</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>-1574.696000000004</v>
@@ -5304,13 +5304,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1072.979968000008</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>496.4120320000017</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>-1569.392000000008</v>
@@ -5324,13 +5324,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1062.443136000011</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>501.6448640000016</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>-1564.088000000012</v>
@@ -5344,13 +5344,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1051.906304000014</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>506.8776960000032</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>-1558.784000000016</v>
@@ -5364,13 +5364,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1041.369472000016</v>
+        <v>1553.480000000021</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>512.1105280000048</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>-1553.48000000002</v>
@@ -5384,13 +5384,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1011.632640000018</v>
+        <v>1548.176000000025</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>536.5433600000064</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>-1548.176000000024</v>
@@ -5404,13 +5404,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1001.095808000021</v>
+        <v>1542.49100800002</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>541.7761920000064</v>
+        <v>0.3809920000065176</v>
       </c>
       <c r="E93">
         <v>-1542.872000000028</v>
@@ -5424,13 +5424,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1006.558976000023</v>
+        <v>1537.568000000034</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94">
-        <v>531.009024000008</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>-1537.568000000032</v>
@@ -5444,13 +5444,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>980.0221440000262</v>
+        <v>1513.366144000026</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>552.2418560000095</v>
+        <v>18.89785600000944</v>
       </c>
       <c r="E95">
         <v>-1532.264000000036</v>
@@ -5464,13 +5464,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>953.4853120000295</v>
+        <v>1482.803712000028</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>573.4746880000112</v>
+        <v>44.15628800001105</v>
       </c>
       <c r="E96">
         <v>-1526.96000000004</v>
@@ -5484,13 +5484,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>942.9484800000322</v>
+        <v>1468.241280000033</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>578.7075200000128</v>
+        <v>53.41472000001264</v>
       </c>
       <c r="E97">
         <v>-1521.656000000044</v>
@@ -5537,10 +5537,10 @@
         <v>2.220446049250313e-15</v>
       </c>
       <c r="C2">
-        <v>969.5347839999985</v>
+        <v>1549.280000000002</v>
       </c>
       <c r="D2">
-        <v>579.745216</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1549.28</v>
@@ -5557,10 +5557,10 @@
         <v>5.773159728050814e-15</v>
       </c>
       <c r="C3">
-        <v>967.2147839999981</v>
+        <v>1551.279999999998</v>
       </c>
       <c r="D3">
-        <v>584.065216</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1551.28</v>
@@ -5577,10 +5577,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C4">
-        <v>964.8947840000021</v>
+        <v>1553.279999999999</v>
       </c>
       <c r="D4">
-        <v>588.385216</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1553.28</v>
@@ -5597,10 +5597,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C5">
-        <v>962.5747840000018</v>
+        <v>1555.28</v>
       </c>
       <c r="D5">
-        <v>592.7052160000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1555.28</v>
@@ -5617,10 +5617,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C6">
-        <v>960.2547840000015</v>
+        <v>1557.280000000001</v>
       </c>
       <c r="D6">
-        <v>597.025216</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1557.28</v>
@@ -5637,10 +5637,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C7">
-        <v>957.9347840000013</v>
+        <v>1559.280000000002</v>
       </c>
       <c r="D7">
-        <v>601.3452160000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1559.28</v>
@@ -5657,10 +5657,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C8">
-        <v>955.614784000001</v>
+        <v>1561.279999999999</v>
       </c>
       <c r="D8">
-        <v>605.665216</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1561.28</v>
@@ -5677,10 +5677,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C9">
-        <v>978.8947840000005</v>
+        <v>1563.28</v>
       </c>
       <c r="D9">
-        <v>584.385216</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1563.28</v>
@@ -5697,10 +5697,10 @@
         <v>-1.13686837721616e-13</v>
       </c>
       <c r="C10">
-        <v>947.3747839999986</v>
+        <v>1523.280000000001</v>
       </c>
       <c r="D10">
-        <v>575.905216</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1523.28</v>
@@ -5717,10 +5717,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C11">
-        <v>926.6547840000019</v>
+        <v>1497.280000000001</v>
       </c>
       <c r="D11">
-        <v>570.625216</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1497.28</v>
@@ -5737,10 +5737,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C12">
-        <v>937.3347839999996</v>
+        <v>1496.280000000001</v>
       </c>
       <c r="D12">
-        <v>558.945216</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1496.28</v>
@@ -5757,10 +5757,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C13">
-        <v>948.0147840000016</v>
+        <v>1495.28</v>
       </c>
       <c r="D13">
-        <v>547.265216</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1495.28</v>
@@ -5777,10 +5777,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C14">
-        <v>942.6947839999996</v>
+        <v>1494.28</v>
       </c>
       <c r="D14">
-        <v>551.5852160000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1494.28</v>
@@ -5797,10 +5797,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C15">
-        <v>953.3747840000016</v>
+        <v>1493.279999999999</v>
       </c>
       <c r="D15">
-        <v>539.905216</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1493.28</v>
@@ -5817,10 +5817,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C16">
-        <v>817.0547839999988</v>
+        <v>1377.280000000002</v>
       </c>
       <c r="D16">
-        <v>560.225216</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1377.28</v>
@@ -5837,10 +5837,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C17">
-        <v>814.7347839999985</v>
+        <v>1375.142783999998</v>
       </c>
       <c r="D17">
-        <v>564.545216</v>
+        <v>4.137216000000264</v>
       </c>
       <c r="E17">
         <v>1379.28</v>
@@ -5857,10 +5857,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C18">
-        <v>812.4147839999981</v>
+        <v>1373.601983999999</v>
       </c>
       <c r="D18">
-        <v>568.865216</v>
+        <v>7.678016000000209</v>
       </c>
       <c r="E18">
         <v>1381.28</v>
@@ -5877,10 +5877,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C19">
-        <v>810.0947840000022</v>
+        <v>1368.861183999999</v>
       </c>
       <c r="D19">
-        <v>573.1852160000001</v>
+        <v>14.41881600000016</v>
       </c>
       <c r="E19">
         <v>1383.28</v>
@@ -5897,10 +5897,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C20">
-        <v>710.9747840000008</v>
+        <v>1261.720384</v>
       </c>
       <c r="D20">
-        <v>574.3052160000001</v>
+        <v>23.55961599999976</v>
       </c>
       <c r="E20">
         <v>1285.28</v>
@@ -5917,10 +5917,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C21">
-        <v>721.4547839999982</v>
+        <v>1259.379584000001</v>
       </c>
       <c r="D21">
-        <v>565.8252160000001</v>
+        <v>27.9004160000004</v>
       </c>
       <c r="E21">
         <v>1287.28</v>
@@ -5937,10 +5937,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C22">
-        <v>719.134783999998</v>
+        <v>1244.238784</v>
       </c>
       <c r="D22">
-        <v>570.145216</v>
+        <v>45.04121600000033</v>
       </c>
       <c r="E22">
         <v>1289.28</v>
@@ -5957,10 +5957,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C23">
-        <v>732.8147840000013</v>
+        <v>1247.497983999999</v>
       </c>
       <c r="D23">
-        <v>558.4652159999999</v>
+        <v>43.78201600000033</v>
       </c>
       <c r="E23">
         <v>1291.28</v>
@@ -5977,10 +5977,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C24">
-        <v>730.494784000001</v>
+        <v>1237.957184000001</v>
       </c>
       <c r="D24">
-        <v>562.7852160000001</v>
+        <v>55.32281600000024</v>
       </c>
       <c r="E24">
         <v>1293.28</v>
@@ -5997,10 +5997,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C25">
-        <v>744.1747840000003</v>
+        <v>1253.216383999998</v>
       </c>
       <c r="D25">
-        <v>551.105216</v>
+        <v>42.06361599999985</v>
       </c>
       <c r="E25">
         <v>1295.28</v>
@@ -6017,10 +6017,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C26">
-        <v>741.8547839999999</v>
+        <v>1252.475584</v>
       </c>
       <c r="D26">
-        <v>555.425216</v>
+        <v>44.80441599999976</v>
       </c>
       <c r="E26">
         <v>1297.28</v>
@@ -6037,10 +6037,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C27">
-        <v>755.534783999999</v>
+        <v>1256.318783999998</v>
       </c>
       <c r="D27">
-        <v>543.745216</v>
+        <v>42.96121600000009</v>
       </c>
       <c r="E27">
         <v>1299.28</v>
@@ -6057,10 +6057,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C28">
-        <v>769.2147839999981</v>
+        <v>1255.478783999999</v>
       </c>
       <c r="D28">
-        <v>532.065216</v>
+        <v>45.80121600000024</v>
       </c>
       <c r="E28">
         <v>1301.28</v>
@@ -6077,10 +6077,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C29">
-        <v>766.8947840000021</v>
+        <v>1254.638784</v>
       </c>
       <c r="D29">
-        <v>536.385216</v>
+        <v>48.64121600000033</v>
       </c>
       <c r="E29">
         <v>1303.28</v>
@@ -6097,10 +6097,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C30">
-        <v>764.5747840000018</v>
+        <v>1253.798784000002</v>
       </c>
       <c r="D30">
-        <v>540.7052160000001</v>
+        <v>51.48121599999976</v>
       </c>
       <c r="E30">
         <v>1305.28</v>
@@ -6117,10 +6117,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C31">
-        <v>678.2547839999982</v>
+        <v>1168.958784</v>
       </c>
       <c r="D31">
-        <v>529.025216</v>
+        <v>38.32121599999992</v>
       </c>
       <c r="E31">
         <v>1207.28</v>
@@ -6137,10 +6137,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C32">
-        <v>675.9347839999979</v>
+        <v>1168.118784000001</v>
       </c>
       <c r="D32">
-        <v>533.3452160000001</v>
+        <v>41.16121600000008</v>
       </c>
       <c r="E32">
         <v>1209.28</v>
@@ -6157,10 +6157,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C33">
-        <v>673.6147840000018</v>
+        <v>1167.278783999998</v>
       </c>
       <c r="D33">
-        <v>537.665216</v>
+        <v>44.00121600000024</v>
       </c>
       <c r="E33">
         <v>1211.28</v>
@@ -6177,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>687.294784000001</v>
+        <v>1182.438783999999</v>
       </c>
       <c r="D34">
-        <v>525.985216</v>
+        <v>30.84121600000032</v>
       </c>
       <c r="E34">
         <v>1213.28</v>
@@ -6197,10 +6197,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>700.974784</v>
+        <v>1197.598784</v>
       </c>
       <c r="D35">
-        <v>514.3052160000001</v>
+        <v>17.68121599999976</v>
       </c>
       <c r="E35">
         <v>1215.28</v>
@@ -6217,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>816.4067840000014</v>
+        <v>1314.510783999998</v>
       </c>
       <c r="D36">
-        <v>502.625216</v>
+        <v>4.521215999999913</v>
       </c>
       <c r="E36">
         <v>1319.032</v>
@@ -6237,10 +6237,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>890.0307840000002</v>
+        <v>1380.976000000002</v>
       </c>
       <c r="D37">
-        <v>490.945216</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>1380.976</v>
@@ -6257,10 +6257,10 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>931.6547840000002</v>
+        <v>1432.718784</v>
       </c>
       <c r="D38">
-        <v>511.265216</v>
+        <v>10.20121600000024</v>
       </c>
       <c r="E38">
         <v>1442.92</v>
@@ -6277,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>883.159679999999</v>
+        <v>1385.703680000001</v>
       </c>
       <c r="D39">
-        <v>524.8803200000001</v>
+        <v>22.33632000000032</v>
       </c>
       <c r="E39">
         <v>1408.04</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>953.8764800000012</v>
+        <v>1461.100480000002</v>
       </c>
       <c r="D40">
-        <v>519.56352</v>
+        <v>12.33952000000024</v>
       </c>
       <c r="E40">
         <v>1473.44</v>
@@ -6317,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>892.6972799999993</v>
+        <v>1403.801279999998</v>
       </c>
       <c r="D41">
-        <v>546.24672</v>
+        <v>35.14271999999984</v>
       </c>
       <c r="E41">
         <v>1438.944</v>
@@ -6337,10 +6337,10 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1031.518079999998</v>
+        <v>1556.102080000001</v>
       </c>
       <c r="D42">
-        <v>572.92992</v>
+        <v>48.34592000000048</v>
       </c>
       <c r="E42">
         <v>1604.448</v>
@@ -6357,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1170.43488</v>
+        <v>1703.698879999999</v>
       </c>
       <c r="D43">
-        <v>599.61312</v>
+        <v>66.34911999999967</v>
       </c>
       <c r="E43">
         <v>1770.048</v>
@@ -6377,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1340.666496000001</v>
+        <v>1890.610496000001</v>
       </c>
       <c r="D44">
-        <v>594.9815040000001</v>
+        <v>45.03750399999993</v>
       </c>
       <c r="E44">
         <v>1935.648</v>
@@ -6397,10 +6397,10 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1338.381456000001</v>
+        <v>1958.711999999999</v>
       </c>
       <c r="D45">
-        <v>620.330544</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>1958.712</v>
@@ -6417,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1336.096416</v>
+        <v>1971.722656000002</v>
       </c>
       <c r="D46">
-        <v>645.679584</v>
+        <v>10.05334400000032</v>
       </c>
       <c r="E46">
         <v>1981.776</v>
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1338.611376000001</v>
+        <v>1980.924975999999</v>
       </c>
       <c r="D47">
-        <v>671.028624</v>
+        <v>28.71502400000024</v>
       </c>
       <c r="E47">
         <v>2009.64</v>
@@ -6457,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1341.126335999998</v>
+        <v>1990.127296000001</v>
       </c>
       <c r="D48">
-        <v>696.3776640000001</v>
+        <v>47.37670400000064</v>
       </c>
       <c r="E48">
         <v>2037.504</v>
@@ -6477,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1369.561295999999</v>
+        <v>2031.470415999999</v>
       </c>
       <c r="D49">
-        <v>721.726704</v>
+        <v>59.81758399999961</v>
       </c>
       <c r="E49">
         <v>2091.288</v>
@@ -6497,10 +6497,10 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1345.071999999999</v>
+        <v>1988.459372800001</v>
       </c>
       <c r="D50">
-        <v>800</v>
+        <v>156.6126271999992</v>
       </c>
       <c r="E50">
         <v>2145.072</v>
@@ -6517,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1393.168</v>
+        <v>2029.456403200001</v>
       </c>
       <c r="D51">
-        <v>800</v>
+        <v>163.7115968000008</v>
       </c>
       <c r="E51">
         <v>2193.168</v>
@@ -6537,10 +6537,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1441.264000000001</v>
+        <v>2038.453433600002</v>
       </c>
       <c r="D52">
-        <v>800</v>
+        <v>202.8105664</v>
       </c>
       <c r="E52">
         <v>2241.264</v>
@@ -6557,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1479.472000000002</v>
+        <v>2067.189344000001</v>
       </c>
       <c r="D53">
-        <v>800</v>
+        <v>212.282656</v>
       </c>
       <c r="E53">
         <v>2279.472</v>
@@ -6577,10 +6577,10 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1517.679999999998</v>
+        <v>2090.1652544</v>
       </c>
       <c r="D54">
-        <v>800</v>
+        <v>227.5147456</v>
       </c>
       <c r="E54">
         <v>2317.68</v>
@@ -6597,10 +6597,10 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1555.863999999998</v>
+        <v>2113.117164799999</v>
       </c>
       <c r="D55">
-        <v>800</v>
+        <v>242.7468352</v>
       </c>
       <c r="E55">
         <v>2355.864</v>
@@ -6617,10 +6617,10 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1594.047999999998</v>
+        <v>2136.069075200001</v>
       </c>
       <c r="D56">
-        <v>800</v>
+        <v>257.9789248000008</v>
       </c>
       <c r="E56">
         <v>2394.048</v>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1604.416</v>
+        <v>2131.204985600002</v>
       </c>
       <c r="D57">
-        <v>800</v>
+        <v>273.2110144</v>
       </c>
       <c r="E57">
         <v>2404.416</v>
@@ -6657,10 +6657,10 @@
         <v>500</v>
       </c>
       <c r="C58">
-        <v>1114.784000000001</v>
+        <v>1625.446175999999</v>
       </c>
       <c r="D58">
-        <v>800</v>
+        <v>289.337824</v>
       </c>
       <c r="E58">
         <v>2414.784</v>
@@ -6677,10 +6677,10 @@
         <v>500</v>
       </c>
       <c r="C59">
-        <v>1129.903999999999</v>
+        <v>1641.872966400001</v>
       </c>
       <c r="D59">
-        <v>800</v>
+        <v>288.0310336</v>
       </c>
       <c r="E59">
         <v>2429.904</v>
@@ -6697,10 +6697,10 @@
         <v>500</v>
       </c>
       <c r="C60">
-        <v>1145.024000000001</v>
+        <v>1652.082239999999</v>
       </c>
       <c r="D60">
-        <v>800</v>
+        <v>292.9417599999992</v>
       </c>
       <c r="E60">
         <v>2445.024</v>
@@ -6717,10 +6717,10 @@
         <v>500</v>
       </c>
       <c r="C61">
-        <v>1170.656000000001</v>
+        <v>1681.726393600002</v>
       </c>
       <c r="D61">
-        <v>800</v>
+        <v>288.9296064</v>
       </c>
       <c r="E61">
         <v>2470.656</v>
@@ -6737,10 +6737,10 @@
         <v>500</v>
       </c>
       <c r="C62">
-        <v>1196.288</v>
+        <v>1743.370547199999</v>
       </c>
       <c r="D62">
-        <v>800</v>
+        <v>252.9174527999992</v>
       </c>
       <c r="E62">
         <v>2496.288</v>
@@ -6757,10 +6757,10 @@
         <v>500</v>
       </c>
       <c r="C63">
-        <v>1221.584000000003</v>
+        <v>1823.798060800001</v>
       </c>
       <c r="D63">
-        <v>800</v>
+        <v>197.7859392000008</v>
       </c>
       <c r="E63">
         <v>2521.584000000001</v>
@@ -6777,10 +6777,10 @@
         <v>500</v>
       </c>
       <c r="C64">
-        <v>1246.880000000001</v>
+        <v>1856.2255744</v>
       </c>
       <c r="D64">
-        <v>800</v>
+        <v>190.6544256000008</v>
       </c>
       <c r="E64">
         <v>2546.880000000001</v>
@@ -6797,10 +6797,10 @@
         <v>500</v>
       </c>
       <c r="C65">
-        <v>1221.632</v>
+        <v>1825.978528000002</v>
       </c>
       <c r="D65">
-        <v>800</v>
+        <v>195.653472</v>
       </c>
       <c r="E65">
         <v>2521.632</v>
@@ -6817,10 +6817,10 @@
         <v>500</v>
       </c>
       <c r="C66">
-        <v>1196.383999999999</v>
+        <v>1795.731481599999</v>
       </c>
       <c r="D66">
-        <v>800</v>
+        <v>200.6525184</v>
       </c>
       <c r="E66">
         <v>2496.384</v>
@@ -6837,10 +6837,10 @@
         <v>500</v>
       </c>
       <c r="C67">
-        <v>1170.704000000002</v>
+        <v>1716.948755200002</v>
       </c>
       <c r="D67">
-        <v>800</v>
+        <v>253.7552448</v>
       </c>
       <c r="E67">
         <v>2470.704</v>
@@ -6857,10 +6857,10 @@
         <v>500</v>
       </c>
       <c r="C68">
-        <v>1145.024000000001</v>
+        <v>1686.166028799999</v>
       </c>
       <c r="D68">
-        <v>800</v>
+        <v>258.8579712</v>
       </c>
       <c r="E68">
         <v>2445.024</v>
@@ -6877,10 +6877,10 @@
         <v>500</v>
       </c>
       <c r="C69">
-        <v>1074.968000000001</v>
+        <v>1614.757062399999</v>
       </c>
       <c r="D69">
-        <v>800</v>
+        <v>260.2109376</v>
       </c>
       <c r="E69">
         <v>2374.968</v>
@@ -6897,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1504.912</v>
+        <v>2014.548095999998</v>
       </c>
       <c r="D70">
-        <v>800</v>
+        <v>290.363904</v>
       </c>
       <c r="E70">
         <v>2304.912</v>
@@ -6917,10 +6917,10 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1434.88</v>
+        <v>1923.491712000003</v>
       </c>
       <c r="D71">
-        <v>800</v>
+        <v>311.388288</v>
       </c>
       <c r="E71">
         <v>2234.880000000001</v>
@@ -6937,10 +6937,10 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1364.848</v>
+        <v>1880.435328</v>
       </c>
       <c r="D72">
-        <v>800</v>
+        <v>284.4126720000008</v>
       </c>
       <c r="E72">
         <v>2164.848</v>
@@ -6957,10 +6957,10 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1328.944000000002</v>
+        <v>1863.354624000001</v>
       </c>
       <c r="D73">
-        <v>800</v>
+        <v>265.589376</v>
       </c>
       <c r="E73">
         <v>2128.944</v>
@@ -6977,10 +6977,10 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1359.297696</v>
+        <v>1924.941216000001</v>
       </c>
       <c r="D74">
-        <v>733.742304</v>
+        <v>168.098784</v>
       </c>
       <c r="E74">
         <v>2093.04</v>
@@ -6997,10 +6997,10 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1367.413703999999</v>
+        <v>1932.097224000002</v>
       </c>
       <c r="D75">
-        <v>697.858296</v>
+        <v>133.174776</v>
       </c>
       <c r="E75">
         <v>2065.272</v>
@@ -7017,10 +7017,10 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1375.529712000003</v>
+        <v>1939.253231999999</v>
       </c>
       <c r="D76">
-        <v>661.974288</v>
+        <v>98.2507679999992</v>
       </c>
       <c r="E76">
         <v>2037.504</v>
@@ -7037,10 +7037,10 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1309.533719999999</v>
+        <v>1872.297240000001</v>
       </c>
       <c r="D77">
-        <v>626.09028</v>
+        <v>63.32676000000032</v>
       </c>
       <c r="E77">
         <v>1935.624</v>
@@ -7057,10 +7057,10 @@
         <v>500</v>
       </c>
       <c r="C78">
-        <v>743.5377279999982</v>
+        <v>1305.341247999999</v>
       </c>
       <c r="D78">
-        <v>590.206272</v>
+        <v>28.402752</v>
       </c>
       <c r="E78">
         <v>1833.744</v>
@@ -7077,10 +7077,10 @@
         <v>500</v>
       </c>
       <c r="C79">
-        <v>677.5417359999985</v>
+        <v>1231.864</v>
       </c>
       <c r="D79">
-        <v>554.322264</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>1731.864</v>
@@ -7097,10 +7097,10 @@
         <v>500</v>
       </c>
       <c r="C80">
-        <v>611.5457439999988</v>
+        <v>1129.984</v>
       </c>
       <c r="D80">
-        <v>518.438256</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>1629.984</v>
@@ -7117,10 +7117,10 @@
         <v>500</v>
       </c>
       <c r="C81">
-        <v>558.2937520000011</v>
+        <v>1040.848000000001</v>
       </c>
       <c r="D81">
-        <v>482.554248</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>1540.848</v>
@@ -7137,10 +7137,10 @@
         <v>416.379982204229</v>
       </c>
       <c r="C82">
-        <v>633.1528177957722</v>
+        <v>1135.332017795771</v>
       </c>
       <c r="D82">
-        <v>502.1792</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>1551.712</v>
@@ -7157,10 +7157,10 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1043.688128000002</v>
+        <v>1562.575999999998</v>
       </c>
       <c r="D83">
-        <v>518.887872</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>1562.576</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1099.879296000001</v>
+        <v>1573.440000000002</v>
       </c>
       <c r="D84">
-        <v>473.560704</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>1573.44</v>
@@ -7197,10 +7197,10 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1109.070463999995</v>
+        <v>1585.303999999994</v>
       </c>
       <c r="D85">
-        <v>476.233536</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>1585.303999999996</v>
@@ -7217,10 +7217,10 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1091.493632</v>
+        <v>1579.999999999999</v>
       </c>
       <c r="D86">
-        <v>488.5063680000001</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>1580</v>
@@ -7237,10 +7237,10 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1067.516800000002</v>
+        <v>1574.696000000003</v>
       </c>
       <c r="D87">
-        <v>507.1792</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>1574.696000000004</v>
@@ -7257,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1072.979968000008</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="D88">
-        <v>496.4120320000017</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>1569.392000000008</v>
@@ -7277,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1062.443136000011</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="D89">
-        <v>501.6448640000016</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>1564.088000000012</v>
@@ -7297,10 +7297,10 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1051.906304000014</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="D90">
-        <v>506.8776960000032</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>1558.784000000016</v>
@@ -7317,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1041.369472000016</v>
+        <v>1553.480000000021</v>
       </c>
       <c r="D91">
-        <v>512.1105280000048</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1553.48000000002</v>
@@ -7337,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1011.632640000018</v>
+        <v>1548.176000000025</v>
       </c>
       <c r="D92">
-        <v>536.5433600000064</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>1548.176000000024</v>
@@ -7357,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1001.095808000021</v>
+        <v>1542.49100800002</v>
       </c>
       <c r="D93">
-        <v>541.7761920000064</v>
+        <v>0.3809920000065176</v>
       </c>
       <c r="E93">
         <v>1542.872000000028</v>
@@ -7377,10 +7377,10 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1006.558976000023</v>
+        <v>1537.568000000034</v>
       </c>
       <c r="D94">
-        <v>531.009024000008</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>1537.568000000032</v>
@@ -7397,10 +7397,10 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>980.0221440000262</v>
+        <v>1513.366144000026</v>
       </c>
       <c r="D95">
-        <v>552.2418560000095</v>
+        <v>18.89785600000944</v>
       </c>
       <c r="E95">
         <v>1532.264000000036</v>
@@ -7417,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>953.4853120000295</v>
+        <v>1482.803712000028</v>
       </c>
       <c r="D96">
-        <v>573.4746880000112</v>
+        <v>44.15628800001105</v>
       </c>
       <c r="E96">
         <v>1526.96000000004</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>942.9484800000322</v>
+        <v>1468.241280000033</v>
       </c>
       <c r="D97">
-        <v>578.7075200000128</v>
+        <v>53.41472000001264</v>
       </c>
       <c r="E97">
         <v>1521.656000000044</v>
@@ -7487,13 +7487,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3562.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
       <c r="C2">
         <v>101.5151515151515</v>
       </c>
       <c r="D2">
-        <v>724.68152</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>-3623.4076</v>
@@ -7510,13 +7510,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3589.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
       <c r="C3">
         <v>101.5151515151515</v>
       </c>
       <c r="D3">
-        <v>730.08152</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-3650.4076</v>
@@ -7533,13 +7533,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3616.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
       <c r="C4">
         <v>101.5151515151515</v>
       </c>
       <c r="D4">
-        <v>735.4815199999999</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-3677.4076</v>
@@ -7556,13 +7556,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3643.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
       <c r="C5">
         <v>101.5151515151515</v>
       </c>
       <c r="D5">
-        <v>740.88152</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-3704.4076</v>
@@ -7579,13 +7579,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3670.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
       <c r="C6">
         <v>101.5151515151515</v>
       </c>
       <c r="D6">
-        <v>746.28152</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-3731.4076</v>
@@ -7602,13 +7602,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3697.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
       <c r="C7">
         <v>101.5151515151515</v>
       </c>
       <c r="D7">
-        <v>751.68152</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-3758.4076</v>
@@ -7625,13 +7625,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3724.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
       <c r="C8">
         <v>101.5151515151515</v>
       </c>
       <c r="D8">
-        <v>757.08152</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-3785.4076</v>
@@ -7648,13 +7648,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3591.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
       <c r="C9">
         <v>101.5151515151515</v>
       </c>
       <c r="D9">
-        <v>730.4815199999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-3652.4076</v>
@@ -7671,13 +7671,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3538.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
       <c r="C10">
         <v>101.5151515151515</v>
       </c>
       <c r="D10">
-        <v>719.8815199999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>-3599.4076</v>
@@ -7694,13 +7694,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3505.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
       <c r="C11">
         <v>101.5151515151515</v>
       </c>
       <c r="D11">
-        <v>713.28152</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-3566.4076</v>
@@ -7717,13 +7717,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3432.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
       <c r="C12">
         <v>101.5151515151515</v>
       </c>
       <c r="D12">
-        <v>698.6815199999999</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>-3493.4076</v>
@@ -7740,13 +7740,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3359.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
       <c r="C13">
         <v>101.5151515151515</v>
       </c>
       <c r="D13">
-        <v>684.08152</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>-3420.4076</v>
@@ -7763,13 +7763,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3386.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
       <c r="C14">
         <v>101.5151515151515</v>
       </c>
       <c r="D14">
-        <v>689.48152</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>-3447.4076</v>
@@ -7786,13 +7786,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3313.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
       <c r="C15">
         <v>101.5151515151515</v>
       </c>
       <c r="D15">
-        <v>674.8815199999999</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>-3374.4076</v>
@@ -7809,13 +7809,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3440.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
       <c r="C16">
         <v>101.5151515151515</v>
       </c>
       <c r="D16">
-        <v>700.28152</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-3501.4076</v>
@@ -7838,7 +7838,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D17">
-        <v>705.68152</v>
+        <v>5.17152000000033</v>
       </c>
       <c r="E17">
         <v>-3528.4076</v>
@@ -7861,7 +7861,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D18">
-        <v>711.08152</v>
+        <v>9.597520000000261</v>
       </c>
       <c r="E18">
         <v>-3555.4076</v>
@@ -7884,7 +7884,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D19">
-        <v>716.48152</v>
+        <v>18.0235200000002</v>
       </c>
       <c r="E19">
         <v>-3582.4076</v>
@@ -7907,7 +7907,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D20">
-        <v>717.88152</v>
+        <v>29.4495199999997</v>
       </c>
       <c r="E20">
         <v>-3589.4076</v>
@@ -7930,7 +7930,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D21">
-        <v>707.28152</v>
+        <v>34.8755200000005</v>
       </c>
       <c r="E21">
         <v>-3536.4076</v>
@@ -7953,7 +7953,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D22">
-        <v>712.68152</v>
+        <v>56.3015200000004</v>
       </c>
       <c r="E22">
         <v>-3563.4076</v>
@@ -7976,7 +7976,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D23">
-        <v>698.0815199999998</v>
+        <v>54.7275200000004</v>
       </c>
       <c r="E23">
         <v>-3490.4076</v>
@@ -7999,7 +7999,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D24">
-        <v>703.48152</v>
+        <v>69.1535200000003</v>
       </c>
       <c r="E24">
         <v>-3517.4076</v>
@@ -8022,7 +8022,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D25">
-        <v>688.88152</v>
+        <v>52.5795199999998</v>
       </c>
       <c r="E25">
         <v>-3444.4076</v>
@@ -8045,7 +8045,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D26">
-        <v>694.2815199999999</v>
+        <v>56.0055199999997</v>
       </c>
       <c r="E26">
         <v>-3471.4076</v>
@@ -8068,7 +8068,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D27">
-        <v>679.68152</v>
+        <v>53.7015200000001</v>
       </c>
       <c r="E27">
         <v>-3398.4076</v>
@@ -8091,7 +8091,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D28">
-        <v>665.08152</v>
+        <v>57.2515200000003</v>
       </c>
       <c r="E28">
         <v>-3325.4076</v>
@@ -8114,7 +8114,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D29">
-        <v>670.4815199999999</v>
+        <v>60.80152000000041</v>
       </c>
       <c r="E29">
         <v>-3352.4076</v>
@@ -8137,7 +8137,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D30">
-        <v>675.88152</v>
+        <v>64.3515199999997</v>
       </c>
       <c r="E30">
         <v>-3379.4076</v>
@@ -8160,7 +8160,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D31">
-        <v>661.28152</v>
+        <v>47.9015199999999</v>
       </c>
       <c r="E31">
         <v>-3306.4076</v>
@@ -8183,7 +8183,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D32">
-        <v>666.68152</v>
+        <v>51.4515200000001</v>
       </c>
       <c r="E32">
         <v>-3333.4076</v>
@@ -8206,7 +8206,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D33">
-        <v>672.08152</v>
+        <v>55.0015200000003</v>
       </c>
       <c r="E33">
         <v>-3360.4076</v>
@@ -8229,7 +8229,7 @@
         <v>1116.666666666667</v>
       </c>
       <c r="D34">
-        <v>657.48152</v>
+        <v>38.5515200000004</v>
       </c>
       <c r="E34">
         <v>-3287.4076</v>
@@ -8252,7 +8252,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D35">
-        <v>642.88152</v>
+        <v>22.1015199999997</v>
       </c>
       <c r="E35">
         <v>-3214.4076</v>
@@ -8275,7 +8275,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D36">
-        <v>628.28152</v>
+        <v>5.65151999999989</v>
       </c>
       <c r="E36">
         <v>-3141.4076</v>
@@ -8292,13 +8292,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1850.22578181818</v>
+        <v>1861.02426181818</v>
       </c>
       <c r="C37">
         <v>2030.30303030303</v>
       </c>
       <c r="D37">
-        <v>613.68152</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>-3068.4076</v>
@@ -8321,7 +8321,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D38">
-        <v>639.08152</v>
+        <v>12.7515200000003</v>
       </c>
       <c r="E38">
         <v>-3195.4076</v>
@@ -8344,7 +8344,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D39">
-        <v>656.1004</v>
+        <v>27.9204000000004</v>
       </c>
       <c r="E39">
         <v>-3280.502</v>
@@ -8367,7 +8367,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D40">
-        <v>649.4544</v>
+        <v>15.4244000000003</v>
       </c>
       <c r="E40">
         <v>-3247.272</v>
@@ -8390,7 +8390,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D41">
-        <v>682.8083999999999</v>
+        <v>43.9283999999998</v>
       </c>
       <c r="E41">
         <v>-3414.041999999999</v>
@@ -8413,7 +8413,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D42">
-        <v>716.1624</v>
+        <v>60.4324000000006</v>
       </c>
       <c r="E42">
         <v>-3580.812</v>
@@ -8436,7 +8436,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D43">
-        <v>749.5164</v>
+        <v>82.93639999999958</v>
       </c>
       <c r="E43">
         <v>-3747.582</v>
@@ -8459,7 +8459,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D44">
-        <v>743.7268800000001</v>
+        <v>56.29687999999991</v>
       </c>
       <c r="E44">
         <v>-3718.6344</v>
@@ -8476,13 +8476,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2658.88408181818</v>
+        <v>2671.08450181818</v>
       </c>
       <c r="C45">
         <v>2030.30303030303</v>
       </c>
       <c r="D45">
-        <v>775.41318</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>-3877.0659</v>
@@ -8505,7 +8505,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D46">
-        <v>807.09948</v>
+        <v>12.5666800000004</v>
       </c>
       <c r="E46">
         <v>-4035.4974</v>
@@ -8528,7 +8528,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D47">
-        <v>838.78578</v>
+        <v>35.8937800000003</v>
       </c>
       <c r="E47">
         <v>-4193.928899999999</v>
@@ -8551,7 +8551,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D48">
-        <v>870.4720800000001</v>
+        <v>59.2208800000008</v>
       </c>
       <c r="E48">
         <v>-4352.3604</v>
@@ -8574,7 +8574,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D49">
-        <v>902.15838</v>
+        <v>74.7719799999995</v>
       </c>
       <c r="E49">
         <v>-4510.791899999999</v>
@@ -8597,7 +8597,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D50">
-        <v>1000</v>
+        <v>195.765783999999</v>
       </c>
       <c r="E50">
         <v>-5196.436919999998</v>
@@ -8620,7 +8620,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D51">
-        <v>1000</v>
+        <v>204.639496000001</v>
       </c>
       <c r="E51">
         <v>-5312.94948</v>
@@ -8643,7 +8643,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D52">
-        <v>1000</v>
+        <v>253.513208</v>
       </c>
       <c r="E52">
         <v>-5429.46204</v>
@@ -8666,7 +8666,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D53">
-        <v>1000</v>
+        <v>265.35332</v>
       </c>
       <c r="E53">
         <v>-5545.9746</v>
@@ -8689,7 +8689,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D54">
-        <v>1000</v>
+        <v>284.393432</v>
       </c>
       <c r="E54">
         <v>-5662.487160000001</v>
@@ -8712,7 +8712,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D55">
-        <v>1000</v>
+        <v>303.433544</v>
       </c>
       <c r="E55">
         <v>-5778.99972</v>
@@ -8735,7 +8735,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D56">
-        <v>1000</v>
+        <v>322.473656000001</v>
       </c>
       <c r="E56">
         <v>-5895.51228</v>
@@ -8758,7 +8758,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D57">
-        <v>1000</v>
+        <v>341.513768</v>
       </c>
       <c r="E57">
         <v>-6012.024839999999</v>
@@ -8781,7 +8781,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D58">
-        <v>1000</v>
+        <v>361.67228</v>
       </c>
       <c r="E58">
         <v>-6128.5374</v>
@@ -8804,7 +8804,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D59">
-        <v>1000</v>
+        <v>360.038792</v>
       </c>
       <c r="E59">
         <v>-6245.04996</v>
@@ -8827,7 +8827,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D60">
-        <v>1000</v>
+        <v>366.1771999999989</v>
       </c>
       <c r="E60">
         <v>-6238.421999999998</v>
@@ -8850,7 +8850,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D61">
-        <v>1000</v>
+        <v>361.162008</v>
       </c>
       <c r="E61">
         <v>-6231.79404</v>
@@ -8873,7 +8873,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D62">
-        <v>1000</v>
+        <v>316.146815999999</v>
       </c>
       <c r="E62">
         <v>-6225.166079999999</v>
@@ -8896,7 +8896,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D63">
-        <v>1000</v>
+        <v>247.232424000001</v>
       </c>
       <c r="E63">
         <v>-6218.53812</v>
@@ -8919,7 +8919,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D64">
-        <v>1000</v>
+        <v>238.318032000001</v>
       </c>
       <c r="E64">
         <v>-6211.91016</v>
@@ -8942,7 +8942,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D65">
-        <v>1000</v>
+        <v>244.56684</v>
       </c>
       <c r="E65">
         <v>-6205.2822</v>
@@ -8965,7 +8965,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D66">
-        <v>1000</v>
+        <v>250.815648</v>
       </c>
       <c r="E66">
         <v>-6198.654240000001</v>
@@ -8988,7 +8988,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D67">
-        <v>1000</v>
+        <v>317.194056</v>
       </c>
       <c r="E67">
         <v>-6192.026279999999</v>
@@ -9011,7 +9011,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D68">
-        <v>1000</v>
+        <v>323.572464</v>
       </c>
       <c r="E68">
         <v>-6185.398319999999</v>
@@ -9034,7 +9034,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D69">
-        <v>1000</v>
+        <v>325.263672</v>
       </c>
       <c r="E69">
         <v>-6178.77036</v>
@@ -9057,7 +9057,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D70">
-        <v>1000</v>
+        <v>362.9548799999999</v>
       </c>
       <c r="E70">
         <v>-6172.1424</v>
@@ -9080,7 +9080,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D71">
-        <v>1000</v>
+        <v>389.23536</v>
       </c>
       <c r="E71">
         <v>-5898.4968</v>
@@ -9103,7 +9103,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D72">
-        <v>1000</v>
+        <v>355.5158400000009</v>
       </c>
       <c r="E72">
         <v>-5624.8512</v>
@@ -9126,7 +9126,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D73">
-        <v>1000</v>
+        <v>331.98672</v>
       </c>
       <c r="E73">
         <v>-5351.205599999999</v>
@@ -9149,7 +9149,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D74">
-        <v>917.17788</v>
+        <v>210.12348</v>
       </c>
       <c r="E74">
         <v>-4585.889399999999</v>
@@ -9172,7 +9172,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D75">
-        <v>872.32287</v>
+        <v>166.46847</v>
       </c>
       <c r="E75">
         <v>-4361.614350000001</v>
@@ -9195,7 +9195,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D76">
-        <v>827.46786</v>
+        <v>122.813459999999</v>
       </c>
       <c r="E76">
         <v>-4137.3393</v>
@@ -9218,7 +9218,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D77">
-        <v>782.61285</v>
+        <v>79.1584500000004</v>
       </c>
       <c r="E77">
         <v>-3913.064249999999</v>
@@ -9241,7 +9241,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D78">
-        <v>737.75784</v>
+        <v>35.50344</v>
       </c>
       <c r="E78">
         <v>-3688.7892</v>
@@ -9258,13 +9258,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2246.33233181818</v>
+        <v>2249.98870181818</v>
       </c>
       <c r="C79">
         <v>2030.30303030303</v>
       </c>
       <c r="D79">
-        <v>692.90283</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>-3464.51415</v>
@@ -9281,13 +9281,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2022.05728181818</v>
+        <v>2085.00466181818</v>
       </c>
       <c r="C80">
         <v>2030.30303030303</v>
       </c>
       <c r="D80">
-        <v>648.04782</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>-3240.2391</v>
@@ -9304,13 +9304,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1797.78223181818</v>
+        <v>1878.84382181818</v>
       </c>
       <c r="C81">
         <v>2030.30303030303</v>
       </c>
       <c r="D81">
-        <v>603.19281</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>-3015.96405</v>
@@ -9327,13 +9327,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1920.43818181818</v>
+        <v>1968.22778181818</v>
       </c>
       <c r="C82">
         <v>2030.30303030303</v>
       </c>
       <c r="D82">
-        <v>627.724</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>-3138.62</v>
@@ -9350,13 +9350,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2024.86738181818</v>
+        <v>2025.03034181818</v>
       </c>
       <c r="C83">
         <v>2030.30303030303</v>
       </c>
       <c r="D83">
-        <v>648.60984</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>-3243.049199999999</v>
@@ -9373,13 +9373,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1741.57258181818</v>
+        <v>1871.65370181818</v>
       </c>
       <c r="C84">
         <v>2030.30303030303</v>
       </c>
       <c r="D84">
-        <v>591.95088</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>-2959.7544</v>
@@ -9396,13 +9396,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1758.27778181818</v>
+        <v>1879.98586181818</v>
       </c>
       <c r="C85">
         <v>2030.30303030303</v>
       </c>
       <c r="D85">
-        <v>595.29192</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>-2976.4596</v>
@@ -9419,13 +9419,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1834.98298181818</v>
+        <v>1936.31802181818</v>
       </c>
       <c r="C86">
         <v>2030.30303030303</v>
       </c>
       <c r="D86">
-        <v>610.63296</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>-3053.1648</v>
@@ -9442,13 +9442,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1951.68818181818</v>
+        <v>2024.65018181818</v>
       </c>
       <c r="C87">
         <v>2030.30303030303</v>
       </c>
       <c r="D87">
-        <v>633.974</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>-3169.87</v>
@@ -9465,13 +9465,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1884.39338181819</v>
+        <v>1965.78234181819</v>
       </c>
       <c r="C88">
         <v>2030.30303030303</v>
       </c>
       <c r="D88">
-        <v>620.515040000002</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>-3102.57520000001</v>
@@ -9488,13 +9488,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1917.09858181819</v>
+        <v>1986.91450181819</v>
       </c>
       <c r="C89">
         <v>2030.30303030303</v>
       </c>
       <c r="D89">
-        <v>627.056080000002</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>-3135.28040000001</v>
@@ -9511,13 +9511,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1949.8037818182</v>
+        <v>2008.0466618182</v>
       </c>
       <c r="C90">
         <v>2030.30303030303</v>
       </c>
       <c r="D90">
-        <v>633.597120000004</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>-3167.98560000002</v>
@@ -9534,13 +9534,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1982.50898181821</v>
+        <v>2029.17882181821</v>
       </c>
       <c r="C91">
         <v>2030.30303030303</v>
       </c>
       <c r="D91">
-        <v>640.138160000006</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>-3200.69080000003</v>
@@ -9557,13 +9557,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2135.21418181822</v>
+        <v>2146.31098181821</v>
       </c>
       <c r="C92">
         <v>2030.30303030303</v>
       </c>
       <c r="D92">
-        <v>670.6792000000079</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>-3353.39600000004</v>
@@ -9586,7 +9586,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D93">
-        <v>677.2202400000079</v>
+        <v>0.476240000008147</v>
       </c>
       <c r="E93">
         <v>-3386.10120000004</v>
@@ -9603,13 +9603,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2100.62458181823</v>
+        <v>2108.57530181822</v>
       </c>
       <c r="C94">
         <v>2030.30303030303</v>
       </c>
       <c r="D94">
-        <v>663.7612800000099</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>-3318.80640000005</v>
@@ -9632,7 +9632,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D95">
-        <v>690.3023200000118</v>
+        <v>23.6223200000118</v>
       </c>
       <c r="E95">
         <v>-3451.51160000006</v>
@@ -9655,7 +9655,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D96">
-        <v>716.8433600000139</v>
+        <v>55.19536000001381</v>
       </c>
       <c r="E96">
         <v>-3584.21680000007</v>
@@ -9678,7 +9678,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D97">
-        <v>723.3844000000159</v>
+        <v>66.7684000000158</v>
       </c>
       <c r="E97">
         <v>-3616.92200000008</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3562.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
       <c r="C2">
         <v>60.90909090909089</v>
@@ -9749,7 +9749,7 @@
         <v>724.6815200000001</v>
       </c>
       <c r="F2">
-        <v>3562.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
       <c r="G2">
         <v>-3623.4076</v>
@@ -9758,10 +9758,10 @@
         <v>-3623.4076</v>
       </c>
       <c r="I2">
-        <v>-724.68152</v>
+        <v>-0</v>
       </c>
       <c r="J2">
-        <v>579.745216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9769,7 +9769,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3589.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
       <c r="C3">
         <v>60.90909090909089</v>
@@ -9781,7 +9781,7 @@
         <v>730.0815200000001</v>
       </c>
       <c r="F3">
-        <v>3589.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
       <c r="G3">
         <v>-3650.4076</v>
@@ -9790,10 +9790,10 @@
         <v>-3650.4076</v>
       </c>
       <c r="I3">
-        <v>-730.08152</v>
+        <v>-0</v>
       </c>
       <c r="J3">
-        <v>584.065216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9801,7 +9801,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3616.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
       <c r="C4">
         <v>60.90909090909089</v>
@@ -9813,7 +9813,7 @@
         <v>735.48152</v>
       </c>
       <c r="F4">
-        <v>3616.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
       <c r="G4">
         <v>-3677.4076</v>
@@ -9822,10 +9822,10 @@
         <v>-3677.4076</v>
       </c>
       <c r="I4">
-        <v>-735.4815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J4">
-        <v>588.385216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9833,7 +9833,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3643.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
       <c r="C5">
         <v>60.90909090909089</v>
@@ -9845,7 +9845,7 @@
         <v>740.88152</v>
       </c>
       <c r="F5">
-        <v>3643.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
       <c r="G5">
         <v>-3704.4076</v>
@@ -9854,10 +9854,10 @@
         <v>-3704.4076</v>
       </c>
       <c r="I5">
-        <v>-740.88152</v>
+        <v>-0</v>
       </c>
       <c r="J5">
-        <v>592.7052160000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9865,7 +9865,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3670.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
       <c r="C6">
         <v>60.90909090909089</v>
@@ -9877,7 +9877,7 @@
         <v>746.28152</v>
       </c>
       <c r="F6">
-        <v>3670.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
       <c r="G6">
         <v>-3731.4076</v>
@@ -9886,10 +9886,10 @@
         <v>-3731.4076</v>
       </c>
       <c r="I6">
-        <v>-746.28152</v>
+        <v>-0</v>
       </c>
       <c r="J6">
-        <v>597.025216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9897,7 +9897,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3697.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
       <c r="C7">
         <v>60.90909090909089</v>
@@ -9909,7 +9909,7 @@
         <v>751.6815200000001</v>
       </c>
       <c r="F7">
-        <v>3697.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
       <c r="G7">
         <v>-3758.4076</v>
@@ -9918,10 +9918,10 @@
         <v>-3758.4076</v>
       </c>
       <c r="I7">
-        <v>-751.68152</v>
+        <v>-0</v>
       </c>
       <c r="J7">
-        <v>601.3452160000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9929,7 +9929,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3724.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
       <c r="C8">
         <v>60.90909090909089</v>
@@ -9941,7 +9941,7 @@
         <v>757.0815200000001</v>
       </c>
       <c r="F8">
-        <v>3724.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
       <c r="G8">
         <v>-3785.4076</v>
@@ -9950,10 +9950,10 @@
         <v>-3785.4076</v>
       </c>
       <c r="I8">
-        <v>-757.08152</v>
+        <v>-0</v>
       </c>
       <c r="J8">
-        <v>605.665216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9961,7 +9961,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3591.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
       <c r="C9">
         <v>60.90909090909089</v>
@@ -9973,7 +9973,7 @@
         <v>730.48152</v>
       </c>
       <c r="F9">
-        <v>3591.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
       <c r="G9">
         <v>-3652.4076</v>
@@ -9982,10 +9982,10 @@
         <v>-3652.4076</v>
       </c>
       <c r="I9">
-        <v>-730.4815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J9">
-        <v>584.385216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9993,7 +9993,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3538.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
       <c r="C10">
         <v>60.90909090909089</v>
@@ -10005,7 +10005,7 @@
         <v>719.88152</v>
       </c>
       <c r="F10">
-        <v>3538.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
       <c r="G10">
         <v>-3599.4076</v>
@@ -10014,10 +10014,10 @@
         <v>-3599.4076</v>
       </c>
       <c r="I10">
-        <v>-719.8815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J10">
-        <v>575.905216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10025,7 +10025,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3505.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
       <c r="C11">
         <v>60.90909090909089</v>
@@ -10037,7 +10037,7 @@
         <v>713.28152</v>
       </c>
       <c r="F11">
-        <v>3505.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
       <c r="G11">
         <v>-3566.4076</v>
@@ -10046,10 +10046,10 @@
         <v>-3566.4076</v>
       </c>
       <c r="I11">
-        <v>-713.28152</v>
+        <v>-0</v>
       </c>
       <c r="J11">
-        <v>570.625216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10057,7 +10057,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3432.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
       <c r="C12">
         <v>60.90909090909089</v>
@@ -10069,7 +10069,7 @@
         <v>698.6815200000001</v>
       </c>
       <c r="F12">
-        <v>3432.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
       <c r="G12">
         <v>-3493.4076</v>
@@ -10078,10 +10078,10 @@
         <v>-3493.4076</v>
       </c>
       <c r="I12">
-        <v>-698.6815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J12">
-        <v>558.945216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10089,7 +10089,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3359.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
       <c r="C13">
         <v>60.90909090909089</v>
@@ -10101,7 +10101,7 @@
         <v>684.0815200000001</v>
       </c>
       <c r="F13">
-        <v>3359.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
       <c r="G13">
         <v>-3420.4076</v>
@@ -10110,10 +10110,10 @@
         <v>-3420.4076</v>
       </c>
       <c r="I13">
-        <v>-684.08152</v>
+        <v>-0</v>
       </c>
       <c r="J13">
-        <v>547.265216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10121,7 +10121,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3386.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
       <c r="C14">
         <v>60.90909090909089</v>
@@ -10133,7 +10133,7 @@
         <v>689.48152</v>
       </c>
       <c r="F14">
-        <v>3386.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
       <c r="G14">
         <v>-3447.4076</v>
@@ -10142,10 +10142,10 @@
         <v>-3447.4076</v>
       </c>
       <c r="I14">
-        <v>-689.48152</v>
+        <v>-0</v>
       </c>
       <c r="J14">
-        <v>551.5852160000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10153,7 +10153,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3313.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
       <c r="C15">
         <v>60.90909090909089</v>
@@ -10165,7 +10165,7 @@
         <v>674.88152</v>
       </c>
       <c r="F15">
-        <v>3313.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
       <c r="G15">
         <v>-3374.4076</v>
@@ -10174,10 +10174,10 @@
         <v>-3374.4076</v>
       </c>
       <c r="I15">
-        <v>-674.8815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J15">
-        <v>539.905216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10185,7 +10185,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3440.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
       <c r="C16">
         <v>60.90909090909089</v>
@@ -10197,7 +10197,7 @@
         <v>700.28152</v>
       </c>
       <c r="F16">
-        <v>3440.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
       <c r="G16">
         <v>-3501.4076</v>
@@ -10206,10 +10206,10 @@
         <v>-3501.4076</v>
       </c>
       <c r="I16">
-        <v>-700.28152</v>
+        <v>-0</v>
       </c>
       <c r="J16">
-        <v>560.225216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10238,10 +10238,10 @@
         <v>-3528.4076</v>
       </c>
       <c r="I17">
-        <v>-705.68152</v>
+        <v>-5.17152000000033</v>
       </c>
       <c r="J17">
-        <v>564.545216</v>
+        <v>4.137216000000264</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10270,10 +10270,10 @@
         <v>-3555.4076</v>
       </c>
       <c r="I18">
-        <v>-711.08152</v>
+        <v>-9.597520000000261</v>
       </c>
       <c r="J18">
-        <v>568.865216</v>
+        <v>7.678016000000209</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10302,10 +10302,10 @@
         <v>-3582.4076</v>
       </c>
       <c r="I19">
-        <v>-716.48152</v>
+        <v>-18.0235200000002</v>
       </c>
       <c r="J19">
-        <v>573.1852160000001</v>
+        <v>14.41881600000016</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10334,10 +10334,10 @@
         <v>-3589.4076</v>
       </c>
       <c r="I20">
-        <v>-717.88152</v>
+        <v>-29.4495199999997</v>
       </c>
       <c r="J20">
-        <v>574.3052160000001</v>
+        <v>23.55961599999976</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10366,10 +10366,10 @@
         <v>-3536.4076</v>
       </c>
       <c r="I21">
-        <v>-707.28152</v>
+        <v>-34.8755200000005</v>
       </c>
       <c r="J21">
-        <v>565.8252160000001</v>
+        <v>27.9004160000004</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10398,10 +10398,10 @@
         <v>-3563.4076</v>
       </c>
       <c r="I22">
-        <v>-712.68152</v>
+        <v>-56.3015200000004</v>
       </c>
       <c r="J22">
-        <v>570.145216</v>
+        <v>45.04121600000033</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10430,10 +10430,10 @@
         <v>-3490.4076</v>
       </c>
       <c r="I23">
-        <v>-698.0815199999998</v>
+        <v>-54.7275200000004</v>
       </c>
       <c r="J23">
-        <v>558.4652159999999</v>
+        <v>43.78201600000033</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10462,10 +10462,10 @@
         <v>-3517.4076</v>
       </c>
       <c r="I24">
-        <v>-703.48152</v>
+        <v>-69.1535200000003</v>
       </c>
       <c r="J24">
-        <v>562.7852160000001</v>
+        <v>55.32281600000024</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10494,10 +10494,10 @@
         <v>-3444.4076</v>
       </c>
       <c r="I25">
-        <v>-688.88152</v>
+        <v>-52.5795199999998</v>
       </c>
       <c r="J25">
-        <v>551.105216</v>
+        <v>42.06361599999985</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10526,10 +10526,10 @@
         <v>-3471.4076</v>
       </c>
       <c r="I26">
-        <v>-694.2815199999999</v>
+        <v>-56.0055199999997</v>
       </c>
       <c r="J26">
-        <v>555.425216</v>
+        <v>44.80441599999976</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10558,10 +10558,10 @@
         <v>-3398.4076</v>
       </c>
       <c r="I27">
-        <v>-679.68152</v>
+        <v>-53.7015200000001</v>
       </c>
       <c r="J27">
-        <v>543.745216</v>
+        <v>42.96121600000009</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10590,10 +10590,10 @@
         <v>-3325.4076</v>
       </c>
       <c r="I28">
-        <v>-665.08152</v>
+        <v>-57.2515200000003</v>
       </c>
       <c r="J28">
-        <v>532.065216</v>
+        <v>45.80121600000024</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10622,10 +10622,10 @@
         <v>-3352.4076</v>
       </c>
       <c r="I29">
-        <v>-670.4815199999999</v>
+        <v>-60.80152000000041</v>
       </c>
       <c r="J29">
-        <v>536.385216</v>
+        <v>48.64121600000033</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10654,10 +10654,10 @@
         <v>-3379.4076</v>
       </c>
       <c r="I30">
-        <v>-675.88152</v>
+        <v>-64.3515199999997</v>
       </c>
       <c r="J30">
-        <v>540.7052160000001</v>
+        <v>51.48121599999976</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10686,10 +10686,10 @@
         <v>-3306.4076</v>
       </c>
       <c r="I31">
-        <v>-661.28152</v>
+        <v>-47.9015199999999</v>
       </c>
       <c r="J31">
-        <v>529.025216</v>
+        <v>38.32121599999992</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10718,10 +10718,10 @@
         <v>-3333.4076</v>
       </c>
       <c r="I32">
-        <v>-666.68152</v>
+        <v>-51.4515200000001</v>
       </c>
       <c r="J32">
-        <v>533.3452160000001</v>
+        <v>41.16121600000008</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10750,10 +10750,10 @@
         <v>-3360.4076</v>
       </c>
       <c r="I33">
-        <v>-672.08152</v>
+        <v>-55.0015200000003</v>
       </c>
       <c r="J33">
-        <v>537.665216</v>
+        <v>44.00121600000024</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -10782,10 +10782,10 @@
         <v>-3287.4076</v>
       </c>
       <c r="I34">
-        <v>-657.48152</v>
+        <v>-38.5515200000004</v>
       </c>
       <c r="J34">
-        <v>525.985216</v>
+        <v>30.84121600000032</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -10814,10 +10814,10 @@
         <v>-3214.4076</v>
       </c>
       <c r="I35">
-        <v>-642.88152</v>
+        <v>-22.1015199999997</v>
       </c>
       <c r="J35">
-        <v>514.3052160000001</v>
+        <v>17.68121599999976</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -10846,10 +10846,10 @@
         <v>-3141.4076</v>
       </c>
       <c r="I36">
-        <v>-628.28152</v>
+        <v>-5.65151999999989</v>
       </c>
       <c r="J36">
-        <v>502.625216</v>
+        <v>4.521215999999913</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -10857,7 +10857,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1850.22578181818</v>
+        <v>1861.02426181818</v>
       </c>
       <c r="C37">
         <v>1218.181818181818</v>
@@ -10869,7 +10869,7 @@
         <v>613.68152</v>
       </c>
       <c r="F37">
-        <v>1850.22578181818</v>
+        <v>1861.02426181818</v>
       </c>
       <c r="G37">
         <v>-3068.4076</v>
@@ -10878,10 +10878,10 @@
         <v>-3068.4076</v>
       </c>
       <c r="I37">
-        <v>-613.68152</v>
+        <v>-0</v>
       </c>
       <c r="J37">
-        <v>490.945216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -10910,10 +10910,10 @@
         <v>-3195.4076</v>
       </c>
       <c r="I38">
-        <v>-639.08152</v>
+        <v>-12.7515200000003</v>
       </c>
       <c r="J38">
-        <v>511.265216</v>
+        <v>10.20121600000024</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -10942,10 +10942,10 @@
         <v>-3280.502</v>
       </c>
       <c r="I39">
-        <v>-656.1004</v>
+        <v>-27.9204000000004</v>
       </c>
       <c r="J39">
-        <v>524.8803200000001</v>
+        <v>22.33632000000032</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -10974,10 +10974,10 @@
         <v>-3247.272</v>
       </c>
       <c r="I40">
-        <v>-649.4544</v>
+        <v>-15.4244000000003</v>
       </c>
       <c r="J40">
-        <v>519.56352</v>
+        <v>12.33952000000024</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -11006,10 +11006,10 @@
         <v>-3414.041999999999</v>
       </c>
       <c r="I41">
-        <v>-682.8083999999999</v>
+        <v>-43.9283999999998</v>
       </c>
       <c r="J41">
-        <v>546.24672</v>
+        <v>35.14271999999984</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -11038,10 +11038,10 @@
         <v>-3580.812</v>
       </c>
       <c r="I42">
-        <v>-716.1624</v>
+        <v>-60.4324000000006</v>
       </c>
       <c r="J42">
-        <v>572.92992</v>
+        <v>48.34592000000048</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -11070,10 +11070,10 @@
         <v>-3747.582</v>
       </c>
       <c r="I43">
-        <v>-749.5164</v>
+        <v>-82.93639999999958</v>
       </c>
       <c r="J43">
-        <v>599.61312</v>
+        <v>66.34911999999967</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -11102,10 +11102,10 @@
         <v>-3718.6344</v>
       </c>
       <c r="I44">
-        <v>-743.7268800000001</v>
+        <v>-56.29687999999991</v>
       </c>
       <c r="J44">
-        <v>594.9815040000001</v>
+        <v>45.03750399999993</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -11113,7 +11113,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2658.88408181818</v>
+        <v>2671.08450181818</v>
       </c>
       <c r="C45">
         <v>1218.181818181818</v>
@@ -11125,7 +11125,7 @@
         <v>775.41318</v>
       </c>
       <c r="F45">
-        <v>2658.88408181818</v>
+        <v>2671.08450181818</v>
       </c>
       <c r="G45">
         <v>-3877.0659</v>
@@ -11134,10 +11134,10 @@
         <v>-3877.0659</v>
       </c>
       <c r="I45">
-        <v>-775.41318</v>
+        <v>-0</v>
       </c>
       <c r="J45">
-        <v>620.330544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -11166,10 +11166,10 @@
         <v>-4035.4974</v>
       </c>
       <c r="I46">
-        <v>-807.09948</v>
+        <v>-12.5666800000004</v>
       </c>
       <c r="J46">
-        <v>645.679584</v>
+        <v>10.05334400000032</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -11198,10 +11198,10 @@
         <v>-4193.928899999999</v>
       </c>
       <c r="I47">
-        <v>-838.78578</v>
+        <v>-35.8937800000003</v>
       </c>
       <c r="J47">
-        <v>671.028624</v>
+        <v>28.71502400000024</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -11230,10 +11230,10 @@
         <v>-4352.3604</v>
       </c>
       <c r="I48">
-        <v>-870.4720800000001</v>
+        <v>-59.2208800000008</v>
       </c>
       <c r="J48">
-        <v>696.3776640000001</v>
+        <v>47.37670400000064</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -11262,10 +11262,10 @@
         <v>-4510.791899999999</v>
       </c>
       <c r="I49">
-        <v>-902.15838</v>
+        <v>-74.7719799999995</v>
       </c>
       <c r="J49">
-        <v>721.726704</v>
+        <v>59.81758399999961</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -11294,10 +11294,10 @@
         <v>-5196.436919999998</v>
       </c>
       <c r="I50">
-        <v>-1000</v>
+        <v>-195.765783999999</v>
       </c>
       <c r="J50">
-        <v>800</v>
+        <v>156.6126271999992</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -11326,10 +11326,10 @@
         <v>-5312.94948</v>
       </c>
       <c r="I51">
-        <v>-1000</v>
+        <v>-204.639496000001</v>
       </c>
       <c r="J51">
-        <v>800</v>
+        <v>163.7115968000008</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -11358,10 +11358,10 @@
         <v>-5429.46204</v>
       </c>
       <c r="I52">
-        <v>-1000</v>
+        <v>-253.513208</v>
       </c>
       <c r="J52">
-        <v>800</v>
+        <v>202.8105664</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -11390,10 +11390,10 @@
         <v>-5545.9746</v>
       </c>
       <c r="I53">
-        <v>-1000</v>
+        <v>-265.35332</v>
       </c>
       <c r="J53">
-        <v>800</v>
+        <v>212.282656</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -11422,10 +11422,10 @@
         <v>-5662.487160000001</v>
       </c>
       <c r="I54">
-        <v>-1000</v>
+        <v>-284.393432</v>
       </c>
       <c r="J54">
-        <v>800</v>
+        <v>227.5147456</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -11454,10 +11454,10 @@
         <v>-5778.99972</v>
       </c>
       <c r="I55">
-        <v>-1000</v>
+        <v>-303.433544</v>
       </c>
       <c r="J55">
-        <v>800</v>
+        <v>242.7468352</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -11486,10 +11486,10 @@
         <v>-5895.51228</v>
       </c>
       <c r="I56">
-        <v>-1000</v>
+        <v>-322.473656000001</v>
       </c>
       <c r="J56">
-        <v>800</v>
+        <v>257.9789248000008</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -11518,10 +11518,10 @@
         <v>-6012.024839999999</v>
       </c>
       <c r="I57">
-        <v>-1000</v>
+        <v>-341.513768</v>
       </c>
       <c r="J57">
-        <v>800</v>
+        <v>273.2110144</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -11550,10 +11550,10 @@
         <v>-6128.5374</v>
       </c>
       <c r="I58">
-        <v>-1000</v>
+        <v>-361.67228</v>
       </c>
       <c r="J58">
-        <v>800</v>
+        <v>289.337824</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -11582,10 +11582,10 @@
         <v>-6245.04996</v>
       </c>
       <c r="I59">
-        <v>-1000</v>
+        <v>-360.038792</v>
       </c>
       <c r="J59">
-        <v>800</v>
+        <v>288.0310336</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -11614,10 +11614,10 @@
         <v>-6238.421999999998</v>
       </c>
       <c r="I60">
-        <v>-1000</v>
+        <v>-366.1771999999989</v>
       </c>
       <c r="J60">
-        <v>800</v>
+        <v>292.9417599999992</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -11646,10 +11646,10 @@
         <v>-6231.79404</v>
       </c>
       <c r="I61">
-        <v>-1000</v>
+        <v>-361.162008</v>
       </c>
       <c r="J61">
-        <v>800</v>
+        <v>288.9296064</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -11678,10 +11678,10 @@
         <v>-6225.166079999999</v>
       </c>
       <c r="I62">
-        <v>-1000</v>
+        <v>-316.146815999999</v>
       </c>
       <c r="J62">
-        <v>800</v>
+        <v>252.9174527999992</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -11710,10 +11710,10 @@
         <v>-6218.53812</v>
       </c>
       <c r="I63">
-        <v>-1000</v>
+        <v>-247.232424000001</v>
       </c>
       <c r="J63">
-        <v>800</v>
+        <v>197.7859392000008</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -11742,10 +11742,10 @@
         <v>-6211.91016</v>
       </c>
       <c r="I64">
-        <v>-1000</v>
+        <v>-238.318032000001</v>
       </c>
       <c r="J64">
-        <v>800</v>
+        <v>190.6544256000008</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -11774,10 +11774,10 @@
         <v>-6205.2822</v>
       </c>
       <c r="I65">
-        <v>-1000</v>
+        <v>-244.56684</v>
       </c>
       <c r="J65">
-        <v>800</v>
+        <v>195.653472</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -11806,10 +11806,10 @@
         <v>-6198.654240000001</v>
       </c>
       <c r="I66">
-        <v>-1000</v>
+        <v>-250.815648</v>
       </c>
       <c r="J66">
-        <v>800</v>
+        <v>200.6525184</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -11838,10 +11838,10 @@
         <v>-6192.026279999999</v>
       </c>
       <c r="I67">
-        <v>-1000</v>
+        <v>-317.194056</v>
       </c>
       <c r="J67">
-        <v>800</v>
+        <v>253.7552448</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -11870,10 +11870,10 @@
         <v>-6185.398319999999</v>
       </c>
       <c r="I68">
-        <v>-1000</v>
+        <v>-323.572464</v>
       </c>
       <c r="J68">
-        <v>800</v>
+        <v>258.8579712</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -11902,10 +11902,10 @@
         <v>-6178.77036</v>
       </c>
       <c r="I69">
-        <v>-1000</v>
+        <v>-325.263672</v>
       </c>
       <c r="J69">
-        <v>800</v>
+        <v>260.2109376</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -11934,10 +11934,10 @@
         <v>-6172.1424</v>
       </c>
       <c r="I70">
-        <v>-1000</v>
+        <v>-362.9548799999999</v>
       </c>
       <c r="J70">
-        <v>800</v>
+        <v>290.363904</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -11966,10 +11966,10 @@
         <v>-5898.4968</v>
       </c>
       <c r="I71">
-        <v>-1000</v>
+        <v>-389.23536</v>
       </c>
       <c r="J71">
-        <v>800</v>
+        <v>311.388288</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -11998,10 +11998,10 @@
         <v>-5624.8512</v>
       </c>
       <c r="I72">
-        <v>-1000</v>
+        <v>-355.5158400000009</v>
       </c>
       <c r="J72">
-        <v>800</v>
+        <v>284.4126720000008</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -12030,10 +12030,10 @@
         <v>-5351.205599999999</v>
       </c>
       <c r="I73">
-        <v>-1000</v>
+        <v>-331.98672</v>
       </c>
       <c r="J73">
-        <v>800</v>
+        <v>265.589376</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -12062,10 +12062,10 @@
         <v>-4585.889399999999</v>
       </c>
       <c r="I74">
-        <v>-917.17788</v>
+        <v>-210.12348</v>
       </c>
       <c r="J74">
-        <v>733.742304</v>
+        <v>168.098784</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -12094,10 +12094,10 @@
         <v>-4361.614350000001</v>
       </c>
       <c r="I75">
-        <v>-872.32287</v>
+        <v>-166.46847</v>
       </c>
       <c r="J75">
-        <v>697.858296</v>
+        <v>133.174776</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -12126,10 +12126,10 @@
         <v>-4137.3393</v>
       </c>
       <c r="I76">
-        <v>-827.46786</v>
+        <v>-122.813459999999</v>
       </c>
       <c r="J76">
-        <v>661.974288</v>
+        <v>98.2507679999992</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -12158,10 +12158,10 @@
         <v>-3913.064249999999</v>
       </c>
       <c r="I77">
-        <v>-782.61285</v>
+        <v>-79.1584500000004</v>
       </c>
       <c r="J77">
-        <v>626.09028</v>
+        <v>63.32676000000032</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -12190,10 +12190,10 @@
         <v>-3688.7892</v>
       </c>
       <c r="I78">
-        <v>-737.75784</v>
+        <v>-35.50344</v>
       </c>
       <c r="J78">
-        <v>590.206272</v>
+        <v>28.402752</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -12201,7 +12201,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2246.33233181818</v>
+        <v>2249.98870181818</v>
       </c>
       <c r="C79">
         <v>1218.181818181818</v>
@@ -12213,7 +12213,7 @@
         <v>692.9028300000001</v>
       </c>
       <c r="F79">
-        <v>2246.33233181818</v>
+        <v>2249.98870181818</v>
       </c>
       <c r="G79">
         <v>-3464.51415</v>
@@ -12222,10 +12222,10 @@
         <v>-3464.51415</v>
       </c>
       <c r="I79">
-        <v>-692.90283</v>
+        <v>-0</v>
       </c>
       <c r="J79">
-        <v>554.322264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -12233,7 +12233,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2022.05728181818</v>
+        <v>2085.00466181818</v>
       </c>
       <c r="C80">
         <v>1218.181818181818</v>
@@ -12245,7 +12245,7 @@
         <v>648.04782</v>
       </c>
       <c r="F80">
-        <v>2022.05728181818</v>
+        <v>2085.00466181818</v>
       </c>
       <c r="G80">
         <v>-3240.2391</v>
@@ -12254,10 +12254,10 @@
         <v>-3240.2391</v>
       </c>
       <c r="I80">
-        <v>-648.04782</v>
+        <v>-0</v>
       </c>
       <c r="J80">
-        <v>518.438256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -12265,7 +12265,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1797.78223181818</v>
+        <v>1878.84382181818</v>
       </c>
       <c r="C81">
         <v>1218.181818181818</v>
@@ -12277,7 +12277,7 @@
         <v>603.1928099999999</v>
       </c>
       <c r="F81">
-        <v>1797.78223181818</v>
+        <v>1878.84382181818</v>
       </c>
       <c r="G81">
         <v>-3015.96405</v>
@@ -12286,10 +12286,10 @@
         <v>-3015.96405</v>
       </c>
       <c r="I81">
-        <v>-603.19281</v>
+        <v>-0</v>
       </c>
       <c r="J81">
-        <v>482.554248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -12297,7 +12297,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1920.43818181818</v>
+        <v>1968.22778181818</v>
       </c>
       <c r="C82">
         <v>1218.181818181818</v>
@@ -12309,7 +12309,7 @@
         <v>627.724</v>
       </c>
       <c r="F82">
-        <v>1920.43818181818</v>
+        <v>1968.22778181818</v>
       </c>
       <c r="G82">
         <v>-3138.62</v>
@@ -12318,10 +12318,10 @@
         <v>-3138.62</v>
       </c>
       <c r="I82">
-        <v>-627.724</v>
+        <v>-0</v>
       </c>
       <c r="J82">
-        <v>502.1792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -12329,7 +12329,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2024.86738181818</v>
+        <v>2025.03034181818</v>
       </c>
       <c r="C83">
         <v>1218.181818181818</v>
@@ -12341,7 +12341,7 @@
         <v>648.60984</v>
       </c>
       <c r="F83">
-        <v>2024.86738181818</v>
+        <v>2025.03034181818</v>
       </c>
       <c r="G83">
         <v>-3243.049199999999</v>
@@ -12350,10 +12350,10 @@
         <v>-3243.049199999999</v>
       </c>
       <c r="I83">
-        <v>-648.60984</v>
+        <v>-0</v>
       </c>
       <c r="J83">
-        <v>518.887872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -12361,7 +12361,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1741.57258181818</v>
+        <v>1871.65370181818</v>
       </c>
       <c r="C84">
         <v>1218.181818181818</v>
@@ -12373,7 +12373,7 @@
         <v>591.95088</v>
       </c>
       <c r="F84">
-        <v>1741.57258181818</v>
+        <v>1871.65370181818</v>
       </c>
       <c r="G84">
         <v>-2959.7544</v>
@@ -12382,10 +12382,10 @@
         <v>-2959.7544</v>
       </c>
       <c r="I84">
-        <v>-591.95088</v>
+        <v>-0</v>
       </c>
       <c r="J84">
-        <v>473.560704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -12393,7 +12393,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1758.27778181818</v>
+        <v>1879.98586181818</v>
       </c>
       <c r="C85">
         <v>1218.181818181818</v>
@@ -12405,7 +12405,7 @@
         <v>595.29192</v>
       </c>
       <c r="F85">
-        <v>1758.27778181818</v>
+        <v>1879.98586181818</v>
       </c>
       <c r="G85">
         <v>-2976.4596</v>
@@ -12414,10 +12414,10 @@
         <v>-2976.4596</v>
       </c>
       <c r="I85">
-        <v>-595.29192</v>
+        <v>-0</v>
       </c>
       <c r="J85">
-        <v>476.233536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -12425,7 +12425,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1834.98298181818</v>
+        <v>1936.31802181818</v>
       </c>
       <c r="C86">
         <v>1218.181818181818</v>
@@ -12437,7 +12437,7 @@
         <v>610.63296</v>
       </c>
       <c r="F86">
-        <v>1834.98298181818</v>
+        <v>1936.31802181818</v>
       </c>
       <c r="G86">
         <v>-3053.1648</v>
@@ -12446,10 +12446,10 @@
         <v>-3053.1648</v>
       </c>
       <c r="I86">
-        <v>-610.63296</v>
+        <v>-0</v>
       </c>
       <c r="J86">
-        <v>488.5063680000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -12457,7 +12457,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1951.68818181818</v>
+        <v>2024.65018181818</v>
       </c>
       <c r="C87">
         <v>1218.181818181818</v>
@@ -12469,7 +12469,7 @@
         <v>633.974</v>
       </c>
       <c r="F87">
-        <v>1951.68818181818</v>
+        <v>2024.65018181818</v>
       </c>
       <c r="G87">
         <v>-3169.87</v>
@@ -12478,10 +12478,10 @@
         <v>-3169.87</v>
       </c>
       <c r="I87">
-        <v>-633.974</v>
+        <v>-0</v>
       </c>
       <c r="J87">
-        <v>507.1792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -12489,7 +12489,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1884.39338181819</v>
+        <v>1965.78234181819</v>
       </c>
       <c r="C88">
         <v>1218.181818181818</v>
@@ -12501,7 +12501,7 @@
         <v>620.515040000002</v>
       </c>
       <c r="F88">
-        <v>1884.39338181819</v>
+        <v>1965.78234181819</v>
       </c>
       <c r="G88">
         <v>-3102.57520000001</v>
@@ -12510,10 +12510,10 @@
         <v>-3102.57520000001</v>
       </c>
       <c r="I88">
-        <v>-620.515040000002</v>
+        <v>-0</v>
       </c>
       <c r="J88">
-        <v>496.4120320000017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -12521,7 +12521,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1917.09858181819</v>
+        <v>1986.91450181819</v>
       </c>
       <c r="C89">
         <v>1218.181818181818</v>
@@ -12533,7 +12533,7 @@
         <v>627.0560800000021</v>
       </c>
       <c r="F89">
-        <v>1917.09858181819</v>
+        <v>1986.91450181819</v>
       </c>
       <c r="G89">
         <v>-3135.28040000001</v>
@@ -12542,10 +12542,10 @@
         <v>-3135.28040000001</v>
       </c>
       <c r="I89">
-        <v>-627.056080000002</v>
+        <v>-0</v>
       </c>
       <c r="J89">
-        <v>501.6448640000016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -12553,7 +12553,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1949.8037818182</v>
+        <v>2008.0466618182</v>
       </c>
       <c r="C90">
         <v>1218.181818181818</v>
@@ -12565,7 +12565,7 @@
         <v>633.597120000004</v>
       </c>
       <c r="F90">
-        <v>1949.8037818182</v>
+        <v>2008.0466618182</v>
       </c>
       <c r="G90">
         <v>-3167.98560000002</v>
@@ -12574,10 +12574,10 @@
         <v>-3167.98560000002</v>
       </c>
       <c r="I90">
-        <v>-633.597120000004</v>
+        <v>-0</v>
       </c>
       <c r="J90">
-        <v>506.8776960000032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -12585,7 +12585,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1982.50898181821</v>
+        <v>2029.17882181821</v>
       </c>
       <c r="C91">
         <v>1218.181818181818</v>
@@ -12597,7 +12597,7 @@
         <v>640.138160000006</v>
       </c>
       <c r="F91">
-        <v>1982.50898181821</v>
+        <v>2029.17882181821</v>
       </c>
       <c r="G91">
         <v>-3200.69080000003</v>
@@ -12606,10 +12606,10 @@
         <v>-3200.69080000003</v>
       </c>
       <c r="I91">
-        <v>-640.138160000006</v>
+        <v>-0</v>
       </c>
       <c r="J91">
-        <v>512.1105280000048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -12617,7 +12617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2135.21418181822</v>
+        <v>2146.31098181821</v>
       </c>
       <c r="C92">
         <v>1218.181818181818</v>
@@ -12629,7 +12629,7 @@
         <v>670.6792000000081</v>
       </c>
       <c r="F92">
-        <v>2135.21418181822</v>
+        <v>2146.31098181821</v>
       </c>
       <c r="G92">
         <v>-3353.39600000004</v>
@@ -12638,10 +12638,10 @@
         <v>-3353.39600000004</v>
       </c>
       <c r="I92">
-        <v>-670.6792000000079</v>
+        <v>-0</v>
       </c>
       <c r="J92">
-        <v>536.5433600000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -12670,10 +12670,10 @@
         <v>-3386.10120000004</v>
       </c>
       <c r="I93">
-        <v>-677.2202400000079</v>
+        <v>-0.476240000008147</v>
       </c>
       <c r="J93">
-        <v>541.7761920000064</v>
+        <v>0.3809920000065176</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -12681,7 +12681,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>2100.62458181823</v>
+        <v>2108.57530181822</v>
       </c>
       <c r="C94">
         <v>1218.181818181818</v>
@@ -12693,7 +12693,7 @@
         <v>663.7612800000101</v>
       </c>
       <c r="F94">
-        <v>2100.62458181823</v>
+        <v>2108.57530181822</v>
       </c>
       <c r="G94">
         <v>-3318.80640000005</v>
@@ -12702,10 +12702,10 @@
         <v>-3318.80640000005</v>
       </c>
       <c r="I94">
-        <v>-663.7612800000099</v>
+        <v>-0</v>
       </c>
       <c r="J94">
-        <v>531.009024000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -12734,10 +12734,10 @@
         <v>-3451.51160000006</v>
       </c>
       <c r="I95">
-        <v>-690.3023200000118</v>
+        <v>-23.6223200000118</v>
       </c>
       <c r="J95">
-        <v>552.2418560000095</v>
+        <v>18.89785600000944</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -12766,10 +12766,10 @@
         <v>-3584.21680000007</v>
       </c>
       <c r="I96">
-        <v>-716.8433600000139</v>
+        <v>-55.19536000001381</v>
       </c>
       <c r="J96">
-        <v>573.4746880000112</v>
+        <v>44.15628800001105</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -12798,10 +12798,10 @@
         <v>-3616.92200000008</v>
       </c>
       <c r="I97">
-        <v>-723.3844000000159</v>
+        <v>-66.7684000000158</v>
       </c>
       <c r="J97">
-        <v>578.7075200000128</v>
+        <v>53.41472000001264</v>
       </c>
     </row>
   </sheetData>
@@ -12842,7 +12842,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D2">
-        <v>-724.68152</v>
+        <v>-0</v>
       </c>
       <c r="E2">
         <v>0.35220001</v>
@@ -12859,7 +12859,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D3">
-        <v>-730.08152</v>
+        <v>-0</v>
       </c>
       <c r="E3">
         <v>0.35220001</v>
@@ -12876,7 +12876,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D4">
-        <v>-735.4815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E4">
         <v>0.35220001</v>
@@ -12893,7 +12893,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D5">
-        <v>-740.88152</v>
+        <v>-0</v>
       </c>
       <c r="E5">
         <v>0.35220001</v>
@@ -12910,7 +12910,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D6">
-        <v>-746.28152</v>
+        <v>-0</v>
       </c>
       <c r="E6">
         <v>0.35220001</v>
@@ -12927,7 +12927,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D7">
-        <v>-751.68152</v>
+        <v>-0</v>
       </c>
       <c r="E7">
         <v>0.35220001</v>
@@ -12944,7 +12944,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D8">
-        <v>-757.08152</v>
+        <v>-0</v>
       </c>
       <c r="E8">
         <v>0.35220001</v>
@@ -12961,7 +12961,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D9">
-        <v>-730.4815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E9">
         <v>0.35220001</v>
@@ -12978,7 +12978,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D10">
-        <v>-719.8815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E10">
         <v>0.35220001</v>
@@ -12995,7 +12995,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D11">
-        <v>-713.28152</v>
+        <v>-0</v>
       </c>
       <c r="E11">
         <v>0.35220001</v>
@@ -13012,7 +13012,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D12">
-        <v>-698.6815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E12">
         <v>0.35220001</v>
@@ -13029,7 +13029,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D13">
-        <v>-684.08152</v>
+        <v>-0</v>
       </c>
       <c r="E13">
         <v>0.35220001</v>
@@ -13046,7 +13046,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D14">
-        <v>-689.48152</v>
+        <v>-0</v>
       </c>
       <c r="E14">
         <v>0.35220001</v>
@@ -13063,7 +13063,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D15">
-        <v>-674.8815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E15">
         <v>0.35220001</v>
@@ -13080,7 +13080,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D16">
-        <v>-700.28152</v>
+        <v>-0</v>
       </c>
       <c r="E16">
         <v>0.35220001</v>
@@ -13097,7 +13097,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D17">
-        <v>-705.68152</v>
+        <v>-5.17152000000033</v>
       </c>
       <c r="E17">
         <v>0.35220001</v>
@@ -13114,7 +13114,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D18">
-        <v>-711.08152</v>
+        <v>-9.597520000000261</v>
       </c>
       <c r="E18">
         <v>0.35220001</v>
@@ -13131,7 +13131,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D19">
-        <v>-716.48152</v>
+        <v>-18.0235200000002</v>
       </c>
       <c r="E19">
         <v>0.35220001</v>
@@ -13148,7 +13148,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D20">
-        <v>-717.88152</v>
+        <v>-29.4495199999997</v>
       </c>
       <c r="E20">
         <v>0.35220001</v>
@@ -13165,7 +13165,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D21">
-        <v>-707.28152</v>
+        <v>-34.8755200000005</v>
       </c>
       <c r="E21">
         <v>0.35220001</v>
@@ -13182,7 +13182,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D22">
-        <v>-712.68152</v>
+        <v>-56.3015200000004</v>
       </c>
       <c r="E22">
         <v>0.35220001</v>
@@ -13199,7 +13199,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D23">
-        <v>-698.0815199999998</v>
+        <v>-54.7275200000004</v>
       </c>
       <c r="E23">
         <v>0.35220001</v>
@@ -13216,7 +13216,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D24">
-        <v>-703.48152</v>
+        <v>-69.1535200000003</v>
       </c>
       <c r="E24">
         <v>0.35220001</v>
@@ -13233,7 +13233,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D25">
-        <v>-688.88152</v>
+        <v>-52.5795199999998</v>
       </c>
       <c r="E25">
         <v>0.35220001</v>
@@ -13250,7 +13250,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D26">
-        <v>-694.2815199999999</v>
+        <v>-56.0055199999997</v>
       </c>
       <c r="E26">
         <v>0.35220001</v>
@@ -13267,7 +13267,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D27">
-        <v>-679.68152</v>
+        <v>-53.7015200000001</v>
       </c>
       <c r="E27">
         <v>0.35220001</v>
@@ -13284,7 +13284,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D28">
-        <v>-665.08152</v>
+        <v>-57.2515200000003</v>
       </c>
       <c r="E28">
         <v>0.35220001</v>
@@ -13301,7 +13301,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D29">
-        <v>-670.4815199999999</v>
+        <v>-60.80152000000041</v>
       </c>
       <c r="E29">
         <v>0.35220001</v>
@@ -13318,7 +13318,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D30">
-        <v>-675.88152</v>
+        <v>-64.3515199999997</v>
       </c>
       <c r="E30">
         <v>0.35220001</v>
@@ -13335,7 +13335,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D31">
-        <v>-661.28152</v>
+        <v>-47.9015199999999</v>
       </c>
       <c r="E31">
         <v>0.35220001</v>
@@ -13352,7 +13352,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D32">
-        <v>-666.68152</v>
+        <v>-51.4515200000001</v>
       </c>
       <c r="E32">
         <v>0.35220001</v>
@@ -13369,7 +13369,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D33">
-        <v>-672.08152</v>
+        <v>-55.0015200000003</v>
       </c>
       <c r="E33">
         <v>0.35220001</v>
@@ -13386,7 +13386,7 @@
         <v>446.6666666666666</v>
       </c>
       <c r="D34">
-        <v>-657.48152</v>
+        <v>-38.5515200000004</v>
       </c>
       <c r="E34">
         <v>0.65550003</v>
@@ -13403,7 +13403,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D35">
-        <v>-642.88152</v>
+        <v>-22.1015199999997</v>
       </c>
       <c r="E35">
         <v>0.65550003</v>
@@ -13420,7 +13420,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D36">
-        <v>-628.28152</v>
+        <v>-5.65151999999989</v>
       </c>
       <c r="E36">
         <v>0.65550003</v>
@@ -13437,7 +13437,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D37">
-        <v>-613.68152</v>
+        <v>-0</v>
       </c>
       <c r="E37">
         <v>0.65550003</v>
@@ -13454,7 +13454,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D38">
-        <v>-639.08152</v>
+        <v>-12.7515200000003</v>
       </c>
       <c r="E38">
         <v>0.65550003</v>
@@ -13471,7 +13471,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D39">
-        <v>-656.1004</v>
+        <v>-27.9204000000004</v>
       </c>
       <c r="E39">
         <v>0.65550003</v>
@@ -13488,7 +13488,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D40">
-        <v>-649.4544</v>
+        <v>-15.4244000000003</v>
       </c>
       <c r="E40">
         <v>0.65550003</v>
@@ -13505,7 +13505,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D41">
-        <v>-682.8083999999999</v>
+        <v>-43.9283999999998</v>
       </c>
       <c r="E41">
         <v>0.65550003</v>
@@ -13522,7 +13522,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D42">
-        <v>-716.1624</v>
+        <v>-60.4324000000006</v>
       </c>
       <c r="E42">
         <v>0.65550003</v>
@@ -13539,7 +13539,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D43">
-        <v>-749.5164</v>
+        <v>-82.93639999999958</v>
       </c>
       <c r="E43">
         <v>0.65550003</v>
@@ -13556,7 +13556,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D44">
-        <v>-743.7268800000001</v>
+        <v>-56.29687999999991</v>
       </c>
       <c r="E44">
         <v>0.65550003</v>
@@ -13573,7 +13573,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D45">
-        <v>-775.41318</v>
+        <v>-0</v>
       </c>
       <c r="E45">
         <v>0.65550003</v>
@@ -13590,7 +13590,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D46">
-        <v>-807.09948</v>
+        <v>-12.5666800000004</v>
       </c>
       <c r="E46">
         <v>0.65550003</v>
@@ -13607,7 +13607,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D47">
-        <v>-838.78578</v>
+        <v>-35.8937800000003</v>
       </c>
       <c r="E47">
         <v>0.65550003</v>
@@ -13624,7 +13624,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D48">
-        <v>-870.4720800000001</v>
+        <v>-59.2208800000008</v>
       </c>
       <c r="E48">
         <v>0.65550003</v>
@@ -13641,7 +13641,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D49">
-        <v>-902.15838</v>
+        <v>-74.7719799999995</v>
       </c>
       <c r="E49">
         <v>0.65550003</v>
@@ -13658,7 +13658,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D50">
-        <v>-1000</v>
+        <v>-195.765783999999</v>
       </c>
       <c r="E50">
         <v>0.65550003</v>
@@ -13675,7 +13675,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D51">
-        <v>-1000</v>
+        <v>-204.639496000001</v>
       </c>
       <c r="E51">
         <v>0.65550003</v>
@@ -13692,7 +13692,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D52">
-        <v>-1000</v>
+        <v>-253.513208</v>
       </c>
       <c r="E52">
         <v>0.65550003</v>
@@ -13709,7 +13709,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D53">
-        <v>-1000</v>
+        <v>-265.35332</v>
       </c>
       <c r="E53">
         <v>0.65550003</v>
@@ -13726,7 +13726,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D54">
-        <v>-1000</v>
+        <v>-284.393432</v>
       </c>
       <c r="E54">
         <v>0.65550003</v>
@@ -13743,7 +13743,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D55">
-        <v>-1000</v>
+        <v>-303.433544</v>
       </c>
       <c r="E55">
         <v>0.65550003</v>
@@ -13760,7 +13760,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D56">
-        <v>-1000</v>
+        <v>-322.473656000001</v>
       </c>
       <c r="E56">
         <v>0.65550003</v>
@@ -13777,7 +13777,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D57">
-        <v>-1000</v>
+        <v>-341.513768</v>
       </c>
       <c r="E57">
         <v>0.65550003</v>
@@ -13794,7 +13794,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D58">
-        <v>-1000</v>
+        <v>-361.67228</v>
       </c>
       <c r="E58">
         <v>1.04989998</v>
@@ -13811,7 +13811,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D59">
-        <v>-1000</v>
+        <v>-360.038792</v>
       </c>
       <c r="E59">
         <v>1.04989998</v>
@@ -13828,7 +13828,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D60">
-        <v>-1000</v>
+        <v>-366.1771999999989</v>
       </c>
       <c r="E60">
         <v>1.04989998</v>
@@ -13845,7 +13845,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D61">
-        <v>-1000</v>
+        <v>-361.162008</v>
       </c>
       <c r="E61">
         <v>1.04989998</v>
@@ -13862,7 +13862,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D62">
-        <v>-1000</v>
+        <v>-316.146815999999</v>
       </c>
       <c r="E62">
         <v>1.04989998</v>
@@ -13879,7 +13879,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D63">
-        <v>-1000</v>
+        <v>-247.232424000001</v>
       </c>
       <c r="E63">
         <v>1.04989998</v>
@@ -13896,7 +13896,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D64">
-        <v>-1000</v>
+        <v>-238.318032000001</v>
       </c>
       <c r="E64">
         <v>1.04989998</v>
@@ -13913,7 +13913,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D65">
-        <v>-1000</v>
+        <v>-244.56684</v>
       </c>
       <c r="E65">
         <v>1.04989998</v>
@@ -13930,7 +13930,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D66">
-        <v>-1000</v>
+        <v>-250.815648</v>
       </c>
       <c r="E66">
         <v>1.04989998</v>
@@ -13947,7 +13947,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D67">
-        <v>-1000</v>
+        <v>-317.194056</v>
       </c>
       <c r="E67">
         <v>1.04989998</v>
@@ -13964,7 +13964,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D68">
-        <v>-1000</v>
+        <v>-323.572464</v>
       </c>
       <c r="E68">
         <v>1.04989998</v>
@@ -13981,7 +13981,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D69">
-        <v>-1000</v>
+        <v>-325.263672</v>
       </c>
       <c r="E69">
         <v>1.04989998</v>
@@ -13998,7 +13998,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D70">
-        <v>-1000</v>
+        <v>-362.9548799999999</v>
       </c>
       <c r="E70">
         <v>0.65550003</v>
@@ -14015,7 +14015,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D71">
-        <v>-1000</v>
+        <v>-389.23536</v>
       </c>
       <c r="E71">
         <v>0.65550003</v>
@@ -14032,7 +14032,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D72">
-        <v>-1000</v>
+        <v>-355.5158400000009</v>
       </c>
       <c r="E72">
         <v>0.65550003</v>
@@ -14049,7 +14049,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D73">
-        <v>-1000</v>
+        <v>-331.98672</v>
       </c>
       <c r="E73">
         <v>0.65550003</v>
@@ -14066,7 +14066,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D74">
-        <v>-917.17788</v>
+        <v>-210.12348</v>
       </c>
       <c r="E74">
         <v>0.65550003</v>
@@ -14083,7 +14083,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D75">
-        <v>-872.32287</v>
+        <v>-166.46847</v>
       </c>
       <c r="E75">
         <v>0.65550003</v>
@@ -14100,7 +14100,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D76">
-        <v>-827.46786</v>
+        <v>-122.813459999999</v>
       </c>
       <c r="E76">
         <v>0.65550003</v>
@@ -14117,7 +14117,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D77">
-        <v>-782.61285</v>
+        <v>-79.1584500000004</v>
       </c>
       <c r="E77">
         <v>0.65550003</v>
@@ -14134,7 +14134,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D78">
-        <v>-737.75784</v>
+        <v>-35.50344</v>
       </c>
       <c r="E78">
         <v>1.04989998</v>
@@ -14151,7 +14151,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D79">
-        <v>-692.90283</v>
+        <v>-0</v>
       </c>
       <c r="E79">
         <v>1.04989998</v>
@@ -14168,7 +14168,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D80">
-        <v>-648.04782</v>
+        <v>-0</v>
       </c>
       <c r="E80">
         <v>1.04989998</v>
@@ -14185,7 +14185,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D81">
-        <v>-603.19281</v>
+        <v>-0</v>
       </c>
       <c r="E81">
         <v>1.04989998</v>
@@ -14202,7 +14202,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D82">
-        <v>-627.724</v>
+        <v>-0</v>
       </c>
       <c r="E82">
         <v>1.04989998</v>
@@ -14219,7 +14219,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D83">
-        <v>-648.60984</v>
+        <v>-0</v>
       </c>
       <c r="E83">
         <v>1.04989998</v>
@@ -14236,7 +14236,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D84">
-        <v>-591.95088</v>
+        <v>-0</v>
       </c>
       <c r="E84">
         <v>1.04989998</v>
@@ -14253,7 +14253,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D85">
-        <v>-595.29192</v>
+        <v>-0</v>
       </c>
       <c r="E85">
         <v>1.04989998</v>
@@ -14270,7 +14270,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D86">
-        <v>-610.63296</v>
+        <v>-0</v>
       </c>
       <c r="E86">
         <v>1.04989998</v>
@@ -14287,7 +14287,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D87">
-        <v>-633.974</v>
+        <v>-0</v>
       </c>
       <c r="E87">
         <v>1.04989998</v>
@@ -14304,7 +14304,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D88">
-        <v>-620.515040000002</v>
+        <v>-0</v>
       </c>
       <c r="E88">
         <v>1.04989998</v>
@@ -14321,7 +14321,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D89">
-        <v>-627.056080000002</v>
+        <v>-0</v>
       </c>
       <c r="E89">
         <v>1.04989998</v>
@@ -14338,7 +14338,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D90">
-        <v>-633.597120000004</v>
+        <v>-0</v>
       </c>
       <c r="E90">
         <v>0.65550003</v>
@@ -14355,7 +14355,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D91">
-        <v>-640.138160000006</v>
+        <v>-0</v>
       </c>
       <c r="E91">
         <v>0.65550003</v>
@@ -14372,7 +14372,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D92">
-        <v>-670.6792000000079</v>
+        <v>-0</v>
       </c>
       <c r="E92">
         <v>0.65550003</v>
@@ -14389,7 +14389,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D93">
-        <v>-677.2202400000079</v>
+        <v>-0.476240000008147</v>
       </c>
       <c r="E93">
         <v>0.65550003</v>
@@ -14406,7 +14406,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D94">
-        <v>-663.7612800000099</v>
+        <v>-0</v>
       </c>
       <c r="E94">
         <v>0.65550003</v>
@@ -14423,7 +14423,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D95">
-        <v>-690.3023200000118</v>
+        <v>-23.6223200000118</v>
       </c>
       <c r="E95">
         <v>0.65550003</v>
@@ -14440,7 +14440,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D96">
-        <v>-716.8433600000139</v>
+        <v>-55.19536000001381</v>
       </c>
       <c r="E96">
         <v>0.65550003</v>
@@ -14457,7 +14457,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D97">
-        <v>-723.3844000000159</v>
+        <v>-66.7684000000158</v>
       </c>
       <c r="E97">
         <v>0.65550003</v>

--- a/extenedResult.xlsx
+++ b/extenedResult.xlsx
@@ -442,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,7 +485,7 @@
         <v>-5019.5682133</v>
       </c>
       <c r="C2">
-        <v>6471.7420428938</v>
+        <v>6598.81410477287</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -497,16 +497,16 @@
         <v>50</v>
       </c>
       <c r="G2">
-        <v>-0.888888888888914</v>
+        <v>-0.888888888888933</v>
       </c>
       <c r="H2">
         <v>-1250</v>
       </c>
       <c r="I2">
-        <v>-225.473205581395</v>
+        <v>-360.297674418605</v>
       </c>
       <c r="J2">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -517,7 +517,7 @@
         <v>-4544.34694195</v>
       </c>
       <c r="C3">
-        <v>5996.06225991589</v>
+        <v>6124.08120551589</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>50</v>
       </c>
       <c r="G3">
-        <v>-0.888888888888942</v>
+        <v>-0.888888888888923</v>
       </c>
       <c r="H3">
         <v>-1250</v>
       </c>
       <c r="I3">
-        <v>-224.933670697674</v>
+        <v>-360.762790697674</v>
       </c>
       <c r="J3">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -549,7 +549,7 @@
         <v>-4069.1256706</v>
       </c>
       <c r="C4">
-        <v>5520.38247693798</v>
+        <v>5649.34830625891</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -567,10 +567,10 @@
         <v>-1250</v>
       </c>
       <c r="I4">
-        <v>-224.394135813954</v>
+        <v>-361.227906976744</v>
       </c>
       <c r="J4">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -581,7 +581,7 @@
         <v>-4794.1663123</v>
       </c>
       <c r="C5">
-        <v>6244.96460701008</v>
+        <v>6374.87732005194</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>-1250</v>
       </c>
       <c r="I5">
-        <v>-223.854600930233</v>
+        <v>-361.693023255814</v>
       </c>
       <c r="J5">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -613,7 +613,7 @@
         <v>-5519.206954</v>
       </c>
       <c r="C6">
-        <v>6969.54673708217</v>
+        <v>7100.40633384496</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>-1250</v>
       </c>
       <c r="I6">
-        <v>-223.315066046512</v>
+        <v>-362.158139534884</v>
       </c>
       <c r="J6">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -645,7 +645,7 @@
         <v>-5294.22133745</v>
       </c>
       <c r="C7">
-        <v>6744.10260890426</v>
+        <v>6875.90908938798</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -663,10 +663,10 @@
         <v>-1250</v>
       </c>
       <c r="I7">
-        <v>-222.775531162791</v>
+        <v>-362.623255813954</v>
       </c>
       <c r="J7">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -677,7 +677,7 @@
         <v>-5069.2357209</v>
       </c>
       <c r="C8">
-        <v>6518.65848072636</v>
+        <v>6651.41184493101</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>-1250</v>
       </c>
       <c r="I8">
-        <v>-222.23599627907</v>
+        <v>-363.088372093023</v>
       </c>
       <c r="J8">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -709,7 +709,7 @@
         <v>-5036.7726831</v>
       </c>
       <c r="C9">
-        <v>6491.34809408915</v>
+        <v>6619.43717922403</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>-1250</v>
       </c>
       <c r="I9">
-        <v>-227.649949767442</v>
+        <v>-363.553488372093</v>
       </c>
       <c r="J9">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -741,7 +741,7 @@
         <v>-5004.3096453</v>
       </c>
       <c r="C10">
-        <v>6503.32219927909</v>
+        <v>6629.55258673956</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -753,16 +753,16 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <v>-50.7421147707863</v>
+        <v>-50.7421147707865</v>
       </c>
       <c r="H10">
         <v>-1250</v>
       </c>
       <c r="I10">
-        <v>-220.319717209302</v>
+        <v>-354.251162790698</v>
       </c>
       <c r="J10">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -773,7 +773,7 @@
         <v>-4977.0021497</v>
       </c>
       <c r="C11">
-        <v>6592.54394828605</v>
+        <v>6717.61703342093</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>-1250</v>
       </c>
       <c r="I11">
-        <v>-215.50111255814</v>
+        <v>-348.204651162791</v>
       </c>
       <c r="J11">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -805,7 +805,7 @@
         <v>-4949.6946541</v>
       </c>
       <c r="C12">
-        <v>6567.55235966279</v>
+        <v>6690.06535177442</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>-1250</v>
       </c>
       <c r="I12">
-        <v>-217.984833488372</v>
+        <v>-347.972093023256</v>
       </c>
       <c r="J12">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -837,7 +837,7 @@
         <v>-5159.63862545</v>
       </c>
       <c r="C13">
-        <v>6779.81223798954</v>
+        <v>6899.76513707791</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>-1250</v>
       </c>
       <c r="I13">
-        <v>-220.468554418605</v>
+        <v>-347.739534883721</v>
       </c>
       <c r="J13">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -869,7 +869,7 @@
         <v>-5569.5825968</v>
       </c>
       <c r="C14">
-        <v>7188.56513957209</v>
+        <v>7309.4649223814</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -887,10 +887,10 @@
         <v>-1250</v>
       </c>
       <c r="I14">
-        <v>-219.231345116279</v>
+        <v>-347.506976744186</v>
       </c>
       <c r="J14">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -901,7 +901,7 @@
         <v>-5124.67642385</v>
       </c>
       <c r="C15">
-        <v>6745.85270352384</v>
+        <v>6864.19239330988</v>
       </c>
       <c r="D15">
         <v>0.122170075</v>
@@ -919,10 +919,10 @@
         <v>-1250</v>
       </c>
       <c r="I15">
-        <v>-221.715066046512</v>
+        <v>-347.274418604651</v>
       </c>
       <c r="J15">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -933,7 +933,7 @@
         <v>-4879.7702509</v>
       </c>
       <c r="C16">
-        <v>6468.04491863837</v>
+        <v>6590.83846888953</v>
       </c>
       <c r="D16">
         <v>0.24434015</v>
@@ -951,10 +951,10 @@
         <v>-1250</v>
       </c>
       <c r="I16">
-        <v>-190.012740465116</v>
+        <v>-320.297674418605</v>
       </c>
       <c r="J16">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -965,7 +965,7 @@
         <v>-5374.94335435</v>
       </c>
       <c r="C17">
-        <v>6961.49417751047</v>
+        <v>7084.32779146395</v>
       </c>
       <c r="D17">
         <v>1.5096731</v>
@@ -983,10 +983,10 @@
         <v>-1250</v>
       </c>
       <c r="I17">
-        <v>-189.473205581395</v>
+        <v>-319.80064744186</v>
       </c>
       <c r="J17">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -997,7 +997,7 @@
         <v>-5120.1164578</v>
       </c>
       <c r="C18">
-        <v>6704.94343638256</v>
+        <v>6827.94784010349</v>
       </c>
       <c r="D18">
         <v>2.77500605</v>
@@ -1015,10 +1015,10 @@
         <v>-1250</v>
       </c>
       <c r="I18">
-        <v>-188.933670697674</v>
+        <v>-319.442321860465</v>
       </c>
       <c r="J18">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1029,7 +1029,7 @@
         <v>-5132.89342325</v>
       </c>
       <c r="C19">
-        <v>6714.07674175465</v>
+        <v>6836.55053989419</v>
       </c>
       <c r="D19">
         <v>5.9601545</v>
@@ -1047,10 +1047,10 @@
         <v>-1250</v>
       </c>
       <c r="I19">
-        <v>-188.394135813954</v>
+        <v>-318.339810232558</v>
       </c>
       <c r="J19">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1061,7 +1061,7 @@
         <v>-4495.6703887</v>
       </c>
       <c r="C20">
-        <v>6049.49283782442</v>
+        <v>6170.20858852209</v>
       </c>
       <c r="D20">
         <v>9.14530295</v>
@@ -1079,10 +1079,10 @@
         <v>-1250</v>
       </c>
       <c r="I20">
-        <v>-165.342973023256</v>
+        <v>-293.423345116279</v>
       </c>
       <c r="J20">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1093,7 +1093,7 @@
         <v>-4455.4487829</v>
       </c>
       <c r="C21">
-        <v>6006.81876301186</v>
+        <v>6124.72437324442</v>
       </c>
       <c r="D21">
         <v>13.94484173</v>
@@ -1111,10 +1111,10 @@
         <v>-1250</v>
       </c>
       <c r="I21">
-        <v>-167.780182325581</v>
+        <v>-292.878973023256</v>
       </c>
       <c r="J21">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1125,7 +1125,7 @@
         <v>-4415.2271771</v>
       </c>
       <c r="C22">
-        <v>5961.33910681395</v>
+        <v>6076.4345765814</v>
       </c>
       <c r="D22">
         <v>18.7443805</v>
@@ -1143,10 +1143,10 @@
         <v>-1250</v>
       </c>
       <c r="I22">
-        <v>-167.24064744186</v>
+        <v>-289.357856744186</v>
       </c>
       <c r="J22">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1157,7 +1157,7 @@
         <v>-4170.76220885</v>
       </c>
       <c r="C23">
-        <v>5711.75029813023</v>
+        <v>5824.56167394419</v>
       </c>
       <c r="D23">
         <v>26.91668605</v>
@@ -1175,10 +1175,10 @@
         <v>-1250</v>
       </c>
       <c r="I23">
-        <v>-170.422042790698</v>
+        <v>-290.115810232558</v>
       </c>
       <c r="J23">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1189,7 +1189,7 @@
         <v>-3926.2972406</v>
       </c>
       <c r="C24">
-        <v>5458.65451270233</v>
+        <v>5569.88318991163</v>
       </c>
       <c r="D24">
         <v>35.0889916</v>
@@ -1207,10 +1207,10 @@
         <v>-1250</v>
       </c>
       <c r="I24">
-        <v>-169.882507906977</v>
+        <v>-287.897019534884</v>
       </c>
       <c r="J24">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1221,7 +1221,7 @@
         <v>-4086.1920182</v>
       </c>
       <c r="C25">
-        <v>5608.6913593686</v>
+        <v>5720.26617518256</v>
       </c>
       <c r="D25">
         <v>47.99538765</v>
@@ -1239,10 +1239,10 @@
         <v>-1250</v>
       </c>
       <c r="I25">
-        <v>-173.063903255814</v>
+        <v>-291.445670697674</v>
       </c>
       <c r="J25">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1253,7 +1253,7 @@
         <v>-4246.0867958</v>
       </c>
       <c r="C26">
-        <v>5755.2212292907</v>
+        <v>5867.1421837093</v>
       </c>
       <c r="D26">
         <v>60.9017837</v>
@@ -1271,10 +1271,10 @@
         <v>-1250</v>
       </c>
       <c r="I26">
-        <v>-172.524368372093</v>
+        <v>-291.273391627907</v>
       </c>
       <c r="J26">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1285,7 +1285,7 @@
         <v>-4150.79081215</v>
       </c>
       <c r="C27">
-        <v>5649.47828037698</v>
+        <v>5759.24314549326</v>
       </c>
       <c r="D27">
         <v>74.39721408</v>
@@ -1303,10 +1303,10 @@
         <v>-1250</v>
       </c>
       <c r="I27">
-        <v>-175.70576372093</v>
+        <v>-292.167159069767</v>
       </c>
       <c r="J27">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1317,7 +1317,7 @@
         <v>-4055.4948285</v>
       </c>
       <c r="C28">
-        <v>5543.73533147326</v>
+        <v>5650.31761519419</v>
       </c>
       <c r="D28">
         <v>87.89264445000001</v>
@@ -1335,10 +1335,10 @@
         <v>-1250</v>
       </c>
       <c r="I28">
-        <v>-178.887159069767</v>
+        <v>-291.971810232558</v>
       </c>
       <c r="J28">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1349,7 +1349,7 @@
         <v>-4050.3125747</v>
       </c>
       <c r="C29">
-        <v>5515.44074309535</v>
+        <v>5622.34742216512</v>
       </c>
       <c r="D29">
         <v>110.5464674</v>
@@ -1367,10 +1367,10 @@
         <v>-1250</v>
       </c>
       <c r="I29">
-        <v>-178.347624186047</v>
+        <v>-291.776461395349</v>
       </c>
       <c r="J29">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1381,7 +1381,7 @@
         <v>-4045.1303209</v>
       </c>
       <c r="C30">
-        <v>5487.14615466744</v>
+        <v>5594.37722908605</v>
       </c>
       <c r="D30">
         <v>133.2002904</v>
@@ -1399,10 +1399,10 @@
         <v>-1250</v>
       </c>
       <c r="I30">
-        <v>-177.808089302326</v>
+        <v>-291.58111255814</v>
       </c>
       <c r="J30">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1413,7 +1413,7 @@
         <v>-4353.723751</v>
       </c>
       <c r="C31">
-        <v>5746.62374793256</v>
+        <v>5854.1792177</v>
       </c>
       <c r="D31">
         <v>160.9459877</v>
@@ -1431,10 +1431,10 @@
         <v>-1250</v>
       </c>
       <c r="I31">
-        <v>-157.733670697674</v>
+        <v>-271.85088</v>
       </c>
       <c r="J31">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1445,7 +1445,7 @@
         <v>-4662.3171811</v>
       </c>
       <c r="C32">
-        <v>6027.01296910465</v>
+        <v>6134.89283422093</v>
       </c>
       <c r="D32">
         <v>188.691685</v>
@@ -1463,10 +1463,10 @@
         <v>-1250</v>
       </c>
       <c r="I32">
-        <v>-157.194135813953</v>
+        <v>-271.655531162791</v>
       </c>
       <c r="J32">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1477,7 +1477,7 @@
         <v>-4760.78065825</v>
       </c>
       <c r="C33">
-        <v>6110.39243102674</v>
+        <v>6218.59669149186</v>
       </c>
       <c r="D33">
         <v>203.3171886</v>
@@ -1495,10 +1495,10 @@
         <v>-1250</v>
       </c>
       <c r="I33">
-        <v>-156.654600930233</v>
+        <v>-271.460182325581</v>
       </c>
       <c r="J33">
-        <v>-0.35220001</v>
+        <v>0.35220001</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1509,7 +1509,7 @@
         <v>-4859.2441354</v>
       </c>
       <c r="C34">
-        <v>4897.27886979302</v>
+        <v>5005.80752560698</v>
       </c>
       <c r="D34">
         <v>217.9426921</v>
@@ -1527,10 +1527,10 @@
         <v>-625</v>
       </c>
       <c r="I34">
-        <v>-159.83599627907</v>
+        <v>-274.98576372093</v>
       </c>
       <c r="J34">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1541,7 +1541,7 @@
         <v>-4867.53360225</v>
       </c>
       <c r="C35">
-        <v>3813.3452952593</v>
+        <v>3922.19834642209</v>
       </c>
       <c r="D35">
         <v>238.2141986</v>
@@ -1559,10 +1559,10 @@
         <v>-5.6843418860808e-14</v>
       </c>
       <c r="I35">
-        <v>-163.017391627907</v>
+        <v>-278.511345116279</v>
       </c>
       <c r="J35">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1573,13 +1573,13 @@
         <v>-4875.8230691</v>
       </c>
       <c r="C36">
-        <v>3829.25813943023</v>
+        <v>3313.43558594186</v>
       </c>
       <c r="D36">
         <v>258.485705</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="F36">
         <v>1000</v>
@@ -1591,10 +1591,10 @@
         <v>-0</v>
       </c>
       <c r="I36">
-        <v>-189.862042790698</v>
+        <v>-305.700182325581</v>
       </c>
       <c r="J36">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1605,13 +1605,13 @@
         <v>-5144.8789446</v>
       </c>
       <c r="C37">
-        <v>4108.9359199186</v>
+        <v>2966.54426086744</v>
       </c>
       <c r="D37">
         <v>265.5497535</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="F37">
         <v>1000</v>
@@ -1623,10 +1623,10 @@
         <v>-0</v>
       </c>
       <c r="I37">
-        <v>-206.983903255814</v>
+        <v>-321.157209302326</v>
       </c>
       <c r="J37">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1637,13 +1637,13 @@
         <v>-5193.9348201</v>
       </c>
       <c r="C38">
-        <v>4161.5997470186</v>
+        <v>3156.84733872717</v>
       </c>
       <c r="D38">
         <v>272.6138019</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1114.57864550074</v>
       </c>
       <c r="F38">
         <v>1000</v>
@@ -1655,10 +1655,10 @@
         <v>-0</v>
       </c>
       <c r="I38">
-        <v>-216.663903255814</v>
+        <v>-333.190414883721</v>
       </c>
       <c r="J38">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1669,13 +1669,13 @@
         <v>-5193.0984044</v>
       </c>
       <c r="C39">
-        <v>4135.47847859767</v>
+        <v>3756.05046565507</v>
       </c>
       <c r="D39">
         <v>286.3972045</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>489.578645500741</v>
       </c>
       <c r="F39">
         <v>1000</v>
@@ -1687,10 +1687,10 @@
         <v>-0</v>
       </c>
       <c r="I39">
-        <v>-205.385972093023</v>
+        <v>-322.256669767442</v>
       </c>
       <c r="J39">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1701,7 +1701,7 @@
         <v>-5292.2619887</v>
       </c>
       <c r="C40">
-        <v>4237.99379601163</v>
+        <v>4349.17021926744</v>
       </c>
       <c r="D40">
         <v>300.1806072</v>
@@ -1719,10 +1719,10 @@
         <v>-0</v>
       </c>
       <c r="I40">
-        <v>-221.831739534884</v>
+        <v>-339.790809302326</v>
       </c>
       <c r="J40">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1733,7 +1733,7 @@
         <v>-5141.5971712</v>
       </c>
       <c r="C41">
-        <v>4062.97792013488</v>
+        <v>4175.00478525116</v>
       </c>
       <c r="D41">
         <v>310.2596386</v>
@@ -1751,10 +1751,10 @@
         <v>-0</v>
       </c>
       <c r="I41">
-        <v>-207.604018604651</v>
+        <v>-326.465413953488</v>
       </c>
       <c r="J41">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1765,7 +1765,7 @@
         <v>-5190.9323537</v>
       </c>
       <c r="C42">
-        <v>4136.79925356046</v>
+        <v>4251.78074658372</v>
       </c>
       <c r="D42">
         <v>320.33867</v>
@@ -1783,10 +1783,10 @@
         <v>-0</v>
       </c>
       <c r="I42">
-        <v>-239.887925581395</v>
+        <v>-361.884204651163</v>
       </c>
       <c r="J42">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1797,7 +1797,7 @@
         <v>-5340.61608455</v>
       </c>
       <c r="C43">
-        <v>4314.04246589651</v>
+        <v>4430.92649380349</v>
       </c>
       <c r="D43">
         <v>327.3678127</v>
@@ -1815,10 +1815,10 @@
         <v>-0</v>
       </c>
       <c r="I43">
-        <v>-272.194158139535</v>
+        <v>-396.209041860465</v>
       </c>
       <c r="J43">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1829,7 +1829,7 @@
         <v>-5690.2998154</v>
       </c>
       <c r="C44">
-        <v>4698.14944894884</v>
+        <v>4818.68950011163</v>
       </c>
       <c r="D44">
         <v>334.3969554</v>
@@ -1847,10 +1847,10 @@
         <v>-0</v>
       </c>
       <c r="I44">
-        <v>-311.782906046512</v>
+        <v>-439.676859534884</v>
       </c>
       <c r="J44">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1861,7 +1861,7 @@
         <v>-5414.99843145</v>
       </c>
       <c r="C45">
-        <v>4421.20907181512</v>
+        <v>4557.17687128488</v>
       </c>
       <c r="D45">
         <v>336.1116997</v>
@@ -1879,10 +1879,10 @@
         <v>-0</v>
       </c>
       <c r="I45">
-        <v>-311.251501395349</v>
+        <v>-455.514418604651</v>
       </c>
       <c r="J45">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1893,7 +1893,7 @@
         <v>-5339.6970475</v>
       </c>
       <c r="C46">
-        <v>4344.2686946814</v>
+        <v>4483.58909728605</v>
       </c>
       <c r="D46">
         <v>337.826444</v>
@@ -1911,10 +1911,10 @@
         <v>-0</v>
       </c>
       <c r="I46">
-        <v>-310.720096744186</v>
+        <v>-458.54015255814</v>
       </c>
       <c r="J46">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1925,7 +1925,7 @@
         <v>-5664.0792272</v>
       </c>
       <c r="C47">
-        <v>4663.83384682093</v>
+        <v>4804.62002542558</v>
       </c>
       <c r="D47">
         <v>343.8913157</v>
@@ -1943,10 +1943,10 @@
         <v>-0</v>
       </c>
       <c r="I47">
-        <v>-311.304971162791</v>
+        <v>-460.680226976744</v>
       </c>
       <c r="J47">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1957,7 +1957,7 @@
         <v>-5588.4614069</v>
       </c>
       <c r="C48">
-        <v>4583.39899896047</v>
+        <v>4725.65095356512</v>
       </c>
       <c r="D48">
         <v>349.9561874</v>
@@ -1975,10 +1975,10 @@
         <v>-0</v>
       </c>
       <c r="I48">
-        <v>-311.889845581395</v>
+        <v>-462.820301395349</v>
       </c>
       <c r="J48">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1989,7 +1989,7 @@
         <v>-5460.2655999</v>
       </c>
       <c r="C49">
-        <v>4458.55674422558</v>
+        <v>4603.63798738837</v>
       </c>
       <c r="D49">
         <v>354.1797816</v>
@@ -2007,10 +2007,10 @@
         <v>-0</v>
       </c>
       <c r="I49">
-        <v>-318.502626976744</v>
+        <v>-472.434980465116</v>
       </c>
       <c r="J49">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2021,7 +2021,7 @@
         <v>-5332.0697929</v>
       </c>
       <c r="C50">
-        <v>4322.11423115349</v>
+        <v>4463.13576577302</v>
       </c>
       <c r="D50">
         <v>358.4033757</v>
@@ -2039,10 +2039,10 @@
         <v>-0</v>
       </c>
       <c r="I50">
-        <v>-312.807441860465</v>
+        <v>-462.43241227907</v>
       </c>
       <c r="J50">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2053,7 +2053,7 @@
         <v>-5178.1248745</v>
       </c>
       <c r="C51">
-        <v>4182.82831384651</v>
+        <v>4322.29385338512</v>
       </c>
       <c r="D51">
         <v>355.4887467</v>
@@ -2071,10 +2071,10 @@
         <v>-0</v>
       </c>
       <c r="I51">
-        <v>-323.992558139535</v>
+        <v>-471.966605395349</v>
       </c>
       <c r="J51">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2085,7 +2085,7 @@
         <v>-5024.1799561</v>
       </c>
       <c r="C52">
-        <v>4043.54239653953</v>
+        <v>4174.43798750884</v>
       </c>
       <c r="D52">
         <v>352.5741177</v>
@@ -2103,10 +2103,10 @@
         <v>-0</v>
       </c>
       <c r="I52">
-        <v>-335.177674418605</v>
+        <v>-474.058938046512</v>
       </c>
       <c r="J52">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2117,7 +2117,7 @@
         <v>-5119.2233444</v>
       </c>
       <c r="C53">
-        <v>4152.90716560465</v>
+        <v>4281.72660670233</v>
       </c>
       <c r="D53">
         <v>347.5825974</v>
@@ -2135,10 +2135,10 @@
         <v>-0</v>
       </c>
       <c r="I53">
-        <v>-344.063255813954</v>
+        <v>-480.741707906977</v>
       </c>
       <c r="J53">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2149,7 +2149,7 @@
         <v>-5114.2667327</v>
       </c>
       <c r="C54">
-        <v>4162.27193476977</v>
+        <v>4287.75271436791</v>
       </c>
       <c r="D54">
         <v>342.591077</v>
@@ -2167,10 +2167,10 @@
         <v>-0</v>
       </c>
       <c r="I54">
-        <v>-352.948837209302</v>
+        <v>-486.084942883721</v>
       </c>
       <c r="J54">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2181,7 +2181,7 @@
         <v>-5160.5524517</v>
       </c>
       <c r="C55">
-        <v>4225.08532506977</v>
+        <v>4347.22744316837</v>
       </c>
       <c r="D55">
         <v>335.3874057</v>
@@ -2199,10 +2199,10 @@
         <v>-0</v>
       </c>
       <c r="I55">
-        <v>-361.828837209302</v>
+        <v>-491.422596465116</v>
       </c>
       <c r="J55">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2213,7 +2213,7 @@
         <v>-5206.8381707</v>
       </c>
       <c r="C56">
-        <v>4287.89871546977</v>
+        <v>4406.70217206884</v>
       </c>
       <c r="D56">
         <v>328.1837343</v>
@@ -2231,10 +2231,10 @@
         <v>-0</v>
       </c>
       <c r="I56">
-        <v>-370.708837209302</v>
+        <v>-496.760250046512</v>
       </c>
       <c r="J56">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2245,7 +2245,7 @@
         <v>-5208.24875455</v>
       </c>
       <c r="C57">
-        <v>3677.30837795</v>
+        <v>3792.77317304953</v>
       </c>
       <c r="D57">
         <v>317.7163766</v>
@@ -2263,10 +2263,10 @@
         <v>-0</v>
       </c>
       <c r="I57">
-        <v>-373.12</v>
+        <v>-495.629066418605</v>
       </c>
       <c r="J57">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2277,7 +2277,7 @@
         <v>-5809.6593384</v>
       </c>
       <c r="C58">
-        <v>3544.62501717442</v>
+        <v>3656.55504063488</v>
       </c>
       <c r="D58">
         <v>307.2490189</v>
@@ -2295,10 +2295,10 @@
         <v>-0</v>
       </c>
       <c r="I58">
-        <v>-259.252093023256</v>
+        <v>-378.010738604651</v>
       </c>
       <c r="J58">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2309,7 +2309,7 @@
         <v>-5860.15272495</v>
       </c>
       <c r="C59">
-        <v>3603.11262874767</v>
+        <v>3715.32908242953</v>
       </c>
       <c r="D59">
         <v>302.9468869</v>
@@ -2327,10 +2327,10 @@
         <v>-0</v>
       </c>
       <c r="I59">
-        <v>-262.768372093023</v>
+        <v>-381.830922418605</v>
       </c>
       <c r="J59">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2341,7 +2341,7 @@
         <v>-5910.6461115</v>
       </c>
       <c r="C60">
-        <v>3661.60024042093</v>
+        <v>3772.74033139767</v>
       </c>
       <c r="D60">
         <v>298.6447548</v>
@@ -2359,10 +2359,10 @@
         <v>-0</v>
       </c>
       <c r="I60">
-        <v>-266.284651162791</v>
+        <v>-384.205172093023</v>
       </c>
       <c r="J60">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2373,7 +2373,7 @@
         <v>-6059.09654315</v>
       </c>
       <c r="C61">
-        <v>3839.27326011512</v>
+        <v>3951.29275917744</v>
       </c>
       <c r="D61">
         <v>275.6811435</v>
@@ -2391,10 +2391,10 @@
         <v>-0</v>
       </c>
       <c r="I61">
-        <v>-272.245581395349</v>
+        <v>-391.099161302326</v>
       </c>
       <c r="J61">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2405,7 +2405,7 @@
         <v>-6107.5469748</v>
       </c>
       <c r="C62">
-        <v>3916.9462799093</v>
+        <v>4036.85914054558</v>
       </c>
       <c r="D62">
         <v>252.7175321</v>
@@ -2423,10 +2423,10 @@
         <v>-0</v>
       </c>
       <c r="I62">
-        <v>-278.206511627907</v>
+        <v>-405.435010976744</v>
       </c>
       <c r="J62">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2437,7 +2437,7 @@
         <v>-6156.86442885</v>
       </c>
       <c r="C63">
-        <v>3989.02088899186</v>
+        <v>4121.01780813233</v>
       </c>
       <c r="D63">
         <v>236.1373073</v>
@@ -2455,10 +2455,10 @@
         <v>-0</v>
       </c>
       <c r="I63">
-        <v>-284.089302325582</v>
+        <v>-424.139083906977</v>
       </c>
       <c r="J63">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2469,7 +2469,7 @@
         <v>-6206.1818829</v>
       </c>
       <c r="C64">
-        <v>4061.09549817442</v>
+        <v>4194.65554558651</v>
       </c>
       <c r="D64">
         <v>219.5570824</v>
@@ -2487,10 +2487,10 @@
         <v>-0</v>
       </c>
       <c r="I64">
-        <v>-289.972093023256</v>
+        <v>-431.680366139535</v>
       </c>
       <c r="J64">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2501,7 +2501,7 @@
         <v>-6155.28425385</v>
       </c>
       <c r="C65">
-        <v>4017.91641642209</v>
+        <v>4150.38074261744</v>
       </c>
       <c r="D65">
         <v>205.6733258</v>
@@ -2519,10 +2519,10 @@
         <v>-0</v>
       </c>
       <c r="I65">
-        <v>-284.100465116279</v>
+        <v>-424.646169302326</v>
       </c>
       <c r="J65">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2533,7 +2533,7 @@
         <v>-6104.3866248</v>
       </c>
       <c r="C66">
-        <v>3974.73733476977</v>
+        <v>4106.10593974837</v>
       </c>
       <c r="D66">
         <v>191.7895691</v>
@@ -2551,10 +2551,10 @@
         <v>-0</v>
       </c>
       <c r="I66">
-        <v>-278.228837209302</v>
+        <v>-417.611972465116</v>
       </c>
       <c r="J66">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2565,7 +2565,7 @@
         <v>-6053.88972595</v>
       </c>
       <c r="C67">
-        <v>3935.01682734535</v>
+        <v>4054.74605566535</v>
       </c>
       <c r="D67">
         <v>174.74248</v>
@@ -2583,10 +2583,10 @@
         <v>-0</v>
       </c>
       <c r="I67">
-        <v>-272.256744186047</v>
+        <v>-399.290408186047</v>
       </c>
       <c r="J67">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2597,7 +2597,7 @@
         <v>-6003.3928271</v>
       </c>
       <c r="C68">
-        <v>3895.29631982093</v>
+        <v>4013.90710171488</v>
       </c>
       <c r="D68">
         <v>157.695391</v>
@@ -2615,10 +2615,10 @@
         <v>-0</v>
       </c>
       <c r="I68">
-        <v>-266.284651162791</v>
+        <v>-392.131634604651</v>
       </c>
       <c r="J68">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2629,7 +2629,7 @@
         <v>-4948.7841914</v>
       </c>
       <c r="C69">
-        <v>2847.56559064651</v>
+        <v>2965.87982118419</v>
       </c>
       <c r="D69">
         <v>133.7107868</v>
@@ -2647,10 +2647,10 @@
         <v>-0</v>
       </c>
       <c r="I69">
-        <v>-249.992558139535</v>
+        <v>-375.524898232558</v>
       </c>
       <c r="J69">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2661,13 +2661,13 @@
         <v>-4594.1755557</v>
       </c>
       <c r="C70">
-        <v>3246.92788472791</v>
+        <v>3358.63300576977</v>
       </c>
       <c r="D70">
         <v>109.7261826</v>
       </c>
       <c r="E70">
-        <v>625</v>
+        <v>624.999999999997</v>
       </c>
       <c r="F70">
         <v>1000</v>
@@ -2679,10 +2679,10 @@
         <v>-0</v>
       </c>
       <c r="I70">
-        <v>-349.979534883721</v>
+        <v>-468.499557209302</v>
       </c>
       <c r="J70">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2693,13 +2693,13 @@
         <v>-4824.19094265</v>
       </c>
       <c r="C71">
-        <v>4109.88730038861</v>
+        <v>4216.98416982116</v>
       </c>
       <c r="D71">
         <v>84.68131667999999</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>2.38742359215394e-12</v>
       </c>
       <c r="F71">
         <v>1000</v>
@@ -2711,10 +2711,10 @@
         <v>-0</v>
       </c>
       <c r="I71">
-        <v>-333.693023255814</v>
+        <v>-447.323653953489</v>
       </c>
       <c r="J71">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2725,7 +2725,7 @@
         <v>-5054.2063296</v>
       </c>
       <c r="C72">
-        <v>4347.8467160593</v>
+        <v>5085.85626411512</v>
       </c>
       <c r="D72">
         <v>59.63645075</v>
@@ -2740,13 +2740,13 @@
         <v>-0</v>
       </c>
       <c r="H72">
-        <v>-0</v>
+        <v>-625.000000000004</v>
       </c>
       <c r="I72">
-        <v>-317.406511627907</v>
+        <v>-437.310541395349</v>
       </c>
       <c r="J72">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -2757,7 +2757,7 @@
         <v>-5154.99691885</v>
       </c>
       <c r="C73">
-        <v>4741.22924771438</v>
+        <v>5199.80308130042</v>
       </c>
       <c r="D73">
         <v>48.61932768</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1000</v>
+        <v>993.219443153301</v>
       </c>
       <c r="G73">
         <v>-0</v>
       </c>
       <c r="H73">
-        <v>-290.342075149028</v>
+        <v>-625</v>
       </c>
       <c r="I73">
-        <v>-309.056744186047</v>
+        <v>-433.338284651163</v>
       </c>
       <c r="J73">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -2789,7 +2789,7 @@
         <v>-5255.7875081</v>
       </c>
       <c r="C74">
-        <v>5483.79246666763</v>
+        <v>4692.43155840233</v>
       </c>
       <c r="D74">
         <v>37.6022046</v>
@@ -2804,13 +2804,13 @@
         <v>-0</v>
       </c>
       <c r="H74">
-        <v>-915.342075149028</v>
+        <v>-0</v>
       </c>
       <c r="I74">
-        <v>-316.115743255814</v>
+        <v>-447.660747906977</v>
       </c>
       <c r="J74">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -2821,7 +2821,7 @@
         <v>-5256.7020294</v>
       </c>
       <c r="C75">
-        <v>5205.31049907558</v>
+        <v>4704.08124735465</v>
       </c>
       <c r="D75">
         <v>27.74133405</v>
@@ -2836,13 +2836,13 @@
         <v>-0</v>
       </c>
       <c r="H75">
-        <v>-625</v>
+        <v>-0</v>
       </c>
       <c r="I75">
-        <v>-318.003186976744</v>
+        <v>-449.324935813954</v>
       </c>
       <c r="J75">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -2853,7 +2853,7 @@
         <v>-5257.6165507</v>
       </c>
       <c r="C76">
-        <v>4592.17060663256</v>
+        <v>4715.73093630698</v>
       </c>
       <c r="D76">
         <v>17.8804635</v>
@@ -2871,10 +2871,10 @@
         <v>-0</v>
       </c>
       <c r="I76">
-        <v>-319.890630697675</v>
+        <v>-450.98912372093</v>
       </c>
       <c r="J76">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -2885,7 +2885,7 @@
         <v>-5784.23034295</v>
       </c>
       <c r="C77">
-        <v>4481.76351861047</v>
+        <v>4605.11342968023</v>
       </c>
       <c r="D77">
         <v>12.8889432</v>
@@ -2903,10 +2903,10 @@
         <v>-0</v>
       </c>
       <c r="I77">
-        <v>-304.542725581395</v>
+        <v>-435.417962790698</v>
       </c>
       <c r="J77">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -2917,7 +2917,7 @@
         <v>-5810.8441352</v>
       </c>
       <c r="C78">
-        <v>3749.26340733256</v>
+        <v>3872.40289979767</v>
       </c>
       <c r="D78">
         <v>7.8974229</v>
@@ -2935,10 +2935,10 @@
         <v>-0</v>
       </c>
       <c r="I78">
-        <v>-172.915750697674</v>
+        <v>-303.567732093023</v>
       </c>
       <c r="J78">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -2949,7 +2949,7 @@
         <v>-6009.2970332</v>
       </c>
       <c r="C79">
-        <v>3933.97631756046</v>
+        <v>4055.4760231</v>
       </c>
       <c r="D79">
         <v>4.6250101</v>
@@ -2967,10 +2967,10 @@
         <v>-0</v>
       </c>
       <c r="I79">
-        <v>-157.567845581395</v>
+        <v>-286.48</v>
       </c>
       <c r="J79">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -2981,7 +2981,7 @@
         <v>-5853.7499312</v>
       </c>
       <c r="C80">
-        <v>3764.68922778837</v>
+        <v>3878.3236594814</v>
       </c>
       <c r="D80">
         <v>1.3525973</v>
@@ -2999,10 +2999,10 @@
         <v>-0</v>
       </c>
       <c r="I80">
-        <v>-142.219940465116</v>
+        <v>-262.786976744186</v>
       </c>
       <c r="J80">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3013,7 +3013,7 @@
         <v>-5934.58450715</v>
       </c>
       <c r="C81">
-        <v>3832.26470306802</v>
+        <v>3938.03386091453</v>
       </c>
       <c r="D81">
         <v>0.711204375</v>
@@ -3031,10 +3031,10 @@
         <v>-0</v>
       </c>
       <c r="I81">
-        <v>-129.83575627907</v>
+        <v>-242.057674418605</v>
       </c>
       <c r="J81">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3045,7 +3045,7 @@
         <v>-6015.4190831</v>
       </c>
       <c r="C82">
-        <v>3932.51083506525</v>
+        <v>4040.41393738112</v>
       </c>
       <c r="D82">
         <v>0.06981145</v>
@@ -3063,10 +3063,10 @@
         <v>-0</v>
       </c>
       <c r="I82">
-        <v>-147.244841347854</v>
+        <v>-261.966348315356</v>
       </c>
       <c r="J82">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3077,7 +3077,7 @@
         <v>-6116.5040318</v>
       </c>
       <c r="C83">
-        <v>4134.29540064244</v>
+        <v>4248.02838188895</v>
       </c>
       <c r="D83">
         <v>0.034905725</v>
@@ -3095,10 +3095,10 @@
         <v>-0</v>
       </c>
       <c r="I83">
-        <v>-242.718169302326</v>
+        <v>-363.38976744186</v>
       </c>
       <c r="J83">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3109,7 +3109,7 @@
         <v>-6267.5889805</v>
       </c>
       <c r="C84">
-        <v>4298.00317503023</v>
+        <v>4401.80107352326</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>-0</v>
       </c>
       <c r="I84">
-        <v>-255.785882790698</v>
+        <v>-365.916279069768</v>
       </c>
       <c r="J84">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3141,7 +3141,7 @@
         <v>-5868.5862904</v>
       </c>
       <c r="C85">
-        <v>3901.31166070698</v>
+        <v>4005.69540667907</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>-0</v>
       </c>
       <c r="I85">
-        <v>-257.923363720929</v>
+        <v>-368.675348837208</v>
       </c>
       <c r="J85">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3173,7 +3173,7 @@
         <v>-5969.5836003</v>
       </c>
       <c r="C86">
-        <v>3998.3237742907</v>
+        <v>4105.39755378837</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>-0</v>
       </c>
       <c r="I86">
-        <v>-253.835728372093</v>
+        <v>-367.441860465116</v>
       </c>
       <c r="J86">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3205,7 +3205,7 @@
         <v>-6169.48325045</v>
       </c>
       <c r="C87">
-        <v>4192.83543742674</v>
+        <v>4304.00204114768</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3223,10 +3223,10 @@
         <v>-0</v>
       </c>
       <c r="I87">
-        <v>-248.259720930233</v>
+        <v>-366.208372093024</v>
       </c>
       <c r="J87">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3237,7 +3237,7 @@
         <v>-5769.3829006</v>
       </c>
       <c r="C88">
-        <v>3793.79993777209</v>
+        <v>3902.60652850698</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3255,10 +3255,10 @@
         <v>-0</v>
       </c>
       <c r="I88">
-        <v>-249.530225116281</v>
+        <v>-364.974883720932</v>
       </c>
       <c r="J88">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3269,7 +3269,7 @@
         <v>-5519.49077665</v>
       </c>
       <c r="C89">
-        <v>3541.46568727326</v>
+        <v>3651.41924176628</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3287,10 +3287,10 @@
         <v>-0</v>
       </c>
       <c r="I89">
-        <v>-247.07979906977</v>
+        <v>-363.74139534884</v>
       </c>
       <c r="J89">
-        <v>-1.04989998</v>
+        <v>1.04989998</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3301,7 +3301,7 @@
         <v>-5769.5986527</v>
       </c>
       <c r="C90">
-        <v>4414.13143677442</v>
+        <v>4525.23195502559</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>-0</v>
       </c>
       <c r="I90">
-        <v>-244.629373023259</v>
+        <v>-362.507906976748</v>
       </c>
       <c r="J90">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3333,7 +3333,7 @@
         <v>-6094.47187745</v>
       </c>
       <c r="C91">
-        <v>5361.56253497559</v>
+        <v>5473.81001698489</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>-0</v>
       </c>
       <c r="I91">
-        <v>-242.178946976748</v>
+        <v>-361.274418604656</v>
       </c>
       <c r="J91">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3365,7 +3365,7 @@
         <v>-6419.3451022</v>
       </c>
       <c r="C92">
-        <v>5693.46947161004</v>
+        <v>5811.07228947051</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         <v>-13.6842105263158</v>
       </c>
       <c r="I92">
-        <v>-235.263404651167</v>
+        <v>-360.040930232564</v>
       </c>
       <c r="J92">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3397,7 +3397,7 @@
         <v>-6044.38959065</v>
       </c>
       <c r="C93">
-        <v>5316.07183351121</v>
+        <v>5434.73810699958</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3415,138 +3415,10 @@
         <v>-13.6842105263158</v>
       </c>
       <c r="I93">
-        <v>-232.812978604656</v>
+        <v>-358.718839069772</v>
       </c>
       <c r="J93">
-        <v>-0.65550003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>-5669.4340791</v>
-      </c>
-      <c r="C94">
-        <v>4942.18117215655</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1000</v>
-      </c>
-      <c r="G94">
-        <v>-0</v>
-      </c>
-      <c r="H94">
-        <v>-13.6842105263158</v>
-      </c>
-      <c r="I94">
-        <v>-234.083482790703</v>
-      </c>
-      <c r="J94">
-        <v>-0.65550003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>-5769.46635825</v>
-      </c>
-      <c r="C95">
-        <v>5036.26434801353</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>1000</v>
-      </c>
-      <c r="G95">
-        <v>-0</v>
-      </c>
-      <c r="H95">
-        <v>-13.6842105263158</v>
-      </c>
-      <c r="I95">
-        <v>-227.912126511634</v>
-      </c>
-      <c r="J95">
-        <v>-0.65550003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>-5819.4986374</v>
-      </c>
-      <c r="C96">
-        <v>5080.34752387051</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1000</v>
-      </c>
-      <c r="G96">
-        <v>-0</v>
-      </c>
-      <c r="H96">
-        <v>-13.6842105263158</v>
-      </c>
-      <c r="I96">
-        <v>-221.740770232565</v>
-      </c>
-      <c r="J96">
-        <v>-0.65550003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>-5869.4986374</v>
-      </c>
-      <c r="C97">
-        <v>5127.90539732167</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>1000</v>
-      </c>
-      <c r="G97">
-        <v>-0</v>
-      </c>
-      <c r="H97">
-        <v>-13.6842105263158</v>
-      </c>
-      <c r="I97">
-        <v>-219.290344186054</v>
-      </c>
-      <c r="J97">
-        <v>-0.65550003</v>
+        <v>0.65550003</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3584,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>969.5347839999985</v>
+        <v>1549.280000000002</v>
       </c>
       <c r="C2">
-        <v>2.220446049250313e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="D2">
-        <v>579.745216</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>-1549.28</v>
@@ -3604,13 +3476,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>967.2147839999981</v>
+        <v>1551.279999999998</v>
       </c>
       <c r="C3">
-        <v>5.773159728050814e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="D3">
-        <v>584.065216</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-1551.28</v>
@@ -3624,13 +3496,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>964.8947840000021</v>
+        <v>1553.279999999999</v>
       </c>
       <c r="C4">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D4">
-        <v>588.385216</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-1553.28</v>
@@ -3644,13 +3516,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>962.5747840000018</v>
+        <v>1555.28</v>
       </c>
       <c r="C5">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D5">
-        <v>592.7052160000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-1555.28</v>
@@ -3664,13 +3536,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>960.2547840000015</v>
+        <v>1557.280000000001</v>
       </c>
       <c r="C6">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D6">
-        <v>597.025216</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-1557.28</v>
@@ -3684,13 +3556,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>957.9347840000013</v>
+        <v>1559.280000000002</v>
       </c>
       <c r="C7">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D7">
-        <v>601.3452160000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-1559.28</v>
@@ -3704,13 +3576,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>955.614784000001</v>
+        <v>1561.279999999999</v>
       </c>
       <c r="C8">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D8">
-        <v>605.665216</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-1561.28</v>
@@ -3724,13 +3596,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>978.8947840000005</v>
+        <v>1563.28</v>
       </c>
       <c r="C9">
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="D9">
-        <v>584.385216</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-1563.28</v>
@@ -3744,13 +3616,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>947.3747839999986</v>
+        <v>1523.280000000001</v>
       </c>
       <c r="C10">
-        <v>-1.13686837721616e-13</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="D10">
-        <v>575.905216</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>-1523.28</v>
@@ -3764,13 +3636,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>926.6547840000019</v>
+        <v>1497.280000000001</v>
       </c>
       <c r="C11">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D11">
-        <v>570.625216</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-1497.28</v>
@@ -3784,13 +3656,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>937.3347839999996</v>
+        <v>1496.280000000001</v>
       </c>
       <c r="C12">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D12">
-        <v>558.945216</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>-1496.28</v>
@@ -3804,13 +3676,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>948.0147840000016</v>
+        <v>1495.28</v>
       </c>
       <c r="C13">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D13">
-        <v>547.265216</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>-1495.28</v>
@@ -3824,13 +3696,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>942.6947839999996</v>
+        <v>1494.28</v>
       </c>
       <c r="C14">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D14">
-        <v>551.5852160000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>-1494.28</v>
@@ -3844,13 +3716,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>953.3747840000016</v>
+        <v>1493.279999999999</v>
       </c>
       <c r="C15">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D15">
-        <v>539.905216</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>-1493.28</v>
@@ -3864,13 +3736,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>817.0547839999988</v>
+        <v>1377.280000000002</v>
       </c>
       <c r="C16">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D16">
-        <v>560.225216</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-1377.28</v>
@@ -3884,13 +3756,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>814.7347839999985</v>
+        <v>1375.142783999998</v>
       </c>
       <c r="C17">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D17">
-        <v>564.545216</v>
+        <v>4.137216000000264</v>
       </c>
       <c r="E17">
         <v>-1379.28</v>
@@ -3904,13 +3776,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>812.4147839999981</v>
+        <v>1373.601983999999</v>
       </c>
       <c r="C18">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D18">
-        <v>568.865216</v>
+        <v>7.678016000000209</v>
       </c>
       <c r="E18">
         <v>-1381.28</v>
@@ -3924,13 +3796,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>810.0947840000022</v>
+        <v>1368.861183999999</v>
       </c>
       <c r="C19">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D19">
-        <v>573.1852160000001</v>
+        <v>14.41881600000016</v>
       </c>
       <c r="E19">
         <v>-1383.28</v>
@@ -3944,13 +3816,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>710.9747840000008</v>
+        <v>1261.720384</v>
       </c>
       <c r="C20">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D20">
-        <v>574.3052160000001</v>
+        <v>23.55961599999976</v>
       </c>
       <c r="E20">
         <v>-1285.28</v>
@@ -3964,13 +3836,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>721.4547839999982</v>
+        <v>1259.379584000001</v>
       </c>
       <c r="C21">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D21">
-        <v>565.8252160000001</v>
+        <v>27.9004160000004</v>
       </c>
       <c r="E21">
         <v>-1287.28</v>
@@ -3984,13 +3856,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>719.134783999998</v>
+        <v>1244.238784</v>
       </c>
       <c r="C22">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D22">
-        <v>570.145216</v>
+        <v>45.04121600000033</v>
       </c>
       <c r="E22">
         <v>-1289.28</v>
@@ -4004,13 +3876,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>732.8147840000013</v>
+        <v>1247.497983999999</v>
       </c>
       <c r="C23">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D23">
-        <v>558.4652159999999</v>
+        <v>43.78201600000033</v>
       </c>
       <c r="E23">
         <v>-1291.28</v>
@@ -4024,13 +3896,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>730.494784000001</v>
+        <v>1237.957184000001</v>
       </c>
       <c r="C24">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D24">
-        <v>562.7852160000001</v>
+        <v>55.32281600000024</v>
       </c>
       <c r="E24">
         <v>-1293.28</v>
@@ -4044,13 +3916,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>744.1747840000003</v>
+        <v>1253.216383999998</v>
       </c>
       <c r="C25">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D25">
-        <v>551.105216</v>
+        <v>42.06361599999985</v>
       </c>
       <c r="E25">
         <v>-1295.28</v>
@@ -4064,13 +3936,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>741.8547839999999</v>
+        <v>1252.475584</v>
       </c>
       <c r="C26">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D26">
-        <v>555.425216</v>
+        <v>44.80441599999976</v>
       </c>
       <c r="E26">
         <v>-1297.28</v>
@@ -4084,13 +3956,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>755.534783999999</v>
+        <v>1256.318783999998</v>
       </c>
       <c r="C27">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D27">
-        <v>543.745216</v>
+        <v>42.96121600000009</v>
       </c>
       <c r="E27">
         <v>-1299.28</v>
@@ -4104,13 +3976,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>769.2147839999981</v>
+        <v>1255.478783999999</v>
       </c>
       <c r="C28">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D28">
-        <v>532.065216</v>
+        <v>45.80121600000024</v>
       </c>
       <c r="E28">
         <v>-1301.28</v>
@@ -4124,13 +3996,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>766.8947840000021</v>
+        <v>1254.638784</v>
       </c>
       <c r="C29">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D29">
-        <v>536.385216</v>
+        <v>48.64121600000033</v>
       </c>
       <c r="E29">
         <v>-1303.28</v>
@@ -4144,13 +4016,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>764.5747840000018</v>
+        <v>1253.798784000002</v>
       </c>
       <c r="C30">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D30">
-        <v>540.7052160000001</v>
+        <v>51.48121599999976</v>
       </c>
       <c r="E30">
         <v>-1305.28</v>
@@ -4164,13 +4036,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>678.2547839999982</v>
+        <v>1168.958784</v>
       </c>
       <c r="C31">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D31">
-        <v>529.025216</v>
+        <v>38.32121599999992</v>
       </c>
       <c r="E31">
         <v>-1207.28</v>
@@ -4184,13 +4056,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>675.9347839999979</v>
+        <v>1168.118784000001</v>
       </c>
       <c r="C32">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D32">
-        <v>533.3452160000001</v>
+        <v>41.16121600000008</v>
       </c>
       <c r="E32">
         <v>-1209.28</v>
@@ -4204,13 +4076,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>673.6147840000018</v>
+        <v>1167.278783999998</v>
       </c>
       <c r="C33">
         <v>1.023181539494544e-12</v>
       </c>
       <c r="D33">
-        <v>537.665216</v>
+        <v>44.00121600000024</v>
       </c>
       <c r="E33">
         <v>-1211.28</v>
@@ -4224,13 +4096,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>687.294784000001</v>
+        <v>1182.438783999999</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>525.985216</v>
+        <v>30.84121600000032</v>
       </c>
       <c r="E34">
         <v>-1213.28</v>
@@ -4244,13 +4116,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>700.974784</v>
+        <v>1197.598784</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>514.3052160000001</v>
+        <v>17.68121599999976</v>
       </c>
       <c r="E35">
         <v>-1215.28</v>
@@ -4264,13 +4136,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>816.4067840000014</v>
+        <v>1314.510783999998</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>502.625216</v>
+        <v>4.521215999999913</v>
       </c>
       <c r="E36">
         <v>-1319.032</v>
@@ -4284,13 +4156,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>890.0307840000002</v>
+        <v>1380.976000000002</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>490.945216</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>-1380.976</v>
@@ -4304,13 +4176,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>931.6547840000002</v>
+        <v>1432.718784</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>511.265216</v>
+        <v>10.20121600000024</v>
       </c>
       <c r="E38">
         <v>-1442.92</v>
@@ -4324,13 +4196,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>883.159679999999</v>
+        <v>1385.703680000001</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>524.8803200000001</v>
+        <v>22.33632000000032</v>
       </c>
       <c r="E39">
         <v>-1408.04</v>
@@ -4344,13 +4216,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>953.8764800000012</v>
+        <v>1461.100480000002</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>519.56352</v>
+        <v>12.33952000000024</v>
       </c>
       <c r="E40">
         <v>-1473.44</v>
@@ -4364,13 +4236,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>892.6972799999993</v>
+        <v>1403.801279999998</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>546.24672</v>
+        <v>35.14271999999984</v>
       </c>
       <c r="E41">
         <v>-1438.944</v>
@@ -4384,13 +4256,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1031.518079999998</v>
+        <v>1556.102080000001</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>572.92992</v>
+        <v>48.34592000000048</v>
       </c>
       <c r="E42">
         <v>-1604.448</v>
@@ -4404,13 +4276,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1170.43488</v>
+        <v>1703.698879999999</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>599.61312</v>
+        <v>66.34911999999967</v>
       </c>
       <c r="E43">
         <v>-1770.048</v>
@@ -4424,13 +4296,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1340.666496000001</v>
+        <v>1890.610496000001</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>594.9815040000001</v>
+        <v>45.03750399999993</v>
       </c>
       <c r="E44">
         <v>-1935.648</v>
@@ -4444,13 +4316,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1338.381456000001</v>
+        <v>1958.711999999999</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>620.330544</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>-1958.712</v>
@@ -4464,13 +4336,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1336.096416</v>
+        <v>1971.722656000002</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>645.679584</v>
+        <v>10.05334400000032</v>
       </c>
       <c r="E46">
         <v>-1981.776</v>
@@ -4484,13 +4356,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1338.611376000001</v>
+        <v>1980.924975999999</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>671.028624</v>
+        <v>28.71502400000024</v>
       </c>
       <c r="E47">
         <v>-2009.64</v>
@@ -4504,13 +4376,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1341.126335999998</v>
+        <v>1990.127296000001</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>696.3776640000001</v>
+        <v>47.37670400000064</v>
       </c>
       <c r="E48">
         <v>-2037.504</v>
@@ -4524,13 +4396,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1369.561295999999</v>
+        <v>2031.470415999999</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>721.726704</v>
+        <v>59.81758399999961</v>
       </c>
       <c r="E49">
         <v>-2091.288</v>
@@ -4544,13 +4416,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1345.071999999999</v>
+        <v>1988.459372800001</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>800</v>
+        <v>156.6126271999992</v>
       </c>
       <c r="E50">
         <v>-2145.072</v>
@@ -4564,13 +4436,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1393.168</v>
+        <v>2029.456403200001</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>800</v>
+        <v>163.7115968000008</v>
       </c>
       <c r="E51">
         <v>-2193.168</v>
@@ -4584,13 +4456,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1441.264000000001</v>
+        <v>2038.453433600002</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>800</v>
+        <v>202.8105664</v>
       </c>
       <c r="E52">
         <v>-2241.264</v>
@@ -4604,13 +4476,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1479.472000000002</v>
+        <v>2067.189344000001</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>800</v>
+        <v>212.282656</v>
       </c>
       <c r="E53">
         <v>-2279.472</v>
@@ -4624,13 +4496,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1517.679999999998</v>
+        <v>2090.1652544</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>800</v>
+        <v>227.5147456</v>
       </c>
       <c r="E54">
         <v>-2317.68</v>
@@ -4644,13 +4516,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1555.863999999998</v>
+        <v>2113.117164799999</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>800</v>
+        <v>242.7468352</v>
       </c>
       <c r="E55">
         <v>-2355.864</v>
@@ -4664,13 +4536,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1594.047999999998</v>
+        <v>2136.069075200001</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>800</v>
+        <v>257.9789248000008</v>
       </c>
       <c r="E56">
         <v>-2394.048</v>
@@ -4684,13 +4556,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1604.416</v>
+        <v>2131.204985600002</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
-        <v>800</v>
+        <v>273.2110144</v>
       </c>
       <c r="E57">
         <v>-2404.416</v>
@@ -4704,13 +4576,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1114.784000000001</v>
+        <v>1625.446175999999</v>
       </c>
       <c r="C58">
         <v>500</v>
       </c>
       <c r="D58">
-        <v>800</v>
+        <v>289.337824</v>
       </c>
       <c r="E58">
         <v>-2414.784</v>
@@ -4724,13 +4596,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1129.903999999999</v>
+        <v>1641.872966400001</v>
       </c>
       <c r="C59">
         <v>500</v>
       </c>
       <c r="D59">
-        <v>800</v>
+        <v>288.0310336</v>
       </c>
       <c r="E59">
         <v>-2429.904</v>
@@ -4744,13 +4616,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1145.024000000001</v>
+        <v>1652.082239999999</v>
       </c>
       <c r="C60">
         <v>500</v>
       </c>
       <c r="D60">
-        <v>800</v>
+        <v>292.9417599999992</v>
       </c>
       <c r="E60">
         <v>-2445.024</v>
@@ -4764,13 +4636,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1170.656000000001</v>
+        <v>1681.726393600002</v>
       </c>
       <c r="C61">
         <v>500</v>
       </c>
       <c r="D61">
-        <v>800</v>
+        <v>288.9296064</v>
       </c>
       <c r="E61">
         <v>-2470.656</v>
@@ -4784,13 +4656,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1196.288</v>
+        <v>1743.370547199999</v>
       </c>
       <c r="C62">
         <v>500</v>
       </c>
       <c r="D62">
-        <v>800</v>
+        <v>252.9174527999992</v>
       </c>
       <c r="E62">
         <v>-2496.288</v>
@@ -4804,13 +4676,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1221.584000000003</v>
+        <v>1823.798060800001</v>
       </c>
       <c r="C63">
         <v>500</v>
       </c>
       <c r="D63">
-        <v>800</v>
+        <v>197.7859392000008</v>
       </c>
       <c r="E63">
         <v>-2521.584000000001</v>
@@ -4824,13 +4696,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1246.880000000001</v>
+        <v>1856.2255744</v>
       </c>
       <c r="C64">
         <v>500</v>
       </c>
       <c r="D64">
-        <v>800</v>
+        <v>190.6544256000008</v>
       </c>
       <c r="E64">
         <v>-2546.880000000001</v>
@@ -4844,13 +4716,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1221.632</v>
+        <v>1825.978528000002</v>
       </c>
       <c r="C65">
         <v>500</v>
       </c>
       <c r="D65">
-        <v>800</v>
+        <v>195.653472</v>
       </c>
       <c r="E65">
         <v>-2521.632</v>
@@ -4864,13 +4736,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1196.383999999999</v>
+        <v>1795.731481599999</v>
       </c>
       <c r="C66">
         <v>500</v>
       </c>
       <c r="D66">
-        <v>800</v>
+        <v>200.6525184</v>
       </c>
       <c r="E66">
         <v>-2496.384</v>
@@ -4884,13 +4756,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1170.704000000002</v>
+        <v>1716.948755200002</v>
       </c>
       <c r="C67">
         <v>500</v>
       </c>
       <c r="D67">
-        <v>800</v>
+        <v>253.7552448</v>
       </c>
       <c r="E67">
         <v>-2470.704</v>
@@ -4904,13 +4776,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1145.024000000001</v>
+        <v>1686.166028799999</v>
       </c>
       <c r="C68">
         <v>500</v>
       </c>
       <c r="D68">
-        <v>800</v>
+        <v>258.8579712</v>
       </c>
       <c r="E68">
         <v>-2445.024</v>
@@ -4924,13 +4796,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1074.968000000001</v>
+        <v>1614.757062399999</v>
       </c>
       <c r="C69">
         <v>500</v>
       </c>
       <c r="D69">
-        <v>800</v>
+        <v>260.2109376</v>
       </c>
       <c r="E69">
         <v>-2374.968</v>
@@ -4944,13 +4816,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1504.912</v>
+        <v>2014.548095999998</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>800</v>
+        <v>290.363904</v>
       </c>
       <c r="E70">
         <v>-2304.912</v>
@@ -4964,13 +4836,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1434.88</v>
+        <v>1923.491712000003</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71">
-        <v>800</v>
+        <v>311.388288</v>
       </c>
       <c r="E71">
         <v>-2234.880000000001</v>
@@ -4984,13 +4856,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1364.848</v>
+        <v>1880.435328</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>800</v>
+        <v>284.4126720000008</v>
       </c>
       <c r="E72">
         <v>-2164.848</v>
@@ -5004,13 +4876,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1328.944000000002</v>
+        <v>1863.354624000001</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>800</v>
+        <v>265.589376</v>
       </c>
       <c r="E73">
         <v>-2128.944</v>
@@ -5024,13 +4896,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1359.297696</v>
+        <v>1924.941216000001</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>733.742304</v>
+        <v>168.098784</v>
       </c>
       <c r="E74">
         <v>-2093.04</v>
@@ -5044,13 +4916,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1367.413703999999</v>
+        <v>1932.097224000002</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75">
-        <v>697.858296</v>
+        <v>133.174776</v>
       </c>
       <c r="E75">
         <v>-2065.272</v>
@@ -5064,13 +4936,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1375.529712000003</v>
+        <v>1939.253231999999</v>
       </c>
       <c r="C76">
         <v>0</v>
       </c>
       <c r="D76">
-        <v>661.974288</v>
+        <v>98.2507679999992</v>
       </c>
       <c r="E76">
         <v>-2037.504</v>
@@ -5084,13 +4956,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1309.533719999999</v>
+        <v>1872.297240000001</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>626.09028</v>
+        <v>63.32676000000032</v>
       </c>
       <c r="E77">
         <v>-1935.624</v>
@@ -5104,13 +4976,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>743.5377279999982</v>
+        <v>1305.341247999999</v>
       </c>
       <c r="C78">
         <v>500</v>
       </c>
       <c r="D78">
-        <v>590.206272</v>
+        <v>28.402752</v>
       </c>
       <c r="E78">
         <v>-1833.744</v>
@@ -5124,13 +4996,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>677.5417359999985</v>
+        <v>1231.864</v>
       </c>
       <c r="C79">
         <v>500</v>
       </c>
       <c r="D79">
-        <v>554.322264</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>-1731.864</v>
@@ -5144,13 +5016,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>611.5457439999988</v>
+        <v>1129.984</v>
       </c>
       <c r="C80">
         <v>500</v>
       </c>
       <c r="D80">
-        <v>518.438256</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>-1629.984</v>
@@ -5164,13 +5036,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>558.2937520000011</v>
+        <v>1040.848000000001</v>
       </c>
       <c r="C81">
         <v>500</v>
       </c>
       <c r="D81">
-        <v>482.554248</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>-1540.848</v>
@@ -5184,13 +5056,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>633.1528177957722</v>
+        <v>1126.455297756031</v>
       </c>
       <c r="C82">
-        <v>416.379982204229</v>
+        <v>425.256702243968</v>
       </c>
       <c r="D82">
-        <v>502.1792</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>-1551.712</v>
@@ -5204,13 +5076,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1043.688128000002</v>
+        <v>1562.575999999998</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>518.887872</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>-1562.576</v>
@@ -5224,13 +5096,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1099.879296000001</v>
+        <v>1573.440000000002</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>473.560704</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>-1573.44</v>
@@ -5244,13 +5116,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1109.070463999995</v>
+        <v>1585.303999999994</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85">
-        <v>476.233536</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>-1585.303999999996</v>
@@ -5264,13 +5136,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1091.493632</v>
+        <v>1579.999999999999</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>488.5063680000001</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>-1580</v>
@@ -5284,13 +5156,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1067.516800000002</v>
+        <v>1574.696000000003</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>507.1792</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>-1574.696000000004</v>
@@ -5304,13 +5176,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1072.979968000008</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88">
-        <v>496.4120320000017</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>-1569.392000000008</v>
@@ -5324,13 +5196,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1062.443136000011</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89">
-        <v>501.6448640000016</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>-1564.088000000012</v>
@@ -5344,13 +5216,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1051.906304000014</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>506.8776960000032</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>-1558.784000000016</v>
@@ -5364,13 +5236,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1041.369472000016</v>
+        <v>1553.480000000021</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>512.1105280000048</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>-1553.48000000002</v>
@@ -5384,13 +5256,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1011.632640000018</v>
+        <v>1548.176000000025</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92">
-        <v>536.5433600000064</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>-1548.176000000024</v>
@@ -5404,98 +5276,18 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1001.095808000021</v>
+        <v>1542.49100800002</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93">
-        <v>541.7761920000064</v>
+        <v>0.3809920000065176</v>
       </c>
       <c r="E93">
         <v>-1542.872000000028</v>
       </c>
       <c r="F93">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>1006.558976000023</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>531.009024000008</v>
-      </c>
-      <c r="E94">
-        <v>-1537.568000000032</v>
-      </c>
-      <c r="F94">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>980.0221440000262</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>552.2418560000095</v>
-      </c>
-      <c r="E95">
-        <v>-1532.264000000036</v>
-      </c>
-      <c r="F95">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>953.4853120000295</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>573.4746880000112</v>
-      </c>
-      <c r="E96">
-        <v>-1526.96000000004</v>
-      </c>
-      <c r="F96">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>942.9484800000322</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>578.7075200000128</v>
-      </c>
-      <c r="E97">
-        <v>-1521.656000000044</v>
-      </c>
-      <c r="F97">
         <v>0.65550003</v>
       </c>
     </row>
@@ -5506,7 +5298,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5534,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.220446049250313e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="C2">
-        <v>969.5347839999985</v>
+        <v>1549.280000000002</v>
       </c>
       <c r="D2">
-        <v>579.745216</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1549.28</v>
@@ -5554,13 +5346,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.773159728050814e-15</v>
+        <v>-8.881784197001252e-16</v>
       </c>
       <c r="C3">
-        <v>967.2147839999981</v>
+        <v>1551.279999999998</v>
       </c>
       <c r="D3">
-        <v>584.065216</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1551.28</v>
@@ -5577,10 +5369,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C4">
-        <v>964.8947840000021</v>
+        <v>1553.279999999999</v>
       </c>
       <c r="D4">
-        <v>588.385216</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1553.28</v>
@@ -5597,10 +5389,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C5">
-        <v>962.5747840000018</v>
+        <v>1555.28</v>
       </c>
       <c r="D5">
-        <v>592.7052160000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1555.28</v>
@@ -5617,10 +5409,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C6">
-        <v>960.2547840000015</v>
+        <v>1557.280000000001</v>
       </c>
       <c r="D6">
-        <v>597.025216</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1557.28</v>
@@ -5637,10 +5429,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C7">
-        <v>957.9347840000013</v>
+        <v>1559.280000000002</v>
       </c>
       <c r="D7">
-        <v>601.3452160000001</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1559.28</v>
@@ -5657,10 +5449,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C8">
-        <v>955.614784000001</v>
+        <v>1561.279999999999</v>
       </c>
       <c r="D8">
-        <v>605.665216</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1561.28</v>
@@ -5677,10 +5469,10 @@
         <v>-8.881784197001252e-16</v>
       </c>
       <c r="C9">
-        <v>978.8947840000005</v>
+        <v>1563.28</v>
       </c>
       <c r="D9">
-        <v>584.385216</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1563.28</v>
@@ -5694,13 +5486,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.13686837721616e-13</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="C10">
-        <v>947.3747839999986</v>
+        <v>1523.280000000001</v>
       </c>
       <c r="D10">
-        <v>575.905216</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1523.28</v>
@@ -5717,10 +5509,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C11">
-        <v>926.6547840000019</v>
+        <v>1497.280000000001</v>
       </c>
       <c r="D11">
-        <v>570.625216</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1497.28</v>
@@ -5737,10 +5529,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C12">
-        <v>937.3347839999996</v>
+        <v>1496.280000000001</v>
       </c>
       <c r="D12">
-        <v>558.945216</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1496.28</v>
@@ -5757,10 +5549,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C13">
-        <v>948.0147840000016</v>
+        <v>1495.28</v>
       </c>
       <c r="D13">
-        <v>547.265216</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1495.28</v>
@@ -5777,10 +5569,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C14">
-        <v>942.6947839999996</v>
+        <v>1494.28</v>
       </c>
       <c r="D14">
-        <v>551.5852160000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1494.28</v>
@@ -5797,10 +5589,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C15">
-        <v>953.3747840000016</v>
+        <v>1493.279999999999</v>
       </c>
       <c r="D15">
-        <v>539.905216</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1493.28</v>
@@ -5817,10 +5609,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C16">
-        <v>817.0547839999988</v>
+        <v>1377.280000000002</v>
       </c>
       <c r="D16">
-        <v>560.225216</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1377.28</v>
@@ -5837,10 +5629,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C17">
-        <v>814.7347839999985</v>
+        <v>1375.142783999998</v>
       </c>
       <c r="D17">
-        <v>564.545216</v>
+        <v>4.137216000000264</v>
       </c>
       <c r="E17">
         <v>1379.28</v>
@@ -5857,10 +5649,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C18">
-        <v>812.4147839999981</v>
+        <v>1373.601983999999</v>
       </c>
       <c r="D18">
-        <v>568.865216</v>
+        <v>7.678016000000209</v>
       </c>
       <c r="E18">
         <v>1381.28</v>
@@ -5877,10 +5669,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C19">
-        <v>810.0947840000022</v>
+        <v>1368.861183999999</v>
       </c>
       <c r="D19">
-        <v>573.1852160000001</v>
+        <v>14.41881600000016</v>
       </c>
       <c r="E19">
         <v>1383.28</v>
@@ -5897,10 +5689,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C20">
-        <v>710.9747840000008</v>
+        <v>1261.720384</v>
       </c>
       <c r="D20">
-        <v>574.3052160000001</v>
+        <v>23.55961599999976</v>
       </c>
       <c r="E20">
         <v>1285.28</v>
@@ -5917,10 +5709,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C21">
-        <v>721.4547839999982</v>
+        <v>1259.379584000001</v>
       </c>
       <c r="D21">
-        <v>565.8252160000001</v>
+        <v>27.9004160000004</v>
       </c>
       <c r="E21">
         <v>1287.28</v>
@@ -5937,10 +5729,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C22">
-        <v>719.134783999998</v>
+        <v>1244.238784</v>
       </c>
       <c r="D22">
-        <v>570.145216</v>
+        <v>45.04121600000033</v>
       </c>
       <c r="E22">
         <v>1289.28</v>
@@ -5957,10 +5749,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C23">
-        <v>732.8147840000013</v>
+        <v>1247.497983999999</v>
       </c>
       <c r="D23">
-        <v>558.4652159999999</v>
+        <v>43.78201600000033</v>
       </c>
       <c r="E23">
         <v>1291.28</v>
@@ -5977,10 +5769,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C24">
-        <v>730.494784000001</v>
+        <v>1237.957184000001</v>
       </c>
       <c r="D24">
-        <v>562.7852160000001</v>
+        <v>55.32281600000024</v>
       </c>
       <c r="E24">
         <v>1293.28</v>
@@ -5997,10 +5789,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C25">
-        <v>744.1747840000003</v>
+        <v>1253.216383999998</v>
       </c>
       <c r="D25">
-        <v>551.105216</v>
+        <v>42.06361599999985</v>
       </c>
       <c r="E25">
         <v>1295.28</v>
@@ -6017,10 +5809,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C26">
-        <v>741.8547839999999</v>
+        <v>1252.475584</v>
       </c>
       <c r="D26">
-        <v>555.425216</v>
+        <v>44.80441599999976</v>
       </c>
       <c r="E26">
         <v>1297.28</v>
@@ -6037,10 +5829,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C27">
-        <v>755.534783999999</v>
+        <v>1256.318783999998</v>
       </c>
       <c r="D27">
-        <v>543.745216</v>
+        <v>42.96121600000009</v>
       </c>
       <c r="E27">
         <v>1299.28</v>
@@ -6057,10 +5849,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C28">
-        <v>769.2147839999981</v>
+        <v>1255.478783999999</v>
       </c>
       <c r="D28">
-        <v>532.065216</v>
+        <v>45.80121600000024</v>
       </c>
       <c r="E28">
         <v>1301.28</v>
@@ -6077,10 +5869,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C29">
-        <v>766.8947840000021</v>
+        <v>1254.638784</v>
       </c>
       <c r="D29">
-        <v>536.385216</v>
+        <v>48.64121600000033</v>
       </c>
       <c r="E29">
         <v>1303.28</v>
@@ -6097,10 +5889,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C30">
-        <v>764.5747840000018</v>
+        <v>1253.798784000002</v>
       </c>
       <c r="D30">
-        <v>540.7052160000001</v>
+        <v>51.48121599999976</v>
       </c>
       <c r="E30">
         <v>1305.28</v>
@@ -6117,10 +5909,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C31">
-        <v>678.2547839999982</v>
+        <v>1168.958784</v>
       </c>
       <c r="D31">
-        <v>529.025216</v>
+        <v>38.32121599999992</v>
       </c>
       <c r="E31">
         <v>1207.28</v>
@@ -6137,10 +5929,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C32">
-        <v>675.9347839999979</v>
+        <v>1168.118784000001</v>
       </c>
       <c r="D32">
-        <v>533.3452160000001</v>
+        <v>41.16121600000008</v>
       </c>
       <c r="E32">
         <v>1209.28</v>
@@ -6157,10 +5949,10 @@
         <v>1.023181539494544e-12</v>
       </c>
       <c r="C33">
-        <v>673.6147840000018</v>
+        <v>1167.278783999998</v>
       </c>
       <c r="D33">
-        <v>537.665216</v>
+        <v>44.00121600000024</v>
       </c>
       <c r="E33">
         <v>1211.28</v>
@@ -6177,10 +5969,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>687.294784000001</v>
+        <v>1182.438783999999</v>
       </c>
       <c r="D34">
-        <v>525.985216</v>
+        <v>30.84121600000032</v>
       </c>
       <c r="E34">
         <v>1213.28</v>
@@ -6197,10 +5989,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>700.974784</v>
+        <v>1197.598784</v>
       </c>
       <c r="D35">
-        <v>514.3052160000001</v>
+        <v>17.68121599999976</v>
       </c>
       <c r="E35">
         <v>1215.28</v>
@@ -6217,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>816.4067840000014</v>
+        <v>1314.510783999998</v>
       </c>
       <c r="D36">
-        <v>502.625216</v>
+        <v>4.521215999999913</v>
       </c>
       <c r="E36">
         <v>1319.032</v>
@@ -6237,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>890.0307840000002</v>
+        <v>1380.976000000002</v>
       </c>
       <c r="D37">
-        <v>490.945216</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>1380.976</v>
@@ -6257,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>931.6547840000002</v>
+        <v>1432.718784</v>
       </c>
       <c r="D38">
-        <v>511.265216</v>
+        <v>10.20121600000024</v>
       </c>
       <c r="E38">
         <v>1442.92</v>
@@ -6277,10 +6069,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>883.159679999999</v>
+        <v>1385.703680000001</v>
       </c>
       <c r="D39">
-        <v>524.8803200000001</v>
+        <v>22.33632000000032</v>
       </c>
       <c r="E39">
         <v>1408.04</v>
@@ -6297,10 +6089,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>953.8764800000012</v>
+        <v>1461.100480000002</v>
       </c>
       <c r="D40">
-        <v>519.56352</v>
+        <v>12.33952000000024</v>
       </c>
       <c r="E40">
         <v>1473.44</v>
@@ -6317,10 +6109,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>892.6972799999993</v>
+        <v>1403.801279999998</v>
       </c>
       <c r="D41">
-        <v>546.24672</v>
+        <v>35.14271999999984</v>
       </c>
       <c r="E41">
         <v>1438.944</v>
@@ -6337,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1031.518079999998</v>
+        <v>1556.102080000001</v>
       </c>
       <c r="D42">
-        <v>572.92992</v>
+        <v>48.34592000000048</v>
       </c>
       <c r="E42">
         <v>1604.448</v>
@@ -6357,10 +6149,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1170.43488</v>
+        <v>1703.698879999999</v>
       </c>
       <c r="D43">
-        <v>599.61312</v>
+        <v>66.34911999999967</v>
       </c>
       <c r="E43">
         <v>1770.048</v>
@@ -6377,10 +6169,10 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1340.666496000001</v>
+        <v>1890.610496000001</v>
       </c>
       <c r="D44">
-        <v>594.9815040000001</v>
+        <v>45.03750399999993</v>
       </c>
       <c r="E44">
         <v>1935.648</v>
@@ -6397,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1338.381456000001</v>
+        <v>1958.711999999999</v>
       </c>
       <c r="D45">
-        <v>620.330544</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>1958.712</v>
@@ -6417,10 +6209,10 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1336.096416</v>
+        <v>1971.722656000002</v>
       </c>
       <c r="D46">
-        <v>645.679584</v>
+        <v>10.05334400000032</v>
       </c>
       <c r="E46">
         <v>1981.776</v>
@@ -6437,10 +6229,10 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1338.611376000001</v>
+        <v>1980.924975999999</v>
       </c>
       <c r="D47">
-        <v>671.028624</v>
+        <v>28.71502400000024</v>
       </c>
       <c r="E47">
         <v>2009.64</v>
@@ -6457,10 +6249,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1341.126335999998</v>
+        <v>1990.127296000001</v>
       </c>
       <c r="D48">
-        <v>696.3776640000001</v>
+        <v>47.37670400000064</v>
       </c>
       <c r="E48">
         <v>2037.504</v>
@@ -6477,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1369.561295999999</v>
+        <v>2031.470415999999</v>
       </c>
       <c r="D49">
-        <v>721.726704</v>
+        <v>59.81758399999961</v>
       </c>
       <c r="E49">
         <v>2091.288</v>
@@ -6497,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1345.071999999999</v>
+        <v>1988.459372800001</v>
       </c>
       <c r="D50">
-        <v>800</v>
+        <v>156.6126271999992</v>
       </c>
       <c r="E50">
         <v>2145.072</v>
@@ -6517,10 +6309,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1393.168</v>
+        <v>2029.456403200001</v>
       </c>
       <c r="D51">
-        <v>800</v>
+        <v>163.7115968000008</v>
       </c>
       <c r="E51">
         <v>2193.168</v>
@@ -6537,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1441.264000000001</v>
+        <v>2038.453433600002</v>
       </c>
       <c r="D52">
-        <v>800</v>
+        <v>202.8105664</v>
       </c>
       <c r="E52">
         <v>2241.264</v>
@@ -6557,10 +6349,10 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1479.472000000002</v>
+        <v>2067.189344000001</v>
       </c>
       <c r="D53">
-        <v>800</v>
+        <v>212.282656</v>
       </c>
       <c r="E53">
         <v>2279.472</v>
@@ -6577,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1517.679999999998</v>
+        <v>2090.1652544</v>
       </c>
       <c r="D54">
-        <v>800</v>
+        <v>227.5147456</v>
       </c>
       <c r="E54">
         <v>2317.68</v>
@@ -6597,10 +6389,10 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1555.863999999998</v>
+        <v>2113.117164799999</v>
       </c>
       <c r="D55">
-        <v>800</v>
+        <v>242.7468352</v>
       </c>
       <c r="E55">
         <v>2355.864</v>
@@ -6617,10 +6409,10 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>1594.047999999998</v>
+        <v>2136.069075200001</v>
       </c>
       <c r="D56">
-        <v>800</v>
+        <v>257.9789248000008</v>
       </c>
       <c r="E56">
         <v>2394.048</v>
@@ -6637,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1604.416</v>
+        <v>2131.204985600002</v>
       </c>
       <c r="D57">
-        <v>800</v>
+        <v>273.2110144</v>
       </c>
       <c r="E57">
         <v>2404.416</v>
@@ -6657,10 +6449,10 @@
         <v>500</v>
       </c>
       <c r="C58">
-        <v>1114.784000000001</v>
+        <v>1625.446175999999</v>
       </c>
       <c r="D58">
-        <v>800</v>
+        <v>289.337824</v>
       </c>
       <c r="E58">
         <v>2414.784</v>
@@ -6677,10 +6469,10 @@
         <v>500</v>
       </c>
       <c r="C59">
-        <v>1129.903999999999</v>
+        <v>1641.872966400001</v>
       </c>
       <c r="D59">
-        <v>800</v>
+        <v>288.0310336</v>
       </c>
       <c r="E59">
         <v>2429.904</v>
@@ -6697,10 +6489,10 @@
         <v>500</v>
       </c>
       <c r="C60">
-        <v>1145.024000000001</v>
+        <v>1652.082239999999</v>
       </c>
       <c r="D60">
-        <v>800</v>
+        <v>292.9417599999992</v>
       </c>
       <c r="E60">
         <v>2445.024</v>
@@ -6717,10 +6509,10 @@
         <v>500</v>
       </c>
       <c r="C61">
-        <v>1170.656000000001</v>
+        <v>1681.726393600002</v>
       </c>
       <c r="D61">
-        <v>800</v>
+        <v>288.9296064</v>
       </c>
       <c r="E61">
         <v>2470.656</v>
@@ -6737,10 +6529,10 @@
         <v>500</v>
       </c>
       <c r="C62">
-        <v>1196.288</v>
+        <v>1743.370547199999</v>
       </c>
       <c r="D62">
-        <v>800</v>
+        <v>252.9174527999992</v>
       </c>
       <c r="E62">
         <v>2496.288</v>
@@ -6757,10 +6549,10 @@
         <v>500</v>
       </c>
       <c r="C63">
-        <v>1221.584000000003</v>
+        <v>1823.798060800001</v>
       </c>
       <c r="D63">
-        <v>800</v>
+        <v>197.7859392000008</v>
       </c>
       <c r="E63">
         <v>2521.584000000001</v>
@@ -6777,10 +6569,10 @@
         <v>500</v>
       </c>
       <c r="C64">
-        <v>1246.880000000001</v>
+        <v>1856.2255744</v>
       </c>
       <c r="D64">
-        <v>800</v>
+        <v>190.6544256000008</v>
       </c>
       <c r="E64">
         <v>2546.880000000001</v>
@@ -6797,10 +6589,10 @@
         <v>500</v>
       </c>
       <c r="C65">
-        <v>1221.632</v>
+        <v>1825.978528000002</v>
       </c>
       <c r="D65">
-        <v>800</v>
+        <v>195.653472</v>
       </c>
       <c r="E65">
         <v>2521.632</v>
@@ -6817,10 +6609,10 @@
         <v>500</v>
       </c>
       <c r="C66">
-        <v>1196.383999999999</v>
+        <v>1795.731481599999</v>
       </c>
       <c r="D66">
-        <v>800</v>
+        <v>200.6525184</v>
       </c>
       <c r="E66">
         <v>2496.384</v>
@@ -6837,10 +6629,10 @@
         <v>500</v>
       </c>
       <c r="C67">
-        <v>1170.704000000002</v>
+        <v>1716.948755200002</v>
       </c>
       <c r="D67">
-        <v>800</v>
+        <v>253.7552448</v>
       </c>
       <c r="E67">
         <v>2470.704</v>
@@ -6857,10 +6649,10 @@
         <v>500</v>
       </c>
       <c r="C68">
-        <v>1145.024000000001</v>
+        <v>1686.166028799999</v>
       </c>
       <c r="D68">
-        <v>800</v>
+        <v>258.8579712</v>
       </c>
       <c r="E68">
         <v>2445.024</v>
@@ -6877,10 +6669,10 @@
         <v>500</v>
       </c>
       <c r="C69">
-        <v>1074.968000000001</v>
+        <v>1614.757062399999</v>
       </c>
       <c r="D69">
-        <v>800</v>
+        <v>260.2109376</v>
       </c>
       <c r="E69">
         <v>2374.968</v>
@@ -6897,10 +6689,10 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>1504.912</v>
+        <v>2014.548095999998</v>
       </c>
       <c r="D70">
-        <v>800</v>
+        <v>290.363904</v>
       </c>
       <c r="E70">
         <v>2304.912</v>
@@ -6917,10 +6709,10 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1434.88</v>
+        <v>1923.491712000003</v>
       </c>
       <c r="D71">
-        <v>800</v>
+        <v>311.388288</v>
       </c>
       <c r="E71">
         <v>2234.880000000001</v>
@@ -6937,10 +6729,10 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1364.848</v>
+        <v>1880.435328</v>
       </c>
       <c r="D72">
-        <v>800</v>
+        <v>284.4126720000008</v>
       </c>
       <c r="E72">
         <v>2164.848</v>
@@ -6957,10 +6749,10 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1328.944000000002</v>
+        <v>1863.354624000001</v>
       </c>
       <c r="D73">
-        <v>800</v>
+        <v>265.589376</v>
       </c>
       <c r="E73">
         <v>2128.944</v>
@@ -6977,10 +6769,10 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1359.297696</v>
+        <v>1924.941216000001</v>
       </c>
       <c r="D74">
-        <v>733.742304</v>
+        <v>168.098784</v>
       </c>
       <c r="E74">
         <v>2093.04</v>
@@ -6997,10 +6789,10 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1367.413703999999</v>
+        <v>1932.097224000002</v>
       </c>
       <c r="D75">
-        <v>697.858296</v>
+        <v>133.174776</v>
       </c>
       <c r="E75">
         <v>2065.272</v>
@@ -7017,10 +6809,10 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1375.529712000003</v>
+        <v>1939.253231999999</v>
       </c>
       <c r="D76">
-        <v>661.974288</v>
+        <v>98.2507679999992</v>
       </c>
       <c r="E76">
         <v>2037.504</v>
@@ -7037,10 +6829,10 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1309.533719999999</v>
+        <v>1872.297240000001</v>
       </c>
       <c r="D77">
-        <v>626.09028</v>
+        <v>63.32676000000032</v>
       </c>
       <c r="E77">
         <v>1935.624</v>
@@ -7057,10 +6849,10 @@
         <v>500</v>
       </c>
       <c r="C78">
-        <v>743.5377279999982</v>
+        <v>1305.341247999999</v>
       </c>
       <c r="D78">
-        <v>590.206272</v>
+        <v>28.402752</v>
       </c>
       <c r="E78">
         <v>1833.744</v>
@@ -7077,10 +6869,10 @@
         <v>500</v>
       </c>
       <c r="C79">
-        <v>677.5417359999985</v>
+        <v>1231.864</v>
       </c>
       <c r="D79">
-        <v>554.322264</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>1731.864</v>
@@ -7097,10 +6889,10 @@
         <v>500</v>
       </c>
       <c r="C80">
-        <v>611.5457439999988</v>
+        <v>1129.984</v>
       </c>
       <c r="D80">
-        <v>518.438256</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>1629.984</v>
@@ -7117,10 +6909,10 @@
         <v>500</v>
       </c>
       <c r="C81">
-        <v>558.2937520000011</v>
+        <v>1040.848000000001</v>
       </c>
       <c r="D81">
-        <v>482.554248</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>1540.848</v>
@@ -7134,13 +6926,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>416.379982204229</v>
+        <v>425.256702243968</v>
       </c>
       <c r="C82">
-        <v>633.1528177957722</v>
+        <v>1126.455297756031</v>
       </c>
       <c r="D82">
-        <v>502.1792</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>1551.712</v>
@@ -7157,10 +6949,10 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1043.688128000002</v>
+        <v>1562.575999999998</v>
       </c>
       <c r="D83">
-        <v>518.887872</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>1562.576</v>
@@ -7177,10 +6969,10 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1099.879296000001</v>
+        <v>1573.440000000002</v>
       </c>
       <c r="D84">
-        <v>473.560704</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>1573.44</v>
@@ -7197,10 +6989,10 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1109.070463999995</v>
+        <v>1585.303999999994</v>
       </c>
       <c r="D85">
-        <v>476.233536</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>1585.303999999996</v>
@@ -7217,10 +7009,10 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1091.493632</v>
+        <v>1579.999999999999</v>
       </c>
       <c r="D86">
-        <v>488.5063680000001</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>1580</v>
@@ -7237,10 +7029,10 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1067.516800000002</v>
+        <v>1574.696000000003</v>
       </c>
       <c r="D87">
-        <v>507.1792</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>1574.696000000004</v>
@@ -7257,10 +7049,10 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1072.979968000008</v>
+        <v>1569.392000000008</v>
       </c>
       <c r="D88">
-        <v>496.4120320000017</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>1569.392000000008</v>
@@ -7277,10 +7069,10 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1062.443136000011</v>
+        <v>1564.088000000012</v>
       </c>
       <c r="D89">
-        <v>501.6448640000016</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>1564.088000000012</v>
@@ -7297,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1051.906304000014</v>
+        <v>1558.784000000016</v>
       </c>
       <c r="D90">
-        <v>506.8776960000032</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>1558.784000000016</v>
@@ -7317,10 +7109,10 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1041.369472000016</v>
+        <v>1553.480000000021</v>
       </c>
       <c r="D91">
-        <v>512.1105280000048</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>1553.48000000002</v>
@@ -7337,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1011.632640000018</v>
+        <v>1548.176000000025</v>
       </c>
       <c r="D92">
-        <v>536.5433600000064</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>1548.176000000024</v>
@@ -7357,95 +7149,15 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>1001.095808000021</v>
+        <v>1542.49100800002</v>
       </c>
       <c r="D93">
-        <v>541.7761920000064</v>
+        <v>0.3809920000065176</v>
       </c>
       <c r="E93">
         <v>1542.872000000028</v>
       </c>
       <c r="F93">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>1006.558976000023</v>
-      </c>
-      <c r="D94">
-        <v>531.009024000008</v>
-      </c>
-      <c r="E94">
-        <v>1537.568000000032</v>
-      </c>
-      <c r="F94">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>980.0221440000262</v>
-      </c>
-      <c r="D95">
-        <v>552.2418560000095</v>
-      </c>
-      <c r="E95">
-        <v>1532.264000000036</v>
-      </c>
-      <c r="F95">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>953.4853120000295</v>
-      </c>
-      <c r="D96">
-        <v>573.4746880000112</v>
-      </c>
-      <c r="E96">
-        <v>1526.96000000004</v>
-      </c>
-      <c r="F96">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>942.9484800000322</v>
-      </c>
-      <c r="D97">
-        <v>578.7075200000128</v>
-      </c>
-      <c r="E97">
-        <v>1521.656000000044</v>
-      </c>
-      <c r="F97">
         <v>0.65550003</v>
       </c>
     </row>
@@ -7456,7 +7168,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7487,13 +7199,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3562.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
       <c r="C2">
         <v>101.5151515151515</v>
       </c>
       <c r="D2">
-        <v>724.68152</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>-3623.4076</v>
@@ -7510,13 +7222,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3589.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
       <c r="C3">
         <v>101.5151515151515</v>
       </c>
       <c r="D3">
-        <v>730.08152</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>-3650.4076</v>
@@ -7533,13 +7245,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3616.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
       <c r="C4">
         <v>101.5151515151515</v>
       </c>
       <c r="D4">
-        <v>735.4815199999999</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-3677.4076</v>
@@ -7556,13 +7268,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3643.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
       <c r="C5">
         <v>101.5151515151515</v>
       </c>
       <c r="D5">
-        <v>740.88152</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>-3704.4076</v>
@@ -7579,13 +7291,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3670.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
       <c r="C6">
         <v>101.5151515151515</v>
       </c>
       <c r="D6">
-        <v>746.28152</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>-3731.4076</v>
@@ -7602,13 +7314,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3697.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
       <c r="C7">
         <v>101.5151515151515</v>
       </c>
       <c r="D7">
-        <v>751.68152</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>-3758.4076</v>
@@ -7625,13 +7337,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3724.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
       <c r="C8">
         <v>101.5151515151515</v>
       </c>
       <c r="D8">
-        <v>757.08152</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>-3785.4076</v>
@@ -7648,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3591.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
       <c r="C9">
         <v>101.5151515151515</v>
       </c>
       <c r="D9">
-        <v>730.4815199999999</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>-3652.4076</v>
@@ -7671,13 +7383,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3538.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
       <c r="C10">
         <v>101.5151515151515</v>
       </c>
       <c r="D10">
-        <v>719.8815199999999</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>-3599.4076</v>
@@ -7694,13 +7406,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3505.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
       <c r="C11">
         <v>101.5151515151515</v>
       </c>
       <c r="D11">
-        <v>713.28152</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>-3566.4076</v>
@@ -7717,13 +7429,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3432.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
       <c r="C12">
         <v>101.5151515151515</v>
       </c>
       <c r="D12">
-        <v>698.6815199999999</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>-3493.4076</v>
@@ -7740,13 +7452,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3359.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
       <c r="C13">
         <v>101.5151515151515</v>
       </c>
       <c r="D13">
-        <v>684.08152</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>-3420.4076</v>
@@ -7763,13 +7475,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3386.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
       <c r="C14">
         <v>101.5151515151515</v>
       </c>
       <c r="D14">
-        <v>689.48152</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>-3447.4076</v>
@@ -7786,13 +7498,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3313.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
       <c r="C15">
         <v>101.5151515151515</v>
       </c>
       <c r="D15">
-        <v>674.8815199999999</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>-3374.4076</v>
@@ -7809,13 +7521,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3440.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
       <c r="C16">
         <v>101.5151515151515</v>
       </c>
       <c r="D16">
-        <v>700.28152</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>-3501.4076</v>
@@ -7838,7 +7550,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D17">
-        <v>705.68152</v>
+        <v>5.17152000000033</v>
       </c>
       <c r="E17">
         <v>-3528.4076</v>
@@ -7861,7 +7573,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D18">
-        <v>711.08152</v>
+        <v>9.597520000000261</v>
       </c>
       <c r="E18">
         <v>-3555.4076</v>
@@ -7884,7 +7596,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D19">
-        <v>716.48152</v>
+        <v>18.0235200000002</v>
       </c>
       <c r="E19">
         <v>-3582.4076</v>
@@ -7907,7 +7619,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D20">
-        <v>717.88152</v>
+        <v>29.4495199999997</v>
       </c>
       <c r="E20">
         <v>-3589.4076</v>
@@ -7930,7 +7642,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D21">
-        <v>707.28152</v>
+        <v>34.8755200000005</v>
       </c>
       <c r="E21">
         <v>-3536.4076</v>
@@ -7953,7 +7665,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D22">
-        <v>712.68152</v>
+        <v>56.3015200000004</v>
       </c>
       <c r="E22">
         <v>-3563.4076</v>
@@ -7976,7 +7688,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D23">
-        <v>698.0815199999998</v>
+        <v>54.7275200000004</v>
       </c>
       <c r="E23">
         <v>-3490.4076</v>
@@ -7999,7 +7711,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D24">
-        <v>703.48152</v>
+        <v>69.1535200000003</v>
       </c>
       <c r="E24">
         <v>-3517.4076</v>
@@ -8022,7 +7734,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D25">
-        <v>688.88152</v>
+        <v>52.5795199999998</v>
       </c>
       <c r="E25">
         <v>-3444.4076</v>
@@ -8045,7 +7757,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D26">
-        <v>694.2815199999999</v>
+        <v>56.0055199999997</v>
       </c>
       <c r="E26">
         <v>-3471.4076</v>
@@ -8068,7 +7780,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D27">
-        <v>679.68152</v>
+        <v>53.7015200000001</v>
       </c>
       <c r="E27">
         <v>-3398.4076</v>
@@ -8091,7 +7803,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D28">
-        <v>665.08152</v>
+        <v>57.2515200000003</v>
       </c>
       <c r="E28">
         <v>-3325.4076</v>
@@ -8114,7 +7826,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D29">
-        <v>670.4815199999999</v>
+        <v>60.80152000000041</v>
       </c>
       <c r="E29">
         <v>-3352.4076</v>
@@ -8137,7 +7849,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D30">
-        <v>675.88152</v>
+        <v>64.3515199999997</v>
       </c>
       <c r="E30">
         <v>-3379.4076</v>
@@ -8160,7 +7872,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D31">
-        <v>661.28152</v>
+        <v>47.9015199999999</v>
       </c>
       <c r="E31">
         <v>-3306.4076</v>
@@ -8183,7 +7895,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D32">
-        <v>666.68152</v>
+        <v>51.4515200000001</v>
       </c>
       <c r="E32">
         <v>-3333.4076</v>
@@ -8206,7 +7918,7 @@
         <v>101.5151515151515</v>
       </c>
       <c r="D33">
-        <v>672.08152</v>
+        <v>55.0015200000003</v>
       </c>
       <c r="E33">
         <v>-3360.4076</v>
@@ -8229,7 +7941,7 @@
         <v>1116.666666666667</v>
       </c>
       <c r="D34">
-        <v>657.48152</v>
+        <v>38.5515200000004</v>
       </c>
       <c r="E34">
         <v>-3287.4076</v>
@@ -8252,7 +7964,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D35">
-        <v>642.88152</v>
+        <v>22.1015199999997</v>
       </c>
       <c r="E35">
         <v>-3214.4076</v>
@@ -8275,7 +7987,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D36">
-        <v>628.28152</v>
+        <v>5.65151999999989</v>
       </c>
       <c r="E36">
         <v>-3141.4076</v>
@@ -8292,13 +8004,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1850.22578181818</v>
+        <v>1861.02426181818</v>
       </c>
       <c r="C37">
         <v>2030.30303030303</v>
       </c>
       <c r="D37">
-        <v>613.68152</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>-3068.4076</v>
@@ -8321,7 +8033,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D38">
-        <v>639.08152</v>
+        <v>12.7515200000003</v>
       </c>
       <c r="E38">
         <v>-3195.4076</v>
@@ -8344,7 +8056,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D39">
-        <v>656.1004</v>
+        <v>27.9204000000004</v>
       </c>
       <c r="E39">
         <v>-3280.502</v>
@@ -8367,7 +8079,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D40">
-        <v>649.4544</v>
+        <v>15.4244000000003</v>
       </c>
       <c r="E40">
         <v>-3247.272</v>
@@ -8390,7 +8102,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D41">
-        <v>682.8083999999999</v>
+        <v>43.9283999999998</v>
       </c>
       <c r="E41">
         <v>-3414.041999999999</v>
@@ -8413,7 +8125,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D42">
-        <v>716.1624</v>
+        <v>60.4324000000006</v>
       </c>
       <c r="E42">
         <v>-3580.812</v>
@@ -8436,7 +8148,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D43">
-        <v>749.5164</v>
+        <v>82.93639999999958</v>
       </c>
       <c r="E43">
         <v>-3747.582</v>
@@ -8459,7 +8171,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D44">
-        <v>743.7268800000001</v>
+        <v>56.29687999999991</v>
       </c>
       <c r="E44">
         <v>-3718.6344</v>
@@ -8476,13 +8188,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2658.88408181818</v>
+        <v>2671.08450181818</v>
       </c>
       <c r="C45">
         <v>2030.30303030303</v>
       </c>
       <c r="D45">
-        <v>775.41318</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>-3877.0659</v>
@@ -8505,7 +8217,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D46">
-        <v>807.09948</v>
+        <v>12.5666800000004</v>
       </c>
       <c r="E46">
         <v>-4035.4974</v>
@@ -8528,7 +8240,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D47">
-        <v>838.78578</v>
+        <v>35.8937800000003</v>
       </c>
       <c r="E47">
         <v>-4193.928899999999</v>
@@ -8551,7 +8263,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D48">
-        <v>870.4720800000001</v>
+        <v>59.2208800000008</v>
       </c>
       <c r="E48">
         <v>-4352.3604</v>
@@ -8574,7 +8286,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D49">
-        <v>902.15838</v>
+        <v>74.7719799999995</v>
       </c>
       <c r="E49">
         <v>-4510.791899999999</v>
@@ -8597,7 +8309,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D50">
-        <v>1000</v>
+        <v>195.765783999999</v>
       </c>
       <c r="E50">
         <v>-5196.436919999998</v>
@@ -8620,7 +8332,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D51">
-        <v>1000</v>
+        <v>204.639496000001</v>
       </c>
       <c r="E51">
         <v>-5312.94948</v>
@@ -8643,7 +8355,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D52">
-        <v>1000</v>
+        <v>253.513208</v>
       </c>
       <c r="E52">
         <v>-5429.46204</v>
@@ -8666,7 +8378,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D53">
-        <v>1000</v>
+        <v>265.35332</v>
       </c>
       <c r="E53">
         <v>-5545.9746</v>
@@ -8689,7 +8401,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D54">
-        <v>1000</v>
+        <v>284.393432</v>
       </c>
       <c r="E54">
         <v>-5662.487160000001</v>
@@ -8712,7 +8424,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D55">
-        <v>1000</v>
+        <v>303.433544</v>
       </c>
       <c r="E55">
         <v>-5778.99972</v>
@@ -8735,7 +8447,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D56">
-        <v>1000</v>
+        <v>322.473656000001</v>
       </c>
       <c r="E56">
         <v>-5895.51228</v>
@@ -8758,7 +8470,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D57">
-        <v>1000</v>
+        <v>341.513768</v>
       </c>
       <c r="E57">
         <v>-6012.024839999999</v>
@@ -8781,7 +8493,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D58">
-        <v>1000</v>
+        <v>361.67228</v>
       </c>
       <c r="E58">
         <v>-6128.5374</v>
@@ -8804,7 +8516,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D59">
-        <v>1000</v>
+        <v>360.038792</v>
       </c>
       <c r="E59">
         <v>-6245.04996</v>
@@ -8827,7 +8539,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D60">
-        <v>1000</v>
+        <v>366.1771999999989</v>
       </c>
       <c r="E60">
         <v>-6238.421999999998</v>
@@ -8850,7 +8562,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D61">
-        <v>1000</v>
+        <v>361.162008</v>
       </c>
       <c r="E61">
         <v>-6231.79404</v>
@@ -8873,7 +8585,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D62">
-        <v>1000</v>
+        <v>316.146815999999</v>
       </c>
       <c r="E62">
         <v>-6225.166079999999</v>
@@ -8896,7 +8608,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D63">
-        <v>1000</v>
+        <v>247.232424000001</v>
       </c>
       <c r="E63">
         <v>-6218.53812</v>
@@ -8919,7 +8631,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D64">
-        <v>1000</v>
+        <v>238.318032000001</v>
       </c>
       <c r="E64">
         <v>-6211.91016</v>
@@ -8942,7 +8654,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D65">
-        <v>1000</v>
+        <v>244.56684</v>
       </c>
       <c r="E65">
         <v>-6205.2822</v>
@@ -8965,7 +8677,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D66">
-        <v>1000</v>
+        <v>250.815648</v>
       </c>
       <c r="E66">
         <v>-6198.654240000001</v>
@@ -8988,7 +8700,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D67">
-        <v>1000</v>
+        <v>317.194056</v>
       </c>
       <c r="E67">
         <v>-6192.026279999999</v>
@@ -9011,7 +8723,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D68">
-        <v>1000</v>
+        <v>323.572464</v>
       </c>
       <c r="E68">
         <v>-6185.398319999999</v>
@@ -9034,7 +8746,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D69">
-        <v>1000</v>
+        <v>325.263672</v>
       </c>
       <c r="E69">
         <v>-6178.77036</v>
@@ -9057,7 +8769,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D70">
-        <v>1000</v>
+        <v>362.9548799999999</v>
       </c>
       <c r="E70">
         <v>-6172.1424</v>
@@ -9080,7 +8792,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D71">
-        <v>1000</v>
+        <v>389.23536</v>
       </c>
       <c r="E71">
         <v>-5898.4968</v>
@@ -9103,7 +8815,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D72">
-        <v>1000</v>
+        <v>355.5158400000009</v>
       </c>
       <c r="E72">
         <v>-5624.8512</v>
@@ -9120,13 +8832,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4133.02378181818</v>
+        <v>4141.28373288598</v>
       </c>
       <c r="C73">
-        <v>2030.30303030303</v>
+        <v>2016.536445190035</v>
       </c>
       <c r="D73">
-        <v>1000</v>
+        <v>331.98672</v>
       </c>
       <c r="E73">
         <v>-5351.205599999999</v>
@@ -9149,7 +8861,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D74">
-        <v>917.17788</v>
+        <v>210.12348</v>
       </c>
       <c r="E74">
         <v>-4585.889399999999</v>
@@ -9172,7 +8884,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D75">
-        <v>872.32287</v>
+        <v>166.46847</v>
       </c>
       <c r="E75">
         <v>-4361.614350000001</v>
@@ -9195,7 +8907,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D76">
-        <v>827.46786</v>
+        <v>122.813459999999</v>
       </c>
       <c r="E76">
         <v>-4137.3393</v>
@@ -9218,7 +8930,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D77">
-        <v>782.61285</v>
+        <v>79.1584500000004</v>
       </c>
       <c r="E77">
         <v>-3913.064249999999</v>
@@ -9241,7 +8953,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D78">
-        <v>737.75784</v>
+        <v>35.50344</v>
       </c>
       <c r="E78">
         <v>-3688.7892</v>
@@ -9258,13 +8970,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2246.33233181818</v>
+        <v>2249.98870181818</v>
       </c>
       <c r="C79">
         <v>2030.30303030303</v>
       </c>
       <c r="D79">
-        <v>692.90283</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>-3464.51415</v>
@@ -9281,13 +8993,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2022.05728181818</v>
+        <v>2085.00466181818</v>
       </c>
       <c r="C80">
         <v>2030.30303030303</v>
       </c>
       <c r="D80">
-        <v>648.04782</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>-3240.2391</v>
@@ -9304,13 +9016,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1797.78223181818</v>
+        <v>1878.84382181818</v>
       </c>
       <c r="C81">
         <v>2030.30303030303</v>
       </c>
       <c r="D81">
-        <v>603.19281</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>-3015.96405</v>
@@ -9327,13 +9039,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1920.43818181818</v>
+        <v>1968.22778181818</v>
       </c>
       <c r="C82">
         <v>2030.30303030303</v>
       </c>
       <c r="D82">
-        <v>627.724</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>-3138.62</v>
@@ -9350,13 +9062,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2024.86738181818</v>
+        <v>2025.03034181818</v>
       </c>
       <c r="C83">
         <v>2030.30303030303</v>
       </c>
       <c r="D83">
-        <v>648.60984</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>-3243.049199999999</v>
@@ -9373,13 +9085,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1741.57258181818</v>
+        <v>1871.65370181818</v>
       </c>
       <c r="C84">
         <v>2030.30303030303</v>
       </c>
       <c r="D84">
-        <v>591.95088</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>-2959.7544</v>
@@ -9396,13 +9108,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1758.27778181818</v>
+        <v>1879.98586181818</v>
       </c>
       <c r="C85">
         <v>2030.30303030303</v>
       </c>
       <c r="D85">
-        <v>595.29192</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>-2976.4596</v>
@@ -9419,13 +9131,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1834.98298181818</v>
+        <v>1936.31802181818</v>
       </c>
       <c r="C86">
         <v>2030.30303030303</v>
       </c>
       <c r="D86">
-        <v>610.63296</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>-3053.1648</v>
@@ -9442,13 +9154,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1951.68818181818</v>
+        <v>2024.65018181818</v>
       </c>
       <c r="C87">
         <v>2030.30303030303</v>
       </c>
       <c r="D87">
-        <v>633.974</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>-3169.87</v>
@@ -9465,13 +9177,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1884.39338181819</v>
+        <v>1965.78234181819</v>
       </c>
       <c r="C88">
         <v>2030.30303030303</v>
       </c>
       <c r="D88">
-        <v>620.515040000002</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>-3102.57520000001</v>
@@ -9488,13 +9200,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1917.09858181819</v>
+        <v>1986.91450181819</v>
       </c>
       <c r="C89">
         <v>2030.30303030303</v>
       </c>
       <c r="D89">
-        <v>627.056080000002</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>-3135.28040000001</v>
@@ -9511,13 +9223,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1949.8037818182</v>
+        <v>2008.0466618182</v>
       </c>
       <c r="C90">
         <v>2030.30303030303</v>
       </c>
       <c r="D90">
-        <v>633.597120000004</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>-3167.98560000002</v>
@@ -9534,13 +9246,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1982.50898181821</v>
+        <v>2029.17882181821</v>
       </c>
       <c r="C91">
         <v>2030.30303030303</v>
       </c>
       <c r="D91">
-        <v>640.138160000006</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>-3200.69080000003</v>
@@ -9557,13 +9269,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2135.21418181822</v>
+        <v>2146.31098181821</v>
       </c>
       <c r="C92">
         <v>2030.30303030303</v>
       </c>
       <c r="D92">
-        <v>670.6792000000079</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>-3353.39600000004</v>
@@ -9586,7 +9298,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D93">
-        <v>677.2202400000079</v>
+        <v>0.476240000008147</v>
       </c>
       <c r="E93">
         <v>-3386.10120000004</v>
@@ -9595,98 +9307,6 @@
         <v>-3386.10120000004</v>
       </c>
       <c r="G93">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>2100.62458181823</v>
-      </c>
-      <c r="C94">
-        <v>2030.30303030303</v>
-      </c>
-      <c r="D94">
-        <v>663.7612800000099</v>
-      </c>
-      <c r="E94">
-        <v>-3318.80640000005</v>
-      </c>
-      <c r="F94">
-        <v>-3318.80640000005</v>
-      </c>
-      <c r="G94">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>2233.32978181824</v>
-      </c>
-      <c r="C95">
-        <v>2030.30303030303</v>
-      </c>
-      <c r="D95">
-        <v>690.3023200000118</v>
-      </c>
-      <c r="E95">
-        <v>-3451.51160000006</v>
-      </c>
-      <c r="F95">
-        <v>-3451.51160000006</v>
-      </c>
-      <c r="G95">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>2366.03498181825</v>
-      </c>
-      <c r="C96">
-        <v>2030.30303030303</v>
-      </c>
-      <c r="D96">
-        <v>716.8433600000139</v>
-      </c>
-      <c r="E96">
-        <v>-3584.21680000007</v>
-      </c>
-      <c r="F96">
-        <v>-3584.21680000007</v>
-      </c>
-      <c r="G96">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>2398.74018181826</v>
-      </c>
-      <c r="C97">
-        <v>2030.30303030303</v>
-      </c>
-      <c r="D97">
-        <v>723.3844000000159</v>
-      </c>
-      <c r="E97">
-        <v>-3616.92200000008</v>
-      </c>
-      <c r="F97">
-        <v>-3616.92200000008</v>
-      </c>
-      <c r="G97">
         <v>0.65550003</v>
       </c>
     </row>
@@ -9697,7 +9317,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9737,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3562.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
       <c r="C2">
         <v>60.90909090909089</v>
@@ -9749,7 +9369,7 @@
         <v>724.6815200000001</v>
       </c>
       <c r="F2">
-        <v>3562.49850909091</v>
+        <v>3646.21698909091</v>
       </c>
       <c r="G2">
         <v>-3623.4076</v>
@@ -9758,10 +9378,10 @@
         <v>-3623.4076</v>
       </c>
       <c r="I2">
-        <v>-724.68152</v>
+        <v>-0</v>
       </c>
       <c r="J2">
-        <v>579.745216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9769,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3589.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
       <c r="C3">
         <v>60.90909090909089</v>
@@ -9781,7 +9401,7 @@
         <v>730.0815200000001</v>
       </c>
       <c r="F3">
-        <v>3589.49850909091</v>
+        <v>3669.84098909091</v>
       </c>
       <c r="G3">
         <v>-3650.4076</v>
@@ -9790,10 +9410,10 @@
         <v>-3650.4076</v>
       </c>
       <c r="I3">
-        <v>-730.08152</v>
+        <v>-0</v>
       </c>
       <c r="J3">
-        <v>584.065216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9801,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3616.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
       <c r="C4">
         <v>60.90909090909089</v>
@@ -9813,7 +9433,7 @@
         <v>735.48152</v>
       </c>
       <c r="F4">
-        <v>3616.49850909091</v>
+        <v>3693.46498909091</v>
       </c>
       <c r="G4">
         <v>-3677.4076</v>
@@ -9822,10 +9442,10 @@
         <v>-3677.4076</v>
       </c>
       <c r="I4">
-        <v>-735.4815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J4">
-        <v>588.385216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9833,7 +9453,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3643.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
       <c r="C5">
         <v>60.90909090909089</v>
@@ -9845,7 +9465,7 @@
         <v>740.88152</v>
       </c>
       <c r="F5">
-        <v>3643.49850909091</v>
+        <v>3717.08898909091</v>
       </c>
       <c r="G5">
         <v>-3704.4076</v>
@@ -9854,10 +9474,10 @@
         <v>-3704.4076</v>
       </c>
       <c r="I5">
-        <v>-740.88152</v>
+        <v>-0</v>
       </c>
       <c r="J5">
-        <v>592.7052160000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9865,7 +9485,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3670.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
       <c r="C6">
         <v>60.90909090909089</v>
@@ -9877,7 +9497,7 @@
         <v>746.28152</v>
       </c>
       <c r="F6">
-        <v>3670.49850909091</v>
+        <v>3720.71298909091</v>
       </c>
       <c r="G6">
         <v>-3731.4076</v>
@@ -9886,10 +9506,10 @@
         <v>-3731.4076</v>
       </c>
       <c r="I6">
-        <v>-746.28152</v>
+        <v>-0</v>
       </c>
       <c r="J6">
-        <v>597.025216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9897,7 +9517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3697.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
       <c r="C7">
         <v>60.90909090909089</v>
@@ -9909,7 +9529,7 @@
         <v>751.6815200000001</v>
       </c>
       <c r="F7">
-        <v>3697.49850909091</v>
+        <v>3734.33698909091</v>
       </c>
       <c r="G7">
         <v>-3758.4076</v>
@@ -9918,10 +9538,10 @@
         <v>-3758.4076</v>
       </c>
       <c r="I7">
-        <v>-751.68152</v>
+        <v>-0</v>
       </c>
       <c r="J7">
-        <v>601.3452160000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9929,7 +9549,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3724.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
       <c r="C8">
         <v>60.90909090909089</v>
@@ -9941,7 +9561,7 @@
         <v>757.0815200000001</v>
       </c>
       <c r="F8">
-        <v>3724.49850909091</v>
+        <v>3747.96098909091</v>
       </c>
       <c r="G8">
         <v>-3785.4076</v>
@@ -9950,10 +9570,10 @@
         <v>-3785.4076</v>
       </c>
       <c r="I8">
-        <v>-757.08152</v>
+        <v>-0</v>
       </c>
       <c r="J8">
-        <v>605.665216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9961,7 +9581,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3591.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
       <c r="C9">
         <v>60.90909090909089</v>
@@ -9973,7 +9593,7 @@
         <v>730.48152</v>
       </c>
       <c r="F9">
-        <v>3591.49850909091</v>
+        <v>3643.58498909091</v>
       </c>
       <c r="G9">
         <v>-3652.4076</v>
@@ -9982,10 +9602,10 @@
         <v>-3652.4076</v>
       </c>
       <c r="I9">
-        <v>-730.4815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J9">
-        <v>584.385216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9993,7 +9613,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3538.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
       <c r="C10">
         <v>60.90909090909089</v>
@@ -10005,7 +9625,7 @@
         <v>719.88152</v>
       </c>
       <c r="F10">
-        <v>3538.49850909091</v>
+        <v>3593.20898909091</v>
       </c>
       <c r="G10">
         <v>-3599.4076</v>
@@ -10014,10 +9634,10 @@
         <v>-3599.4076</v>
       </c>
       <c r="I10">
-        <v>-719.8815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J10">
-        <v>575.905216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10025,7 +9645,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3505.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
       <c r="C11">
         <v>60.90909090909089</v>
@@ -10037,7 +9657,7 @@
         <v>713.28152</v>
       </c>
       <c r="F11">
-        <v>3505.49850909091</v>
+        <v>3558.83298909091</v>
       </c>
       <c r="G11">
         <v>-3566.4076</v>
@@ -10046,10 +9666,10 @@
         <v>-3566.4076</v>
       </c>
       <c r="I11">
-        <v>-713.28152</v>
+        <v>-0</v>
       </c>
       <c r="J11">
-        <v>570.625216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10057,7 +9677,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3432.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
       <c r="C12">
         <v>60.90909090909089</v>
@@ -10069,7 +9689,7 @@
         <v>698.6815200000001</v>
       </c>
       <c r="F12">
-        <v>3432.49850909091</v>
+        <v>3512.45698909091</v>
       </c>
       <c r="G12">
         <v>-3493.4076</v>
@@ -10078,10 +9698,10 @@
         <v>-3493.4076</v>
       </c>
       <c r="I12">
-        <v>-698.6815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J12">
-        <v>558.945216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10089,7 +9709,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3359.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
       <c r="C13">
         <v>60.90909090909089</v>
@@ -10101,7 +9721,7 @@
         <v>684.0815200000001</v>
       </c>
       <c r="F13">
-        <v>3359.49850909091</v>
+        <v>3436.08098909091</v>
       </c>
       <c r="G13">
         <v>-3420.4076</v>
@@ -10110,10 +9730,10 @@
         <v>-3420.4076</v>
       </c>
       <c r="I13">
-        <v>-684.08152</v>
+        <v>-0</v>
       </c>
       <c r="J13">
-        <v>547.265216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10121,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3386.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
       <c r="C14">
         <v>60.90909090909089</v>
@@ -10133,7 +9753,7 @@
         <v>689.48152</v>
       </c>
       <c r="F14">
-        <v>3386.49850909091</v>
+        <v>3449.70498909091</v>
       </c>
       <c r="G14">
         <v>-3447.4076</v>
@@ -10142,10 +9762,10 @@
         <v>-3447.4076</v>
       </c>
       <c r="I14">
-        <v>-689.48152</v>
+        <v>-0</v>
       </c>
       <c r="J14">
-        <v>551.5852160000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10153,7 +9773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3313.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
       <c r="C15">
         <v>60.90909090909089</v>
@@ -10165,7 +9785,7 @@
         <v>674.88152</v>
       </c>
       <c r="F15">
-        <v>3313.49850909091</v>
+        <v>3375.17898909091</v>
       </c>
       <c r="G15">
         <v>-3374.4076</v>
@@ -10174,10 +9794,10 @@
         <v>-3374.4076</v>
       </c>
       <c r="I15">
-        <v>-674.8815199999999</v>
+        <v>-0</v>
       </c>
       <c r="J15">
-        <v>539.905216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10185,7 +9805,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3440.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
       <c r="C16">
         <v>60.90909090909089</v>
@@ -10197,7 +9817,7 @@
         <v>700.28152</v>
       </c>
       <c r="F16">
-        <v>3440.49850909091</v>
+        <v>3458.75298909091</v>
       </c>
       <c r="G16">
         <v>-3501.4076</v>
@@ -10206,10 +9826,10 @@
         <v>-3501.4076</v>
       </c>
       <c r="I16">
-        <v>-700.28152</v>
+        <v>-0</v>
       </c>
       <c r="J16">
-        <v>560.225216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10238,10 +9858,10 @@
         <v>-3528.4076</v>
       </c>
       <c r="I17">
-        <v>-705.68152</v>
+        <v>-5.17152000000033</v>
       </c>
       <c r="J17">
-        <v>564.545216</v>
+        <v>4.137216000000264</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10270,10 +9890,10 @@
         <v>-3555.4076</v>
       </c>
       <c r="I18">
-        <v>-711.08152</v>
+        <v>-9.597520000000261</v>
       </c>
       <c r="J18">
-        <v>568.865216</v>
+        <v>7.678016000000209</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10302,10 +9922,10 @@
         <v>-3582.4076</v>
       </c>
       <c r="I19">
-        <v>-716.48152</v>
+        <v>-18.0235200000002</v>
       </c>
       <c r="J19">
-        <v>573.1852160000001</v>
+        <v>14.41881600000016</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10334,10 +9954,10 @@
         <v>-3589.4076</v>
       </c>
       <c r="I20">
-        <v>-717.88152</v>
+        <v>-29.4495199999997</v>
       </c>
       <c r="J20">
-        <v>574.3052160000001</v>
+        <v>23.55961599999976</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10366,10 +9986,10 @@
         <v>-3536.4076</v>
       </c>
       <c r="I21">
-        <v>-707.28152</v>
+        <v>-34.8755200000005</v>
       </c>
       <c r="J21">
-        <v>565.8252160000001</v>
+        <v>27.9004160000004</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -10398,10 +10018,10 @@
         <v>-3563.4076</v>
       </c>
       <c r="I22">
-        <v>-712.68152</v>
+        <v>-56.3015200000004</v>
       </c>
       <c r="J22">
-        <v>570.145216</v>
+        <v>45.04121600000033</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10430,10 +10050,10 @@
         <v>-3490.4076</v>
       </c>
       <c r="I23">
-        <v>-698.0815199999998</v>
+        <v>-54.7275200000004</v>
       </c>
       <c r="J23">
-        <v>558.4652159999999</v>
+        <v>43.78201600000033</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10462,10 +10082,10 @@
         <v>-3517.4076</v>
       </c>
       <c r="I24">
-        <v>-703.48152</v>
+        <v>-69.1535200000003</v>
       </c>
       <c r="J24">
-        <v>562.7852160000001</v>
+        <v>55.32281600000024</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10494,10 +10114,10 @@
         <v>-3444.4076</v>
       </c>
       <c r="I25">
-        <v>-688.88152</v>
+        <v>-52.5795199999998</v>
       </c>
       <c r="J25">
-        <v>551.105216</v>
+        <v>42.06361599999985</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10526,10 +10146,10 @@
         <v>-3471.4076</v>
       </c>
       <c r="I26">
-        <v>-694.2815199999999</v>
+        <v>-56.0055199999997</v>
       </c>
       <c r="J26">
-        <v>555.425216</v>
+        <v>44.80441599999976</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10558,10 +10178,10 @@
         <v>-3398.4076</v>
       </c>
       <c r="I27">
-        <v>-679.68152</v>
+        <v>-53.7015200000001</v>
       </c>
       <c r="J27">
-        <v>543.745216</v>
+        <v>42.96121600000009</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10590,10 +10210,10 @@
         <v>-3325.4076</v>
       </c>
       <c r="I28">
-        <v>-665.08152</v>
+        <v>-57.2515200000003</v>
       </c>
       <c r="J28">
-        <v>532.065216</v>
+        <v>45.80121600000024</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10622,10 +10242,10 @@
         <v>-3352.4076</v>
       </c>
       <c r="I29">
-        <v>-670.4815199999999</v>
+        <v>-60.80152000000041</v>
       </c>
       <c r="J29">
-        <v>536.385216</v>
+        <v>48.64121600000033</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10654,10 +10274,10 @@
         <v>-3379.4076</v>
       </c>
       <c r="I30">
-        <v>-675.88152</v>
+        <v>-64.3515199999997</v>
       </c>
       <c r="J30">
-        <v>540.7052160000001</v>
+        <v>51.48121599999976</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10686,10 +10306,10 @@
         <v>-3306.4076</v>
       </c>
       <c r="I31">
-        <v>-661.28152</v>
+        <v>-47.9015199999999</v>
       </c>
       <c r="J31">
-        <v>529.025216</v>
+        <v>38.32121599999992</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10718,10 +10338,10 @@
         <v>-3333.4076</v>
       </c>
       <c r="I32">
-        <v>-666.68152</v>
+        <v>-51.4515200000001</v>
       </c>
       <c r="J32">
-        <v>533.3452160000001</v>
+        <v>41.16121600000008</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10750,10 +10370,10 @@
         <v>-3360.4076</v>
       </c>
       <c r="I33">
-        <v>-672.08152</v>
+        <v>-55.0015200000003</v>
       </c>
       <c r="J33">
-        <v>537.665216</v>
+        <v>44.00121600000024</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -10782,10 +10402,10 @@
         <v>-3287.4076</v>
       </c>
       <c r="I34">
-        <v>-657.48152</v>
+        <v>-38.5515200000004</v>
       </c>
       <c r="J34">
-        <v>525.985216</v>
+        <v>30.84121600000032</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -10814,10 +10434,10 @@
         <v>-3214.4076</v>
       </c>
       <c r="I35">
-        <v>-642.88152</v>
+        <v>-22.1015199999997</v>
       </c>
       <c r="J35">
-        <v>514.3052160000001</v>
+        <v>17.68121599999976</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -10846,10 +10466,10 @@
         <v>-3141.4076</v>
       </c>
       <c r="I36">
-        <v>-628.28152</v>
+        <v>-5.65151999999989</v>
       </c>
       <c r="J36">
-        <v>502.625216</v>
+        <v>4.521215999999913</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -10857,7 +10477,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1850.22578181818</v>
+        <v>1861.02426181818</v>
       </c>
       <c r="C37">
         <v>1218.181818181818</v>
@@ -10869,7 +10489,7 @@
         <v>613.68152</v>
       </c>
       <c r="F37">
-        <v>1850.22578181818</v>
+        <v>1861.02426181818</v>
       </c>
       <c r="G37">
         <v>-3068.4076</v>
@@ -10878,10 +10498,10 @@
         <v>-3068.4076</v>
       </c>
       <c r="I37">
-        <v>-613.68152</v>
+        <v>-0</v>
       </c>
       <c r="J37">
-        <v>490.945216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -10910,10 +10530,10 @@
         <v>-3195.4076</v>
       </c>
       <c r="I38">
-        <v>-639.08152</v>
+        <v>-12.7515200000003</v>
       </c>
       <c r="J38">
-        <v>511.265216</v>
+        <v>10.20121600000024</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -10942,10 +10562,10 @@
         <v>-3280.502</v>
       </c>
       <c r="I39">
-        <v>-656.1004</v>
+        <v>-27.9204000000004</v>
       </c>
       <c r="J39">
-        <v>524.8803200000001</v>
+        <v>22.33632000000032</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -10974,10 +10594,10 @@
         <v>-3247.272</v>
       </c>
       <c r="I40">
-        <v>-649.4544</v>
+        <v>-15.4244000000003</v>
       </c>
       <c r="J40">
-        <v>519.56352</v>
+        <v>12.33952000000024</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -11006,10 +10626,10 @@
         <v>-3414.041999999999</v>
       </c>
       <c r="I41">
-        <v>-682.8083999999999</v>
+        <v>-43.9283999999998</v>
       </c>
       <c r="J41">
-        <v>546.24672</v>
+        <v>35.14271999999984</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -11038,10 +10658,10 @@
         <v>-3580.812</v>
       </c>
       <c r="I42">
-        <v>-716.1624</v>
+        <v>-60.4324000000006</v>
       </c>
       <c r="J42">
-        <v>572.92992</v>
+        <v>48.34592000000048</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -11070,10 +10690,10 @@
         <v>-3747.582</v>
       </c>
       <c r="I43">
-        <v>-749.5164</v>
+        <v>-82.93639999999958</v>
       </c>
       <c r="J43">
-        <v>599.61312</v>
+        <v>66.34911999999967</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -11102,10 +10722,10 @@
         <v>-3718.6344</v>
       </c>
       <c r="I44">
-        <v>-743.7268800000001</v>
+        <v>-56.29687999999991</v>
       </c>
       <c r="J44">
-        <v>594.9815040000001</v>
+        <v>45.03750399999993</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -11113,7 +10733,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2658.88408181818</v>
+        <v>2671.08450181818</v>
       </c>
       <c r="C45">
         <v>1218.181818181818</v>
@@ -11125,7 +10745,7 @@
         <v>775.41318</v>
       </c>
       <c r="F45">
-        <v>2658.88408181818</v>
+        <v>2671.08450181818</v>
       </c>
       <c r="G45">
         <v>-3877.0659</v>
@@ -11134,10 +10754,10 @@
         <v>-3877.0659</v>
       </c>
       <c r="I45">
-        <v>-775.41318</v>
+        <v>-0</v>
       </c>
       <c r="J45">
-        <v>620.330544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -11166,10 +10786,10 @@
         <v>-4035.4974</v>
       </c>
       <c r="I46">
-        <v>-807.09948</v>
+        <v>-12.5666800000004</v>
       </c>
       <c r="J46">
-        <v>645.679584</v>
+        <v>10.05334400000032</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -11198,10 +10818,10 @@
         <v>-4193.928899999999</v>
       </c>
       <c r="I47">
-        <v>-838.78578</v>
+        <v>-35.8937800000003</v>
       </c>
       <c r="J47">
-        <v>671.028624</v>
+        <v>28.71502400000024</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -11230,10 +10850,10 @@
         <v>-4352.3604</v>
       </c>
       <c r="I48">
-        <v>-870.4720800000001</v>
+        <v>-59.2208800000008</v>
       </c>
       <c r="J48">
-        <v>696.3776640000001</v>
+        <v>47.37670400000064</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -11262,10 +10882,10 @@
         <v>-4510.791899999999</v>
       </c>
       <c r="I49">
-        <v>-902.15838</v>
+        <v>-74.7719799999995</v>
       </c>
       <c r="J49">
-        <v>721.726704</v>
+        <v>59.81758399999961</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -11294,10 +10914,10 @@
         <v>-5196.436919999998</v>
       </c>
       <c r="I50">
-        <v>-1000</v>
+        <v>-195.765783999999</v>
       </c>
       <c r="J50">
-        <v>800</v>
+        <v>156.6126271999992</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -11326,10 +10946,10 @@
         <v>-5312.94948</v>
       </c>
       <c r="I51">
-        <v>-1000</v>
+        <v>-204.639496000001</v>
       </c>
       <c r="J51">
-        <v>800</v>
+        <v>163.7115968000008</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -11358,10 +10978,10 @@
         <v>-5429.46204</v>
       </c>
       <c r="I52">
-        <v>-1000</v>
+        <v>-253.513208</v>
       </c>
       <c r="J52">
-        <v>800</v>
+        <v>202.8105664</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -11390,10 +11010,10 @@
         <v>-5545.9746</v>
       </c>
       <c r="I53">
-        <v>-1000</v>
+        <v>-265.35332</v>
       </c>
       <c r="J53">
-        <v>800</v>
+        <v>212.282656</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -11422,10 +11042,10 @@
         <v>-5662.487160000001</v>
       </c>
       <c r="I54">
-        <v>-1000</v>
+        <v>-284.393432</v>
       </c>
       <c r="J54">
-        <v>800</v>
+        <v>227.5147456</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -11454,10 +11074,10 @@
         <v>-5778.99972</v>
       </c>
       <c r="I55">
-        <v>-1000</v>
+        <v>-303.433544</v>
       </c>
       <c r="J55">
-        <v>800</v>
+        <v>242.7468352</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -11486,10 +11106,10 @@
         <v>-5895.51228</v>
       </c>
       <c r="I56">
-        <v>-1000</v>
+        <v>-322.473656000001</v>
       </c>
       <c r="J56">
-        <v>800</v>
+        <v>257.9789248000008</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -11518,10 +11138,10 @@
         <v>-6012.024839999999</v>
       </c>
       <c r="I57">
-        <v>-1000</v>
+        <v>-341.513768</v>
       </c>
       <c r="J57">
-        <v>800</v>
+        <v>273.2110144</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -11550,10 +11170,10 @@
         <v>-6128.5374</v>
       </c>
       <c r="I58">
-        <v>-1000</v>
+        <v>-361.67228</v>
       </c>
       <c r="J58">
-        <v>800</v>
+        <v>289.337824</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -11582,10 +11202,10 @@
         <v>-6245.04996</v>
       </c>
       <c r="I59">
-        <v>-1000</v>
+        <v>-360.038792</v>
       </c>
       <c r="J59">
-        <v>800</v>
+        <v>288.0310336</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -11614,10 +11234,10 @@
         <v>-6238.421999999998</v>
       </c>
       <c r="I60">
-        <v>-1000</v>
+        <v>-366.1771999999989</v>
       </c>
       <c r="J60">
-        <v>800</v>
+        <v>292.9417599999992</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -11646,10 +11266,10 @@
         <v>-6231.79404</v>
       </c>
       <c r="I61">
-        <v>-1000</v>
+        <v>-361.162008</v>
       </c>
       <c r="J61">
-        <v>800</v>
+        <v>288.9296064</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -11678,10 +11298,10 @@
         <v>-6225.166079999999</v>
       </c>
       <c r="I62">
-        <v>-1000</v>
+        <v>-316.146815999999</v>
       </c>
       <c r="J62">
-        <v>800</v>
+        <v>252.9174527999992</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -11710,10 +11330,10 @@
         <v>-6218.53812</v>
       </c>
       <c r="I63">
-        <v>-1000</v>
+        <v>-247.232424000001</v>
       </c>
       <c r="J63">
-        <v>800</v>
+        <v>197.7859392000008</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -11742,10 +11362,10 @@
         <v>-6211.91016</v>
       </c>
       <c r="I64">
-        <v>-1000</v>
+        <v>-238.318032000001</v>
       </c>
       <c r="J64">
-        <v>800</v>
+        <v>190.6544256000008</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -11774,10 +11394,10 @@
         <v>-6205.2822</v>
       </c>
       <c r="I65">
-        <v>-1000</v>
+        <v>-244.56684</v>
       </c>
       <c r="J65">
-        <v>800</v>
+        <v>195.653472</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -11806,10 +11426,10 @@
         <v>-6198.654240000001</v>
       </c>
       <c r="I66">
-        <v>-1000</v>
+        <v>-250.815648</v>
       </c>
       <c r="J66">
-        <v>800</v>
+        <v>200.6525184</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -11838,10 +11458,10 @@
         <v>-6192.026279999999</v>
       </c>
       <c r="I67">
-        <v>-1000</v>
+        <v>-317.194056</v>
       </c>
       <c r="J67">
-        <v>800</v>
+        <v>253.7552448</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -11870,10 +11490,10 @@
         <v>-6185.398319999999</v>
       </c>
       <c r="I68">
-        <v>-1000</v>
+        <v>-323.572464</v>
       </c>
       <c r="J68">
-        <v>800</v>
+        <v>258.8579712</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -11902,10 +11522,10 @@
         <v>-6178.77036</v>
       </c>
       <c r="I69">
-        <v>-1000</v>
+        <v>-325.263672</v>
       </c>
       <c r="J69">
-        <v>800</v>
+        <v>260.2109376</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -11934,10 +11554,10 @@
         <v>-6172.1424</v>
       </c>
       <c r="I70">
-        <v>-1000</v>
+        <v>-362.9548799999999</v>
       </c>
       <c r="J70">
-        <v>800</v>
+        <v>290.363904</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -11966,10 +11586,10 @@
         <v>-5898.4968</v>
       </c>
       <c r="I71">
-        <v>-1000</v>
+        <v>-389.23536</v>
       </c>
       <c r="J71">
-        <v>800</v>
+        <v>311.388288</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -11998,10 +11618,10 @@
         <v>-5624.8512</v>
       </c>
       <c r="I72">
-        <v>-1000</v>
+        <v>-355.5158400000009</v>
       </c>
       <c r="J72">
-        <v>800</v>
+        <v>284.4126720000008</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -12009,19 +11629,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4133.02378181818</v>
+        <v>4141.28373288598</v>
       </c>
       <c r="C73">
-        <v>1218.181818181818</v>
+        <v>1209.921867114021</v>
       </c>
       <c r="D73">
-        <v>812.121212121212</v>
+        <v>806.6145780760139</v>
       </c>
       <c r="E73">
         <v>1070.24112</v>
       </c>
       <c r="F73">
-        <v>4133.02378181818</v>
+        <v>4141.28373288598</v>
       </c>
       <c r="G73">
         <v>-5351.205599999999</v>
@@ -12030,10 +11650,10 @@
         <v>-5351.205599999999</v>
       </c>
       <c r="I73">
-        <v>-1000</v>
+        <v>-331.98672</v>
       </c>
       <c r="J73">
-        <v>800</v>
+        <v>265.589376</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -12062,10 +11682,10 @@
         <v>-4585.889399999999</v>
       </c>
       <c r="I74">
-        <v>-917.17788</v>
+        <v>-210.12348</v>
       </c>
       <c r="J74">
-        <v>733.742304</v>
+        <v>168.098784</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -12094,10 +11714,10 @@
         <v>-4361.614350000001</v>
       </c>
       <c r="I75">
-        <v>-872.32287</v>
+        <v>-166.46847</v>
       </c>
       <c r="J75">
-        <v>697.858296</v>
+        <v>133.174776</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -12126,10 +11746,10 @@
         <v>-4137.3393</v>
       </c>
       <c r="I76">
-        <v>-827.46786</v>
+        <v>-122.813459999999</v>
       </c>
       <c r="J76">
-        <v>661.974288</v>
+        <v>98.2507679999992</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -12158,10 +11778,10 @@
         <v>-3913.064249999999</v>
       </c>
       <c r="I77">
-        <v>-782.61285</v>
+        <v>-79.1584500000004</v>
       </c>
       <c r="J77">
-        <v>626.09028</v>
+        <v>63.32676000000032</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -12190,10 +11810,10 @@
         <v>-3688.7892</v>
       </c>
       <c r="I78">
-        <v>-737.75784</v>
+        <v>-35.50344</v>
       </c>
       <c r="J78">
-        <v>590.206272</v>
+        <v>28.402752</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -12201,7 +11821,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>2246.33233181818</v>
+        <v>2249.98870181818</v>
       </c>
       <c r="C79">
         <v>1218.181818181818</v>
@@ -12213,7 +11833,7 @@
         <v>692.9028300000001</v>
       </c>
       <c r="F79">
-        <v>2246.33233181818</v>
+        <v>2249.98870181818</v>
       </c>
       <c r="G79">
         <v>-3464.51415</v>
@@ -12222,10 +11842,10 @@
         <v>-3464.51415</v>
       </c>
       <c r="I79">
-        <v>-692.90283</v>
+        <v>-0</v>
       </c>
       <c r="J79">
-        <v>554.322264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -12233,7 +11853,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>2022.05728181818</v>
+        <v>2085.00466181818</v>
       </c>
       <c r="C80">
         <v>1218.181818181818</v>
@@ -12245,7 +11865,7 @@
         <v>648.04782</v>
       </c>
       <c r="F80">
-        <v>2022.05728181818</v>
+        <v>2085.00466181818</v>
       </c>
       <c r="G80">
         <v>-3240.2391</v>
@@ -12254,10 +11874,10 @@
         <v>-3240.2391</v>
       </c>
       <c r="I80">
-        <v>-648.04782</v>
+        <v>-0</v>
       </c>
       <c r="J80">
-        <v>518.438256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -12265,7 +11885,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1797.78223181818</v>
+        <v>1878.84382181818</v>
       </c>
       <c r="C81">
         <v>1218.181818181818</v>
@@ -12277,7 +11897,7 @@
         <v>603.1928099999999</v>
       </c>
       <c r="F81">
-        <v>1797.78223181818</v>
+        <v>1878.84382181818</v>
       </c>
       <c r="G81">
         <v>-3015.96405</v>
@@ -12286,10 +11906,10 @@
         <v>-3015.96405</v>
       </c>
       <c r="I81">
-        <v>-603.19281</v>
+        <v>-0</v>
       </c>
       <c r="J81">
-        <v>482.554248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -12297,7 +11917,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1920.43818181818</v>
+        <v>1968.22778181818</v>
       </c>
       <c r="C82">
         <v>1218.181818181818</v>
@@ -12309,7 +11929,7 @@
         <v>627.724</v>
       </c>
       <c r="F82">
-        <v>1920.43818181818</v>
+        <v>1968.22778181818</v>
       </c>
       <c r="G82">
         <v>-3138.62</v>
@@ -12318,10 +11938,10 @@
         <v>-3138.62</v>
       </c>
       <c r="I82">
-        <v>-627.724</v>
+        <v>-0</v>
       </c>
       <c r="J82">
-        <v>502.1792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -12329,7 +11949,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2024.86738181818</v>
+        <v>2025.03034181818</v>
       </c>
       <c r="C83">
         <v>1218.181818181818</v>
@@ -12341,7 +11961,7 @@
         <v>648.60984</v>
       </c>
       <c r="F83">
-        <v>2024.86738181818</v>
+        <v>2025.03034181818</v>
       </c>
       <c r="G83">
         <v>-3243.049199999999</v>
@@ -12350,10 +11970,10 @@
         <v>-3243.049199999999</v>
       </c>
       <c r="I83">
-        <v>-648.60984</v>
+        <v>-0</v>
       </c>
       <c r="J83">
-        <v>518.887872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -12361,7 +11981,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1741.57258181818</v>
+        <v>1871.65370181818</v>
       </c>
       <c r="C84">
         <v>1218.181818181818</v>
@@ -12373,7 +11993,7 @@
         <v>591.95088</v>
       </c>
       <c r="F84">
-        <v>1741.57258181818</v>
+        <v>1871.65370181818</v>
       </c>
       <c r="G84">
         <v>-2959.7544</v>
@@ -12382,10 +12002,10 @@
         <v>-2959.7544</v>
       </c>
       <c r="I84">
-        <v>-591.95088</v>
+        <v>-0</v>
       </c>
       <c r="J84">
-        <v>473.560704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -12393,7 +12013,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1758.27778181818</v>
+        <v>1879.98586181818</v>
       </c>
       <c r="C85">
         <v>1218.181818181818</v>
@@ -12405,7 +12025,7 @@
         <v>595.29192</v>
       </c>
       <c r="F85">
-        <v>1758.27778181818</v>
+        <v>1879.98586181818</v>
       </c>
       <c r="G85">
         <v>-2976.4596</v>
@@ -12414,10 +12034,10 @@
         <v>-2976.4596</v>
       </c>
       <c r="I85">
-        <v>-595.29192</v>
+        <v>-0</v>
       </c>
       <c r="J85">
-        <v>476.233536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -12425,7 +12045,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1834.98298181818</v>
+        <v>1936.31802181818</v>
       </c>
       <c r="C86">
         <v>1218.181818181818</v>
@@ -12437,7 +12057,7 @@
         <v>610.63296</v>
       </c>
       <c r="F86">
-        <v>1834.98298181818</v>
+        <v>1936.31802181818</v>
       </c>
       <c r="G86">
         <v>-3053.1648</v>
@@ -12446,10 +12066,10 @@
         <v>-3053.1648</v>
       </c>
       <c r="I86">
-        <v>-610.63296</v>
+        <v>-0</v>
       </c>
       <c r="J86">
-        <v>488.5063680000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -12457,7 +12077,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1951.68818181818</v>
+        <v>2024.65018181818</v>
       </c>
       <c r="C87">
         <v>1218.181818181818</v>
@@ -12469,7 +12089,7 @@
         <v>633.974</v>
       </c>
       <c r="F87">
-        <v>1951.68818181818</v>
+        <v>2024.65018181818</v>
       </c>
       <c r="G87">
         <v>-3169.87</v>
@@ -12478,10 +12098,10 @@
         <v>-3169.87</v>
       </c>
       <c r="I87">
-        <v>-633.974</v>
+        <v>-0</v>
       </c>
       <c r="J87">
-        <v>507.1792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -12489,7 +12109,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1884.39338181819</v>
+        <v>1965.78234181819</v>
       </c>
       <c r="C88">
         <v>1218.181818181818</v>
@@ -12501,7 +12121,7 @@
         <v>620.515040000002</v>
       </c>
       <c r="F88">
-        <v>1884.39338181819</v>
+        <v>1965.78234181819</v>
       </c>
       <c r="G88">
         <v>-3102.57520000001</v>
@@ -12510,10 +12130,10 @@
         <v>-3102.57520000001</v>
       </c>
       <c r="I88">
-        <v>-620.515040000002</v>
+        <v>-0</v>
       </c>
       <c r="J88">
-        <v>496.4120320000017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -12521,7 +12141,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1917.09858181819</v>
+        <v>1986.91450181819</v>
       </c>
       <c r="C89">
         <v>1218.181818181818</v>
@@ -12533,7 +12153,7 @@
         <v>627.0560800000021</v>
       </c>
       <c r="F89">
-        <v>1917.09858181819</v>
+        <v>1986.91450181819</v>
       </c>
       <c r="G89">
         <v>-3135.28040000001</v>
@@ -12542,10 +12162,10 @@
         <v>-3135.28040000001</v>
       </c>
       <c r="I89">
-        <v>-627.056080000002</v>
+        <v>-0</v>
       </c>
       <c r="J89">
-        <v>501.6448640000016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -12553,7 +12173,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1949.8037818182</v>
+        <v>2008.0466618182</v>
       </c>
       <c r="C90">
         <v>1218.181818181818</v>
@@ -12565,7 +12185,7 @@
         <v>633.597120000004</v>
       </c>
       <c r="F90">
-        <v>1949.8037818182</v>
+        <v>2008.0466618182</v>
       </c>
       <c r="G90">
         <v>-3167.98560000002</v>
@@ -12574,10 +12194,10 @@
         <v>-3167.98560000002</v>
       </c>
       <c r="I90">
-        <v>-633.597120000004</v>
+        <v>-0</v>
       </c>
       <c r="J90">
-        <v>506.8776960000032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -12585,7 +12205,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1982.50898181821</v>
+        <v>2029.17882181821</v>
       </c>
       <c r="C91">
         <v>1218.181818181818</v>
@@ -12597,7 +12217,7 @@
         <v>640.138160000006</v>
       </c>
       <c r="F91">
-        <v>1982.50898181821</v>
+        <v>2029.17882181821</v>
       </c>
       <c r="G91">
         <v>-3200.69080000003</v>
@@ -12606,10 +12226,10 @@
         <v>-3200.69080000003</v>
       </c>
       <c r="I91">
-        <v>-640.138160000006</v>
+        <v>-0</v>
       </c>
       <c r="J91">
-        <v>512.1105280000048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -12617,7 +12237,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>2135.21418181822</v>
+        <v>2146.31098181821</v>
       </c>
       <c r="C92">
         <v>1218.181818181818</v>
@@ -12629,7 +12249,7 @@
         <v>670.6792000000081</v>
       </c>
       <c r="F92">
-        <v>2135.21418181822</v>
+        <v>2146.31098181821</v>
       </c>
       <c r="G92">
         <v>-3353.39600000004</v>
@@ -12638,10 +12258,10 @@
         <v>-3353.39600000004</v>
       </c>
       <c r="I92">
-        <v>-670.6792000000079</v>
+        <v>-0</v>
       </c>
       <c r="J92">
-        <v>536.5433600000064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -12670,138 +12290,10 @@
         <v>-3386.10120000004</v>
       </c>
       <c r="I93">
-        <v>-677.2202400000079</v>
+        <v>-0.476240000008147</v>
       </c>
       <c r="J93">
-        <v>541.7761920000064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>2100.62458181823</v>
-      </c>
-      <c r="C94">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="D94">
-        <v>812.121212121212</v>
-      </c>
-      <c r="E94">
-        <v>663.7612800000101</v>
-      </c>
-      <c r="F94">
-        <v>2100.62458181823</v>
-      </c>
-      <c r="G94">
-        <v>-3318.80640000005</v>
-      </c>
-      <c r="H94">
-        <v>-3318.80640000005</v>
-      </c>
-      <c r="I94">
-        <v>-663.7612800000099</v>
-      </c>
-      <c r="J94">
-        <v>531.009024000008</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>2233.32978181824</v>
-      </c>
-      <c r="C95">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="D95">
-        <v>812.121212121212</v>
-      </c>
-      <c r="E95">
-        <v>690.3023200000121</v>
-      </c>
-      <c r="F95">
-        <v>2233.32978181824</v>
-      </c>
-      <c r="G95">
-        <v>-3451.51160000006</v>
-      </c>
-      <c r="H95">
-        <v>-3451.51160000006</v>
-      </c>
-      <c r="I95">
-        <v>-690.3023200000118</v>
-      </c>
-      <c r="J95">
-        <v>552.2418560000095</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>2366.03498181825</v>
-      </c>
-      <c r="C96">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="D96">
-        <v>812.121212121212</v>
-      </c>
-      <c r="E96">
-        <v>716.8433600000141</v>
-      </c>
-      <c r="F96">
-        <v>2366.03498181825</v>
-      </c>
-      <c r="G96">
-        <v>-3584.21680000007</v>
-      </c>
-      <c r="H96">
-        <v>-3584.21680000007</v>
-      </c>
-      <c r="I96">
-        <v>-716.8433600000139</v>
-      </c>
-      <c r="J96">
-        <v>573.4746880000112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>2398.74018181826</v>
-      </c>
-      <c r="C97">
-        <v>1218.181818181818</v>
-      </c>
-      <c r="D97">
-        <v>812.121212121212</v>
-      </c>
-      <c r="E97">
-        <v>723.3844000000161</v>
-      </c>
-      <c r="F97">
-        <v>2398.74018181826</v>
-      </c>
-      <c r="G97">
-        <v>-3616.92200000008</v>
-      </c>
-      <c r="H97">
-        <v>-3616.92200000008</v>
-      </c>
-      <c r="I97">
-        <v>-723.3844000000159</v>
-      </c>
-      <c r="J97">
-        <v>578.7075200000128</v>
+        <v>0.3809920000065176</v>
       </c>
     </row>
   </sheetData>
@@ -12811,7 +12303,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12842,7 +12334,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D2">
-        <v>-724.68152</v>
+        <v>-0</v>
       </c>
       <c r="E2">
         <v>0.35220001</v>
@@ -12859,7 +12351,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D3">
-        <v>-730.08152</v>
+        <v>-0</v>
       </c>
       <c r="E3">
         <v>0.35220001</v>
@@ -12876,7 +12368,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D4">
-        <v>-735.4815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E4">
         <v>0.35220001</v>
@@ -12893,7 +12385,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D5">
-        <v>-740.88152</v>
+        <v>-0</v>
       </c>
       <c r="E5">
         <v>0.35220001</v>
@@ -12910,7 +12402,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D6">
-        <v>-746.28152</v>
+        <v>-0</v>
       </c>
       <c r="E6">
         <v>0.35220001</v>
@@ -12927,7 +12419,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D7">
-        <v>-751.68152</v>
+        <v>-0</v>
       </c>
       <c r="E7">
         <v>0.35220001</v>
@@ -12944,7 +12436,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D8">
-        <v>-757.08152</v>
+        <v>-0</v>
       </c>
       <c r="E8">
         <v>0.35220001</v>
@@ -12961,7 +12453,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D9">
-        <v>-730.4815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E9">
         <v>0.35220001</v>
@@ -12978,7 +12470,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D10">
-        <v>-719.8815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E10">
         <v>0.35220001</v>
@@ -12995,7 +12487,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D11">
-        <v>-713.28152</v>
+        <v>-0</v>
       </c>
       <c r="E11">
         <v>0.35220001</v>
@@ -13012,7 +12504,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D12">
-        <v>-698.6815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E12">
         <v>0.35220001</v>
@@ -13029,7 +12521,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D13">
-        <v>-684.08152</v>
+        <v>-0</v>
       </c>
       <c r="E13">
         <v>0.35220001</v>
@@ -13046,7 +12538,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D14">
-        <v>-689.48152</v>
+        <v>-0</v>
       </c>
       <c r="E14">
         <v>0.35220001</v>
@@ -13063,7 +12555,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D15">
-        <v>-674.8815199999999</v>
+        <v>-0</v>
       </c>
       <c r="E15">
         <v>0.35220001</v>
@@ -13080,7 +12572,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D16">
-        <v>-700.28152</v>
+        <v>-0</v>
       </c>
       <c r="E16">
         <v>0.35220001</v>
@@ -13097,7 +12589,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D17">
-        <v>-705.68152</v>
+        <v>-5.17152000000033</v>
       </c>
       <c r="E17">
         <v>0.35220001</v>
@@ -13114,7 +12606,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D18">
-        <v>-711.08152</v>
+        <v>-9.597520000000261</v>
       </c>
       <c r="E18">
         <v>0.35220001</v>
@@ -13131,7 +12623,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D19">
-        <v>-716.48152</v>
+        <v>-18.0235200000002</v>
       </c>
       <c r="E19">
         <v>0.35220001</v>
@@ -13148,7 +12640,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D20">
-        <v>-717.88152</v>
+        <v>-29.4495199999997</v>
       </c>
       <c r="E20">
         <v>0.35220001</v>
@@ -13165,7 +12657,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D21">
-        <v>-707.28152</v>
+        <v>-34.8755200000005</v>
       </c>
       <c r="E21">
         <v>0.35220001</v>
@@ -13182,7 +12674,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D22">
-        <v>-712.68152</v>
+        <v>-56.3015200000004</v>
       </c>
       <c r="E22">
         <v>0.35220001</v>
@@ -13199,7 +12691,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D23">
-        <v>-698.0815199999998</v>
+        <v>-54.7275200000004</v>
       </c>
       <c r="E23">
         <v>0.35220001</v>
@@ -13216,7 +12708,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D24">
-        <v>-703.48152</v>
+        <v>-69.1535200000003</v>
       </c>
       <c r="E24">
         <v>0.35220001</v>
@@ -13233,7 +12725,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D25">
-        <v>-688.88152</v>
+        <v>-52.5795199999998</v>
       </c>
       <c r="E25">
         <v>0.35220001</v>
@@ -13250,7 +12742,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D26">
-        <v>-694.2815199999999</v>
+        <v>-56.0055199999997</v>
       </c>
       <c r="E26">
         <v>0.35220001</v>
@@ -13267,7 +12759,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D27">
-        <v>-679.68152</v>
+        <v>-53.7015200000001</v>
       </c>
       <c r="E27">
         <v>0.35220001</v>
@@ -13284,7 +12776,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D28">
-        <v>-665.08152</v>
+        <v>-57.2515200000003</v>
       </c>
       <c r="E28">
         <v>0.35220001</v>
@@ -13301,7 +12793,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D29">
-        <v>-670.4815199999999</v>
+        <v>-60.80152000000041</v>
       </c>
       <c r="E29">
         <v>0.35220001</v>
@@ -13318,7 +12810,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D30">
-        <v>-675.88152</v>
+        <v>-64.3515199999997</v>
       </c>
       <c r="E30">
         <v>0.35220001</v>
@@ -13335,7 +12827,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D31">
-        <v>-661.28152</v>
+        <v>-47.9015199999999</v>
       </c>
       <c r="E31">
         <v>0.35220001</v>
@@ -13352,7 +12844,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D32">
-        <v>-666.68152</v>
+        <v>-51.4515200000001</v>
       </c>
       <c r="E32">
         <v>0.35220001</v>
@@ -13369,7 +12861,7 @@
         <v>40.60606060606059</v>
       </c>
       <c r="D33">
-        <v>-672.08152</v>
+        <v>-55.0015200000003</v>
       </c>
       <c r="E33">
         <v>0.35220001</v>
@@ -13386,7 +12878,7 @@
         <v>446.6666666666666</v>
       </c>
       <c r="D34">
-        <v>-657.48152</v>
+        <v>-38.5515200000004</v>
       </c>
       <c r="E34">
         <v>0.65550003</v>
@@ -13403,7 +12895,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D35">
-        <v>-642.88152</v>
+        <v>-22.1015199999997</v>
       </c>
       <c r="E35">
         <v>0.65550003</v>
@@ -13420,7 +12912,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D36">
-        <v>-628.28152</v>
+        <v>-5.65151999999989</v>
       </c>
       <c r="E36">
         <v>0.65550003</v>
@@ -13437,7 +12929,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D37">
-        <v>-613.68152</v>
+        <v>-0</v>
       </c>
       <c r="E37">
         <v>0.65550003</v>
@@ -13454,7 +12946,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D38">
-        <v>-639.08152</v>
+        <v>-12.7515200000003</v>
       </c>
       <c r="E38">
         <v>0.65550003</v>
@@ -13471,7 +12963,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D39">
-        <v>-656.1004</v>
+        <v>-27.9204000000004</v>
       </c>
       <c r="E39">
         <v>0.65550003</v>
@@ -13488,7 +12980,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D40">
-        <v>-649.4544</v>
+        <v>-15.4244000000003</v>
       </c>
       <c r="E40">
         <v>0.65550003</v>
@@ -13505,7 +12997,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D41">
-        <v>-682.8083999999999</v>
+        <v>-43.9283999999998</v>
       </c>
       <c r="E41">
         <v>0.65550003</v>
@@ -13522,7 +13014,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D42">
-        <v>-716.1624</v>
+        <v>-60.4324000000006</v>
       </c>
       <c r="E42">
         <v>0.65550003</v>
@@ -13539,7 +13031,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D43">
-        <v>-749.5164</v>
+        <v>-82.93639999999958</v>
       </c>
       <c r="E43">
         <v>0.65550003</v>
@@ -13556,7 +13048,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D44">
-        <v>-743.7268800000001</v>
+        <v>-56.29687999999991</v>
       </c>
       <c r="E44">
         <v>0.65550003</v>
@@ -13573,7 +13065,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D45">
-        <v>-775.41318</v>
+        <v>-0</v>
       </c>
       <c r="E45">
         <v>0.65550003</v>
@@ -13590,7 +13082,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D46">
-        <v>-807.09948</v>
+        <v>-12.5666800000004</v>
       </c>
       <c r="E46">
         <v>0.65550003</v>
@@ -13607,7 +13099,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D47">
-        <v>-838.78578</v>
+        <v>-35.8937800000003</v>
       </c>
       <c r="E47">
         <v>0.65550003</v>
@@ -13624,7 +13116,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D48">
-        <v>-870.4720800000001</v>
+        <v>-59.2208800000008</v>
       </c>
       <c r="E48">
         <v>0.65550003</v>
@@ -13641,7 +13133,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D49">
-        <v>-902.15838</v>
+        <v>-74.7719799999995</v>
       </c>
       <c r="E49">
         <v>0.65550003</v>
@@ -13658,7 +13150,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D50">
-        <v>-1000</v>
+        <v>-195.765783999999</v>
       </c>
       <c r="E50">
         <v>0.65550003</v>
@@ -13675,7 +13167,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D51">
-        <v>-1000</v>
+        <v>-204.639496000001</v>
       </c>
       <c r="E51">
         <v>0.65550003</v>
@@ -13692,7 +13184,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D52">
-        <v>-1000</v>
+        <v>-253.513208</v>
       </c>
       <c r="E52">
         <v>0.65550003</v>
@@ -13709,7 +13201,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D53">
-        <v>-1000</v>
+        <v>-265.35332</v>
       </c>
       <c r="E53">
         <v>0.65550003</v>
@@ -13726,7 +13218,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D54">
-        <v>-1000</v>
+        <v>-284.393432</v>
       </c>
       <c r="E54">
         <v>0.65550003</v>
@@ -13743,7 +13235,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D55">
-        <v>-1000</v>
+        <v>-303.433544</v>
       </c>
       <c r="E55">
         <v>0.65550003</v>
@@ -13760,7 +13252,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D56">
-        <v>-1000</v>
+        <v>-322.473656000001</v>
       </c>
       <c r="E56">
         <v>0.65550003</v>
@@ -13777,7 +13269,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D57">
-        <v>-1000</v>
+        <v>-341.513768</v>
       </c>
       <c r="E57">
         <v>0.65550003</v>
@@ -13794,7 +13286,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D58">
-        <v>-1000</v>
+        <v>-361.67228</v>
       </c>
       <c r="E58">
         <v>1.04989998</v>
@@ -13811,7 +13303,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D59">
-        <v>-1000</v>
+        <v>-360.038792</v>
       </c>
       <c r="E59">
         <v>1.04989998</v>
@@ -13828,7 +13320,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D60">
-        <v>-1000</v>
+        <v>-366.1771999999989</v>
       </c>
       <c r="E60">
         <v>1.04989998</v>
@@ -13845,7 +13337,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D61">
-        <v>-1000</v>
+        <v>-361.162008</v>
       </c>
       <c r="E61">
         <v>1.04989998</v>
@@ -13862,7 +13354,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D62">
-        <v>-1000</v>
+        <v>-316.146815999999</v>
       </c>
       <c r="E62">
         <v>1.04989998</v>
@@ -13879,7 +13371,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D63">
-        <v>-1000</v>
+        <v>-247.232424000001</v>
       </c>
       <c r="E63">
         <v>1.04989998</v>
@@ -13896,7 +13388,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D64">
-        <v>-1000</v>
+        <v>-238.318032000001</v>
       </c>
       <c r="E64">
         <v>1.04989998</v>
@@ -13913,7 +13405,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D65">
-        <v>-1000</v>
+        <v>-244.56684</v>
       </c>
       <c r="E65">
         <v>1.04989998</v>
@@ -13930,7 +13422,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D66">
-        <v>-1000</v>
+        <v>-250.815648</v>
       </c>
       <c r="E66">
         <v>1.04989998</v>
@@ -13947,7 +13439,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D67">
-        <v>-1000</v>
+        <v>-317.194056</v>
       </c>
       <c r="E67">
         <v>1.04989998</v>
@@ -13964,7 +13456,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D68">
-        <v>-1000</v>
+        <v>-323.572464</v>
       </c>
       <c r="E68">
         <v>1.04989998</v>
@@ -13981,7 +13473,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D69">
-        <v>-1000</v>
+        <v>-325.263672</v>
       </c>
       <c r="E69">
         <v>1.04989998</v>
@@ -13998,7 +13490,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D70">
-        <v>-1000</v>
+        <v>-362.9548799999999</v>
       </c>
       <c r="E70">
         <v>0.65550003</v>
@@ -14015,7 +13507,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D71">
-        <v>-1000</v>
+        <v>-389.23536</v>
       </c>
       <c r="E71">
         <v>0.65550003</v>
@@ -14032,7 +13524,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D72">
-        <v>-1000</v>
+        <v>-355.5158400000009</v>
       </c>
       <c r="E72">
         <v>0.65550003</v>
@@ -14046,10 +13538,10 @@
         <v>1070.24112</v>
       </c>
       <c r="C73">
-        <v>812.121212121212</v>
+        <v>806.6145780760139</v>
       </c>
       <c r="D73">
-        <v>-1000</v>
+        <v>-331.98672</v>
       </c>
       <c r="E73">
         <v>0.65550003</v>
@@ -14066,7 +13558,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D74">
-        <v>-917.17788</v>
+        <v>-210.12348</v>
       </c>
       <c r="E74">
         <v>0.65550003</v>
@@ -14083,7 +13575,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D75">
-        <v>-872.32287</v>
+        <v>-166.46847</v>
       </c>
       <c r="E75">
         <v>0.65550003</v>
@@ -14100,7 +13592,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D76">
-        <v>-827.46786</v>
+        <v>-122.813459999999</v>
       </c>
       <c r="E76">
         <v>0.65550003</v>
@@ -14117,7 +13609,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D77">
-        <v>-782.61285</v>
+        <v>-79.1584500000004</v>
       </c>
       <c r="E77">
         <v>0.65550003</v>
@@ -14134,7 +13626,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D78">
-        <v>-737.75784</v>
+        <v>-35.50344</v>
       </c>
       <c r="E78">
         <v>1.04989998</v>
@@ -14151,7 +13643,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D79">
-        <v>-692.90283</v>
+        <v>-0</v>
       </c>
       <c r="E79">
         <v>1.04989998</v>
@@ -14168,7 +13660,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D80">
-        <v>-648.04782</v>
+        <v>-0</v>
       </c>
       <c r="E80">
         <v>1.04989998</v>
@@ -14185,7 +13677,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D81">
-        <v>-603.19281</v>
+        <v>-0</v>
       </c>
       <c r="E81">
         <v>1.04989998</v>
@@ -14202,7 +13694,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D82">
-        <v>-627.724</v>
+        <v>-0</v>
       </c>
       <c r="E82">
         <v>1.04989998</v>
@@ -14219,7 +13711,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D83">
-        <v>-648.60984</v>
+        <v>-0</v>
       </c>
       <c r="E83">
         <v>1.04989998</v>
@@ -14236,7 +13728,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D84">
-        <v>-591.95088</v>
+        <v>-0</v>
       </c>
       <c r="E84">
         <v>1.04989998</v>
@@ -14253,7 +13745,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D85">
-        <v>-595.29192</v>
+        <v>-0</v>
       </c>
       <c r="E85">
         <v>1.04989998</v>
@@ -14270,7 +13762,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D86">
-        <v>-610.63296</v>
+        <v>-0</v>
       </c>
       <c r="E86">
         <v>1.04989998</v>
@@ -14287,7 +13779,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D87">
-        <v>-633.974</v>
+        <v>-0</v>
       </c>
       <c r="E87">
         <v>1.04989998</v>
@@ -14304,7 +13796,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D88">
-        <v>-620.515040000002</v>
+        <v>-0</v>
       </c>
       <c r="E88">
         <v>1.04989998</v>
@@ -14321,7 +13813,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D89">
-        <v>-627.056080000002</v>
+        <v>-0</v>
       </c>
       <c r="E89">
         <v>1.04989998</v>
@@ -14338,7 +13830,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D90">
-        <v>-633.597120000004</v>
+        <v>-0</v>
       </c>
       <c r="E90">
         <v>0.65550003</v>
@@ -14355,7 +13847,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D91">
-        <v>-640.138160000006</v>
+        <v>-0</v>
       </c>
       <c r="E91">
         <v>0.65550003</v>
@@ -14372,7 +13864,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D92">
-        <v>-670.6792000000079</v>
+        <v>-0</v>
       </c>
       <c r="E92">
         <v>0.65550003</v>
@@ -14389,77 +13881,9 @@
         <v>812.121212121212</v>
       </c>
       <c r="D93">
-        <v>-677.2202400000079</v>
+        <v>-0.476240000008147</v>
       </c>
       <c r="E93">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>663.7612800000101</v>
-      </c>
-      <c r="C94">
-        <v>812.121212121212</v>
-      </c>
-      <c r="D94">
-        <v>-663.7612800000099</v>
-      </c>
-      <c r="E94">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>690.3023200000121</v>
-      </c>
-      <c r="C95">
-        <v>812.121212121212</v>
-      </c>
-      <c r="D95">
-        <v>-690.3023200000118</v>
-      </c>
-      <c r="E95">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>716.8433600000141</v>
-      </c>
-      <c r="C96">
-        <v>812.121212121212</v>
-      </c>
-      <c r="D96">
-        <v>-716.8433600000139</v>
-      </c>
-      <c r="E96">
-        <v>0.65550003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>723.3844000000161</v>
-      </c>
-      <c r="C97">
-        <v>812.121212121212</v>
-      </c>
-      <c r="D97">
-        <v>-723.3844000000159</v>
-      </c>
-      <c r="E97">
         <v>0.65550003</v>
       </c>
     </row>

--- a/extenedResult.xlsx
+++ b/extenedResult.xlsx
@@ -442,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,7 +497,7 @@
         <v>50</v>
       </c>
       <c r="G2">
-        <v>-0.888888888888933</v>
+        <v>-0.888888888888914</v>
       </c>
       <c r="H2">
         <v>-1250</v>
@@ -529,7 +529,7 @@
         <v>50</v>
       </c>
       <c r="G3">
-        <v>-0.888888888888923</v>
+        <v>-0.888888888888942</v>
       </c>
       <c r="H3">
         <v>-1250</v>
@@ -753,7 +753,7 @@
         <v>50</v>
       </c>
       <c r="G10">
-        <v>-50.7421147707865</v>
+        <v>-50.7421147707863</v>
       </c>
       <c r="H10">
         <v>-1250</v>
@@ -869,7 +869,7 @@
         <v>-5569.5825968</v>
       </c>
       <c r="C14">
-        <v>7309.4649223814</v>
+        <v>7309.46492238139</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>-4875.8230691</v>
       </c>
       <c r="C36">
-        <v>3313.43558594186</v>
+        <v>3938.43558594186</v>
       </c>
       <c r="D36">
         <v>258.485705</v>
       </c>
       <c r="E36">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>1000</v>
@@ -1605,13 +1605,13 @@
         <v>-5144.8789446</v>
       </c>
       <c r="C37">
-        <v>2966.54426086744</v>
+        <v>4216.54426086744</v>
       </c>
       <c r="D37">
         <v>265.5497535</v>
       </c>
       <c r="E37">
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>1000</v>
@@ -1637,13 +1637,13 @@
         <v>-5193.9348201</v>
       </c>
       <c r="C38">
-        <v>3156.84733872717</v>
+        <v>4271.42598422791</v>
       </c>
       <c r="D38">
         <v>272.6138019</v>
       </c>
       <c r="E38">
-        <v>1114.57864550074</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1000</v>
@@ -1669,13 +1669,13 @@
         <v>-5193.0984044</v>
       </c>
       <c r="C39">
-        <v>3756.05046565507</v>
+        <v>4245.62911115581</v>
       </c>
       <c r="D39">
         <v>286.3972045</v>
       </c>
       <c r="E39">
-        <v>489.578645500741</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>1000</v>
@@ -2667,7 +2667,7 @@
         <v>109.7261826</v>
       </c>
       <c r="E70">
-        <v>624.999999999997</v>
+        <v>625</v>
       </c>
       <c r="F70">
         <v>1000</v>
@@ -2699,7 +2699,7 @@
         <v>84.68131667999999</v>
       </c>
       <c r="E71">
-        <v>2.38742359215394e-12</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>1000</v>
@@ -2725,7 +2725,7 @@
         <v>-5054.2063296</v>
       </c>
       <c r="C72">
-        <v>5085.85626411512</v>
+        <v>4460.85626411512</v>
       </c>
       <c r="D72">
         <v>59.63645075</v>
@@ -2740,7 +2740,7 @@
         <v>-0</v>
       </c>
       <c r="H72">
-        <v>-625.000000000004</v>
+        <v>-0</v>
       </c>
       <c r="I72">
         <v>-437.310541395349</v>
@@ -2757,7 +2757,7 @@
         <v>-5154.99691885</v>
       </c>
       <c r="C73">
-        <v>5199.80308130042</v>
+        <v>4858.36459960275</v>
       </c>
       <c r="D73">
         <v>48.61932768</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>993.219443153301</v>
+        <v>1000</v>
       </c>
       <c r="G73">
         <v>-0</v>
       </c>
       <c r="H73">
-        <v>-625</v>
+        <v>-290.342075149028</v>
       </c>
       <c r="I73">
         <v>-433.338284651163</v>
@@ -2789,7 +2789,7 @@
         <v>-5255.7875081</v>
       </c>
       <c r="C74">
-        <v>4692.43155840233</v>
+        <v>5607.77363355135</v>
       </c>
       <c r="D74">
         <v>37.6022046</v>
@@ -2804,7 +2804,7 @@
         <v>-0</v>
       </c>
       <c r="H74">
-        <v>-0</v>
+        <v>-915.342075149028</v>
       </c>
       <c r="I74">
         <v>-447.660747906977</v>
@@ -2821,7 +2821,7 @@
         <v>-5256.7020294</v>
       </c>
       <c r="C75">
-        <v>4704.08124735465</v>
+        <v>5329.08124735465</v>
       </c>
       <c r="D75">
         <v>27.74133405</v>
@@ -2836,7 +2836,7 @@
         <v>-0</v>
       </c>
       <c r="H75">
-        <v>-0</v>
+        <v>-625</v>
       </c>
       <c r="I75">
         <v>-449.324935813954</v>
@@ -3013,7 +3013,7 @@
         <v>-5934.58450715</v>
       </c>
       <c r="C81">
-        <v>3938.03386091453</v>
+        <v>3938.03386091454</v>
       </c>
       <c r="D81">
         <v>0.711204375</v>
@@ -3045,7 +3045,7 @@
         <v>-6015.4190831</v>
       </c>
       <c r="C82">
-        <v>4040.41393738112</v>
+        <v>4042.58150855362</v>
       </c>
       <c r="D82">
         <v>0.06981145</v>
@@ -3063,7 +3063,7 @@
         <v>-0</v>
       </c>
       <c r="I82">
-        <v>-261.966348315356</v>
+        <v>-264.03070181297</v>
       </c>
       <c r="J82">
         <v>1.04989998</v>
@@ -3418,6 +3418,134 @@
         <v>-358.718839069772</v>
       </c>
       <c r="J93">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>-5669.4340791</v>
+      </c>
+      <c r="C94">
+        <v>5058.57094078911</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1000</v>
+      </c>
+      <c r="G94">
+        <v>-0</v>
+      </c>
+      <c r="H94">
+        <v>-13.6842105263158</v>
+      </c>
+      <c r="I94">
+        <v>-357.57395348838</v>
+      </c>
+      <c r="J94">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>-5769.46635825</v>
+      </c>
+      <c r="C95">
+        <v>5153.16591080423</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1000</v>
+      </c>
+      <c r="G95">
+        <v>-0</v>
+      </c>
+      <c r="H95">
+        <v>-13.6842105263158</v>
+      </c>
+      <c r="I95">
+        <v>-351.945614883727</v>
+      </c>
+      <c r="J95">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>-5819.4986374</v>
+      </c>
+      <c r="C96">
+        <v>5196.36673131237</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1000</v>
+      </c>
+      <c r="G96">
+        <v>-0</v>
+      </c>
+      <c r="H96">
+        <v>-13.6842105263158</v>
+      </c>
+      <c r="I96">
+        <v>-344.838072558146</v>
+      </c>
+      <c r="J96">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>-5869.4986374</v>
+      </c>
+      <c r="C97">
+        <v>5243.0422494147</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1000</v>
+      </c>
+      <c r="G97">
+        <v>-0</v>
+      </c>
+      <c r="H97">
+        <v>-13.6842105263158</v>
+      </c>
+      <c r="I97">
+        <v>-341.451460465124</v>
+      </c>
+      <c r="J97">
         <v>0.65550003</v>
       </c>
     </row>
@@ -3428,7 +3556,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3459,7 +3587,7 @@
         <v>1549.280000000002</v>
       </c>
       <c r="C2">
-        <v>-8.881784197001252e-16</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3479,7 +3607,7 @@
         <v>1551.279999999998</v>
       </c>
       <c r="C3">
-        <v>-8.881784197001252e-16</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3619,7 +3747,7 @@
         <v>1523.280000000001</v>
       </c>
       <c r="C10">
-        <v>-4.831690603168681e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5056,10 +5184,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1126.455297756031</v>
+        <v>1135.332017795771</v>
       </c>
       <c r="C82">
-        <v>425.256702243968</v>
+        <v>416.379982204229</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -5288,6 +5416,86 @@
         <v>-1542.872000000028</v>
       </c>
       <c r="F93">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1537.568000000034</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>-1537.568000000032</v>
+      </c>
+      <c r="F94">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1513.366144000026</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>18.89785600000944</v>
+      </c>
+      <c r="E95">
+        <v>-1532.264000000036</v>
+      </c>
+      <c r="F95">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1482.803712000028</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>44.15628800001105</v>
+      </c>
+      <c r="E96">
+        <v>-1526.96000000004</v>
+      </c>
+      <c r="F96">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1468.241280000033</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>53.41472000001264</v>
+      </c>
+      <c r="E97">
+        <v>-1521.656000000044</v>
+      </c>
+      <c r="F97">
         <v>0.65550003</v>
       </c>
     </row>
@@ -5298,7 +5506,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5326,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-8.881784197001252e-16</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="C2">
         <v>1549.280000000002</v>
@@ -5346,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-8.881784197001252e-16</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="C3">
         <v>1551.279999999998</v>
@@ -5486,7 +5694,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-4.831690603168681e-13</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="C10">
         <v>1523.280000000001</v>
@@ -6926,10 +7134,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>425.256702243968</v>
+        <v>416.379982204229</v>
       </c>
       <c r="C82">
-        <v>1126.455297756031</v>
+        <v>1135.332017795771</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -7158,6 +7366,86 @@
         <v>1542.872000000028</v>
       </c>
       <c r="F93">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>1537.568000000034</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1537.568000000032</v>
+      </c>
+      <c r="F94">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>1513.366144000026</v>
+      </c>
+      <c r="D95">
+        <v>18.89785600000944</v>
+      </c>
+      <c r="E95">
+        <v>1532.264000000036</v>
+      </c>
+      <c r="F95">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>1482.803712000028</v>
+      </c>
+      <c r="D96">
+        <v>44.15628800001105</v>
+      </c>
+      <c r="E96">
+        <v>1526.96000000004</v>
+      </c>
+      <c r="F96">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1468.241280000033</v>
+      </c>
+      <c r="D97">
+        <v>53.41472000001264</v>
+      </c>
+      <c r="E97">
+        <v>1521.656000000044</v>
+      </c>
+      <c r="F97">
         <v>0.65550003</v>
       </c>
     </row>
@@ -7168,7 +7456,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8832,10 +9120,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4141.28373288598</v>
+        <v>4133.02378181818</v>
       </c>
       <c r="C73">
-        <v>2016.536445190035</v>
+        <v>2030.30303030303</v>
       </c>
       <c r="D73">
         <v>331.98672</v>
@@ -9307,6 +9595,98 @@
         <v>-3386.10120000004</v>
       </c>
       <c r="G93">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2108.57530181822</v>
+      </c>
+      <c r="C94">
+        <v>2030.30303030303</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>-3318.80640000005</v>
+      </c>
+      <c r="F94">
+        <v>-3318.80640000005</v>
+      </c>
+      <c r="G94">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2233.32978181824</v>
+      </c>
+      <c r="C95">
+        <v>2030.30303030303</v>
+      </c>
+      <c r="D95">
+        <v>23.6223200000118</v>
+      </c>
+      <c r="E95">
+        <v>-3451.51160000006</v>
+      </c>
+      <c r="F95">
+        <v>-3451.51160000006</v>
+      </c>
+      <c r="G95">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>2366.03498181825</v>
+      </c>
+      <c r="C96">
+        <v>2030.30303030303</v>
+      </c>
+      <c r="D96">
+        <v>55.19536000001381</v>
+      </c>
+      <c r="E96">
+        <v>-3584.21680000007</v>
+      </c>
+      <c r="F96">
+        <v>-3584.21680000007</v>
+      </c>
+      <c r="G96">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>2398.74018181826</v>
+      </c>
+      <c r="C97">
+        <v>2030.30303030303</v>
+      </c>
+      <c r="D97">
+        <v>66.7684000000158</v>
+      </c>
+      <c r="E97">
+        <v>-3616.92200000008</v>
+      </c>
+      <c r="F97">
+        <v>-3616.92200000008</v>
+      </c>
+      <c r="G97">
         <v>0.65550003</v>
       </c>
     </row>
@@ -9317,7 +9697,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11629,19 +12009,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>4141.28373288598</v>
+        <v>4133.02378181818</v>
       </c>
       <c r="C73">
-        <v>1209.921867114021</v>
+        <v>1218.181818181818</v>
       </c>
       <c r="D73">
-        <v>806.6145780760139</v>
+        <v>812.121212121212</v>
       </c>
       <c r="E73">
         <v>1070.24112</v>
       </c>
       <c r="F73">
-        <v>4141.28373288598</v>
+        <v>4133.02378181818</v>
       </c>
       <c r="G73">
         <v>-5351.205599999999</v>
@@ -12294,6 +12674,134 @@
       </c>
       <c r="J93">
         <v>0.3809920000065176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2108.57530181822</v>
+      </c>
+      <c r="C94">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="D94">
+        <v>812.121212121212</v>
+      </c>
+      <c r="E94">
+        <v>663.7612800000101</v>
+      </c>
+      <c r="F94">
+        <v>2108.57530181822</v>
+      </c>
+      <c r="G94">
+        <v>-3318.80640000005</v>
+      </c>
+      <c r="H94">
+        <v>-3318.80640000005</v>
+      </c>
+      <c r="I94">
+        <v>-0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2233.32978181824</v>
+      </c>
+      <c r="C95">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="D95">
+        <v>812.121212121212</v>
+      </c>
+      <c r="E95">
+        <v>690.3023200000121</v>
+      </c>
+      <c r="F95">
+        <v>2233.32978181824</v>
+      </c>
+      <c r="G95">
+        <v>-3451.51160000006</v>
+      </c>
+      <c r="H95">
+        <v>-3451.51160000006</v>
+      </c>
+      <c r="I95">
+        <v>-23.6223200000118</v>
+      </c>
+      <c r="J95">
+        <v>18.89785600000944</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>2366.03498181825</v>
+      </c>
+      <c r="C96">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="D96">
+        <v>812.121212121212</v>
+      </c>
+      <c r="E96">
+        <v>716.8433600000141</v>
+      </c>
+      <c r="F96">
+        <v>2366.03498181825</v>
+      </c>
+      <c r="G96">
+        <v>-3584.21680000007</v>
+      </c>
+      <c r="H96">
+        <v>-3584.21680000007</v>
+      </c>
+      <c r="I96">
+        <v>-55.19536000001381</v>
+      </c>
+      <c r="J96">
+        <v>44.15628800001105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>2398.74018181826</v>
+      </c>
+      <c r="C97">
+        <v>1218.181818181818</v>
+      </c>
+      <c r="D97">
+        <v>812.121212121212</v>
+      </c>
+      <c r="E97">
+        <v>723.3844000000161</v>
+      </c>
+      <c r="F97">
+        <v>2398.74018181826</v>
+      </c>
+      <c r="G97">
+        <v>-3616.92200000008</v>
+      </c>
+      <c r="H97">
+        <v>-3616.92200000008</v>
+      </c>
+      <c r="I97">
+        <v>-66.7684000000158</v>
+      </c>
+      <c r="J97">
+        <v>53.41472000001264</v>
       </c>
     </row>
   </sheetData>
@@ -12303,7 +12811,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13538,7 +14046,7 @@
         <v>1070.24112</v>
       </c>
       <c r="C73">
-        <v>806.6145780760139</v>
+        <v>812.121212121212</v>
       </c>
       <c r="D73">
         <v>-331.98672</v>
@@ -13884,6 +14392,74 @@
         <v>-0.476240000008147</v>
       </c>
       <c r="E93">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>663.7612800000101</v>
+      </c>
+      <c r="C94">
+        <v>812.121212121212</v>
+      </c>
+      <c r="D94">
+        <v>-0</v>
+      </c>
+      <c r="E94">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>690.3023200000121</v>
+      </c>
+      <c r="C95">
+        <v>812.121212121212</v>
+      </c>
+      <c r="D95">
+        <v>-23.6223200000118</v>
+      </c>
+      <c r="E95">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>716.8433600000141</v>
+      </c>
+      <c r="C96">
+        <v>812.121212121212</v>
+      </c>
+      <c r="D96">
+        <v>-55.19536000001381</v>
+      </c>
+      <c r="E96">
+        <v>0.65550003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>723.3844000000161</v>
+      </c>
+      <c r="C97">
+        <v>812.121212121212</v>
+      </c>
+      <c r="D97">
+        <v>-66.7684000000158</v>
+      </c>
+      <c r="E97">
         <v>0.65550003</v>
       </c>
     </row>

--- a/extenedResult.xlsx
+++ b/extenedResult.xlsx
@@ -1556,7 +1556,7 @@
         <v>-0</v>
       </c>
       <c r="H35">
-        <v>-5.6843418860808e-14</v>
+        <v>-0</v>
       </c>
       <c r="I35">
         <v>-278.511345116279</v>

--- a/extenedResult.xlsx
+++ b/extenedResult.xlsx
@@ -1320,7 +1320,7 @@
         <v>5650.31761519419</v>
       </c>
       <c r="D28">
-        <v>87.89264445000001</v>
+        <v>87.89264445</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>4216.98416982116</v>
       </c>
       <c r="D71">
-        <v>84.68131667999999</v>
+        <v>84.68131668</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1549.280000000002</v>
+        <v>1549.28</v>
       </c>
       <c r="C2">
-        <v>2.220446049250313e-15</v>
+        <v>2.22044604925031e-15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1551.279999999998</v>
+        <v>1551.28</v>
       </c>
       <c r="C3">
-        <v>5.773159728050814e-15</v>
+        <v>5.77315972805081e-15</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1553.279999999999</v>
+        <v>1553.28</v>
       </c>
       <c r="C4">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>1555.28</v>
       </c>
       <c r="C5">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1557.280000000001</v>
+        <v>1557.28</v>
       </c>
       <c r="C6">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1559.280000000002</v>
+        <v>1559.28</v>
       </c>
       <c r="C7">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1561.279999999999</v>
+        <v>1561.28</v>
       </c>
       <c r="C8">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>1563.28</v>
       </c>
       <c r="C9">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1523.280000000001</v>
+        <v>1523.28</v>
       </c>
       <c r="C10">
         <v>-1.13686837721616e-13</v>
@@ -3764,10 +3764,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1497.280000000001</v>
+        <v>1497.28</v>
       </c>
       <c r="C11">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1496.280000000001</v>
+        <v>1496.28</v>
       </c>
       <c r="C12">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>1495.28</v>
       </c>
       <c r="C13">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>1494.28</v>
       </c>
       <c r="C14">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3844,10 +3844,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1493.279999999999</v>
+        <v>1493.28</v>
       </c>
       <c r="C15">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1377.280000000002</v>
+        <v>1377.28</v>
       </c>
       <c r="C16">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3884,13 +3884,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1375.142783999998</v>
+        <v>1375.142784</v>
       </c>
       <c r="C17">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D17">
-        <v>4.137216000000264</v>
+        <v>4.13721600000026</v>
       </c>
       <c r="E17">
         <v>-1379.28</v>
@@ -3904,13 +3904,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1373.601983999999</v>
+        <v>1373.601984</v>
       </c>
       <c r="C18">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D18">
-        <v>7.678016000000209</v>
+        <v>7.67801600000021</v>
       </c>
       <c r="E18">
         <v>-1381.28</v>
@@ -3924,13 +3924,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1368.861183999999</v>
+        <v>1368.861184</v>
       </c>
       <c r="C19">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D19">
-        <v>14.41881600000016</v>
+        <v>14.4188160000002</v>
       </c>
       <c r="E19">
         <v>-1383.28</v>
@@ -3947,10 +3947,10 @@
         <v>1261.720384</v>
       </c>
       <c r="C20">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D20">
-        <v>23.55961599999976</v>
+        <v>23.5596159999998</v>
       </c>
       <c r="E20">
         <v>-1285.28</v>
@@ -3964,10 +3964,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1259.379584000001</v>
+        <v>1259.379584</v>
       </c>
       <c r="C21">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D21">
         <v>27.9004160000004</v>
@@ -3987,10 +3987,10 @@
         <v>1244.238784</v>
       </c>
       <c r="C22">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D22">
-        <v>45.04121600000033</v>
+        <v>45.0412160000003</v>
       </c>
       <c r="E22">
         <v>-1289.28</v>
@@ -4004,13 +4004,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1247.497983999999</v>
+        <v>1247.497984</v>
       </c>
       <c r="C23">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D23">
-        <v>43.78201600000033</v>
+        <v>43.7820160000003</v>
       </c>
       <c r="E23">
         <v>-1291.28</v>
@@ -4024,13 +4024,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1237.957184000001</v>
+        <v>1237.957184</v>
       </c>
       <c r="C24">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D24">
-        <v>55.32281600000024</v>
+        <v>55.3228160000002</v>
       </c>
       <c r="E24">
         <v>-1293.28</v>
@@ -4044,13 +4044,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1253.216383999998</v>
+        <v>1253.216384</v>
       </c>
       <c r="C25">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D25">
-        <v>42.06361599999985</v>
+        <v>42.0636159999998</v>
       </c>
       <c r="E25">
         <v>-1295.28</v>
@@ -4067,10 +4067,10 @@
         <v>1252.475584</v>
       </c>
       <c r="C26">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D26">
-        <v>44.80441599999976</v>
+        <v>44.8044159999998</v>
       </c>
       <c r="E26">
         <v>-1297.28</v>
@@ -4084,13 +4084,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1256.318783999998</v>
+        <v>1256.318784</v>
       </c>
       <c r="C27">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D27">
-        <v>42.96121600000009</v>
+        <v>42.9612160000001</v>
       </c>
       <c r="E27">
         <v>-1299.28</v>
@@ -4104,13 +4104,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1255.478783999999</v>
+        <v>1255.478784</v>
       </c>
       <c r="C28">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D28">
-        <v>45.80121600000024</v>
+        <v>45.8012160000002</v>
       </c>
       <c r="E28">
         <v>-1301.28</v>
@@ -4127,10 +4127,10 @@
         <v>1254.638784</v>
       </c>
       <c r="C29">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D29">
-        <v>48.64121600000033</v>
+        <v>48.6412160000003</v>
       </c>
       <c r="E29">
         <v>-1303.28</v>
@@ -4144,13 +4144,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1253.798784000002</v>
+        <v>1253.798784</v>
       </c>
       <c r="C30">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D30">
-        <v>51.48121599999976</v>
+        <v>51.4812159999998</v>
       </c>
       <c r="E30">
         <v>-1305.28</v>
@@ -4167,10 +4167,10 @@
         <v>1168.958784</v>
       </c>
       <c r="C31">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D31">
-        <v>38.32121599999992</v>
+        <v>38.3212159999999</v>
       </c>
       <c r="E31">
         <v>-1207.28</v>
@@ -4184,13 +4184,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1168.118784000001</v>
+        <v>1168.118784</v>
       </c>
       <c r="C32">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D32">
-        <v>41.16121600000008</v>
+        <v>41.1612160000001</v>
       </c>
       <c r="E32">
         <v>-1209.28</v>
@@ -4204,13 +4204,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1167.278783999998</v>
+        <v>1167.278784</v>
       </c>
       <c r="C33">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="D33">
-        <v>44.00121600000024</v>
+        <v>44.0012160000002</v>
       </c>
       <c r="E33">
         <v>-1211.28</v>
@@ -4224,13 +4224,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1182.438783999999</v>
+        <v>1182.438784</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>30.84121600000032</v>
+        <v>30.8412160000003</v>
       </c>
       <c r="E34">
         <v>-1213.28</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>17.68121599999976</v>
+        <v>17.6812159999998</v>
       </c>
       <c r="E35">
         <v>-1215.28</v>
@@ -4264,13 +4264,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1314.510783999998</v>
+        <v>1314.510784</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>4.521215999999913</v>
+        <v>4.52121599999991</v>
       </c>
       <c r="E36">
         <v>-1319.032</v>
@@ -4284,7 +4284,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1380.976000000002</v>
+        <v>1380.976</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>10.20121600000024</v>
+        <v>10.2012160000002</v>
       </c>
       <c r="E38">
         <v>-1442.92</v>
@@ -4324,13 +4324,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1385.703680000001</v>
+        <v>1385.70368</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>22.33632000000032</v>
+        <v>22.3363200000003</v>
       </c>
       <c r="E39">
         <v>-1408.04</v>
@@ -4344,13 +4344,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1461.100480000002</v>
+        <v>1461.10048</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>12.33952000000024</v>
+        <v>12.3395200000002</v>
       </c>
       <c r="E40">
         <v>-1473.44</v>
@@ -4364,13 +4364,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1403.801279999998</v>
+        <v>1403.80128</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>35.14271999999984</v>
+        <v>35.1427199999998</v>
       </c>
       <c r="E41">
         <v>-1438.944</v>
@@ -4384,13 +4384,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1556.102080000001</v>
+        <v>1556.10208</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>48.34592000000048</v>
+        <v>48.3459200000005</v>
       </c>
       <c r="E42">
         <v>-1604.448</v>
@@ -4404,13 +4404,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1703.698879999999</v>
+        <v>1703.69888</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
-        <v>66.34911999999967</v>
+        <v>66.3491199999997</v>
       </c>
       <c r="E43">
         <v>-1770.048</v>
@@ -4424,13 +4424,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1890.610496000001</v>
+        <v>1890.610496</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
-        <v>45.03750399999993</v>
+        <v>45.0375039999999</v>
       </c>
       <c r="E44">
         <v>-1935.648</v>
@@ -4444,7 +4444,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1958.711999999999</v>
+        <v>1958.712</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -4464,13 +4464,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1971.722656000002</v>
+        <v>1971.722656</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
-        <v>10.05334400000032</v>
+        <v>10.0533440000003</v>
       </c>
       <c r="E46">
         <v>-1981.776</v>
@@ -4484,13 +4484,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1980.924975999999</v>
+        <v>1980.924976</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
-        <v>28.71502400000024</v>
+        <v>28.7150240000002</v>
       </c>
       <c r="E47">
         <v>-2009.64</v>
@@ -4504,13 +4504,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1990.127296000001</v>
+        <v>1990.127296</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
-        <v>47.37670400000064</v>
+        <v>47.3767040000006</v>
       </c>
       <c r="E48">
         <v>-2037.504</v>
@@ -4524,13 +4524,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2031.470415999999</v>
+        <v>2031.470416</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>59.81758399999961</v>
+        <v>59.8175839999996</v>
       </c>
       <c r="E49">
         <v>-2091.288</v>
@@ -4544,13 +4544,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1988.459372800001</v>
+        <v>1988.4593728</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>156.6126271999992</v>
+        <v>156.612627199999</v>
       </c>
       <c r="E50">
         <v>-2145.072</v>
@@ -4564,13 +4564,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2029.456403200001</v>
+        <v>2029.4564032</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
-        <v>163.7115968000008</v>
+        <v>163.711596800001</v>
       </c>
       <c r="E51">
         <v>-2193.168</v>
@@ -4584,7 +4584,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2038.453433600002</v>
+        <v>2038.4534336</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -4604,7 +4604,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2067.189344000001</v>
+        <v>2067.189344</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -4644,7 +4644,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2113.117164799999</v>
+        <v>2113.1171648</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -4664,13 +4664,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2136.069075200001</v>
+        <v>2136.0690752</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>257.9789248000008</v>
+        <v>257.978924800001</v>
       </c>
       <c r="E56">
         <v>-2394.048</v>
@@ -4684,7 +4684,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2131.204985600002</v>
+        <v>2131.2049856</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1625.446175999999</v>
+        <v>1625.446176</v>
       </c>
       <c r="C58">
         <v>500</v>
@@ -4724,7 +4724,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1641.872966400001</v>
+        <v>1641.8729664</v>
       </c>
       <c r="C59">
         <v>500</v>
@@ -4744,13 +4744,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1652.082239999999</v>
+        <v>1652.08224</v>
       </c>
       <c r="C60">
         <v>500</v>
       </c>
       <c r="D60">
-        <v>292.9417599999992</v>
+        <v>292.941759999999</v>
       </c>
       <c r="E60">
         <v>-2445.024</v>
@@ -4764,7 +4764,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1681.726393600002</v>
+        <v>1681.7263936</v>
       </c>
       <c r="C61">
         <v>500</v>
@@ -4784,13 +4784,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1743.370547199999</v>
+        <v>1743.3705472</v>
       </c>
       <c r="C62">
         <v>500</v>
       </c>
       <c r="D62">
-        <v>252.9174527999992</v>
+        <v>252.917452799999</v>
       </c>
       <c r="E62">
         <v>-2496.288</v>
@@ -4804,16 +4804,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1823.798060800001</v>
+        <v>1823.7980608</v>
       </c>
       <c r="C63">
         <v>500</v>
       </c>
       <c r="D63">
-        <v>197.7859392000008</v>
+        <v>197.785939200001</v>
       </c>
       <c r="E63">
-        <v>-2521.584000000001</v>
+        <v>-2521.584</v>
       </c>
       <c r="F63">
         <v>1.04989998</v>
@@ -4830,10 +4830,10 @@
         <v>500</v>
       </c>
       <c r="D64">
-        <v>190.6544256000008</v>
+        <v>190.654425600001</v>
       </c>
       <c r="E64">
-        <v>-2546.880000000001</v>
+        <v>-2546.88</v>
       </c>
       <c r="F64">
         <v>1.04989998</v>
@@ -4844,7 +4844,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1825.978528000002</v>
+        <v>1825.978528</v>
       </c>
       <c r="C65">
         <v>500</v>
@@ -4864,7 +4864,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1795.731481599999</v>
+        <v>1795.7314816</v>
       </c>
       <c r="C66">
         <v>500</v>
@@ -4884,7 +4884,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1716.948755200002</v>
+        <v>1716.9487552</v>
       </c>
       <c r="C67">
         <v>500</v>
@@ -4904,7 +4904,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1686.166028799999</v>
+        <v>1686.1660288</v>
       </c>
       <c r="C68">
         <v>500</v>
@@ -4924,7 +4924,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1614.757062399999</v>
+        <v>1614.7570624</v>
       </c>
       <c r="C69">
         <v>500</v>
@@ -4944,7 +4944,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2014.548095999998</v>
+        <v>2014.548096</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1923.491712000003</v>
+        <v>1923.491712</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>311.388288</v>
       </c>
       <c r="E71">
-        <v>-2234.880000000001</v>
+        <v>-2234.88</v>
       </c>
       <c r="F71">
         <v>0.65550003</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>284.4126720000008</v>
+        <v>284.412672000001</v>
       </c>
       <c r="E72">
         <v>-2164.848</v>
@@ -5004,7 +5004,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1863.354624000001</v>
+        <v>1863.354624</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -5024,7 +5024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1924.941216000001</v>
+        <v>1924.941216</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1932.097224000002</v>
+        <v>1932.097224</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -5064,7 +5064,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1939.253231999999</v>
+        <v>1939.253232</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -5084,13 +5084,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1872.297240000001</v>
+        <v>1872.29724</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77">
-        <v>63.32676000000032</v>
+        <v>63.3267600000003</v>
       </c>
       <c r="E77">
         <v>-1935.624</v>
@@ -5104,7 +5104,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1305.341247999999</v>
+        <v>1305.341248</v>
       </c>
       <c r="C78">
         <v>500</v>
@@ -5164,7 +5164,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1040.848000000001</v>
+        <v>1040.848</v>
       </c>
       <c r="C81">
         <v>500</v>
@@ -5184,7 +5184,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1135.332017795771</v>
+        <v>1135.33201779577</v>
       </c>
       <c r="C82">
         <v>416.379982204229</v>
@@ -5204,7 +5204,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1562.575999999998</v>
+        <v>1562.576</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1573.440000000002</v>
+        <v>1573.44</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -5244,7 +5244,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1585.303999999994</v>
+        <v>1585.30399999999</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>-1585.303999999996</v>
+        <v>-1585.304</v>
       </c>
       <c r="F85">
         <v>1.04989998</v>
@@ -5264,7 +5264,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1579.999999999999</v>
+        <v>1580</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -5284,7 +5284,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1574.696000000003</v>
+        <v>1574.696</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>-1574.696000000004</v>
+        <v>-1574.696</v>
       </c>
       <c r="F87">
         <v>1.04989998</v>
@@ -5304,7 +5304,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1569.392000000008</v>
+        <v>1569.39200000001</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>-1569.392000000008</v>
+        <v>-1569.39200000001</v>
       </c>
       <c r="F88">
         <v>1.04989998</v>
@@ -5324,7 +5324,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1564.088000000012</v>
+        <v>1564.08800000001</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>-1564.088000000012</v>
+        <v>-1564.08800000001</v>
       </c>
       <c r="F89">
         <v>1.04989998</v>
@@ -5344,7 +5344,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1558.784000000016</v>
+        <v>1558.78400000002</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>-1558.784000000016</v>
+        <v>-1558.78400000002</v>
       </c>
       <c r="F90">
         <v>0.65550003</v>
@@ -5364,7 +5364,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1553.480000000021</v>
+        <v>1553.48000000002</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1548.176000000025</v>
+        <v>1548.17600000003</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>-1548.176000000024</v>
+        <v>-1548.17600000002</v>
       </c>
       <c r="F92">
         <v>0.65550003</v>
@@ -5410,10 +5410,10 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.3809920000065176</v>
+        <v>0.380992000006518</v>
       </c>
       <c r="E93">
-        <v>-1542.872000000028</v>
+        <v>-1542.87200000003</v>
       </c>
       <c r="F93">
         <v>0.65550003</v>
@@ -5424,7 +5424,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1537.568000000034</v>
+        <v>1537.56800000003</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>-1537.568000000032</v>
+        <v>-1537.56800000003</v>
       </c>
       <c r="F94">
         <v>0.65550003</v>
@@ -5444,16 +5444,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1513.366144000026</v>
+        <v>1513.36614400003</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95">
-        <v>18.89785600000944</v>
+        <v>18.8978560000094</v>
       </c>
       <c r="E95">
-        <v>-1532.264000000036</v>
+        <v>-1532.26400000004</v>
       </c>
       <c r="F95">
         <v>0.65550003</v>
@@ -5464,13 +5464,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1482.803712000028</v>
+        <v>1482.80371200003</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96">
-        <v>44.15628800001105</v>
+        <v>44.156288000011</v>
       </c>
       <c r="E96">
         <v>-1526.96000000004</v>
@@ -5484,16 +5484,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1468.241280000033</v>
+        <v>1468.24128000003</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97">
-        <v>53.41472000001264</v>
+        <v>53.4147200000126</v>
       </c>
       <c r="E97">
-        <v>-1521.656000000044</v>
+        <v>-1521.65600000004</v>
       </c>
       <c r="F97">
         <v>0.65550003</v>
@@ -5534,10 +5534,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.220446049250313e-15</v>
+        <v>2.22044604925031e-15</v>
       </c>
       <c r="C2">
-        <v>1549.280000000002</v>
+        <v>1549.28</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5554,10 +5554,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.773159728050814e-15</v>
+        <v>5.77315972805081e-15</v>
       </c>
       <c r="C3">
-        <v>1551.279999999998</v>
+        <v>1551.28</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -5574,10 +5574,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="C4">
-        <v>1553.279999999999</v>
+        <v>1553.28</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -5594,7 +5594,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="C5">
         <v>1555.28</v>
@@ -5614,10 +5614,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="C6">
-        <v>1557.280000000001</v>
+        <v>1557.28</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5634,10 +5634,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="C7">
-        <v>1559.280000000002</v>
+        <v>1559.28</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -5654,10 +5654,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="C8">
-        <v>1561.279999999999</v>
+        <v>1561.28</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -5674,7 +5674,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-8.881784197001252e-16</v>
+        <v>-8.88178419700125e-16</v>
       </c>
       <c r="C9">
         <v>1563.28</v>
@@ -5697,7 +5697,7 @@
         <v>-1.13686837721616e-13</v>
       </c>
       <c r="C10">
-        <v>1523.280000000001</v>
+        <v>1523.28</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -5714,10 +5714,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C11">
-        <v>1497.280000000001</v>
+        <v>1497.28</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -5734,10 +5734,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C12">
-        <v>1496.280000000001</v>
+        <v>1496.28</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C13">
         <v>1495.28</v>
@@ -5774,7 +5774,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C14">
         <v>1494.28</v>
@@ -5794,10 +5794,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C15">
-        <v>1493.279999999999</v>
+        <v>1493.28</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5814,10 +5814,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C16">
-        <v>1377.280000000002</v>
+        <v>1377.28</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -5834,13 +5834,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C17">
-        <v>1375.142783999998</v>
+        <v>1375.142784</v>
       </c>
       <c r="D17">
-        <v>4.137216000000264</v>
+        <v>4.13721600000026</v>
       </c>
       <c r="E17">
         <v>1379.28</v>
@@ -5854,13 +5854,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C18">
-        <v>1373.601983999999</v>
+        <v>1373.601984</v>
       </c>
       <c r="D18">
-        <v>7.678016000000209</v>
+        <v>7.67801600000021</v>
       </c>
       <c r="E18">
         <v>1381.28</v>
@@ -5874,13 +5874,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C19">
-        <v>1368.861183999999</v>
+        <v>1368.861184</v>
       </c>
       <c r="D19">
-        <v>14.41881600000016</v>
+        <v>14.4188160000002</v>
       </c>
       <c r="E19">
         <v>1383.28</v>
@@ -5894,13 +5894,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C20">
         <v>1261.720384</v>
       </c>
       <c r="D20">
-        <v>23.55961599999976</v>
+        <v>23.5596159999998</v>
       </c>
       <c r="E20">
         <v>1285.28</v>
@@ -5914,10 +5914,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C21">
-        <v>1259.379584000001</v>
+        <v>1259.379584</v>
       </c>
       <c r="D21">
         <v>27.9004160000004</v>
@@ -5934,13 +5934,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C22">
         <v>1244.238784</v>
       </c>
       <c r="D22">
-        <v>45.04121600000033</v>
+        <v>45.0412160000003</v>
       </c>
       <c r="E22">
         <v>1289.28</v>
@@ -5954,13 +5954,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C23">
-        <v>1247.497983999999</v>
+        <v>1247.497984</v>
       </c>
       <c r="D23">
-        <v>43.78201600000033</v>
+        <v>43.7820160000003</v>
       </c>
       <c r="E23">
         <v>1291.28</v>
@@ -5974,13 +5974,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C24">
-        <v>1237.957184000001</v>
+        <v>1237.957184</v>
       </c>
       <c r="D24">
-        <v>55.32281600000024</v>
+        <v>55.3228160000002</v>
       </c>
       <c r="E24">
         <v>1293.28</v>
@@ -5994,13 +5994,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C25">
-        <v>1253.216383999998</v>
+        <v>1253.216384</v>
       </c>
       <c r="D25">
-        <v>42.06361599999985</v>
+        <v>42.0636159999998</v>
       </c>
       <c r="E25">
         <v>1295.28</v>
@@ -6014,13 +6014,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C26">
         <v>1252.475584</v>
       </c>
       <c r="D26">
-        <v>44.80441599999976</v>
+        <v>44.8044159999998</v>
       </c>
       <c r="E26">
         <v>1297.28</v>
@@ -6034,13 +6034,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C27">
-        <v>1256.318783999998</v>
+        <v>1256.318784</v>
       </c>
       <c r="D27">
-        <v>42.96121600000009</v>
+        <v>42.9612160000001</v>
       </c>
       <c r="E27">
         <v>1299.28</v>
@@ -6054,13 +6054,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C28">
-        <v>1255.478783999999</v>
+        <v>1255.478784</v>
       </c>
       <c r="D28">
-        <v>45.80121600000024</v>
+        <v>45.8012160000002</v>
       </c>
       <c r="E28">
         <v>1301.28</v>
@@ -6074,13 +6074,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C29">
         <v>1254.638784</v>
       </c>
       <c r="D29">
-        <v>48.64121600000033</v>
+        <v>48.6412160000003</v>
       </c>
       <c r="E29">
         <v>1303.28</v>
@@ -6094,13 +6094,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C30">
-        <v>1253.798784000002</v>
+        <v>1253.798784</v>
       </c>
       <c r="D30">
-        <v>51.48121599999976</v>
+        <v>51.4812159999998</v>
       </c>
       <c r="E30">
         <v>1305.28</v>
@@ -6114,13 +6114,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C31">
         <v>1168.958784</v>
       </c>
       <c r="D31">
-        <v>38.32121599999992</v>
+        <v>38.3212159999999</v>
       </c>
       <c r="E31">
         <v>1207.28</v>
@@ -6134,13 +6134,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C32">
-        <v>1168.118784000001</v>
+        <v>1168.118784</v>
       </c>
       <c r="D32">
-        <v>41.16121600000008</v>
+        <v>41.1612160000001</v>
       </c>
       <c r="E32">
         <v>1209.28</v>
@@ -6154,13 +6154,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.023181539494544e-12</v>
+        <v>1.02318153949454e-12</v>
       </c>
       <c r="C33">
-        <v>1167.278783999998</v>
+        <v>1167.278784</v>
       </c>
       <c r="D33">
-        <v>44.00121600000024</v>
+        <v>44.0012160000002</v>
       </c>
       <c r="E33">
         <v>1211.28</v>
@@ -6177,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1182.438783999999</v>
+        <v>1182.438784</v>
       </c>
       <c r="D34">
-        <v>30.84121600000032</v>
+        <v>30.8412160000003</v>
       </c>
       <c r="E34">
         <v>1213.28</v>
@@ -6200,7 +6200,7 @@
         <v>1197.598784</v>
       </c>
       <c r="D35">
-        <v>17.68121599999976</v>
+        <v>17.6812159999998</v>
       </c>
       <c r="E35">
         <v>1215.28</v>
@@ -6217,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1314.510783999998</v>
+        <v>1314.510784</v>
       </c>
       <c r="D36">
-        <v>4.521215999999913</v>
+        <v>4.52121599999991</v>
       </c>
       <c r="E36">
         <v>1319.032</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1380.976000000002</v>
+        <v>1380.976</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>1432.718784</v>
       </c>
       <c r="D38">
-        <v>10.20121600000024</v>
+        <v>10.2012160000002</v>
       </c>
       <c r="E38">
         <v>1442.92</v>
@@ -6277,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1385.703680000001</v>
+        <v>1385.70368</v>
       </c>
       <c r="D39">
-        <v>22.33632000000032</v>
+        <v>22.3363200000003</v>
       </c>
       <c r="E39">
         <v>1408.04</v>
@@ -6297,10 +6297,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1461.100480000002</v>
+        <v>1461.10048</v>
       </c>
       <c r="D40">
-        <v>12.33952000000024</v>
+        <v>12.3395200000002</v>
       </c>
       <c r="E40">
         <v>1473.44</v>
@@ -6317,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1403.801279999998</v>
+        <v>1403.80128</v>
       </c>
       <c r="D41">
-        <v>35.14271999999984</v>
+        <v>35.1427199999998</v>
       </c>
       <c r="E41">
         <v>1438.944</v>
@@ -6337,10 +6337,10 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1556.102080000001</v>
+        <v>1556.10208</v>
       </c>
       <c r="D42">
-        <v>48.34592000000048</v>
+        <v>48.3459200000005</v>
       </c>
       <c r="E42">
         <v>1604.448</v>
@@ -6357,10 +6357,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1703.698879999999</v>
+        <v>1703.69888</v>
       </c>
       <c r="D43">
-        <v>66.34911999999967</v>
+        <v>66.3491199999997</v>
       </c>
       <c r="E43">
         <v>1770.048</v>
@@ -6377,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1890.610496000001</v>
+        <v>1890.610496</v>
       </c>
       <c r="D44">
-        <v>45.03750399999993</v>
+        <v>45.0375039999999</v>
       </c>
       <c r="E44">
         <v>1935.648</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1958.711999999999</v>
+        <v>1958.712</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6417,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1971.722656000002</v>
+        <v>1971.722656</v>
       </c>
       <c r="D46">
-        <v>10.05334400000032</v>
+        <v>10.0533440000003</v>
       </c>
       <c r="E46">
         <v>1981.776</v>
@@ -6437,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1980.924975999999</v>
+        <v>1980.924976</v>
       </c>
       <c r="D47">
-        <v>28.71502400000024</v>
+        <v>28.7150240000002</v>
       </c>
       <c r="E47">
         <v>2009.64</v>
@@ -6457,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>1990.127296000001</v>
+        <v>1990.127296</v>
       </c>
       <c r="D48">
-        <v>47.37670400000064</v>
+        <v>47.3767040000006</v>
       </c>
       <c r="E48">
         <v>2037.504</v>
@@ -6477,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>2031.470415999999</v>
+        <v>2031.470416</v>
       </c>
       <c r="D49">
-        <v>59.81758399999961</v>
+        <v>59.8175839999996</v>
       </c>
       <c r="E49">
         <v>2091.288</v>
@@ -6497,10 +6497,10 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1988.459372800001</v>
+        <v>1988.4593728</v>
       </c>
       <c r="D50">
-        <v>156.6126271999992</v>
+        <v>156.612627199999</v>
       </c>
       <c r="E50">
         <v>2145.072</v>
@@ -6517,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2029.456403200001</v>
+        <v>2029.4564032</v>
       </c>
       <c r="D51">
-        <v>163.7115968000008</v>
+        <v>163.711596800001</v>
       </c>
       <c r="E51">
         <v>2193.168</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2038.453433600002</v>
+        <v>2038.4534336</v>
       </c>
       <c r="D52">
         <v>202.8105664</v>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>2067.189344000001</v>
+        <v>2067.189344</v>
       </c>
       <c r="D53">
         <v>212.282656</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>2113.117164799999</v>
+        <v>2113.1171648</v>
       </c>
       <c r="D55">
         <v>242.7468352</v>
@@ -6617,10 +6617,10 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>2136.069075200001</v>
+        <v>2136.0690752</v>
       </c>
       <c r="D56">
-        <v>257.9789248000008</v>
+        <v>257.978924800001</v>
       </c>
       <c r="E56">
         <v>2394.048</v>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2131.204985600002</v>
+        <v>2131.2049856</v>
       </c>
       <c r="D57">
         <v>273.2110144</v>
@@ -6657,7 +6657,7 @@
         <v>500</v>
       </c>
       <c r="C58">
-        <v>1625.446175999999</v>
+        <v>1625.446176</v>
       </c>
       <c r="D58">
         <v>289.337824</v>
@@ -6677,7 +6677,7 @@
         <v>500</v>
       </c>
       <c r="C59">
-        <v>1641.872966400001</v>
+        <v>1641.8729664</v>
       </c>
       <c r="D59">
         <v>288.0310336</v>
@@ -6697,10 +6697,10 @@
         <v>500</v>
       </c>
       <c r="C60">
-        <v>1652.082239999999</v>
+        <v>1652.08224</v>
       </c>
       <c r="D60">
-        <v>292.9417599999992</v>
+        <v>292.941759999999</v>
       </c>
       <c r="E60">
         <v>2445.024</v>
@@ -6717,7 +6717,7 @@
         <v>500</v>
       </c>
       <c r="C61">
-        <v>1681.726393600002</v>
+        <v>1681.7263936</v>
       </c>
       <c r="D61">
         <v>288.9296064</v>
@@ -6737,10 +6737,10 @@
         <v>500</v>
       </c>
       <c r="C62">
-        <v>1743.370547199999</v>
+        <v>1743.3705472</v>
       </c>
       <c r="D62">
-        <v>252.9174527999992</v>
+        <v>252.917452799999</v>
       </c>
       <c r="E62">
         <v>2496.288</v>
@@ -6757,13 +6757,13 @@
         <v>500</v>
       </c>
       <c r="C63">
-        <v>1823.798060800001</v>
+        <v>1823.7980608</v>
       </c>
       <c r="D63">
-        <v>197.7859392000008</v>
+        <v>197.785939200001</v>
       </c>
       <c r="E63">
-        <v>2521.584000000001</v>
+        <v>2521.584</v>
       </c>
       <c r="F63">
         <v>1.04989998</v>
@@ -6780,10 +6780,10 @@
         <v>1856.2255744</v>
       </c>
       <c r="D64">
-        <v>190.6544256000008</v>
+        <v>190.654425600001</v>
       </c>
       <c r="E64">
-        <v>2546.880000000001</v>
+        <v>2546.88</v>
       </c>
       <c r="F64">
         <v>1.04989998</v>
@@ -6797,7 +6797,7 @@
         <v>500</v>
       </c>
       <c r="C65">
-        <v>1825.978528000002</v>
+        <v>1825.978528</v>
       </c>
       <c r="D65">
         <v>195.653472</v>
@@ -6817,7 +6817,7 @@
         <v>500</v>
       </c>
       <c r="C66">
-        <v>1795.731481599999</v>
+        <v>1795.7314816</v>
       </c>
       <c r="D66">
         <v>200.6525184</v>
@@ -6837,7 +6837,7 @@
         <v>500</v>
       </c>
       <c r="C67">
-        <v>1716.948755200002</v>
+        <v>1716.9487552</v>
       </c>
       <c r="D67">
         <v>253.7552448</v>
@@ -6857,7 +6857,7 @@
         <v>500</v>
       </c>
       <c r="C68">
-        <v>1686.166028799999</v>
+        <v>1686.1660288</v>
       </c>
       <c r="D68">
         <v>258.8579712</v>
@@ -6877,7 +6877,7 @@
         <v>500</v>
       </c>
       <c r="C69">
-        <v>1614.757062399999</v>
+        <v>1614.7570624</v>
       </c>
       <c r="D69">
         <v>260.2109376</v>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>2014.548095999998</v>
+        <v>2014.548096</v>
       </c>
       <c r="D70">
         <v>290.363904</v>
@@ -6917,13 +6917,13 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1923.491712000003</v>
+        <v>1923.491712</v>
       </c>
       <c r="D71">
         <v>311.388288</v>
       </c>
       <c r="E71">
-        <v>2234.880000000001</v>
+        <v>2234.88</v>
       </c>
       <c r="F71">
         <v>0.65550003</v>
@@ -6940,7 +6940,7 @@
         <v>1880.435328</v>
       </c>
       <c r="D72">
-        <v>284.4126720000008</v>
+        <v>284.412672000001</v>
       </c>
       <c r="E72">
         <v>2164.848</v>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1863.354624000001</v>
+        <v>1863.354624</v>
       </c>
       <c r="D73">
         <v>265.589376</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1924.941216000001</v>
+        <v>1924.941216</v>
       </c>
       <c r="D74">
         <v>168.098784</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1932.097224000002</v>
+        <v>1932.097224</v>
       </c>
       <c r="D75">
         <v>133.174776</v>
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>1939.253231999999</v>
+        <v>1939.253232</v>
       </c>
       <c r="D76">
         <v>98.2507679999992</v>
@@ -7037,10 +7037,10 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>1872.297240000001</v>
+        <v>1872.29724</v>
       </c>
       <c r="D77">
-        <v>63.32676000000032</v>
+        <v>63.3267600000003</v>
       </c>
       <c r="E77">
         <v>1935.624</v>
@@ -7057,7 +7057,7 @@
         <v>500</v>
       </c>
       <c r="C78">
-        <v>1305.341247999999</v>
+        <v>1305.341248</v>
       </c>
       <c r="D78">
         <v>28.402752</v>
@@ -7117,7 +7117,7 @@
         <v>500</v>
       </c>
       <c r="C81">
-        <v>1040.848000000001</v>
+        <v>1040.848</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>416.379982204229</v>
       </c>
       <c r="C82">
-        <v>1135.332017795771</v>
+        <v>1135.33201779577</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1562.575999999998</v>
+        <v>1562.576</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>1573.440000000002</v>
+        <v>1573.44</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -7197,13 +7197,13 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>1585.303999999994</v>
+        <v>1585.30399999999</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1585.303999999996</v>
+        <v>1585.304</v>
       </c>
       <c r="F85">
         <v>1.04989998</v>
@@ -7217,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>1579.999999999999</v>
+        <v>1580</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -7237,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1574.696000000003</v>
+        <v>1574.696</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1574.696000000004</v>
+        <v>1574.696</v>
       </c>
       <c r="F87">
         <v>1.04989998</v>
@@ -7257,13 +7257,13 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1569.392000000008</v>
+        <v>1569.39200000001</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88">
-        <v>1569.392000000008</v>
+        <v>1569.39200000001</v>
       </c>
       <c r="F88">
         <v>1.04989998</v>
@@ -7277,13 +7277,13 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>1564.088000000012</v>
+        <v>1564.08800000001</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1564.088000000012</v>
+        <v>1564.08800000001</v>
       </c>
       <c r="F89">
         <v>1.04989998</v>
@@ -7297,13 +7297,13 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>1558.784000000016</v>
+        <v>1558.78400000002</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>1558.784000000016</v>
+        <v>1558.78400000002</v>
       </c>
       <c r="F90">
         <v>0.65550003</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>1553.480000000021</v>
+        <v>1553.48000000002</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -7337,13 +7337,13 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>1548.176000000025</v>
+        <v>1548.17600000003</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>1548.176000000024</v>
+        <v>1548.17600000002</v>
       </c>
       <c r="F92">
         <v>0.65550003</v>
@@ -7360,10 +7360,10 @@
         <v>1542.49100800002</v>
       </c>
       <c r="D93">
-        <v>0.3809920000065176</v>
+        <v>0.380992000006518</v>
       </c>
       <c r="E93">
-        <v>1542.872000000028</v>
+        <v>1542.87200000003</v>
       </c>
       <c r="F93">
         <v>0.65550003</v>
@@ -7377,13 +7377,13 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>1537.568000000034</v>
+        <v>1537.56800000003</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1537.568000000032</v>
+        <v>1537.56800000003</v>
       </c>
       <c r="F94">
         <v>0.65550003</v>
@@ -7397,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>1513.366144000026</v>
+        <v>1513.36614400003</v>
       </c>
       <c r="D95">
-        <v>18.89785600000944</v>
+        <v>18.8978560000094</v>
       </c>
       <c r="E95">
-        <v>1532.264000000036</v>
+        <v>1532.26400000004</v>
       </c>
       <c r="F95">
         <v>0.65550003</v>
@@ -7417,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>1482.803712000028</v>
+        <v>1482.80371200003</v>
       </c>
       <c r="D96">
-        <v>44.15628800001105</v>
+        <v>44.156288000011</v>
       </c>
       <c r="E96">
         <v>1526.96000000004</v>
@@ -7437,13 +7437,13 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>1468.241280000033</v>
+        <v>1468.24128000003</v>
       </c>
       <c r="D97">
-        <v>53.41472000001264</v>
+        <v>53.4147200000126</v>
       </c>
       <c r="E97">
-        <v>1521.656000000044</v>
+        <v>1521.65600000004</v>
       </c>
       <c r="F97">
         <v>0.65550003</v>
@@ -7490,7 +7490,7 @@
         <v>3646.21698909091</v>
       </c>
       <c r="C2">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>3669.84098909091</v>
       </c>
       <c r="C3">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         <v>3693.46498909091</v>
       </c>
       <c r="C4">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -7559,7 +7559,7 @@
         <v>3717.08898909091</v>
       </c>
       <c r="C5">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>3720.71298909091</v>
       </c>
       <c r="C6">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>3734.33698909091</v>
       </c>
       <c r="C7">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7628,7 +7628,7 @@
         <v>3747.96098909091</v>
       </c>
       <c r="C8">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -7651,7 +7651,7 @@
         <v>3643.58498909091</v>
       </c>
       <c r="C9">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>3593.20898909091</v>
       </c>
       <c r="C10">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -7697,7 +7697,7 @@
         <v>3558.83298909091</v>
       </c>
       <c r="C11">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -7720,7 +7720,7 @@
         <v>3512.45698909091</v>
       </c>
       <c r="C12">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>3436.08098909091</v>
       </c>
       <c r="C13">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -7766,7 +7766,7 @@
         <v>3449.70498909091</v>
       </c>
       <c r="C14">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -7789,7 +7789,7 @@
         <v>3375.17898909091</v>
       </c>
       <c r="C15">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>3458.75298909091</v>
       </c>
       <c r="C16">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -7835,7 +7835,7 @@
         <v>3467.49850909091</v>
       </c>
       <c r="C17">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D17">
         <v>5.17152000000033</v>
@@ -7858,10 +7858,10 @@
         <v>3494.49850909091</v>
       </c>
       <c r="C18">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D18">
-        <v>9.597520000000261</v>
+        <v>9.59752000000026</v>
       </c>
       <c r="E18">
         <v>-3555.4076</v>
@@ -7881,7 +7881,7 @@
         <v>3521.49850909091</v>
       </c>
       <c r="C19">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D19">
         <v>18.0235200000002</v>
@@ -7904,7 +7904,7 @@
         <v>3528.49850909091</v>
       </c>
       <c r="C20">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D20">
         <v>29.4495199999997</v>
@@ -7927,7 +7927,7 @@
         <v>3475.49850909091</v>
       </c>
       <c r="C21">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D21">
         <v>34.8755200000005</v>
@@ -7950,7 +7950,7 @@
         <v>3502.49850909091</v>
       </c>
       <c r="C22">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D22">
         <v>56.3015200000004</v>
@@ -7973,7 +7973,7 @@
         <v>3429.49850909091</v>
       </c>
       <c r="C23">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D23">
         <v>54.7275200000004</v>
@@ -7996,7 +7996,7 @@
         <v>3456.49850909091</v>
       </c>
       <c r="C24">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D24">
         <v>69.1535200000003</v>
@@ -8019,7 +8019,7 @@
         <v>3383.49850909091</v>
       </c>
       <c r="C25">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D25">
         <v>52.5795199999998</v>
@@ -8042,7 +8042,7 @@
         <v>3410.49850909091</v>
       </c>
       <c r="C26">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D26">
         <v>56.0055199999997</v>
@@ -8065,7 +8065,7 @@
         <v>3337.49850909091</v>
       </c>
       <c r="C27">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D27">
         <v>53.7015200000001</v>
@@ -8088,7 +8088,7 @@
         <v>3264.49850909091</v>
       </c>
       <c r="C28">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D28">
         <v>57.2515200000003</v>
@@ -8111,10 +8111,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="C29">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D29">
-        <v>60.80152000000041</v>
+        <v>60.8015200000004</v>
       </c>
       <c r="E29">
         <v>-3352.4076</v>
@@ -8134,7 +8134,7 @@
         <v>3318.49850909091</v>
       </c>
       <c r="C30">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D30">
         <v>64.3515199999997</v>
@@ -8157,7 +8157,7 @@
         <v>3245.49850909091</v>
       </c>
       <c r="C31">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D31">
         <v>47.9015199999999</v>
@@ -8180,7 +8180,7 @@
         <v>3272.49850909091</v>
       </c>
       <c r="C32">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D32">
         <v>51.4515200000001</v>
@@ -8203,7 +8203,7 @@
         <v>3299.49850909091</v>
       </c>
       <c r="C33">
-        <v>101.5151515151515</v>
+        <v>101.515151515151</v>
       </c>
       <c r="D33">
         <v>55.0015200000003</v>
@@ -8226,7 +8226,7 @@
         <v>2617.4076</v>
       </c>
       <c r="C34">
-        <v>1116.666666666667</v>
+        <v>1116.66666666667</v>
       </c>
       <c r="D34">
         <v>38.5515200000004</v>
@@ -8393,10 +8393,10 @@
         <v>43.9283999999998</v>
       </c>
       <c r="E41">
-        <v>-3414.041999999999</v>
+        <v>-3414.042</v>
       </c>
       <c r="F41">
-        <v>-3414.041999999999</v>
+        <v>-3414.042</v>
       </c>
       <c r="G41">
         <v>0.65550003</v>
@@ -8436,7 +8436,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D43">
-        <v>82.93639999999958</v>
+        <v>82.9363999999996</v>
       </c>
       <c r="E43">
         <v>-3747.582</v>
@@ -8459,7 +8459,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D44">
-        <v>56.29687999999991</v>
+        <v>56.2968799999999</v>
       </c>
       <c r="E44">
         <v>-3718.6344</v>
@@ -8531,10 +8531,10 @@
         <v>35.8937800000003</v>
       </c>
       <c r="E47">
-        <v>-4193.928899999999</v>
+        <v>-4193.9289</v>
       </c>
       <c r="F47">
-        <v>-4193.928899999999</v>
+        <v>-4193.9289</v>
       </c>
       <c r="G47">
         <v>0.65550003</v>
@@ -8577,10 +8577,10 @@
         <v>74.7719799999995</v>
       </c>
       <c r="E49">
-        <v>-4510.791899999999</v>
+        <v>-4510.7919</v>
       </c>
       <c r="F49">
-        <v>-4510.791899999999</v>
+        <v>-4510.7919</v>
       </c>
       <c r="G49">
         <v>0.65550003</v>
@@ -8600,10 +8600,10 @@
         <v>195.765783999999</v>
       </c>
       <c r="E50">
-        <v>-5196.436919999998</v>
+        <v>-5196.43692</v>
       </c>
       <c r="F50">
-        <v>-5196.436919999998</v>
+        <v>-5196.43692</v>
       </c>
       <c r="G50">
         <v>0.65550003</v>
@@ -8692,10 +8692,10 @@
         <v>284.393432</v>
       </c>
       <c r="E54">
-        <v>-5662.487160000001</v>
+        <v>-5662.48716</v>
       </c>
       <c r="F54">
-        <v>-5662.487160000001</v>
+        <v>-5662.48716</v>
       </c>
       <c r="G54">
         <v>0.65550003</v>
@@ -8761,10 +8761,10 @@
         <v>341.513768</v>
       </c>
       <c r="E57">
-        <v>-6012.024839999999</v>
+        <v>-6012.02484</v>
       </c>
       <c r="F57">
-        <v>-6012.024839999999</v>
+        <v>-6012.02484</v>
       </c>
       <c r="G57">
         <v>0.65550003</v>
@@ -8827,13 +8827,13 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D60">
-        <v>366.1771999999989</v>
+        <v>366.177199999999</v>
       </c>
       <c r="E60">
-        <v>-6238.421999999998</v>
+        <v>-6238.422</v>
       </c>
       <c r="F60">
-        <v>-6238.421999999998</v>
+        <v>-6238.422</v>
       </c>
       <c r="G60">
         <v>1.04989998</v>
@@ -8876,10 +8876,10 @@
         <v>316.146815999999</v>
       </c>
       <c r="E62">
-        <v>-6225.166079999999</v>
+        <v>-6225.16608</v>
       </c>
       <c r="F62">
-        <v>-6225.166079999999</v>
+        <v>-6225.16608</v>
       </c>
       <c r="G62">
         <v>1.04989998</v>
@@ -8968,10 +8968,10 @@
         <v>250.815648</v>
       </c>
       <c r="E66">
-        <v>-6198.654240000001</v>
+        <v>-6198.65424</v>
       </c>
       <c r="F66">
-        <v>-6198.654240000001</v>
+        <v>-6198.65424</v>
       </c>
       <c r="G66">
         <v>1.04989998</v>
@@ -8991,10 +8991,10 @@
         <v>317.194056</v>
       </c>
       <c r="E67">
-        <v>-6192.026279999999</v>
+        <v>-6192.02628</v>
       </c>
       <c r="F67">
-        <v>-6192.026279999999</v>
+        <v>-6192.02628</v>
       </c>
       <c r="G67">
         <v>1.04989998</v>
@@ -9014,10 +9014,10 @@
         <v>323.572464</v>
       </c>
       <c r="E68">
-        <v>-6185.398319999999</v>
+        <v>-6185.39832</v>
       </c>
       <c r="F68">
-        <v>-6185.398319999999</v>
+        <v>-6185.39832</v>
       </c>
       <c r="G68">
         <v>1.04989998</v>
@@ -9057,7 +9057,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D70">
-        <v>362.9548799999999</v>
+        <v>362.95488</v>
       </c>
       <c r="E70">
         <v>-6172.1424</v>
@@ -9103,7 +9103,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D72">
-        <v>355.5158400000009</v>
+        <v>355.515840000001</v>
       </c>
       <c r="E72">
         <v>-5624.8512</v>
@@ -9129,10 +9129,10 @@
         <v>331.98672</v>
       </c>
       <c r="E73">
-        <v>-5351.205599999999</v>
+        <v>-5351.2056</v>
       </c>
       <c r="F73">
-        <v>-5351.205599999999</v>
+        <v>-5351.2056</v>
       </c>
       <c r="G73">
         <v>0.65550003</v>
@@ -9152,10 +9152,10 @@
         <v>210.12348</v>
       </c>
       <c r="E74">
-        <v>-4585.889399999999</v>
+        <v>-4585.8894</v>
       </c>
       <c r="F74">
-        <v>-4585.889399999999</v>
+        <v>-4585.8894</v>
       </c>
       <c r="G74">
         <v>0.65550003</v>
@@ -9175,10 +9175,10 @@
         <v>166.46847</v>
       </c>
       <c r="E75">
-        <v>-4361.614350000001</v>
+        <v>-4361.61435</v>
       </c>
       <c r="F75">
-        <v>-4361.614350000001</v>
+        <v>-4361.61435</v>
       </c>
       <c r="G75">
         <v>0.65550003</v>
@@ -9221,10 +9221,10 @@
         <v>79.1584500000004</v>
       </c>
       <c r="E77">
-        <v>-3913.064249999999</v>
+        <v>-3913.06425</v>
       </c>
       <c r="F77">
-        <v>-3913.064249999999</v>
+        <v>-3913.06425</v>
       </c>
       <c r="G77">
         <v>0.65550003</v>
@@ -9359,10 +9359,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>-3243.049199999999</v>
+        <v>-3243.0492</v>
       </c>
       <c r="F83">
-        <v>-3243.049199999999</v>
+        <v>-3243.0492</v>
       </c>
       <c r="G83">
         <v>1.04989998</v>
@@ -9655,7 +9655,7 @@
         <v>2030.30303030303</v>
       </c>
       <c r="D96">
-        <v>55.19536000001381</v>
+        <v>55.1953600000138</v>
       </c>
       <c r="E96">
         <v>-3584.21680000007</v>
@@ -9740,13 +9740,13 @@
         <v>3646.21698909091</v>
       </c>
       <c r="C2">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D2">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E2">
-        <v>724.6815200000001</v>
+        <v>724.68152</v>
       </c>
       <c r="F2">
         <v>3646.21698909091</v>
@@ -9772,13 +9772,13 @@
         <v>3669.84098909091</v>
       </c>
       <c r="C3">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D3">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E3">
-        <v>730.0815200000001</v>
+        <v>730.08152</v>
       </c>
       <c r="F3">
         <v>3669.84098909091</v>
@@ -9804,10 +9804,10 @@
         <v>3693.46498909091</v>
       </c>
       <c r="C4">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D4">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E4">
         <v>735.48152</v>
@@ -9836,10 +9836,10 @@
         <v>3717.08898909091</v>
       </c>
       <c r="C5">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D5">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E5">
         <v>740.88152</v>
@@ -9868,10 +9868,10 @@
         <v>3720.71298909091</v>
       </c>
       <c r="C6">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D6">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E6">
         <v>746.28152</v>
@@ -9900,13 +9900,13 @@
         <v>3734.33698909091</v>
       </c>
       <c r="C7">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D7">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E7">
-        <v>751.6815200000001</v>
+        <v>751.68152</v>
       </c>
       <c r="F7">
         <v>3734.33698909091</v>
@@ -9932,13 +9932,13 @@
         <v>3747.96098909091</v>
       </c>
       <c r="C8">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D8">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E8">
-        <v>757.0815200000001</v>
+        <v>757.08152</v>
       </c>
       <c r="F8">
         <v>3747.96098909091</v>
@@ -9964,10 +9964,10 @@
         <v>3643.58498909091</v>
       </c>
       <c r="C9">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D9">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E9">
         <v>730.48152</v>
@@ -9996,10 +9996,10 @@
         <v>3593.20898909091</v>
       </c>
       <c r="C10">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D10">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E10">
         <v>719.88152</v>
@@ -10028,10 +10028,10 @@
         <v>3558.83298909091</v>
       </c>
       <c r="C11">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D11">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E11">
         <v>713.28152</v>
@@ -10060,13 +10060,13 @@
         <v>3512.45698909091</v>
       </c>
       <c r="C12">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D12">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E12">
-        <v>698.6815200000001</v>
+        <v>698.68152</v>
       </c>
       <c r="F12">
         <v>3512.45698909091</v>
@@ -10092,13 +10092,13 @@
         <v>3436.08098909091</v>
       </c>
       <c r="C13">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D13">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E13">
-        <v>684.0815200000001</v>
+        <v>684.08152</v>
       </c>
       <c r="F13">
         <v>3436.08098909091</v>
@@ -10124,10 +10124,10 @@
         <v>3449.70498909091</v>
       </c>
       <c r="C14">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D14">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E14">
         <v>689.48152</v>
@@ -10156,10 +10156,10 @@
         <v>3375.17898909091</v>
       </c>
       <c r="C15">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D15">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E15">
         <v>674.88152</v>
@@ -10188,10 +10188,10 @@
         <v>3458.75298909091</v>
       </c>
       <c r="C16">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D16">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E16">
         <v>700.28152</v>
@@ -10220,13 +10220,13 @@
         <v>3467.49850909091</v>
       </c>
       <c r="C17">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D17">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E17">
-        <v>705.6815200000001</v>
+        <v>705.68152</v>
       </c>
       <c r="F17">
         <v>3467.49850909091</v>
@@ -10241,7 +10241,7 @@
         <v>-5.17152000000033</v>
       </c>
       <c r="J17">
-        <v>4.137216000000264</v>
+        <v>4.13721600000026</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10252,13 +10252,13 @@
         <v>3494.49850909091</v>
       </c>
       <c r="C18">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D18">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E18">
-        <v>711.0815200000001</v>
+        <v>711.08152</v>
       </c>
       <c r="F18">
         <v>3494.49850909091</v>
@@ -10270,10 +10270,10 @@
         <v>-3555.4076</v>
       </c>
       <c r="I18">
-        <v>-9.597520000000261</v>
+        <v>-9.59752000000026</v>
       </c>
       <c r="J18">
-        <v>7.678016000000209</v>
+        <v>7.67801600000021</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10284,10 +10284,10 @@
         <v>3521.49850909091</v>
       </c>
       <c r="C19">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D19">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E19">
         <v>716.48152</v>
@@ -10305,7 +10305,7 @@
         <v>-18.0235200000002</v>
       </c>
       <c r="J19">
-        <v>14.41881600000016</v>
+        <v>14.4188160000002</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -10316,10 +10316,10 @@
         <v>3528.49850909091</v>
       </c>
       <c r="C20">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D20">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E20">
         <v>717.88152</v>
@@ -10337,7 +10337,7 @@
         <v>-29.4495199999997</v>
       </c>
       <c r="J20">
-        <v>23.55961599999976</v>
+        <v>23.5596159999998</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -10348,10 +10348,10 @@
         <v>3475.49850909091</v>
       </c>
       <c r="C21">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D21">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E21">
         <v>707.28152</v>
@@ -10380,13 +10380,13 @@
         <v>3502.49850909091</v>
       </c>
       <c r="C22">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D22">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E22">
-        <v>712.6815200000001</v>
+        <v>712.68152</v>
       </c>
       <c r="F22">
         <v>3502.49850909091</v>
@@ -10401,7 +10401,7 @@
         <v>-56.3015200000004</v>
       </c>
       <c r="J22">
-        <v>45.04121600000033</v>
+        <v>45.0412160000003</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -10412,13 +10412,13 @@
         <v>3429.49850909091</v>
       </c>
       <c r="C23">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D23">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E23">
-        <v>698.0815200000001</v>
+        <v>698.08152</v>
       </c>
       <c r="F23">
         <v>3429.49850909091</v>
@@ -10433,7 +10433,7 @@
         <v>-54.7275200000004</v>
       </c>
       <c r="J23">
-        <v>43.78201600000033</v>
+        <v>43.7820160000003</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -10444,10 +10444,10 @@
         <v>3456.49850909091</v>
       </c>
       <c r="C24">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D24">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E24">
         <v>703.48152</v>
@@ -10465,7 +10465,7 @@
         <v>-69.1535200000003</v>
       </c>
       <c r="J24">
-        <v>55.32281600000024</v>
+        <v>55.3228160000002</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -10476,10 +10476,10 @@
         <v>3383.49850909091</v>
       </c>
       <c r="C25">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D25">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E25">
         <v>688.88152</v>
@@ -10497,7 +10497,7 @@
         <v>-52.5795199999998</v>
       </c>
       <c r="J25">
-        <v>42.06361599999985</v>
+        <v>42.0636159999998</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -10508,10 +10508,10 @@
         <v>3410.49850909091</v>
       </c>
       <c r="C26">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D26">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E26">
         <v>694.28152</v>
@@ -10529,7 +10529,7 @@
         <v>-56.0055199999997</v>
       </c>
       <c r="J26">
-        <v>44.80441599999976</v>
+        <v>44.8044159999998</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -10540,13 +10540,13 @@
         <v>3337.49850909091</v>
       </c>
       <c r="C27">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D27">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E27">
-        <v>679.6815200000001</v>
+        <v>679.68152</v>
       </c>
       <c r="F27">
         <v>3337.49850909091</v>
@@ -10561,7 +10561,7 @@
         <v>-53.7015200000001</v>
       </c>
       <c r="J27">
-        <v>42.96121600000009</v>
+        <v>42.9612160000001</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -10572,13 +10572,13 @@
         <v>3264.49850909091</v>
       </c>
       <c r="C28">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D28">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E28">
-        <v>665.0815200000001</v>
+        <v>665.08152</v>
       </c>
       <c r="F28">
         <v>3264.49850909091</v>
@@ -10593,7 +10593,7 @@
         <v>-57.2515200000003</v>
       </c>
       <c r="J28">
-        <v>45.80121600000024</v>
+        <v>45.8012160000002</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -10604,10 +10604,10 @@
         <v>3291.49850909091</v>
       </c>
       <c r="C29">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D29">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E29">
         <v>670.48152</v>
@@ -10622,10 +10622,10 @@
         <v>-3352.4076</v>
       </c>
       <c r="I29">
-        <v>-60.80152000000041</v>
+        <v>-60.8015200000004</v>
       </c>
       <c r="J29">
-        <v>48.64121600000033</v>
+        <v>48.6412160000003</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -10636,10 +10636,10 @@
         <v>3318.49850909091</v>
       </c>
       <c r="C30">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D30">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E30">
         <v>675.88152</v>
@@ -10657,7 +10657,7 @@
         <v>-64.3515199999997</v>
       </c>
       <c r="J30">
-        <v>51.48121599999976</v>
+        <v>51.4812159999998</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -10668,10 +10668,10 @@
         <v>3245.49850909091</v>
       </c>
       <c r="C31">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D31">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E31">
         <v>661.28152</v>
@@ -10689,7 +10689,7 @@
         <v>-47.9015199999999</v>
       </c>
       <c r="J31">
-        <v>38.32121599999992</v>
+        <v>38.3212159999999</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -10700,13 +10700,13 @@
         <v>3272.49850909091</v>
       </c>
       <c r="C32">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D32">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E32">
-        <v>666.6815200000001</v>
+        <v>666.68152</v>
       </c>
       <c r="F32">
         <v>3272.49850909091</v>
@@ -10721,7 +10721,7 @@
         <v>-51.4515200000001</v>
       </c>
       <c r="J32">
-        <v>41.16121600000008</v>
+        <v>41.1612160000001</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -10732,13 +10732,13 @@
         <v>3299.49850909091</v>
       </c>
       <c r="C33">
-        <v>60.90909090909089</v>
+        <v>60.9090909090909</v>
       </c>
       <c r="D33">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="E33">
-        <v>672.0815200000001</v>
+        <v>672.08152</v>
       </c>
       <c r="F33">
         <v>3299.49850909091</v>
@@ -10753,7 +10753,7 @@
         <v>-55.0015200000003</v>
       </c>
       <c r="J33">
-        <v>44.00121600000024</v>
+        <v>44.0012160000002</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -10764,10 +10764,10 @@
         <v>2617.4076</v>
       </c>
       <c r="C34">
-        <v>669.9999999999999</v>
+        <v>670</v>
       </c>
       <c r="D34">
-        <v>446.6666666666666</v>
+        <v>446.666666666667</v>
       </c>
       <c r="E34">
         <v>657.48152</v>
@@ -10785,7 +10785,7 @@
         <v>-38.5515200000004</v>
       </c>
       <c r="J34">
-        <v>30.84121600000032</v>
+        <v>30.8412160000003</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -10796,7 +10796,7 @@
         <v>1996.22578181818</v>
       </c>
       <c r="C35">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D35">
         <v>812.121212121212</v>
@@ -10817,7 +10817,7 @@
         <v>-22.1015199999997</v>
       </c>
       <c r="J35">
-        <v>17.68121599999976</v>
+        <v>17.6812159999998</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -10828,7 +10828,7 @@
         <v>1923.22578181818</v>
       </c>
       <c r="C36">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D36">
         <v>812.121212121212</v>
@@ -10849,7 +10849,7 @@
         <v>-5.65151999999989</v>
       </c>
       <c r="J36">
-        <v>4.521215999999913</v>
+        <v>4.52121599999991</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -10860,7 +10860,7 @@
         <v>1861.02426181818</v>
       </c>
       <c r="C37">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D37">
         <v>812.121212121212</v>
@@ -10892,13 +10892,13 @@
         <v>1977.22578181818</v>
       </c>
       <c r="C38">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D38">
         <v>812.121212121212</v>
       </c>
       <c r="E38">
-        <v>639.0815200000001</v>
+        <v>639.08152</v>
       </c>
       <c r="F38">
         <v>1977.22578181818</v>
@@ -10913,7 +10913,7 @@
         <v>-12.7515200000003</v>
       </c>
       <c r="J38">
-        <v>10.20121600000024</v>
+        <v>10.2012160000002</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -10924,7 +10924,7 @@
         <v>2062.32018181818</v>
       </c>
       <c r="C39">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D39">
         <v>812.121212121212</v>
@@ -10945,7 +10945,7 @@
         <v>-27.9204000000004</v>
       </c>
       <c r="J39">
-        <v>22.33632000000032</v>
+        <v>22.3363200000003</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -10956,13 +10956,13 @@
         <v>2029.09018181818</v>
       </c>
       <c r="C40">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D40">
         <v>812.121212121212</v>
       </c>
       <c r="E40">
-        <v>649.4544000000001</v>
+        <v>649.4544</v>
       </c>
       <c r="F40">
         <v>2029.09018181818</v>
@@ -10977,7 +10977,7 @@
         <v>-15.4244000000003</v>
       </c>
       <c r="J40">
-        <v>12.33952000000024</v>
+        <v>12.3395200000002</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -10988,28 +10988,28 @@
         <v>2195.86018181818</v>
       </c>
       <c r="C41">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D41">
         <v>812.121212121212</v>
       </c>
       <c r="E41">
-        <v>682.8083999999999</v>
+        <v>682.8084</v>
       </c>
       <c r="F41">
         <v>2195.86018181818</v>
       </c>
       <c r="G41">
-        <v>-3414.041999999999</v>
+        <v>-3414.042</v>
       </c>
       <c r="H41">
-        <v>-3414.041999999999</v>
+        <v>-3414.042</v>
       </c>
       <c r="I41">
         <v>-43.9283999999998</v>
       </c>
       <c r="J41">
-        <v>35.14271999999984</v>
+        <v>35.1427199999998</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -11020,7 +11020,7 @@
         <v>2362.63018181818</v>
       </c>
       <c r="C42">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D42">
         <v>812.121212121212</v>
@@ -11041,7 +11041,7 @@
         <v>-60.4324000000006</v>
       </c>
       <c r="J42">
-        <v>48.34592000000048</v>
+        <v>48.3459200000005</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -11052,7 +11052,7 @@
         <v>2529.40018181818</v>
       </c>
       <c r="C43">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D43">
         <v>812.121212121212</v>
@@ -11070,10 +11070,10 @@
         <v>-3747.582</v>
       </c>
       <c r="I43">
-        <v>-82.93639999999958</v>
+        <v>-82.9363999999996</v>
       </c>
       <c r="J43">
-        <v>66.34911999999967</v>
+        <v>66.3491199999997</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -11084,13 +11084,13 @@
         <v>2500.45258181818</v>
       </c>
       <c r="C44">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D44">
         <v>812.121212121212</v>
       </c>
       <c r="E44">
-        <v>743.7268800000001</v>
+        <v>743.72688</v>
       </c>
       <c r="F44">
         <v>2500.45258181818</v>
@@ -11102,10 +11102,10 @@
         <v>-3718.6344</v>
       </c>
       <c r="I44">
-        <v>-56.29687999999991</v>
+        <v>-56.2968799999999</v>
       </c>
       <c r="J44">
-        <v>45.03750399999993</v>
+        <v>45.0375039999999</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -11116,7 +11116,7 @@
         <v>2671.08450181818</v>
       </c>
       <c r="C45">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D45">
         <v>812.121212121212</v>
@@ -11148,7 +11148,7 @@
         <v>2817.31558181818</v>
       </c>
       <c r="C46">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D46">
         <v>812.121212121212</v>
@@ -11169,7 +11169,7 @@
         <v>-12.5666800000004</v>
       </c>
       <c r="J46">
-        <v>10.05334400000032</v>
+        <v>10.0533440000003</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -11180,28 +11180,28 @@
         <v>2975.74708181818</v>
       </c>
       <c r="C47">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D47">
         <v>812.121212121212</v>
       </c>
       <c r="E47">
-        <v>838.7857799999998</v>
+        <v>838.78578</v>
       </c>
       <c r="F47">
         <v>2975.74708181818</v>
       </c>
       <c r="G47">
-        <v>-4193.928899999999</v>
+        <v>-4193.9289</v>
       </c>
       <c r="H47">
-        <v>-4193.928899999999</v>
+        <v>-4193.9289</v>
       </c>
       <c r="I47">
         <v>-35.8937800000003</v>
       </c>
       <c r="J47">
-        <v>28.71502400000024</v>
+        <v>28.7150240000002</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -11212,7 +11212,7 @@
         <v>3134.17858181818</v>
       </c>
       <c r="C48">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D48">
         <v>812.121212121212</v>
@@ -11233,7 +11233,7 @@
         <v>-59.2208800000008</v>
       </c>
       <c r="J48">
-        <v>47.37670400000064</v>
+        <v>47.3767040000006</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -11244,28 +11244,28 @@
         <v>3292.61008181818</v>
       </c>
       <c r="C49">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D49">
         <v>812.121212121212</v>
       </c>
       <c r="E49">
-        <v>902.1583799999999</v>
+        <v>902.15838</v>
       </c>
       <c r="F49">
         <v>3292.61008181818</v>
       </c>
       <c r="G49">
-        <v>-4510.791899999999</v>
+        <v>-4510.7919</v>
       </c>
       <c r="H49">
-        <v>-4510.791899999999</v>
+        <v>-4510.7919</v>
       </c>
       <c r="I49">
         <v>-74.7719799999995</v>
       </c>
       <c r="J49">
-        <v>59.81758399999961</v>
+        <v>59.8175839999996</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -11276,7 +11276,7 @@
         <v>3978.25510181818</v>
       </c>
       <c r="C50">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D50">
         <v>812.121212121212</v>
@@ -11288,16 +11288,16 @@
         <v>3978.25510181818</v>
       </c>
       <c r="G50">
-        <v>-5196.436919999998</v>
+        <v>-5196.43692</v>
       </c>
       <c r="H50">
-        <v>-5196.436919999998</v>
+        <v>-5196.43692</v>
       </c>
       <c r="I50">
         <v>-195.765783999999</v>
       </c>
       <c r="J50">
-        <v>156.6126271999992</v>
+        <v>156.612627199999</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -11308,7 +11308,7 @@
         <v>4094.76766181818</v>
       </c>
       <c r="C51">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D51">
         <v>812.121212121212</v>
@@ -11329,7 +11329,7 @@
         <v>-204.639496000001</v>
       </c>
       <c r="J51">
-        <v>163.7115968000008</v>
+        <v>163.711596800001</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -11340,7 +11340,7 @@
         <v>4211.28022181818</v>
       </c>
       <c r="C52">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D52">
         <v>812.121212121212</v>
@@ -11372,7 +11372,7 @@
         <v>4327.79278181818</v>
       </c>
       <c r="C53">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D53">
         <v>812.121212121212</v>
@@ -11404,7 +11404,7 @@
         <v>4444.30534181818</v>
       </c>
       <c r="C54">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D54">
         <v>812.121212121212</v>
@@ -11416,10 +11416,10 @@
         <v>4444.30534181818</v>
       </c>
       <c r="G54">
-        <v>-5662.487160000001</v>
+        <v>-5662.48716</v>
       </c>
       <c r="H54">
-        <v>-5662.487160000001</v>
+        <v>-5662.48716</v>
       </c>
       <c r="I54">
         <v>-284.393432</v>
@@ -11436,7 +11436,7 @@
         <v>4560.81790181818</v>
       </c>
       <c r="C55">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D55">
         <v>812.121212121212</v>
@@ -11468,7 +11468,7 @@
         <v>4677.33046181818</v>
       </c>
       <c r="C56">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D56">
         <v>812.121212121212</v>
@@ -11489,7 +11489,7 @@
         <v>-322.473656000001</v>
       </c>
       <c r="J56">
-        <v>257.9789248000008</v>
+        <v>257.978924800001</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -11500,7 +11500,7 @@
         <v>4793.84302181818</v>
       </c>
       <c r="C57">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D57">
         <v>812.121212121212</v>
@@ -11512,10 +11512,10 @@
         <v>4793.84302181818</v>
       </c>
       <c r="G57">
-        <v>-6012.024839999999</v>
+        <v>-6012.02484</v>
       </c>
       <c r="H57">
-        <v>-6012.024839999999</v>
+        <v>-6012.02484</v>
       </c>
       <c r="I57">
         <v>-341.513768</v>
@@ -11532,7 +11532,7 @@
         <v>4910.35558181818</v>
       </c>
       <c r="C58">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D58">
         <v>812.121212121212</v>
@@ -11564,7 +11564,7 @@
         <v>5026.86814181818</v>
       </c>
       <c r="C59">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D59">
         <v>812.121212121212</v>
@@ -11596,7 +11596,7 @@
         <v>5020.24018181818</v>
       </c>
       <c r="C60">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D60">
         <v>812.121212121212</v>
@@ -11608,16 +11608,16 @@
         <v>5020.24018181818</v>
       </c>
       <c r="G60">
-        <v>-6238.421999999998</v>
+        <v>-6238.422</v>
       </c>
       <c r="H60">
-        <v>-6238.421999999998</v>
+        <v>-6238.422</v>
       </c>
       <c r="I60">
-        <v>-366.1771999999989</v>
+        <v>-366.177199999999</v>
       </c>
       <c r="J60">
-        <v>292.9417599999992</v>
+        <v>292.941759999999</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -11628,7 +11628,7 @@
         <v>5013.61222181818</v>
       </c>
       <c r="C61">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D61">
         <v>812.121212121212</v>
@@ -11660,7 +11660,7 @@
         <v>5006.98426181818</v>
       </c>
       <c r="C62">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D62">
         <v>812.121212121212</v>
@@ -11672,16 +11672,16 @@
         <v>5006.98426181818</v>
       </c>
       <c r="G62">
-        <v>-6225.166079999999</v>
+        <v>-6225.16608</v>
       </c>
       <c r="H62">
-        <v>-6225.166079999999</v>
+        <v>-6225.16608</v>
       </c>
       <c r="I62">
         <v>-316.146815999999</v>
       </c>
       <c r="J62">
-        <v>252.9174527999992</v>
+        <v>252.917452799999</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -11692,7 +11692,7 @@
         <v>5000.35630181818</v>
       </c>
       <c r="C63">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D63">
         <v>812.121212121212</v>
@@ -11713,7 +11713,7 @@
         <v>-247.232424000001</v>
       </c>
       <c r="J63">
-        <v>197.7859392000008</v>
+        <v>197.785939200001</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -11724,7 +11724,7 @@
         <v>4993.72834181818</v>
       </c>
       <c r="C64">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D64">
         <v>812.121212121212</v>
@@ -11745,7 +11745,7 @@
         <v>-238.318032000001</v>
       </c>
       <c r="J64">
-        <v>190.6544256000008</v>
+        <v>190.654425600001</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -11756,7 +11756,7 @@
         <v>4987.10038181818</v>
       </c>
       <c r="C65">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D65">
         <v>812.121212121212</v>
@@ -11788,7 +11788,7 @@
         <v>4980.47242181818</v>
       </c>
       <c r="C66">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D66">
         <v>812.121212121212</v>
@@ -11800,10 +11800,10 @@
         <v>4980.47242181818</v>
       </c>
       <c r="G66">
-        <v>-6198.654240000001</v>
+        <v>-6198.65424</v>
       </c>
       <c r="H66">
-        <v>-6198.654240000001</v>
+        <v>-6198.65424</v>
       </c>
       <c r="I66">
         <v>-250.815648</v>
@@ -11820,7 +11820,7 @@
         <v>4973.84446181818</v>
       </c>
       <c r="C67">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D67">
         <v>812.121212121212</v>
@@ -11832,10 +11832,10 @@
         <v>4973.84446181818</v>
       </c>
       <c r="G67">
-        <v>-6192.026279999999</v>
+        <v>-6192.02628</v>
       </c>
       <c r="H67">
-        <v>-6192.026279999999</v>
+        <v>-6192.02628</v>
       </c>
       <c r="I67">
         <v>-317.194056</v>
@@ -11852,7 +11852,7 @@
         <v>4967.21650181818</v>
       </c>
       <c r="C68">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D68">
         <v>812.121212121212</v>
@@ -11864,10 +11864,10 @@
         <v>4967.21650181818</v>
       </c>
       <c r="G68">
-        <v>-6185.398319999999</v>
+        <v>-6185.39832</v>
       </c>
       <c r="H68">
-        <v>-6185.398319999999</v>
+        <v>-6185.39832</v>
       </c>
       <c r="I68">
         <v>-323.572464</v>
@@ -11884,7 +11884,7 @@
         <v>4960.58854181818</v>
       </c>
       <c r="C69">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D69">
         <v>812.121212121212</v>
@@ -11916,7 +11916,7 @@
         <v>4953.96058181818</v>
       </c>
       <c r="C70">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D70">
         <v>812.121212121212</v>
@@ -11934,7 +11934,7 @@
         <v>-6172.1424</v>
       </c>
       <c r="I70">
-        <v>-362.9548799999999</v>
+        <v>-362.95488</v>
       </c>
       <c r="J70">
         <v>290.363904</v>
@@ -11948,7 +11948,7 @@
         <v>4680.31498181818</v>
       </c>
       <c r="C71">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D71">
         <v>812.121212121212</v>
@@ -11980,7 +11980,7 @@
         <v>4406.66938181818</v>
       </c>
       <c r="C72">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D72">
         <v>812.121212121212</v>
@@ -11998,10 +11998,10 @@
         <v>-5624.8512</v>
       </c>
       <c r="I72">
-        <v>-355.5158400000009</v>
+        <v>-355.515840000001</v>
       </c>
       <c r="J72">
-        <v>284.4126720000008</v>
+        <v>284.412672000001</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -12012,7 +12012,7 @@
         <v>4133.02378181818</v>
       </c>
       <c r="C73">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D73">
         <v>812.121212121212</v>
@@ -12024,10 +12024,10 @@
         <v>4133.02378181818</v>
       </c>
       <c r="G73">
-        <v>-5351.205599999999</v>
+        <v>-5351.2056</v>
       </c>
       <c r="H73">
-        <v>-5351.205599999999</v>
+        <v>-5351.2056</v>
       </c>
       <c r="I73">
         <v>-331.98672</v>
@@ -12044,22 +12044,22 @@
         <v>3367.70758181818</v>
       </c>
       <c r="C74">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D74">
         <v>812.121212121212</v>
       </c>
       <c r="E74">
-        <v>917.1778799999998</v>
+        <v>917.17788</v>
       </c>
       <c r="F74">
         <v>3367.70758181818</v>
       </c>
       <c r="G74">
-        <v>-4585.889399999999</v>
+        <v>-4585.8894</v>
       </c>
       <c r="H74">
-        <v>-4585.889399999999</v>
+        <v>-4585.8894</v>
       </c>
       <c r="I74">
         <v>-210.12348</v>
@@ -12076,22 +12076,22 @@
         <v>3143.43253181818</v>
       </c>
       <c r="C75">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D75">
         <v>812.121212121212</v>
       </c>
       <c r="E75">
-        <v>872.3228700000002</v>
+        <v>872.32287</v>
       </c>
       <c r="F75">
         <v>3143.43253181818</v>
       </c>
       <c r="G75">
-        <v>-4361.614350000001</v>
+        <v>-4361.61435</v>
       </c>
       <c r="H75">
-        <v>-4361.614350000001</v>
+        <v>-4361.61435</v>
       </c>
       <c r="I75">
         <v>-166.46847</v>
@@ -12108,7 +12108,7 @@
         <v>2919.15748181818</v>
       </c>
       <c r="C76">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D76">
         <v>812.121212121212</v>
@@ -12140,7 +12140,7 @@
         <v>2694.88243181818</v>
       </c>
       <c r="C77">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D77">
         <v>812.121212121212</v>
@@ -12152,16 +12152,16 @@
         <v>2694.88243181818</v>
       </c>
       <c r="G77">
-        <v>-3913.064249999999</v>
+        <v>-3913.06425</v>
       </c>
       <c r="H77">
-        <v>-3913.064249999999</v>
+        <v>-3913.06425</v>
       </c>
       <c r="I77">
         <v>-79.1584500000004</v>
       </c>
       <c r="J77">
-        <v>63.32676000000032</v>
+        <v>63.3267600000003</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -12172,7 +12172,7 @@
         <v>2470.60738181818</v>
       </c>
       <c r="C78">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D78">
         <v>812.121212121212</v>
@@ -12204,13 +12204,13 @@
         <v>2249.98870181818</v>
       </c>
       <c r="C79">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D79">
         <v>812.121212121212</v>
       </c>
       <c r="E79">
-        <v>692.9028300000001</v>
+        <v>692.90283</v>
       </c>
       <c r="F79">
         <v>2249.98870181818</v>
@@ -12236,7 +12236,7 @@
         <v>2085.00466181818</v>
       </c>
       <c r="C80">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D80">
         <v>812.121212121212</v>
@@ -12268,13 +12268,13 @@
         <v>1878.84382181818</v>
       </c>
       <c r="C81">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D81">
         <v>812.121212121212</v>
       </c>
       <c r="E81">
-        <v>603.1928099999999</v>
+        <v>603.19281</v>
       </c>
       <c r="F81">
         <v>1878.84382181818</v>
@@ -12300,7 +12300,7 @@
         <v>1968.22778181818</v>
       </c>
       <c r="C82">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D82">
         <v>812.121212121212</v>
@@ -12332,7 +12332,7 @@
         <v>2025.03034181818</v>
       </c>
       <c r="C83">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D83">
         <v>812.121212121212</v>
@@ -12344,10 +12344,10 @@
         <v>2025.03034181818</v>
       </c>
       <c r="G83">
-        <v>-3243.049199999999</v>
+        <v>-3243.0492</v>
       </c>
       <c r="H83">
-        <v>-3243.049199999999</v>
+        <v>-3243.0492</v>
       </c>
       <c r="I83">
         <v>-0</v>
@@ -12364,7 +12364,7 @@
         <v>1871.65370181818</v>
       </c>
       <c r="C84">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D84">
         <v>812.121212121212</v>
@@ -12396,7 +12396,7 @@
         <v>1879.98586181818</v>
       </c>
       <c r="C85">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D85">
         <v>812.121212121212</v>
@@ -12428,7 +12428,7 @@
         <v>1936.31802181818</v>
       </c>
       <c r="C86">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D86">
         <v>812.121212121212</v>
@@ -12460,7 +12460,7 @@
         <v>2024.65018181818</v>
       </c>
       <c r="C87">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D87">
         <v>812.121212121212</v>
@@ -12492,7 +12492,7 @@
         <v>1965.78234181819</v>
       </c>
       <c r="C88">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D88">
         <v>812.121212121212</v>
@@ -12524,13 +12524,13 @@
         <v>1986.91450181819</v>
       </c>
       <c r="C89">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D89">
         <v>812.121212121212</v>
       </c>
       <c r="E89">
-        <v>627.0560800000021</v>
+        <v>627.056080000002</v>
       </c>
       <c r="F89">
         <v>1986.91450181819</v>
@@ -12556,7 +12556,7 @@
         <v>2008.0466618182</v>
       </c>
       <c r="C90">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D90">
         <v>812.121212121212</v>
@@ -12588,7 +12588,7 @@
         <v>2029.17882181821</v>
       </c>
       <c r="C91">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D91">
         <v>812.121212121212</v>
@@ -12620,13 +12620,13 @@
         <v>2146.31098181821</v>
       </c>
       <c r="C92">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D92">
         <v>812.121212121212</v>
       </c>
       <c r="E92">
-        <v>670.6792000000081</v>
+        <v>670.679200000008</v>
       </c>
       <c r="F92">
         <v>2146.31098181821</v>
@@ -12652,13 +12652,13 @@
         <v>2167.91938181822</v>
       </c>
       <c r="C93">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D93">
         <v>812.121212121212</v>
       </c>
       <c r="E93">
-        <v>677.2202400000081</v>
+        <v>677.220240000008</v>
       </c>
       <c r="F93">
         <v>2167.91938181822</v>
@@ -12673,7 +12673,7 @@
         <v>-0.476240000008147</v>
       </c>
       <c r="J93">
-        <v>0.3809920000065176</v>
+        <v>0.380992000006518</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -12684,13 +12684,13 @@
         <v>2108.57530181822</v>
       </c>
       <c r="C94">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D94">
         <v>812.121212121212</v>
       </c>
       <c r="E94">
-        <v>663.7612800000101</v>
+        <v>663.76128000001</v>
       </c>
       <c r="F94">
         <v>2108.57530181822</v>
@@ -12716,13 +12716,13 @@
         <v>2233.32978181824</v>
       </c>
       <c r="C95">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D95">
         <v>812.121212121212</v>
       </c>
       <c r="E95">
-        <v>690.3023200000121</v>
+        <v>690.302320000012</v>
       </c>
       <c r="F95">
         <v>2233.32978181824</v>
@@ -12737,7 +12737,7 @@
         <v>-23.6223200000118</v>
       </c>
       <c r="J95">
-        <v>18.89785600000944</v>
+        <v>18.8978560000094</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -12748,13 +12748,13 @@
         <v>2366.03498181825</v>
       </c>
       <c r="C96">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D96">
         <v>812.121212121212</v>
       </c>
       <c r="E96">
-        <v>716.8433600000141</v>
+        <v>716.843360000014</v>
       </c>
       <c r="F96">
         <v>2366.03498181825</v>
@@ -12766,10 +12766,10 @@
         <v>-3584.21680000007</v>
       </c>
       <c r="I96">
-        <v>-55.19536000001381</v>
+        <v>-55.1953600000138</v>
       </c>
       <c r="J96">
-        <v>44.15628800001105</v>
+        <v>44.156288000011</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -12780,13 +12780,13 @@
         <v>2398.74018181826</v>
       </c>
       <c r="C97">
-        <v>1218.181818181818</v>
+        <v>1218.18181818182</v>
       </c>
       <c r="D97">
         <v>812.121212121212</v>
       </c>
       <c r="E97">
-        <v>723.3844000000161</v>
+        <v>723.384400000016</v>
       </c>
       <c r="F97">
         <v>2398.74018181826</v>
@@ -12801,7 +12801,7 @@
         <v>-66.7684000000158</v>
       </c>
       <c r="J97">
-        <v>53.41472000001264</v>
+        <v>53.4147200000126</v>
       </c>
     </row>
   </sheetData>
@@ -12836,10 +12836,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>724.6815200000001</v>
+        <v>724.68152</v>
       </c>
       <c r="C2">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D2">
         <v>-0</v>
@@ -12853,10 +12853,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>730.0815200000001</v>
+        <v>730.08152</v>
       </c>
       <c r="C3">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D3">
         <v>-0</v>
@@ -12873,7 +12873,7 @@
         <v>735.48152</v>
       </c>
       <c r="C4">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D4">
         <v>-0</v>
@@ -12890,7 +12890,7 @@
         <v>740.88152</v>
       </c>
       <c r="C5">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D5">
         <v>-0</v>
@@ -12907,7 +12907,7 @@
         <v>746.28152</v>
       </c>
       <c r="C6">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D6">
         <v>-0</v>
@@ -12921,10 +12921,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>751.6815200000001</v>
+        <v>751.68152</v>
       </c>
       <c r="C7">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D7">
         <v>-0</v>
@@ -12938,10 +12938,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>757.0815200000001</v>
+        <v>757.08152</v>
       </c>
       <c r="C8">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D8">
         <v>-0</v>
@@ -12958,7 +12958,7 @@
         <v>730.48152</v>
       </c>
       <c r="C9">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D9">
         <v>-0</v>
@@ -12975,7 +12975,7 @@
         <v>719.88152</v>
       </c>
       <c r="C10">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D10">
         <v>-0</v>
@@ -12992,7 +12992,7 @@
         <v>713.28152</v>
       </c>
       <c r="C11">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D11">
         <v>-0</v>
@@ -13006,10 +13006,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>698.6815200000001</v>
+        <v>698.68152</v>
       </c>
       <c r="C12">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D12">
         <v>-0</v>
@@ -13023,10 +13023,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>684.0815200000001</v>
+        <v>684.08152</v>
       </c>
       <c r="C13">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D13">
         <v>-0</v>
@@ -13043,7 +13043,7 @@
         <v>689.48152</v>
       </c>
       <c r="C14">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D14">
         <v>-0</v>
@@ -13060,7 +13060,7 @@
         <v>674.88152</v>
       </c>
       <c r="C15">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D15">
         <v>-0</v>
@@ -13077,7 +13077,7 @@
         <v>700.28152</v>
       </c>
       <c r="C16">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D16">
         <v>-0</v>
@@ -13091,10 +13091,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>705.6815200000001</v>
+        <v>705.68152</v>
       </c>
       <c r="C17">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D17">
         <v>-5.17152000000033</v>
@@ -13108,13 +13108,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>711.0815200000001</v>
+        <v>711.08152</v>
       </c>
       <c r="C18">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D18">
-        <v>-9.597520000000261</v>
+        <v>-9.59752000000026</v>
       </c>
       <c r="E18">
         <v>0.35220001</v>
@@ -13128,7 +13128,7 @@
         <v>716.48152</v>
       </c>
       <c r="C19">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D19">
         <v>-18.0235200000002</v>
@@ -13145,7 +13145,7 @@
         <v>717.88152</v>
       </c>
       <c r="C20">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D20">
         <v>-29.4495199999997</v>
@@ -13162,7 +13162,7 @@
         <v>707.28152</v>
       </c>
       <c r="C21">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D21">
         <v>-34.8755200000005</v>
@@ -13176,10 +13176,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>712.6815200000001</v>
+        <v>712.68152</v>
       </c>
       <c r="C22">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D22">
         <v>-56.3015200000004</v>
@@ -13193,10 +13193,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>698.0815200000001</v>
+        <v>698.08152</v>
       </c>
       <c r="C23">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D23">
         <v>-54.7275200000004</v>
@@ -13213,7 +13213,7 @@
         <v>703.48152</v>
       </c>
       <c r="C24">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D24">
         <v>-69.1535200000003</v>
@@ -13230,7 +13230,7 @@
         <v>688.88152</v>
       </c>
       <c r="C25">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D25">
         <v>-52.5795199999998</v>
@@ -13247,7 +13247,7 @@
         <v>694.28152</v>
       </c>
       <c r="C26">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D26">
         <v>-56.0055199999997</v>
@@ -13261,10 +13261,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>679.6815200000001</v>
+        <v>679.68152</v>
       </c>
       <c r="C27">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D27">
         <v>-53.7015200000001</v>
@@ -13278,10 +13278,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>665.0815200000001</v>
+        <v>665.08152</v>
       </c>
       <c r="C28">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D28">
         <v>-57.2515200000003</v>
@@ -13298,10 +13298,10 @@
         <v>670.48152</v>
       </c>
       <c r="C29">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D29">
-        <v>-60.80152000000041</v>
+        <v>-60.8015200000004</v>
       </c>
       <c r="E29">
         <v>0.35220001</v>
@@ -13315,7 +13315,7 @@
         <v>675.88152</v>
       </c>
       <c r="C30">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D30">
         <v>-64.3515199999997</v>
@@ -13332,7 +13332,7 @@
         <v>661.28152</v>
       </c>
       <c r="C31">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D31">
         <v>-47.9015199999999</v>
@@ -13346,10 +13346,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>666.6815200000001</v>
+        <v>666.68152</v>
       </c>
       <c r="C32">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D32">
         <v>-51.4515200000001</v>
@@ -13363,10 +13363,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>672.0815200000001</v>
+        <v>672.08152</v>
       </c>
       <c r="C33">
-        <v>40.60606060606059</v>
+        <v>40.6060606060606</v>
       </c>
       <c r="D33">
         <v>-55.0015200000003</v>
@@ -13383,7 +13383,7 @@
         <v>657.48152</v>
       </c>
       <c r="C34">
-        <v>446.6666666666666</v>
+        <v>446.666666666667</v>
       </c>
       <c r="D34">
         <v>-38.5515200000004</v>
@@ -13448,7 +13448,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>639.0815200000001</v>
+        <v>639.08152</v>
       </c>
       <c r="C38">
         <v>812.121212121212</v>
@@ -13482,7 +13482,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>649.4544000000001</v>
+        <v>649.4544</v>
       </c>
       <c r="C40">
         <v>812.121212121212</v>
@@ -13499,7 +13499,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>682.8083999999999</v>
+        <v>682.8084</v>
       </c>
       <c r="C41">
         <v>812.121212121212</v>
@@ -13539,7 +13539,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D43">
-        <v>-82.93639999999958</v>
+        <v>-82.9363999999996</v>
       </c>
       <c r="E43">
         <v>0.65550003</v>
@@ -13550,13 +13550,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>743.7268800000001</v>
+        <v>743.72688</v>
       </c>
       <c r="C44">
         <v>812.121212121212</v>
       </c>
       <c r="D44">
-        <v>-56.29687999999991</v>
+        <v>-56.2968799999999</v>
       </c>
       <c r="E44">
         <v>0.65550003</v>
@@ -13601,7 +13601,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>838.7857799999998</v>
+        <v>838.78578</v>
       </c>
       <c r="C47">
         <v>812.121212121212</v>
@@ -13635,7 +13635,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>902.1583799999999</v>
+        <v>902.15838</v>
       </c>
       <c r="C49">
         <v>812.121212121212</v>
@@ -13828,7 +13828,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D60">
-        <v>-366.1771999999989</v>
+        <v>-366.177199999999</v>
       </c>
       <c r="E60">
         <v>1.04989998</v>
@@ -13998,7 +13998,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D70">
-        <v>-362.9548799999999</v>
+        <v>-362.95488</v>
       </c>
       <c r="E70">
         <v>0.65550003</v>
@@ -14032,7 +14032,7 @@
         <v>812.121212121212</v>
       </c>
       <c r="D72">
-        <v>-355.5158400000009</v>
+        <v>-355.515840000001</v>
       </c>
       <c r="E72">
         <v>0.65550003</v>
@@ -14060,7 +14060,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>917.1778799999998</v>
+        <v>917.17788</v>
       </c>
       <c r="C74">
         <v>812.121212121212</v>
@@ -14077,7 +14077,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>872.3228700000002</v>
+        <v>872.32287</v>
       </c>
       <c r="C75">
         <v>812.121212121212</v>
@@ -14145,7 +14145,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>692.9028300000001</v>
+        <v>692.90283</v>
       </c>
       <c r="C79">
         <v>812.121212121212</v>
@@ -14179,7 +14179,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>603.1928099999999</v>
+        <v>603.19281</v>
       </c>
       <c r="C81">
         <v>812.121212121212</v>
@@ -14315,7 +14315,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>627.0560800000021</v>
+        <v>627.056080000002</v>
       </c>
       <c r="C89">
         <v>812.121212121212</v>
@@ -14366,7 +14366,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>670.6792000000081</v>
+        <v>670.679200000008</v>
       </c>
       <c r="C92">
         <v>812.121212121212</v>
@@ -14383,7 +14383,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>677.2202400000081</v>
+        <v>677.220240000008</v>
       </c>
       <c r="C93">
         <v>812.121212121212</v>
@@ -14400,7 +14400,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>663.7612800000101</v>
+        <v>663.76128000001</v>
       </c>
       <c r="C94">
         <v>812.121212121212</v>
@@ -14417,7 +14417,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>690.3023200000121</v>
+        <v>690.302320000012</v>
       </c>
       <c r="C95">
         <v>812.121212121212</v>
@@ -14434,13 +14434,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>716.8433600000141</v>
+        <v>716.843360000014</v>
       </c>
       <c r="C96">
         <v>812.121212121212</v>
       </c>
       <c r="D96">
-        <v>-55.19536000001381</v>
+        <v>-55.1953600000138</v>
       </c>
       <c r="E96">
         <v>0.65550003</v>
@@ -14451,7 +14451,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>723.3844000000161</v>
+        <v>723.384400000016</v>
       </c>
       <c r="C97">
         <v>812.121212121212</v>
